--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4442900</v>
+        <v>4991800</v>
       </c>
       <c r="E8" s="3">
-        <v>3812800</v>
+        <v>4333900</v>
       </c>
       <c r="F8" s="3">
-        <v>2758900</v>
+        <v>3719200</v>
       </c>
       <c r="G8" s="3">
-        <v>1563600</v>
+        <v>2691200</v>
       </c>
       <c r="H8" s="3">
-        <v>1054100</v>
+        <v>1525200</v>
       </c>
       <c r="I8" s="3">
-        <v>772900</v>
+        <v>1028300</v>
       </c>
       <c r="J8" s="3">
+        <v>753900</v>
+      </c>
+      <c r="K8" s="3">
         <v>596700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>907400</v>
+        <v>1031800</v>
       </c>
       <c r="E9" s="3">
-        <v>671200</v>
+        <v>885100</v>
       </c>
       <c r="F9" s="3">
-        <v>678600</v>
+        <v>654700</v>
       </c>
       <c r="G9" s="3">
-        <v>436700</v>
+        <v>662000</v>
       </c>
       <c r="H9" s="3">
-        <v>301400</v>
+        <v>426000</v>
       </c>
       <c r="I9" s="3">
-        <v>199000</v>
+        <v>294000</v>
       </c>
       <c r="J9" s="3">
+        <v>194100</v>
+      </c>
+      <c r="K9" s="3">
         <v>148900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3535500</v>
+        <v>3960000</v>
       </c>
       <c r="E10" s="3">
-        <v>3141600</v>
+        <v>3448800</v>
       </c>
       <c r="F10" s="3">
-        <v>2080300</v>
+        <v>3064500</v>
       </c>
       <c r="G10" s="3">
-        <v>1126900</v>
+        <v>2029200</v>
       </c>
       <c r="H10" s="3">
-        <v>752700</v>
+        <v>1099300</v>
       </c>
       <c r="I10" s="3">
-        <v>573900</v>
+        <v>734300</v>
       </c>
       <c r="J10" s="3">
+        <v>559800</v>
+      </c>
+      <c r="K10" s="3">
         <v>447800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1380300</v>
+        <v>1493400</v>
       </c>
       <c r="E12" s="3">
-        <v>1185000</v>
+        <v>1346400</v>
       </c>
       <c r="F12" s="3">
-        <v>1103000</v>
+        <v>1155900</v>
       </c>
       <c r="G12" s="3">
-        <v>473000</v>
+        <v>1075900</v>
       </c>
       <c r="H12" s="3">
-        <v>333100</v>
+        <v>461400</v>
       </c>
       <c r="I12" s="3">
-        <v>178700</v>
+        <v>324900</v>
       </c>
       <c r="J12" s="3">
+        <v>174400</v>
+      </c>
+      <c r="K12" s="3">
         <v>130800</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9000</v>
+        <v>28700</v>
       </c>
       <c r="E14" s="3">
-        <v>196100</v>
+        <v>8800</v>
       </c>
       <c r="F14" s="3">
-        <v>6900</v>
+        <v>191300</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="H14" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4078100</v>
+        <v>4315100</v>
       </c>
       <c r="E17" s="3">
-        <v>3422300</v>
+        <v>3978100</v>
       </c>
       <c r="F17" s="3">
-        <v>2990800</v>
+        <v>3338300</v>
       </c>
       <c r="G17" s="3">
-        <v>1508900</v>
+        <v>2917500</v>
       </c>
       <c r="H17" s="3">
-        <v>1080700</v>
+        <v>1471900</v>
       </c>
       <c r="I17" s="3">
-        <v>652000</v>
+        <v>1054200</v>
       </c>
       <c r="J17" s="3">
+        <v>636000</v>
+      </c>
+      <c r="K17" s="3">
         <v>502800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>364700</v>
+        <v>676700</v>
       </c>
       <c r="E18" s="3">
-        <v>390500</v>
+        <v>355800</v>
       </c>
       <c r="F18" s="3">
-        <v>-231900</v>
+        <v>380900</v>
       </c>
       <c r="G18" s="3">
-        <v>54700</v>
+        <v>-226200</v>
       </c>
       <c r="H18" s="3">
-        <v>-26600</v>
+        <v>53300</v>
       </c>
       <c r="I18" s="3">
-        <v>120900</v>
+        <v>-25900</v>
       </c>
       <c r="J18" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K18" s="3">
         <v>93900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>127300</v>
+        <v>829800</v>
       </c>
       <c r="E20" s="3">
-        <v>267800</v>
+        <v>124100</v>
       </c>
       <c r="F20" s="3">
-        <v>84400</v>
+        <v>261200</v>
       </c>
       <c r="G20" s="3">
-        <v>419900</v>
+        <v>82300</v>
       </c>
       <c r="H20" s="3">
-        <v>69300</v>
+        <v>409600</v>
       </c>
       <c r="I20" s="3">
-        <v>51500</v>
+        <v>67600</v>
       </c>
       <c r="J20" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K20" s="3">
         <v>42500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>632800</v>
+        <v>1659400</v>
       </c>
       <c r="E21" s="3">
-        <v>784900</v>
+        <v>616900</v>
       </c>
       <c r="F21" s="3">
-        <v>-44400</v>
+        <v>765300</v>
       </c>
       <c r="G21" s="3">
-        <v>520000</v>
+        <v>-43600</v>
       </c>
       <c r="H21" s="3">
-        <v>68800</v>
+        <v>507100</v>
       </c>
       <c r="I21" s="3">
-        <v>189800</v>
+        <v>67100</v>
       </c>
       <c r="J21" s="3">
+        <v>185100</v>
+      </c>
+      <c r="K21" s="3">
         <v>150600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>216400</v>
+        <v>234700</v>
       </c>
       <c r="E22" s="3">
-        <v>184600</v>
+        <v>211100</v>
       </c>
       <c r="F22" s="3">
-        <v>105000</v>
+        <v>180100</v>
       </c>
       <c r="G22" s="3">
-        <v>43400</v>
+        <v>102400</v>
       </c>
       <c r="H22" s="3">
-        <v>23300</v>
+        <v>42300</v>
       </c>
       <c r="I22" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>22700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>275600</v>
+        <v>1271800</v>
       </c>
       <c r="E23" s="3">
-        <v>473700</v>
+        <v>268900</v>
       </c>
       <c r="F23" s="3">
-        <v>-252500</v>
+        <v>462100</v>
       </c>
       <c r="G23" s="3">
-        <v>431200</v>
+        <v>-246300</v>
       </c>
       <c r="H23" s="3">
-        <v>19400</v>
+        <v>420600</v>
       </c>
       <c r="I23" s="3">
-        <v>164200</v>
+        <v>19000</v>
       </c>
       <c r="J23" s="3">
+        <v>160200</v>
+      </c>
+      <c r="K23" s="3">
         <v>136400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113800</v>
+        <v>243800</v>
       </c>
       <c r="E24" s="3">
-        <v>176300</v>
+        <v>111000</v>
       </c>
       <c r="F24" s="3">
-        <v>68600</v>
+        <v>172000</v>
       </c>
       <c r="G24" s="3">
-        <v>67500</v>
+        <v>66900</v>
       </c>
       <c r="H24" s="3">
-        <v>18800</v>
+        <v>65800</v>
       </c>
       <c r="I24" s="3">
-        <v>42100</v>
+        <v>18300</v>
       </c>
       <c r="J24" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K24" s="3">
         <v>42300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161800</v>
+        <v>1028000</v>
       </c>
       <c r="E26" s="3">
-        <v>297300</v>
+        <v>157900</v>
       </c>
       <c r="F26" s="3">
-        <v>-321100</v>
+        <v>290000</v>
       </c>
       <c r="G26" s="3">
-        <v>363700</v>
+        <v>-313200</v>
       </c>
       <c r="H26" s="3">
-        <v>700</v>
+        <v>354800</v>
       </c>
       <c r="I26" s="3">
-        <v>122100</v>
+        <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>119100</v>
+      </c>
+      <c r="K26" s="3">
         <v>94100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159500</v>
+        <v>981300</v>
       </c>
       <c r="E27" s="3">
-        <v>285300</v>
+        <v>155600</v>
       </c>
       <c r="F27" s="3">
-        <v>-205300</v>
+        <v>278300</v>
       </c>
       <c r="G27" s="3">
-        <v>359800</v>
+        <v>-200200</v>
       </c>
       <c r="H27" s="3">
-        <v>34800</v>
+        <v>351000</v>
       </c>
       <c r="I27" s="3">
-        <v>143200</v>
+        <v>34000</v>
       </c>
       <c r="J27" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K27" s="3">
         <v>102500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-127300</v>
+        <v>-829800</v>
       </c>
       <c r="E32" s="3">
-        <v>-267800</v>
+        <v>-124100</v>
       </c>
       <c r="F32" s="3">
-        <v>-84400</v>
+        <v>-261200</v>
       </c>
       <c r="G32" s="3">
-        <v>-419900</v>
+        <v>-82300</v>
       </c>
       <c r="H32" s="3">
-        <v>-69300</v>
+        <v>-409600</v>
       </c>
       <c r="I32" s="3">
-        <v>-51500</v>
+        <v>-67600</v>
       </c>
       <c r="J32" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-42500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159500</v>
+        <v>981300</v>
       </c>
       <c r="E33" s="3">
-        <v>285300</v>
+        <v>155600</v>
       </c>
       <c r="F33" s="3">
-        <v>-205300</v>
+        <v>278300</v>
       </c>
       <c r="G33" s="3">
-        <v>359800</v>
+        <v>-200200</v>
       </c>
       <c r="H33" s="3">
-        <v>34800</v>
+        <v>351000</v>
       </c>
       <c r="I33" s="3">
-        <v>143200</v>
+        <v>34000</v>
       </c>
       <c r="J33" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K33" s="3">
         <v>102500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159500</v>
+        <v>981300</v>
       </c>
       <c r="E35" s="3">
-        <v>285300</v>
+        <v>155600</v>
       </c>
       <c r="F35" s="3">
-        <v>-205300</v>
+        <v>278300</v>
       </c>
       <c r="G35" s="3">
-        <v>359800</v>
+        <v>-200200</v>
       </c>
       <c r="H35" s="3">
-        <v>34800</v>
+        <v>351000</v>
       </c>
       <c r="I35" s="3">
-        <v>143200</v>
+        <v>34000</v>
       </c>
       <c r="J35" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K35" s="3">
         <v>102500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,89 +1559,99 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3089100</v>
+        <v>2792400</v>
       </c>
       <c r="E41" s="3">
-        <v>2617500</v>
+        <v>3017600</v>
       </c>
       <c r="F41" s="3">
-        <v>2645000</v>
+        <v>2556900</v>
       </c>
       <c r="G41" s="3">
-        <v>2757100</v>
+        <v>2583800</v>
       </c>
       <c r="H41" s="3">
-        <v>760600</v>
+        <v>2693300</v>
       </c>
       <c r="I41" s="3">
-        <v>1024200</v>
+        <v>743000</v>
       </c>
       <c r="J41" s="3">
+        <v>1000500</v>
+      </c>
+      <c r="K41" s="3">
         <v>981800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5273300</v>
+        <v>3231800</v>
       </c>
       <c r="E42" s="3">
-        <v>4036100</v>
+        <v>5151300</v>
       </c>
       <c r="F42" s="3">
-        <v>2024900</v>
+        <v>3942700</v>
       </c>
       <c r="G42" s="3">
-        <v>1181700</v>
+        <v>1978100</v>
       </c>
       <c r="H42" s="3">
-        <v>923800</v>
+        <v>1154300</v>
       </c>
       <c r="I42" s="3">
-        <v>521600</v>
+        <v>902500</v>
       </c>
       <c r="J42" s="3">
+        <v>509500</v>
+      </c>
+      <c r="K42" s="3">
         <v>202100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1271400</v>
+        <v>1852500</v>
       </c>
       <c r="E43" s="3">
-        <v>1483800</v>
+        <v>1242000</v>
       </c>
       <c r="F43" s="3">
-        <v>818100</v>
+        <v>1449500</v>
       </c>
       <c r="G43" s="3">
-        <v>632100</v>
+        <v>799100</v>
       </c>
       <c r="H43" s="3">
-        <v>278600</v>
+        <v>617500</v>
       </c>
       <c r="I43" s="3">
-        <v>450900</v>
+        <v>272200</v>
       </c>
       <c r="J43" s="3">
+        <v>440400</v>
+      </c>
+      <c r="K43" s="3">
         <v>328400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,144 +1676,162 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1757600</v>
+        <v>1647900</v>
       </c>
       <c r="E45" s="3">
-        <v>1981300</v>
+        <v>1717000</v>
       </c>
       <c r="F45" s="3">
-        <v>1099400</v>
+        <v>1935400</v>
       </c>
       <c r="G45" s="3">
-        <v>1254600</v>
+        <v>1073900</v>
       </c>
       <c r="H45" s="3">
-        <v>487800</v>
+        <v>1225600</v>
       </c>
       <c r="I45" s="3">
-        <v>459900</v>
+        <v>476500</v>
       </c>
       <c r="J45" s="3">
+        <v>449300</v>
+      </c>
+      <c r="K45" s="3">
         <v>359800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11391500</v>
+        <v>9524600</v>
       </c>
       <c r="E46" s="3">
-        <v>8525300</v>
+        <v>11127900</v>
       </c>
       <c r="F46" s="3">
-        <v>6587400</v>
+        <v>8328000</v>
       </c>
       <c r="G46" s="3">
-        <v>5825400</v>
+        <v>6434900</v>
       </c>
       <c r="H46" s="3">
-        <v>2450200</v>
+        <v>5690600</v>
       </c>
       <c r="I46" s="3">
-        <v>2061200</v>
+        <v>2393500</v>
       </c>
       <c r="J46" s="3">
+        <v>2013500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1096600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3888700</v>
+        <v>7193600</v>
       </c>
       <c r="E47" s="3">
-        <v>7406700</v>
+        <v>3798800</v>
       </c>
       <c r="F47" s="3">
-        <v>3063100</v>
+        <v>7235400</v>
       </c>
       <c r="G47" s="3">
-        <v>2151200</v>
+        <v>2992200</v>
       </c>
       <c r="H47" s="3">
-        <v>864000</v>
+        <v>2101400</v>
       </c>
       <c r="I47" s="3">
-        <v>873500</v>
+        <v>844000</v>
       </c>
       <c r="J47" s="3">
+        <v>853300</v>
+      </c>
+      <c r="K47" s="3">
         <v>412400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>842500</v>
+        <v>1029100</v>
       </c>
       <c r="E48" s="3">
-        <v>1611500</v>
+        <v>823000</v>
       </c>
       <c r="F48" s="3">
-        <v>802300</v>
+        <v>1574200</v>
       </c>
       <c r="G48" s="3">
-        <v>797200</v>
+        <v>783800</v>
       </c>
       <c r="H48" s="3">
-        <v>749100</v>
+        <v>778700</v>
       </c>
       <c r="I48" s="3">
-        <v>405500</v>
+        <v>731700</v>
       </c>
       <c r="J48" s="3">
+        <v>396100</v>
+      </c>
+      <c r="K48" s="3">
         <v>322500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10308000</v>
+        <v>10031500</v>
       </c>
       <c r="E49" s="3">
-        <v>12029800</v>
+        <v>10069500</v>
       </c>
       <c r="F49" s="3">
-        <v>10049300</v>
+        <v>11751500</v>
       </c>
       <c r="G49" s="3">
-        <v>8149800</v>
+        <v>9816700</v>
       </c>
       <c r="H49" s="3">
-        <v>382400</v>
+        <v>7961200</v>
       </c>
       <c r="I49" s="3">
-        <v>257300</v>
+        <v>373600</v>
       </c>
       <c r="J49" s="3">
+        <v>251400</v>
+      </c>
+      <c r="K49" s="3">
         <v>226200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>232200</v>
+        <v>277000</v>
       </c>
       <c r="E52" s="3">
-        <v>186800</v>
+        <v>226800</v>
       </c>
       <c r="F52" s="3">
-        <v>218500</v>
+        <v>182500</v>
       </c>
       <c r="G52" s="3">
-        <v>128000</v>
+        <v>213400</v>
       </c>
       <c r="H52" s="3">
-        <v>32300</v>
+        <v>125000</v>
       </c>
       <c r="I52" s="3">
-        <v>80200</v>
+        <v>31600</v>
       </c>
       <c r="J52" s="3">
+        <v>78400</v>
+      </c>
+      <c r="K52" s="3">
         <v>60400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26662900</v>
+        <v>28055700</v>
       </c>
       <c r="E54" s="3">
-        <v>23278200</v>
+        <v>26045900</v>
       </c>
       <c r="F54" s="3">
-        <v>20720500</v>
+        <v>22739600</v>
       </c>
       <c r="G54" s="3">
-        <v>17051500</v>
+        <v>20241100</v>
       </c>
       <c r="H54" s="3">
-        <v>4477900</v>
+        <v>16657000</v>
       </c>
       <c r="I54" s="3">
-        <v>2987000</v>
+        <v>4374300</v>
       </c>
       <c r="J54" s="3">
+        <v>2917900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1674400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1680700</v>
+        <v>1723100</v>
       </c>
       <c r="E57" s="3">
-        <v>1070200</v>
+        <v>1641800</v>
       </c>
       <c r="F57" s="3">
-        <v>1044400</v>
+        <v>1045500</v>
       </c>
       <c r="G57" s="3">
-        <v>852900</v>
+        <v>1020200</v>
       </c>
       <c r="H57" s="3">
-        <v>330600</v>
+        <v>833200</v>
       </c>
       <c r="I57" s="3">
-        <v>235000</v>
+        <v>322900</v>
       </c>
       <c r="J57" s="3">
+        <v>229500</v>
+      </c>
+      <c r="K57" s="3">
         <v>146900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5166900</v>
+        <v>4277100</v>
       </c>
       <c r="E58" s="3">
-        <v>4682100</v>
+        <v>5047300</v>
       </c>
       <c r="F58" s="3">
-        <v>988200</v>
+        <v>4573700</v>
       </c>
       <c r="G58" s="3">
-        <v>2000600</v>
+        <v>965300</v>
       </c>
       <c r="H58" s="3">
-        <v>510900</v>
+        <v>1954300</v>
       </c>
       <c r="I58" s="3">
-        <v>111100</v>
+        <v>499000</v>
       </c>
       <c r="J58" s="3">
+        <v>108600</v>
+      </c>
+      <c r="K58" s="3">
         <v>65100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3021500</v>
+        <v>3696300</v>
       </c>
       <c r="E59" s="3">
-        <v>3429500</v>
+        <v>2951600</v>
       </c>
       <c r="F59" s="3">
-        <v>2314200</v>
+        <v>3350100</v>
       </c>
       <c r="G59" s="3">
-        <v>1976900</v>
+        <v>2260600</v>
       </c>
       <c r="H59" s="3">
-        <v>982900</v>
+        <v>1931200</v>
       </c>
       <c r="I59" s="3">
-        <v>660300</v>
+        <v>960100</v>
       </c>
       <c r="J59" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K59" s="3">
         <v>399900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9869100</v>
+        <v>9696500</v>
       </c>
       <c r="E60" s="3">
-        <v>6049400</v>
+        <v>9640800</v>
       </c>
       <c r="F60" s="3">
-        <v>4346700</v>
+        <v>5909400</v>
       </c>
       <c r="G60" s="3">
-        <v>4830400</v>
+        <v>4246200</v>
       </c>
       <c r="H60" s="3">
-        <v>1824300</v>
+        <v>4718600</v>
       </c>
       <c r="I60" s="3">
-        <v>913700</v>
+        <v>1782100</v>
       </c>
       <c r="J60" s="3">
+        <v>892500</v>
+      </c>
+      <c r="K60" s="3">
         <v>561000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3464500</v>
+        <v>2738300</v>
       </c>
       <c r="E61" s="3">
-        <v>4192500</v>
+        <v>3384300</v>
       </c>
       <c r="F61" s="3">
-        <v>4971700</v>
+        <v>4095500</v>
       </c>
       <c r="G61" s="3">
-        <v>2633500</v>
+        <v>4856600</v>
       </c>
       <c r="H61" s="3">
-        <v>1145600</v>
+        <v>2572600</v>
       </c>
       <c r="I61" s="3">
-        <v>811700</v>
+        <v>1119100</v>
       </c>
       <c r="J61" s="3">
+        <v>792900</v>
+      </c>
+      <c r="K61" s="3">
         <v>160900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>597900</v>
+        <v>645400</v>
       </c>
       <c r="E62" s="3">
-        <v>608800</v>
+        <v>584000</v>
       </c>
       <c r="F62" s="3">
-        <v>566400</v>
+        <v>594700</v>
       </c>
       <c r="G62" s="3">
-        <v>450100</v>
+        <v>553300</v>
       </c>
       <c r="H62" s="3">
-        <v>19000</v>
+        <v>439700</v>
       </c>
       <c r="I62" s="3">
-        <v>9100</v>
+        <v>18600</v>
       </c>
       <c r="J62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K62" s="3">
         <v>7600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14221000</v>
+        <v>13557300</v>
       </c>
       <c r="E66" s="3">
-        <v>11105900</v>
+        <v>13892000</v>
       </c>
       <c r="F66" s="3">
-        <v>10456400</v>
+        <v>10848900</v>
       </c>
       <c r="G66" s="3">
-        <v>10659400</v>
+        <v>10214400</v>
       </c>
       <c r="H66" s="3">
-        <v>3110700</v>
+        <v>10412700</v>
       </c>
       <c r="I66" s="3">
-        <v>1763100</v>
+        <v>3038700</v>
       </c>
       <c r="J66" s="3">
+        <v>1722300</v>
+      </c>
+      <c r="K66" s="3">
         <v>743200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2356900</v>
+        <v>3285100</v>
       </c>
       <c r="E72" s="3">
-        <v>2227000</v>
+        <v>2302400</v>
       </c>
       <c r="F72" s="3">
-        <v>995300</v>
+        <v>2175400</v>
       </c>
       <c r="G72" s="3">
-        <v>1200600</v>
+        <v>972300</v>
       </c>
       <c r="H72" s="3">
-        <v>840800</v>
+        <v>1172800</v>
       </c>
       <c r="I72" s="3">
-        <v>806000</v>
+        <v>821400</v>
       </c>
       <c r="J72" s="3">
+        <v>787300</v>
+      </c>
+      <c r="K72" s="3">
         <v>662700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12441900</v>
+        <v>14498400</v>
       </c>
       <c r="E76" s="3">
-        <v>12172300</v>
+        <v>12154000</v>
       </c>
       <c r="F76" s="3">
-        <v>10264100</v>
+        <v>11890600</v>
       </c>
       <c r="G76" s="3">
-        <v>6392100</v>
+        <v>10026600</v>
       </c>
       <c r="H76" s="3">
-        <v>1367200</v>
+        <v>6244200</v>
       </c>
       <c r="I76" s="3">
-        <v>1223900</v>
+        <v>1335600</v>
       </c>
       <c r="J76" s="3">
+        <v>1195600</v>
+      </c>
+      <c r="K76" s="3">
         <v>931100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159500</v>
+        <v>981300</v>
       </c>
       <c r="E81" s="3">
-        <v>285300</v>
+        <v>155600</v>
       </c>
       <c r="F81" s="3">
-        <v>-205300</v>
+        <v>278300</v>
       </c>
       <c r="G81" s="3">
-        <v>359800</v>
+        <v>-200200</v>
       </c>
       <c r="H81" s="3">
-        <v>34800</v>
+        <v>351000</v>
       </c>
       <c r="I81" s="3">
-        <v>143200</v>
+        <v>34000</v>
       </c>
       <c r="J81" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K81" s="3">
         <v>102500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>140900</v>
+        <v>153400</v>
       </c>
       <c r="E83" s="3">
-        <v>126700</v>
+        <v>137400</v>
       </c>
       <c r="F83" s="3">
-        <v>103100</v>
+        <v>123600</v>
       </c>
       <c r="G83" s="3">
-        <v>45400</v>
+        <v>100600</v>
       </c>
       <c r="H83" s="3">
-        <v>26100</v>
+        <v>44300</v>
       </c>
       <c r="I83" s="3">
-        <v>17400</v>
+        <v>25500</v>
       </c>
       <c r="J83" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K83" s="3">
         <v>14200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1020900</v>
+        <v>1026300</v>
       </c>
       <c r="E89" s="3">
-        <v>1014200</v>
+        <v>995800</v>
       </c>
       <c r="F89" s="3">
-        <v>756500</v>
+        <v>989400</v>
       </c>
       <c r="G89" s="3">
-        <v>437400</v>
+        <v>738000</v>
       </c>
       <c r="H89" s="3">
-        <v>281000</v>
+        <v>426700</v>
       </c>
       <c r="I89" s="3">
-        <v>351900</v>
+        <v>274100</v>
       </c>
       <c r="J89" s="3">
+        <v>343300</v>
+      </c>
+      <c r="K89" s="3">
         <v>237400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-96600</v>
+        <v>-115200</v>
       </c>
       <c r="E91" s="3">
-        <v>-67600</v>
+        <v>-94200</v>
       </c>
       <c r="F91" s="3">
-        <v>-98000</v>
+        <v>-65900</v>
       </c>
       <c r="G91" s="3">
-        <v>-91600</v>
+        <v>-95600</v>
       </c>
       <c r="H91" s="3">
-        <v>-687100</v>
+        <v>-89300</v>
       </c>
       <c r="I91" s="3">
-        <v>-93500</v>
+        <v>-670200</v>
       </c>
       <c r="J91" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-77900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2019900</v>
+        <v>-337700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2185500</v>
+        <v>-1970400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2844600</v>
+        <v>-2131900</v>
       </c>
       <c r="G94" s="3">
-        <v>-635100</v>
+        <v>-2774800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1343900</v>
+        <v>-619500</v>
       </c>
       <c r="I94" s="3">
-        <v>-586300</v>
+        <v>-1310900</v>
       </c>
       <c r="J94" s="3">
+        <v>-571900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-177900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1711100</v>
+        <v>-1295500</v>
       </c>
       <c r="E100" s="3">
-        <v>1150600</v>
+        <v>1669200</v>
       </c>
       <c r="F100" s="3">
-        <v>1763300</v>
+        <v>1122300</v>
       </c>
       <c r="G100" s="3">
-        <v>2185700</v>
+        <v>1720100</v>
       </c>
       <c r="H100" s="3">
-        <v>778000</v>
+        <v>2132100</v>
       </c>
       <c r="I100" s="3">
-        <v>762700</v>
+        <v>758900</v>
       </c>
       <c r="J100" s="3">
+        <v>744000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-74000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>117500</v>
+        <v>43200</v>
       </c>
       <c r="E101" s="3">
-        <v>-6800</v>
+        <v>114600</v>
       </c>
       <c r="F101" s="3">
-        <v>212600</v>
+        <v>-6600</v>
       </c>
       <c r="G101" s="3">
-        <v>8500</v>
+        <v>207400</v>
       </c>
       <c r="H101" s="3">
-        <v>21300</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
-        <v>4900</v>
+        <v>20700</v>
       </c>
       <c r="J101" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K101" s="3">
         <v>2800</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>829600</v>
+        <v>-563600</v>
       </c>
       <c r="E102" s="3">
-        <v>-27500</v>
+        <v>809200</v>
       </c>
       <c r="F102" s="3">
-        <v>-112100</v>
+        <v>-26800</v>
       </c>
       <c r="G102" s="3">
-        <v>1996500</v>
+        <v>-109300</v>
       </c>
       <c r="H102" s="3">
-        <v>-263600</v>
+        <v>1947500</v>
       </c>
       <c r="I102" s="3">
-        <v>533300</v>
+        <v>-257200</v>
       </c>
       <c r="J102" s="3">
+        <v>520200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4991800</v>
+        <v>5179800</v>
       </c>
       <c r="E8" s="3">
-        <v>4333900</v>
+        <v>4497000</v>
       </c>
       <c r="F8" s="3">
-        <v>3719200</v>
+        <v>3859300</v>
       </c>
       <c r="G8" s="3">
-        <v>2691200</v>
+        <v>2792500</v>
       </c>
       <c r="H8" s="3">
-        <v>1525200</v>
+        <v>1582700</v>
       </c>
       <c r="I8" s="3">
-        <v>1028300</v>
+        <v>1067000</v>
       </c>
       <c r="J8" s="3">
-        <v>753900</v>
+        <v>782300</v>
       </c>
       <c r="K8" s="3">
         <v>596700</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1031800</v>
+        <v>1070600</v>
       </c>
       <c r="E9" s="3">
-        <v>885100</v>
+        <v>918400</v>
       </c>
       <c r="F9" s="3">
-        <v>654700</v>
+        <v>679400</v>
       </c>
       <c r="G9" s="3">
-        <v>662000</v>
+        <v>686900</v>
       </c>
       <c r="H9" s="3">
-        <v>426000</v>
+        <v>442000</v>
       </c>
       <c r="I9" s="3">
-        <v>294000</v>
+        <v>305100</v>
       </c>
       <c r="J9" s="3">
-        <v>194100</v>
+        <v>201400</v>
       </c>
       <c r="K9" s="3">
         <v>148900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3960000</v>
+        <v>4109100</v>
       </c>
       <c r="E10" s="3">
-        <v>3448800</v>
+        <v>3578600</v>
       </c>
       <c r="F10" s="3">
-        <v>3064500</v>
+        <v>3179900</v>
       </c>
       <c r="G10" s="3">
-        <v>2029200</v>
+        <v>2105600</v>
       </c>
       <c r="H10" s="3">
-        <v>1099300</v>
+        <v>1140700</v>
       </c>
       <c r="I10" s="3">
-        <v>734300</v>
+        <v>761900</v>
       </c>
       <c r="J10" s="3">
-        <v>559800</v>
+        <v>580900</v>
       </c>
       <c r="K10" s="3">
         <v>447800</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1493400</v>
+        <v>1549600</v>
       </c>
       <c r="E12" s="3">
-        <v>1346400</v>
+        <v>1397100</v>
       </c>
       <c r="F12" s="3">
-        <v>1155900</v>
+        <v>1199400</v>
       </c>
       <c r="G12" s="3">
-        <v>1075900</v>
+        <v>1116400</v>
       </c>
       <c r="H12" s="3">
-        <v>461400</v>
+        <v>478800</v>
       </c>
       <c r="I12" s="3">
-        <v>324900</v>
+        <v>337100</v>
       </c>
       <c r="J12" s="3">
-        <v>174400</v>
+        <v>180900</v>
       </c>
       <c r="K12" s="3">
         <v>130800</v>
@@ -878,22 +878,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>28700</v>
+        <v>29800</v>
       </c>
       <c r="E14" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="F14" s="3">
-        <v>191300</v>
+        <v>198500</v>
       </c>
       <c r="G14" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="3">
         <v>-600</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4315100</v>
+        <v>4477600</v>
       </c>
       <c r="E17" s="3">
-        <v>3978100</v>
+        <v>4127900</v>
       </c>
       <c r="F17" s="3">
-        <v>3338300</v>
+        <v>3464000</v>
       </c>
       <c r="G17" s="3">
-        <v>2917500</v>
+        <v>3027300</v>
       </c>
       <c r="H17" s="3">
-        <v>1471900</v>
+        <v>1527300</v>
       </c>
       <c r="I17" s="3">
-        <v>1054200</v>
+        <v>1093900</v>
       </c>
       <c r="J17" s="3">
-        <v>636000</v>
+        <v>660000</v>
       </c>
       <c r="K17" s="3">
         <v>502800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>676700</v>
+        <v>702200</v>
       </c>
       <c r="E18" s="3">
-        <v>355800</v>
+        <v>369200</v>
       </c>
       <c r="F18" s="3">
-        <v>380900</v>
+        <v>395200</v>
       </c>
       <c r="G18" s="3">
-        <v>-226200</v>
+        <v>-234800</v>
       </c>
       <c r="H18" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="I18" s="3">
-        <v>-25900</v>
+        <v>-26900</v>
       </c>
       <c r="J18" s="3">
-        <v>117900</v>
+        <v>122300</v>
       </c>
       <c r="K18" s="3">
         <v>93900</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>829800</v>
+        <v>861100</v>
       </c>
       <c r="E20" s="3">
-        <v>124100</v>
+        <v>128800</v>
       </c>
       <c r="F20" s="3">
-        <v>261200</v>
+        <v>271100</v>
       </c>
       <c r="G20" s="3">
-        <v>82300</v>
+        <v>85400</v>
       </c>
       <c r="H20" s="3">
-        <v>409600</v>
+        <v>425100</v>
       </c>
       <c r="I20" s="3">
-        <v>67600</v>
+        <v>70200</v>
       </c>
       <c r="J20" s="3">
-        <v>50300</v>
+        <v>52200</v>
       </c>
       <c r="K20" s="3">
         <v>42500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1659400</v>
+        <v>1721800</v>
       </c>
       <c r="E21" s="3">
-        <v>616900</v>
+        <v>640100</v>
       </c>
       <c r="F21" s="3">
-        <v>765300</v>
+        <v>794100</v>
       </c>
       <c r="G21" s="3">
-        <v>-43600</v>
+        <v>-45300</v>
       </c>
       <c r="H21" s="3">
-        <v>507100</v>
+        <v>526100</v>
       </c>
       <c r="I21" s="3">
-        <v>67100</v>
+        <v>69600</v>
       </c>
       <c r="J21" s="3">
-        <v>185100</v>
+        <v>192000</v>
       </c>
       <c r="K21" s="3">
         <v>150600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>234700</v>
+        <v>243600</v>
       </c>
       <c r="E22" s="3">
-        <v>211100</v>
+        <v>219000</v>
       </c>
       <c r="F22" s="3">
-        <v>180100</v>
+        <v>186800</v>
       </c>
       <c r="G22" s="3">
-        <v>102400</v>
+        <v>106300</v>
       </c>
       <c r="H22" s="3">
-        <v>42300</v>
+        <v>43900</v>
       </c>
       <c r="I22" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="J22" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1271800</v>
+        <v>1319700</v>
       </c>
       <c r="E23" s="3">
-        <v>268900</v>
+        <v>279000</v>
       </c>
       <c r="F23" s="3">
-        <v>462100</v>
+        <v>479500</v>
       </c>
       <c r="G23" s="3">
-        <v>-246300</v>
+        <v>-255600</v>
       </c>
       <c r="H23" s="3">
-        <v>420600</v>
+        <v>436500</v>
       </c>
       <c r="I23" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="J23" s="3">
-        <v>160200</v>
+        <v>166200</v>
       </c>
       <c r="K23" s="3">
         <v>136400</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>243800</v>
+        <v>253000</v>
       </c>
       <c r="E24" s="3">
-        <v>111000</v>
+        <v>115200</v>
       </c>
       <c r="F24" s="3">
-        <v>172000</v>
+        <v>178500</v>
       </c>
       <c r="G24" s="3">
-        <v>66900</v>
+        <v>69400</v>
       </c>
       <c r="H24" s="3">
-        <v>65800</v>
+        <v>68300</v>
       </c>
       <c r="I24" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="J24" s="3">
-        <v>41100</v>
+        <v>42700</v>
       </c>
       <c r="K24" s="3">
         <v>42300</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1028000</v>
+        <v>1066700</v>
       </c>
       <c r="E26" s="3">
-        <v>157900</v>
+        <v>163800</v>
       </c>
       <c r="F26" s="3">
-        <v>290000</v>
+        <v>301000</v>
       </c>
       <c r="G26" s="3">
-        <v>-313200</v>
+        <v>-325000</v>
       </c>
       <c r="H26" s="3">
-        <v>354800</v>
+        <v>368200</v>
       </c>
       <c r="I26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J26" s="3">
-        <v>119100</v>
+        <v>123600</v>
       </c>
       <c r="K26" s="3">
         <v>94100</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>981300</v>
+        <v>1018200</v>
       </c>
       <c r="E27" s="3">
-        <v>155600</v>
+        <v>161500</v>
       </c>
       <c r="F27" s="3">
-        <v>278300</v>
+        <v>288800</v>
       </c>
       <c r="G27" s="3">
-        <v>-200200</v>
+        <v>-207800</v>
       </c>
       <c r="H27" s="3">
-        <v>351000</v>
+        <v>364200</v>
       </c>
       <c r="I27" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="J27" s="3">
-        <v>139700</v>
+        <v>145000</v>
       </c>
       <c r="K27" s="3">
         <v>102500</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-829800</v>
+        <v>-861100</v>
       </c>
       <c r="E32" s="3">
-        <v>-124100</v>
+        <v>-128800</v>
       </c>
       <c r="F32" s="3">
-        <v>-261200</v>
+        <v>-271100</v>
       </c>
       <c r="G32" s="3">
-        <v>-82300</v>
+        <v>-85400</v>
       </c>
       <c r="H32" s="3">
-        <v>-409600</v>
+        <v>-425100</v>
       </c>
       <c r="I32" s="3">
-        <v>-67600</v>
+        <v>-70200</v>
       </c>
       <c r="J32" s="3">
-        <v>-50300</v>
+        <v>-52200</v>
       </c>
       <c r="K32" s="3">
         <v>-42500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>981300</v>
+        <v>1018200</v>
       </c>
       <c r="E33" s="3">
-        <v>155600</v>
+        <v>161500</v>
       </c>
       <c r="F33" s="3">
-        <v>278300</v>
+        <v>288800</v>
       </c>
       <c r="G33" s="3">
-        <v>-200200</v>
+        <v>-207800</v>
       </c>
       <c r="H33" s="3">
-        <v>351000</v>
+        <v>364200</v>
       </c>
       <c r="I33" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="J33" s="3">
-        <v>139700</v>
+        <v>145000</v>
       </c>
       <c r="K33" s="3">
         <v>102500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>981300</v>
+        <v>1018200</v>
       </c>
       <c r="E35" s="3">
-        <v>155600</v>
+        <v>161500</v>
       </c>
       <c r="F35" s="3">
-        <v>278300</v>
+        <v>288800</v>
       </c>
       <c r="G35" s="3">
-        <v>-200200</v>
+        <v>-207800</v>
       </c>
       <c r="H35" s="3">
-        <v>351000</v>
+        <v>364200</v>
       </c>
       <c r="I35" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="J35" s="3">
-        <v>139700</v>
+        <v>145000</v>
       </c>
       <c r="K35" s="3">
         <v>102500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2792400</v>
+        <v>2893400</v>
       </c>
       <c r="E41" s="3">
-        <v>3017600</v>
+        <v>3126800</v>
       </c>
       <c r="F41" s="3">
-        <v>2556900</v>
+        <v>2649400</v>
       </c>
       <c r="G41" s="3">
-        <v>2583800</v>
+        <v>2677300</v>
       </c>
       <c r="H41" s="3">
-        <v>2693300</v>
+        <v>2790700</v>
       </c>
       <c r="I41" s="3">
-        <v>743000</v>
+        <v>769800</v>
       </c>
       <c r="J41" s="3">
-        <v>1000500</v>
+        <v>1036700</v>
       </c>
       <c r="K41" s="3">
         <v>981800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3231800</v>
+        <v>3348700</v>
       </c>
       <c r="E42" s="3">
-        <v>5151300</v>
+        <v>5337600</v>
       </c>
       <c r="F42" s="3">
-        <v>3942700</v>
+        <v>4085300</v>
       </c>
       <c r="G42" s="3">
-        <v>1978100</v>
+        <v>2049600</v>
       </c>
       <c r="H42" s="3">
-        <v>1154300</v>
+        <v>1196100</v>
       </c>
       <c r="I42" s="3">
-        <v>902500</v>
+        <v>935100</v>
       </c>
       <c r="J42" s="3">
-        <v>509500</v>
+        <v>527900</v>
       </c>
       <c r="K42" s="3">
         <v>202100</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1852500</v>
+        <v>1919500</v>
       </c>
       <c r="E43" s="3">
-        <v>1242000</v>
+        <v>1286900</v>
       </c>
       <c r="F43" s="3">
-        <v>1449500</v>
+        <v>1501900</v>
       </c>
       <c r="G43" s="3">
-        <v>799100</v>
+        <v>828000</v>
       </c>
       <c r="H43" s="3">
-        <v>617500</v>
+        <v>639800</v>
       </c>
       <c r="I43" s="3">
-        <v>272200</v>
+        <v>282000</v>
       </c>
       <c r="J43" s="3">
-        <v>440400</v>
+        <v>456400</v>
       </c>
       <c r="K43" s="3">
         <v>328400</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1647900</v>
+        <v>1707500</v>
       </c>
       <c r="E45" s="3">
-        <v>1717000</v>
+        <v>1779100</v>
       </c>
       <c r="F45" s="3">
-        <v>1935400</v>
+        <v>2005400</v>
       </c>
       <c r="G45" s="3">
-        <v>1073900</v>
+        <v>1112800</v>
       </c>
       <c r="H45" s="3">
-        <v>1225600</v>
+        <v>1269900</v>
       </c>
       <c r="I45" s="3">
-        <v>476500</v>
+        <v>493800</v>
       </c>
       <c r="J45" s="3">
-        <v>449300</v>
+        <v>465600</v>
       </c>
       <c r="K45" s="3">
         <v>359800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9524600</v>
+        <v>9869100</v>
       </c>
       <c r="E46" s="3">
-        <v>11127900</v>
+        <v>11530400</v>
       </c>
       <c r="F46" s="3">
-        <v>8328000</v>
+        <v>8629300</v>
       </c>
       <c r="G46" s="3">
-        <v>6434900</v>
+        <v>6667700</v>
       </c>
       <c r="H46" s="3">
-        <v>5690600</v>
+        <v>5896500</v>
       </c>
       <c r="I46" s="3">
-        <v>2393500</v>
+        <v>2480000</v>
       </c>
       <c r="J46" s="3">
-        <v>2013500</v>
+        <v>2086300</v>
       </c>
       <c r="K46" s="3">
         <v>1096600</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7193600</v>
+        <v>7453800</v>
       </c>
       <c r="E47" s="3">
-        <v>3798800</v>
+        <v>3936200</v>
       </c>
       <c r="F47" s="3">
-        <v>7235400</v>
+        <v>7497100</v>
       </c>
       <c r="G47" s="3">
-        <v>2992200</v>
+        <v>3100400</v>
       </c>
       <c r="H47" s="3">
-        <v>2101400</v>
+        <v>2177400</v>
       </c>
       <c r="I47" s="3">
-        <v>844000</v>
+        <v>874500</v>
       </c>
       <c r="J47" s="3">
-        <v>853300</v>
+        <v>884100</v>
       </c>
       <c r="K47" s="3">
         <v>412400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1029100</v>
+        <v>1066300</v>
       </c>
       <c r="E48" s="3">
-        <v>823000</v>
+        <v>852800</v>
       </c>
       <c r="F48" s="3">
-        <v>1574200</v>
+        <v>1631200</v>
       </c>
       <c r="G48" s="3">
-        <v>783800</v>
+        <v>812100</v>
       </c>
       <c r="H48" s="3">
-        <v>778700</v>
+        <v>806900</v>
       </c>
       <c r="I48" s="3">
-        <v>731700</v>
+        <v>758200</v>
       </c>
       <c r="J48" s="3">
-        <v>396100</v>
+        <v>410400</v>
       </c>
       <c r="K48" s="3">
         <v>322500</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10031500</v>
+        <v>10394400</v>
       </c>
       <c r="E49" s="3">
-        <v>10069500</v>
+        <v>10433800</v>
       </c>
       <c r="F49" s="3">
-        <v>11751500</v>
+        <v>12176600</v>
       </c>
       <c r="G49" s="3">
-        <v>9816700</v>
+        <v>10171800</v>
       </c>
       <c r="H49" s="3">
-        <v>7961200</v>
+        <v>8249200</v>
       </c>
       <c r="I49" s="3">
-        <v>373600</v>
+        <v>387100</v>
       </c>
       <c r="J49" s="3">
-        <v>251400</v>
+        <v>260400</v>
       </c>
       <c r="K49" s="3">
         <v>226200</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>277000</v>
+        <v>287000</v>
       </c>
       <c r="E52" s="3">
-        <v>226800</v>
+        <v>235000</v>
       </c>
       <c r="F52" s="3">
-        <v>182500</v>
+        <v>189100</v>
       </c>
       <c r="G52" s="3">
-        <v>213400</v>
+        <v>221100</v>
       </c>
       <c r="H52" s="3">
-        <v>125000</v>
+        <v>129600</v>
       </c>
       <c r="I52" s="3">
-        <v>31600</v>
+        <v>32700</v>
       </c>
       <c r="J52" s="3">
-        <v>78400</v>
+        <v>81200</v>
       </c>
       <c r="K52" s="3">
         <v>60400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28055700</v>
+        <v>29070500</v>
       </c>
       <c r="E54" s="3">
-        <v>26045900</v>
+        <v>26988100</v>
       </c>
       <c r="F54" s="3">
-        <v>22739600</v>
+        <v>23562100</v>
       </c>
       <c r="G54" s="3">
-        <v>20241100</v>
+        <v>20973200</v>
       </c>
       <c r="H54" s="3">
-        <v>16657000</v>
+        <v>17259500</v>
       </c>
       <c r="I54" s="3">
-        <v>4374300</v>
+        <v>4532600</v>
       </c>
       <c r="J54" s="3">
-        <v>2917900</v>
+        <v>3023500</v>
       </c>
       <c r="K54" s="3">
         <v>1674400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1723100</v>
+        <v>1785500</v>
       </c>
       <c r="E57" s="3">
-        <v>1641800</v>
+        <v>1701200</v>
       </c>
       <c r="F57" s="3">
-        <v>1045500</v>
+        <v>1083300</v>
       </c>
       <c r="G57" s="3">
-        <v>1020200</v>
+        <v>1057100</v>
       </c>
       <c r="H57" s="3">
-        <v>833200</v>
+        <v>863300</v>
       </c>
       <c r="I57" s="3">
-        <v>322900</v>
+        <v>334600</v>
       </c>
       <c r="J57" s="3">
-        <v>229500</v>
+        <v>237800</v>
       </c>
       <c r="K57" s="3">
         <v>146900</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4277100</v>
+        <v>4431800</v>
       </c>
       <c r="E58" s="3">
-        <v>5047300</v>
+        <v>5229900</v>
       </c>
       <c r="F58" s="3">
-        <v>4573700</v>
+        <v>4739200</v>
       </c>
       <c r="G58" s="3">
-        <v>965300</v>
+        <v>1000200</v>
       </c>
       <c r="H58" s="3">
-        <v>1954300</v>
+        <v>2025000</v>
       </c>
       <c r="I58" s="3">
-        <v>499000</v>
+        <v>517100</v>
       </c>
       <c r="J58" s="3">
-        <v>108600</v>
+        <v>112500</v>
       </c>
       <c r="K58" s="3">
         <v>65100</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3696300</v>
+        <v>3830000</v>
       </c>
       <c r="E59" s="3">
-        <v>2951600</v>
+        <v>3058400</v>
       </c>
       <c r="F59" s="3">
-        <v>3350100</v>
+        <v>3471300</v>
       </c>
       <c r="G59" s="3">
-        <v>2260600</v>
+        <v>2342400</v>
       </c>
       <c r="H59" s="3">
-        <v>1931200</v>
+        <v>2001000</v>
       </c>
       <c r="I59" s="3">
-        <v>960100</v>
+        <v>994800</v>
       </c>
       <c r="J59" s="3">
-        <v>645000</v>
+        <v>668400</v>
       </c>
       <c r="K59" s="3">
         <v>399900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9696500</v>
+        <v>10047300</v>
       </c>
       <c r="E60" s="3">
-        <v>9640800</v>
+        <v>9989500</v>
       </c>
       <c r="F60" s="3">
-        <v>5909400</v>
+        <v>6123200</v>
       </c>
       <c r="G60" s="3">
-        <v>4246200</v>
+        <v>4399700</v>
       </c>
       <c r="H60" s="3">
-        <v>4718600</v>
+        <v>4889300</v>
       </c>
       <c r="I60" s="3">
-        <v>1782100</v>
+        <v>1846600</v>
       </c>
       <c r="J60" s="3">
-        <v>892500</v>
+        <v>924800</v>
       </c>
       <c r="K60" s="3">
         <v>561000</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2738300</v>
+        <v>2837400</v>
       </c>
       <c r="E61" s="3">
-        <v>3384300</v>
+        <v>3506700</v>
       </c>
       <c r="F61" s="3">
-        <v>4095500</v>
+        <v>4243600</v>
       </c>
       <c r="G61" s="3">
-        <v>4856600</v>
+        <v>5032300</v>
       </c>
       <c r="H61" s="3">
-        <v>2572600</v>
+        <v>2665600</v>
       </c>
       <c r="I61" s="3">
-        <v>1119100</v>
+        <v>1159600</v>
       </c>
       <c r="J61" s="3">
-        <v>792900</v>
+        <v>821600</v>
       </c>
       <c r="K61" s="3">
         <v>160900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>645400</v>
+        <v>668800</v>
       </c>
       <c r="E62" s="3">
-        <v>584000</v>
+        <v>605200</v>
       </c>
       <c r="F62" s="3">
-        <v>594700</v>
+        <v>616200</v>
       </c>
       <c r="G62" s="3">
-        <v>553300</v>
+        <v>573300</v>
       </c>
       <c r="H62" s="3">
-        <v>439700</v>
+        <v>455600</v>
       </c>
       <c r="I62" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J62" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="K62" s="3">
         <v>7600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13557300</v>
+        <v>14047700</v>
       </c>
       <c r="E66" s="3">
-        <v>13892000</v>
+        <v>14394500</v>
       </c>
       <c r="F66" s="3">
-        <v>10848900</v>
+        <v>11241400</v>
       </c>
       <c r="G66" s="3">
-        <v>10214400</v>
+        <v>10583900</v>
       </c>
       <c r="H66" s="3">
-        <v>10412700</v>
+        <v>10789400</v>
       </c>
       <c r="I66" s="3">
-        <v>3038700</v>
+        <v>3148600</v>
       </c>
       <c r="J66" s="3">
-        <v>1722300</v>
+        <v>1784600</v>
       </c>
       <c r="K66" s="3">
         <v>743200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3285100</v>
+        <v>3403900</v>
       </c>
       <c r="E72" s="3">
-        <v>2302400</v>
+        <v>2385700</v>
       </c>
       <c r="F72" s="3">
-        <v>2175400</v>
+        <v>2254100</v>
       </c>
       <c r="G72" s="3">
-        <v>972300</v>
+        <v>1007500</v>
       </c>
       <c r="H72" s="3">
-        <v>1172800</v>
+        <v>1215300</v>
       </c>
       <c r="I72" s="3">
-        <v>821400</v>
+        <v>851100</v>
       </c>
       <c r="J72" s="3">
-        <v>787300</v>
+        <v>815800</v>
       </c>
       <c r="K72" s="3">
         <v>662700</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14498400</v>
+        <v>15022900</v>
       </c>
       <c r="E76" s="3">
-        <v>12154000</v>
+        <v>12593600</v>
       </c>
       <c r="F76" s="3">
-        <v>11890600</v>
+        <v>12320700</v>
       </c>
       <c r="G76" s="3">
-        <v>10026600</v>
+        <v>10389300</v>
       </c>
       <c r="H76" s="3">
-        <v>6244200</v>
+        <v>6470100</v>
       </c>
       <c r="I76" s="3">
-        <v>1335600</v>
+        <v>1383900</v>
       </c>
       <c r="J76" s="3">
-        <v>1195600</v>
+        <v>1238900</v>
       </c>
       <c r="K76" s="3">
         <v>931100</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>981300</v>
+        <v>1018200</v>
       </c>
       <c r="E81" s="3">
-        <v>155600</v>
+        <v>161500</v>
       </c>
       <c r="F81" s="3">
-        <v>278300</v>
+        <v>288800</v>
       </c>
       <c r="G81" s="3">
-        <v>-200200</v>
+        <v>-207800</v>
       </c>
       <c r="H81" s="3">
-        <v>351000</v>
+        <v>364200</v>
       </c>
       <c r="I81" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="J81" s="3">
-        <v>139700</v>
+        <v>145000</v>
       </c>
       <c r="K81" s="3">
         <v>102500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>153400</v>
+        <v>159200</v>
       </c>
       <c r="E83" s="3">
-        <v>137400</v>
+        <v>142600</v>
       </c>
       <c r="F83" s="3">
-        <v>123600</v>
+        <v>128300</v>
       </c>
       <c r="G83" s="3">
-        <v>100600</v>
+        <v>104400</v>
       </c>
       <c r="H83" s="3">
-        <v>44300</v>
+        <v>45900</v>
       </c>
       <c r="I83" s="3">
-        <v>25500</v>
+        <v>26400</v>
       </c>
       <c r="J83" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="K83" s="3">
         <v>14200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1026300</v>
+        <v>1065000</v>
       </c>
       <c r="E89" s="3">
-        <v>995800</v>
+        <v>1033300</v>
       </c>
       <c r="F89" s="3">
-        <v>989400</v>
+        <v>1026600</v>
       </c>
       <c r="G89" s="3">
-        <v>738000</v>
+        <v>765800</v>
       </c>
       <c r="H89" s="3">
-        <v>426700</v>
+        <v>442800</v>
       </c>
       <c r="I89" s="3">
-        <v>274100</v>
+        <v>284400</v>
       </c>
       <c r="J89" s="3">
-        <v>343300</v>
+        <v>356200</v>
       </c>
       <c r="K89" s="3">
         <v>237400</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115200</v>
+        <v>-119500</v>
       </c>
       <c r="E91" s="3">
-        <v>-94200</v>
+        <v>-97700</v>
       </c>
       <c r="F91" s="3">
-        <v>-65900</v>
+        <v>-68400</v>
       </c>
       <c r="G91" s="3">
-        <v>-95600</v>
+        <v>-99200</v>
       </c>
       <c r="H91" s="3">
-        <v>-89300</v>
+        <v>-92700</v>
       </c>
       <c r="I91" s="3">
-        <v>-670200</v>
+        <v>-695500</v>
       </c>
       <c r="J91" s="3">
-        <v>-91200</v>
+        <v>-94700</v>
       </c>
       <c r="K91" s="3">
         <v>-77900</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-337700</v>
+        <v>-350400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1970400</v>
+        <v>-2044500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2131900</v>
+        <v>-2212200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2774800</v>
+        <v>-2879300</v>
       </c>
       <c r="H94" s="3">
-        <v>-619500</v>
+        <v>-642900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1310900</v>
+        <v>-1360300</v>
       </c>
       <c r="J94" s="3">
-        <v>-571900</v>
+        <v>-593400</v>
       </c>
       <c r="K94" s="3">
         <v>-177900</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1295500</v>
+        <v>-1344200</v>
       </c>
       <c r="E100" s="3">
-        <v>1669200</v>
+        <v>1732000</v>
       </c>
       <c r="F100" s="3">
-        <v>1122300</v>
+        <v>1164600</v>
       </c>
       <c r="G100" s="3">
-        <v>1720100</v>
+        <v>1784800</v>
       </c>
       <c r="H100" s="3">
-        <v>2132100</v>
+        <v>2212400</v>
       </c>
       <c r="I100" s="3">
-        <v>758900</v>
+        <v>787500</v>
       </c>
       <c r="J100" s="3">
-        <v>744000</v>
+        <v>772000</v>
       </c>
       <c r="K100" s="3">
         <v>-74000</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43200</v>
+        <v>44900</v>
       </c>
       <c r="E101" s="3">
-        <v>114600</v>
+        <v>118900</v>
       </c>
       <c r="F101" s="3">
-        <v>-6600</v>
+        <v>-6900</v>
       </c>
       <c r="G101" s="3">
-        <v>207400</v>
+        <v>215200</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="I101" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="J101" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="K101" s="3">
         <v>2800</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-563600</v>
+        <v>-584800</v>
       </c>
       <c r="E102" s="3">
-        <v>809200</v>
+        <v>839700</v>
       </c>
       <c r="F102" s="3">
-        <v>-26800</v>
+        <v>-27800</v>
       </c>
       <c r="G102" s="3">
-        <v>-109300</v>
+        <v>-113400</v>
       </c>
       <c r="H102" s="3">
-        <v>1947500</v>
+        <v>2020800</v>
       </c>
       <c r="I102" s="3">
-        <v>-257200</v>
+        <v>-266900</v>
       </c>
       <c r="J102" s="3">
-        <v>520200</v>
+        <v>539800</v>
       </c>
       <c r="K102" s="3">
         <v>-11800</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5179800</v>
+        <v>5425500</v>
       </c>
       <c r="E8" s="3">
-        <v>4497000</v>
+        <v>4710400</v>
       </c>
       <c r="F8" s="3">
-        <v>3859300</v>
+        <v>4042400</v>
       </c>
       <c r="G8" s="3">
-        <v>2792500</v>
+        <v>2925000</v>
       </c>
       <c r="H8" s="3">
-        <v>1582700</v>
+        <v>1657700</v>
       </c>
       <c r="I8" s="3">
-        <v>1067000</v>
+        <v>1117600</v>
       </c>
       <c r="J8" s="3">
-        <v>782300</v>
+        <v>819400</v>
       </c>
       <c r="K8" s="3">
         <v>596700</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1070600</v>
+        <v>1121400</v>
       </c>
       <c r="E9" s="3">
-        <v>918400</v>
+        <v>962000</v>
       </c>
       <c r="F9" s="3">
-        <v>679400</v>
+        <v>711600</v>
       </c>
       <c r="G9" s="3">
-        <v>686900</v>
+        <v>719500</v>
       </c>
       <c r="H9" s="3">
-        <v>442000</v>
+        <v>463000</v>
       </c>
       <c r="I9" s="3">
-        <v>305100</v>
+        <v>319500</v>
       </c>
       <c r="J9" s="3">
-        <v>201400</v>
+        <v>211000</v>
       </c>
       <c r="K9" s="3">
         <v>148900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4109100</v>
+        <v>4304100</v>
       </c>
       <c r="E10" s="3">
-        <v>3578600</v>
+        <v>3748400</v>
       </c>
       <c r="F10" s="3">
-        <v>3179900</v>
+        <v>3330800</v>
       </c>
       <c r="G10" s="3">
-        <v>2105600</v>
+        <v>2205500</v>
       </c>
       <c r="H10" s="3">
-        <v>1140700</v>
+        <v>1194800</v>
       </c>
       <c r="I10" s="3">
-        <v>761900</v>
+        <v>798100</v>
       </c>
       <c r="J10" s="3">
-        <v>580900</v>
+        <v>608500</v>
       </c>
       <c r="K10" s="3">
         <v>447800</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1549600</v>
+        <v>1623100</v>
       </c>
       <c r="E12" s="3">
-        <v>1397100</v>
+        <v>1463400</v>
       </c>
       <c r="F12" s="3">
-        <v>1199400</v>
+        <v>1256300</v>
       </c>
       <c r="G12" s="3">
-        <v>1116400</v>
+        <v>1169400</v>
       </c>
       <c r="H12" s="3">
-        <v>478800</v>
+        <v>501500</v>
       </c>
       <c r="I12" s="3">
-        <v>337100</v>
+        <v>353100</v>
       </c>
       <c r="J12" s="3">
-        <v>180900</v>
+        <v>189500</v>
       </c>
       <c r="K12" s="3">
         <v>130800</v>
@@ -878,22 +878,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>29800</v>
+        <v>31200</v>
       </c>
       <c r="E14" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="F14" s="3">
-        <v>198500</v>
+        <v>207900</v>
       </c>
       <c r="G14" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="J14" s="3">
         <v>-600</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4477600</v>
+        <v>4690000</v>
       </c>
       <c r="E17" s="3">
-        <v>4127900</v>
+        <v>4323700</v>
       </c>
       <c r="F17" s="3">
-        <v>3464000</v>
+        <v>3628400</v>
       </c>
       <c r="G17" s="3">
-        <v>3027300</v>
+        <v>3170900</v>
       </c>
       <c r="H17" s="3">
-        <v>1527300</v>
+        <v>1599800</v>
       </c>
       <c r="I17" s="3">
-        <v>1093900</v>
+        <v>1145800</v>
       </c>
       <c r="J17" s="3">
-        <v>660000</v>
+        <v>691300</v>
       </c>
       <c r="K17" s="3">
         <v>502800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>702200</v>
+        <v>735500</v>
       </c>
       <c r="E18" s="3">
-        <v>369200</v>
+        <v>386700</v>
       </c>
       <c r="F18" s="3">
-        <v>395200</v>
+        <v>414000</v>
       </c>
       <c r="G18" s="3">
-        <v>-234800</v>
+        <v>-245900</v>
       </c>
       <c r="H18" s="3">
-        <v>55300</v>
+        <v>58000</v>
       </c>
       <c r="I18" s="3">
-        <v>-26900</v>
+        <v>-28200</v>
       </c>
       <c r="J18" s="3">
-        <v>122300</v>
+        <v>128200</v>
       </c>
       <c r="K18" s="3">
         <v>93900</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>861100</v>
+        <v>901900</v>
       </c>
       <c r="E20" s="3">
-        <v>128800</v>
+        <v>134900</v>
       </c>
       <c r="F20" s="3">
-        <v>271100</v>
+        <v>283900</v>
       </c>
       <c r="G20" s="3">
-        <v>85400</v>
+        <v>89500</v>
       </c>
       <c r="H20" s="3">
-        <v>425100</v>
+        <v>445200</v>
       </c>
       <c r="I20" s="3">
-        <v>70200</v>
+        <v>73500</v>
       </c>
       <c r="J20" s="3">
-        <v>52200</v>
+        <v>54600</v>
       </c>
       <c r="K20" s="3">
         <v>42500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1721800</v>
+        <v>1804100</v>
       </c>
       <c r="E21" s="3">
-        <v>640100</v>
+        <v>671000</v>
       </c>
       <c r="F21" s="3">
-        <v>794100</v>
+        <v>832300</v>
       </c>
       <c r="G21" s="3">
-        <v>-45300</v>
+        <v>-47100</v>
       </c>
       <c r="H21" s="3">
-        <v>526100</v>
+        <v>551300</v>
       </c>
       <c r="I21" s="3">
-        <v>69600</v>
+        <v>73000</v>
       </c>
       <c r="J21" s="3">
-        <v>192000</v>
+        <v>201200</v>
       </c>
       <c r="K21" s="3">
         <v>150600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>243600</v>
+        <v>255100</v>
       </c>
       <c r="E22" s="3">
-        <v>219000</v>
+        <v>229400</v>
       </c>
       <c r="F22" s="3">
-        <v>186800</v>
+        <v>195700</v>
       </c>
       <c r="G22" s="3">
-        <v>106300</v>
+        <v>111300</v>
       </c>
       <c r="H22" s="3">
-        <v>43900</v>
+        <v>46000</v>
       </c>
       <c r="I22" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="J22" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1319700</v>
+        <v>1382300</v>
       </c>
       <c r="E23" s="3">
-        <v>279000</v>
+        <v>292200</v>
       </c>
       <c r="F23" s="3">
-        <v>479500</v>
+        <v>502200</v>
       </c>
       <c r="G23" s="3">
-        <v>-255600</v>
+        <v>-267700</v>
       </c>
       <c r="H23" s="3">
-        <v>436500</v>
+        <v>457200</v>
       </c>
       <c r="I23" s="3">
-        <v>19700</v>
+        <v>20600</v>
       </c>
       <c r="J23" s="3">
-        <v>166200</v>
+        <v>174100</v>
       </c>
       <c r="K23" s="3">
         <v>136400</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>253000</v>
+        <v>265000</v>
       </c>
       <c r="E24" s="3">
-        <v>115200</v>
+        <v>120600</v>
       </c>
       <c r="F24" s="3">
-        <v>178500</v>
+        <v>187000</v>
       </c>
       <c r="G24" s="3">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="H24" s="3">
-        <v>68300</v>
+        <v>71500</v>
       </c>
       <c r="I24" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="J24" s="3">
-        <v>42700</v>
+        <v>44700</v>
       </c>
       <c r="K24" s="3">
         <v>42300</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1066700</v>
+        <v>1117300</v>
       </c>
       <c r="E26" s="3">
-        <v>163800</v>
+        <v>171600</v>
       </c>
       <c r="F26" s="3">
-        <v>301000</v>
+        <v>315200</v>
       </c>
       <c r="G26" s="3">
-        <v>-325000</v>
+        <v>-340500</v>
       </c>
       <c r="H26" s="3">
-        <v>368200</v>
+        <v>385700</v>
       </c>
       <c r="I26" s="3">
         <v>700</v>
       </c>
       <c r="J26" s="3">
-        <v>123600</v>
+        <v>129400</v>
       </c>
       <c r="K26" s="3">
         <v>94100</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1018200</v>
+        <v>1066500</v>
       </c>
       <c r="E27" s="3">
-        <v>161500</v>
+        <v>169200</v>
       </c>
       <c r="F27" s="3">
-        <v>288800</v>
+        <v>302500</v>
       </c>
       <c r="G27" s="3">
-        <v>-207800</v>
+        <v>-217600</v>
       </c>
       <c r="H27" s="3">
-        <v>364200</v>
+        <v>381500</v>
       </c>
       <c r="I27" s="3">
-        <v>35300</v>
+        <v>36900</v>
       </c>
       <c r="J27" s="3">
-        <v>145000</v>
+        <v>151900</v>
       </c>
       <c r="K27" s="3">
         <v>102500</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-861100</v>
+        <v>-901900</v>
       </c>
       <c r="E32" s="3">
-        <v>-128800</v>
+        <v>-134900</v>
       </c>
       <c r="F32" s="3">
-        <v>-271100</v>
+        <v>-283900</v>
       </c>
       <c r="G32" s="3">
-        <v>-85400</v>
+        <v>-89500</v>
       </c>
       <c r="H32" s="3">
-        <v>-425100</v>
+        <v>-445200</v>
       </c>
       <c r="I32" s="3">
-        <v>-70200</v>
+        <v>-73500</v>
       </c>
       <c r="J32" s="3">
-        <v>-52200</v>
+        <v>-54600</v>
       </c>
       <c r="K32" s="3">
         <v>-42500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1018200</v>
+        <v>1066500</v>
       </c>
       <c r="E33" s="3">
-        <v>161500</v>
+        <v>169200</v>
       </c>
       <c r="F33" s="3">
-        <v>288800</v>
+        <v>302500</v>
       </c>
       <c r="G33" s="3">
-        <v>-207800</v>
+        <v>-217600</v>
       </c>
       <c r="H33" s="3">
-        <v>364200</v>
+        <v>381500</v>
       </c>
       <c r="I33" s="3">
-        <v>35300</v>
+        <v>36900</v>
       </c>
       <c r="J33" s="3">
-        <v>145000</v>
+        <v>151900</v>
       </c>
       <c r="K33" s="3">
         <v>102500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1018200</v>
+        <v>1066500</v>
       </c>
       <c r="E35" s="3">
-        <v>161500</v>
+        <v>169200</v>
       </c>
       <c r="F35" s="3">
-        <v>288800</v>
+        <v>302500</v>
       </c>
       <c r="G35" s="3">
-        <v>-207800</v>
+        <v>-217600</v>
       </c>
       <c r="H35" s="3">
-        <v>364200</v>
+        <v>381500</v>
       </c>
       <c r="I35" s="3">
-        <v>35300</v>
+        <v>36900</v>
       </c>
       <c r="J35" s="3">
-        <v>145000</v>
+        <v>151900</v>
       </c>
       <c r="K35" s="3">
         <v>102500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2893400</v>
+        <v>3030700</v>
       </c>
       <c r="E41" s="3">
-        <v>3126800</v>
+        <v>3275100</v>
       </c>
       <c r="F41" s="3">
-        <v>2649400</v>
+        <v>2775100</v>
       </c>
       <c r="G41" s="3">
-        <v>2677300</v>
+        <v>2804300</v>
       </c>
       <c r="H41" s="3">
-        <v>2790700</v>
+        <v>2923100</v>
       </c>
       <c r="I41" s="3">
-        <v>769800</v>
+        <v>806400</v>
       </c>
       <c r="J41" s="3">
-        <v>1036700</v>
+        <v>1085900</v>
       </c>
       <c r="K41" s="3">
         <v>981800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3348700</v>
+        <v>3507600</v>
       </c>
       <c r="E42" s="3">
-        <v>5337600</v>
+        <v>5590900</v>
       </c>
       <c r="F42" s="3">
-        <v>4085300</v>
+        <v>4279100</v>
       </c>
       <c r="G42" s="3">
-        <v>2049600</v>
+        <v>2146800</v>
       </c>
       <c r="H42" s="3">
-        <v>1196100</v>
+        <v>1252800</v>
       </c>
       <c r="I42" s="3">
-        <v>935100</v>
+        <v>979500</v>
       </c>
       <c r="J42" s="3">
-        <v>527900</v>
+        <v>553000</v>
       </c>
       <c r="K42" s="3">
         <v>202100</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1919500</v>
+        <v>2010600</v>
       </c>
       <c r="E43" s="3">
-        <v>1286900</v>
+        <v>1347900</v>
       </c>
       <c r="F43" s="3">
-        <v>1501900</v>
+        <v>1573100</v>
       </c>
       <c r="G43" s="3">
-        <v>828000</v>
+        <v>867300</v>
       </c>
       <c r="H43" s="3">
-        <v>639800</v>
+        <v>670100</v>
       </c>
       <c r="I43" s="3">
-        <v>282000</v>
+        <v>295400</v>
       </c>
       <c r="J43" s="3">
-        <v>456400</v>
+        <v>478000</v>
       </c>
       <c r="K43" s="3">
         <v>328400</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1707500</v>
+        <v>1788500</v>
       </c>
       <c r="E45" s="3">
-        <v>1779100</v>
+        <v>1863500</v>
       </c>
       <c r="F45" s="3">
-        <v>2005400</v>
+        <v>2100600</v>
       </c>
       <c r="G45" s="3">
-        <v>1112800</v>
+        <v>1165600</v>
       </c>
       <c r="H45" s="3">
-        <v>1269900</v>
+        <v>1330100</v>
       </c>
       <c r="I45" s="3">
-        <v>493800</v>
+        <v>517200</v>
       </c>
       <c r="J45" s="3">
-        <v>465600</v>
+        <v>487600</v>
       </c>
       <c r="K45" s="3">
         <v>359800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9869100</v>
+        <v>10337300</v>
       </c>
       <c r="E46" s="3">
-        <v>11530400</v>
+        <v>12077400</v>
       </c>
       <c r="F46" s="3">
-        <v>8629300</v>
+        <v>9038700</v>
       </c>
       <c r="G46" s="3">
-        <v>6667700</v>
+        <v>6984000</v>
       </c>
       <c r="H46" s="3">
-        <v>5896500</v>
+        <v>6176200</v>
       </c>
       <c r="I46" s="3">
-        <v>2480000</v>
+        <v>2597700</v>
       </c>
       <c r="J46" s="3">
-        <v>2086300</v>
+        <v>2185300</v>
       </c>
       <c r="K46" s="3">
         <v>1096600</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7453800</v>
+        <v>7807400</v>
       </c>
       <c r="E47" s="3">
-        <v>3936200</v>
+        <v>4122900</v>
       </c>
       <c r="F47" s="3">
-        <v>7497100</v>
+        <v>7852800</v>
       </c>
       <c r="G47" s="3">
-        <v>3100400</v>
+        <v>3247500</v>
       </c>
       <c r="H47" s="3">
-        <v>2177400</v>
+        <v>2280700</v>
       </c>
       <c r="I47" s="3">
-        <v>874500</v>
+        <v>916000</v>
       </c>
       <c r="J47" s="3">
-        <v>884100</v>
+        <v>926100</v>
       </c>
       <c r="K47" s="3">
         <v>412400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1066300</v>
+        <v>1116900</v>
       </c>
       <c r="E48" s="3">
-        <v>852800</v>
+        <v>893200</v>
       </c>
       <c r="F48" s="3">
-        <v>1631200</v>
+        <v>1708500</v>
       </c>
       <c r="G48" s="3">
-        <v>812100</v>
+        <v>850600</v>
       </c>
       <c r="H48" s="3">
-        <v>806900</v>
+        <v>845200</v>
       </c>
       <c r="I48" s="3">
-        <v>758200</v>
+        <v>794200</v>
       </c>
       <c r="J48" s="3">
-        <v>410400</v>
+        <v>429900</v>
       </c>
       <c r="K48" s="3">
         <v>322500</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10394400</v>
+        <v>10887500</v>
       </c>
       <c r="E49" s="3">
-        <v>10433800</v>
+        <v>10928800</v>
       </c>
       <c r="F49" s="3">
-        <v>12176600</v>
+        <v>12754200</v>
       </c>
       <c r="G49" s="3">
-        <v>10171800</v>
+        <v>10654400</v>
       </c>
       <c r="H49" s="3">
-        <v>8249200</v>
+        <v>8640500</v>
       </c>
       <c r="I49" s="3">
-        <v>387100</v>
+        <v>405400</v>
       </c>
       <c r="J49" s="3">
-        <v>260400</v>
+        <v>272800</v>
       </c>
       <c r="K49" s="3">
         <v>226200</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>287000</v>
+        <v>300600</v>
       </c>
       <c r="E52" s="3">
-        <v>235000</v>
+        <v>246100</v>
       </c>
       <c r="F52" s="3">
-        <v>189100</v>
+        <v>198100</v>
       </c>
       <c r="G52" s="3">
-        <v>221100</v>
+        <v>231600</v>
       </c>
       <c r="H52" s="3">
-        <v>129600</v>
+        <v>135700</v>
       </c>
       <c r="I52" s="3">
-        <v>32700</v>
+        <v>34300</v>
       </c>
       <c r="J52" s="3">
-        <v>81200</v>
+        <v>85100</v>
       </c>
       <c r="K52" s="3">
         <v>60400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29070500</v>
+        <v>30449700</v>
       </c>
       <c r="E54" s="3">
-        <v>26988100</v>
+        <v>28268500</v>
       </c>
       <c r="F54" s="3">
-        <v>23562100</v>
+        <v>24679900</v>
       </c>
       <c r="G54" s="3">
-        <v>20973200</v>
+        <v>21968200</v>
       </c>
       <c r="H54" s="3">
-        <v>17259500</v>
+        <v>18078300</v>
       </c>
       <c r="I54" s="3">
-        <v>4532600</v>
+        <v>4747600</v>
       </c>
       <c r="J54" s="3">
-        <v>3023500</v>
+        <v>3166900</v>
       </c>
       <c r="K54" s="3">
         <v>1674400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1785500</v>
+        <v>1870200</v>
       </c>
       <c r="E57" s="3">
-        <v>1701200</v>
+        <v>1781900</v>
       </c>
       <c r="F57" s="3">
-        <v>1083300</v>
+        <v>1134700</v>
       </c>
       <c r="G57" s="3">
-        <v>1057100</v>
+        <v>1107200</v>
       </c>
       <c r="H57" s="3">
-        <v>863300</v>
+        <v>904300</v>
       </c>
       <c r="I57" s="3">
-        <v>334600</v>
+        <v>350500</v>
       </c>
       <c r="J57" s="3">
-        <v>237800</v>
+        <v>249100</v>
       </c>
       <c r="K57" s="3">
         <v>146900</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4431800</v>
+        <v>4642100</v>
       </c>
       <c r="E58" s="3">
-        <v>5229900</v>
+        <v>5478000</v>
       </c>
       <c r="F58" s="3">
-        <v>4739200</v>
+        <v>4964000</v>
       </c>
       <c r="G58" s="3">
-        <v>1000200</v>
+        <v>1047700</v>
       </c>
       <c r="H58" s="3">
-        <v>2025000</v>
+        <v>2121100</v>
       </c>
       <c r="I58" s="3">
-        <v>517100</v>
+        <v>541600</v>
       </c>
       <c r="J58" s="3">
-        <v>112500</v>
+        <v>117800</v>
       </c>
       <c r="K58" s="3">
         <v>65100</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3830000</v>
+        <v>4011700</v>
       </c>
       <c r="E59" s="3">
-        <v>3058400</v>
+        <v>3203500</v>
       </c>
       <c r="F59" s="3">
-        <v>3471300</v>
+        <v>3636000</v>
       </c>
       <c r="G59" s="3">
-        <v>2342400</v>
+        <v>2453500</v>
       </c>
       <c r="H59" s="3">
-        <v>2001000</v>
+        <v>2095900</v>
       </c>
       <c r="I59" s="3">
-        <v>994800</v>
+        <v>1042000</v>
       </c>
       <c r="J59" s="3">
-        <v>668400</v>
+        <v>700100</v>
       </c>
       <c r="K59" s="3">
         <v>399900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10047300</v>
+        <v>10524000</v>
       </c>
       <c r="E60" s="3">
-        <v>9989500</v>
+        <v>10463400</v>
       </c>
       <c r="F60" s="3">
-        <v>6123200</v>
+        <v>6413700</v>
       </c>
       <c r="G60" s="3">
-        <v>4399700</v>
+        <v>4608500</v>
       </c>
       <c r="H60" s="3">
-        <v>4889300</v>
+        <v>5121300</v>
       </c>
       <c r="I60" s="3">
-        <v>1846600</v>
+        <v>1934200</v>
       </c>
       <c r="J60" s="3">
-        <v>924800</v>
+        <v>968700</v>
       </c>
       <c r="K60" s="3">
         <v>561000</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2837400</v>
+        <v>2972000</v>
       </c>
       <c r="E61" s="3">
-        <v>3506700</v>
+        <v>3673100</v>
       </c>
       <c r="F61" s="3">
-        <v>4243600</v>
+        <v>4444900</v>
       </c>
       <c r="G61" s="3">
-        <v>5032300</v>
+        <v>5271100</v>
       </c>
       <c r="H61" s="3">
-        <v>2665600</v>
+        <v>2792100</v>
       </c>
       <c r="I61" s="3">
-        <v>1159600</v>
+        <v>1214600</v>
       </c>
       <c r="J61" s="3">
-        <v>821600</v>
+        <v>860600</v>
       </c>
       <c r="K61" s="3">
         <v>160900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>668800</v>
+        <v>700500</v>
       </c>
       <c r="E62" s="3">
-        <v>605200</v>
+        <v>633900</v>
       </c>
       <c r="F62" s="3">
-        <v>616200</v>
+        <v>645400</v>
       </c>
       <c r="G62" s="3">
-        <v>573300</v>
+        <v>600500</v>
       </c>
       <c r="H62" s="3">
-        <v>455600</v>
+        <v>477200</v>
       </c>
       <c r="I62" s="3">
-        <v>19200</v>
+        <v>20200</v>
       </c>
       <c r="J62" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="K62" s="3">
         <v>7600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14047700</v>
+        <v>14714100</v>
       </c>
       <c r="E66" s="3">
-        <v>14394500</v>
+        <v>15077400</v>
       </c>
       <c r="F66" s="3">
-        <v>11241400</v>
+        <v>11774700</v>
       </c>
       <c r="G66" s="3">
-        <v>10583900</v>
+        <v>11086100</v>
       </c>
       <c r="H66" s="3">
-        <v>10789400</v>
+        <v>11301300</v>
       </c>
       <c r="I66" s="3">
-        <v>3148600</v>
+        <v>3298000</v>
       </c>
       <c r="J66" s="3">
-        <v>1784600</v>
+        <v>1869300</v>
       </c>
       <c r="K66" s="3">
         <v>743200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3403900</v>
+        <v>3565400</v>
       </c>
       <c r="E72" s="3">
-        <v>2385700</v>
+        <v>2498900</v>
       </c>
       <c r="F72" s="3">
-        <v>2254100</v>
+        <v>2361100</v>
       </c>
       <c r="G72" s="3">
-        <v>1007500</v>
+        <v>1055300</v>
       </c>
       <c r="H72" s="3">
-        <v>1215300</v>
+        <v>1272900</v>
       </c>
       <c r="I72" s="3">
-        <v>851100</v>
+        <v>891400</v>
       </c>
       <c r="J72" s="3">
-        <v>815800</v>
+        <v>854500</v>
       </c>
       <c r="K72" s="3">
         <v>662700</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15022900</v>
+        <v>15735600</v>
       </c>
       <c r="E76" s="3">
-        <v>12593600</v>
+        <v>13191100</v>
       </c>
       <c r="F76" s="3">
-        <v>12320700</v>
+        <v>12905300</v>
       </c>
       <c r="G76" s="3">
-        <v>10389300</v>
+        <v>10882200</v>
       </c>
       <c r="H76" s="3">
-        <v>6470100</v>
+        <v>6777100</v>
       </c>
       <c r="I76" s="3">
-        <v>1383900</v>
+        <v>1449600</v>
       </c>
       <c r="J76" s="3">
-        <v>1238900</v>
+        <v>1297600</v>
       </c>
       <c r="K76" s="3">
         <v>931100</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1018200</v>
+        <v>1066500</v>
       </c>
       <c r="E81" s="3">
-        <v>161500</v>
+        <v>169200</v>
       </c>
       <c r="F81" s="3">
-        <v>288800</v>
+        <v>302500</v>
       </c>
       <c r="G81" s="3">
-        <v>-207800</v>
+        <v>-217600</v>
       </c>
       <c r="H81" s="3">
-        <v>364200</v>
+        <v>381500</v>
       </c>
       <c r="I81" s="3">
-        <v>35300</v>
+        <v>36900</v>
       </c>
       <c r="J81" s="3">
-        <v>145000</v>
+        <v>151900</v>
       </c>
       <c r="K81" s="3">
         <v>102500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159200</v>
+        <v>166700</v>
       </c>
       <c r="E83" s="3">
-        <v>142600</v>
+        <v>149400</v>
       </c>
       <c r="F83" s="3">
-        <v>128300</v>
+        <v>134400</v>
       </c>
       <c r="G83" s="3">
-        <v>104400</v>
+        <v>109300</v>
       </c>
       <c r="H83" s="3">
-        <v>45900</v>
+        <v>48100</v>
       </c>
       <c r="I83" s="3">
-        <v>26400</v>
+        <v>27700</v>
       </c>
       <c r="J83" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="K83" s="3">
         <v>14200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1065000</v>
+        <v>1115500</v>
       </c>
       <c r="E89" s="3">
-        <v>1033300</v>
+        <v>1082300</v>
       </c>
       <c r="F89" s="3">
-        <v>1026600</v>
+        <v>1075300</v>
       </c>
       <c r="G89" s="3">
-        <v>765800</v>
+        <v>802100</v>
       </c>
       <c r="H89" s="3">
-        <v>442800</v>
+        <v>463800</v>
       </c>
       <c r="I89" s="3">
-        <v>284400</v>
+        <v>297900</v>
       </c>
       <c r="J89" s="3">
-        <v>356200</v>
+        <v>373100</v>
       </c>
       <c r="K89" s="3">
         <v>237400</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-119500</v>
+        <v>-125200</v>
       </c>
       <c r="E91" s="3">
-        <v>-97700</v>
+        <v>-102400</v>
       </c>
       <c r="F91" s="3">
-        <v>-68400</v>
+        <v>-71700</v>
       </c>
       <c r="G91" s="3">
-        <v>-99200</v>
+        <v>-103900</v>
       </c>
       <c r="H91" s="3">
-        <v>-92700</v>
+        <v>-97100</v>
       </c>
       <c r="I91" s="3">
-        <v>-695500</v>
+        <v>-728500</v>
       </c>
       <c r="J91" s="3">
-        <v>-94700</v>
+        <v>-99100</v>
       </c>
       <c r="K91" s="3">
         <v>-77900</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-350400</v>
+        <v>-367100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2044500</v>
+        <v>-2141500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2212200</v>
+        <v>-2317100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2879300</v>
+        <v>-3015900</v>
       </c>
       <c r="H94" s="3">
-        <v>-642900</v>
+        <v>-673400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1360300</v>
+        <v>-1424800</v>
       </c>
       <c r="J94" s="3">
-        <v>-593400</v>
+        <v>-621600</v>
       </c>
       <c r="K94" s="3">
         <v>-177900</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1344200</v>
+        <v>-1408000</v>
       </c>
       <c r="E100" s="3">
-        <v>1732000</v>
+        <v>1814200</v>
       </c>
       <c r="F100" s="3">
-        <v>1164600</v>
+        <v>1219900</v>
       </c>
       <c r="G100" s="3">
-        <v>1784800</v>
+        <v>1869500</v>
       </c>
       <c r="H100" s="3">
-        <v>2212400</v>
+        <v>2317300</v>
       </c>
       <c r="I100" s="3">
-        <v>787500</v>
+        <v>824800</v>
       </c>
       <c r="J100" s="3">
-        <v>772000</v>
+        <v>808700</v>
       </c>
       <c r="K100" s="3">
         <v>-74000</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44900</v>
+        <v>47000</v>
       </c>
       <c r="E101" s="3">
-        <v>118900</v>
+        <v>124600</v>
       </c>
       <c r="F101" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="G101" s="3">
-        <v>215200</v>
+        <v>225400</v>
       </c>
       <c r="H101" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="I101" s="3">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="J101" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="K101" s="3">
         <v>2800</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-584800</v>
+        <v>-612600</v>
       </c>
       <c r="E102" s="3">
-        <v>839700</v>
+        <v>879600</v>
       </c>
       <c r="F102" s="3">
-        <v>-27800</v>
+        <v>-29200</v>
       </c>
       <c r="G102" s="3">
-        <v>-113400</v>
+        <v>-118800</v>
       </c>
       <c r="H102" s="3">
-        <v>2020800</v>
+        <v>2116700</v>
       </c>
       <c r="I102" s="3">
-        <v>-266900</v>
+        <v>-279500</v>
       </c>
       <c r="J102" s="3">
-        <v>539800</v>
+        <v>565400</v>
       </c>
       <c r="K102" s="3">
         <v>-11800</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5425500</v>
+        <v>2798300</v>
       </c>
       <c r="E8" s="3">
-        <v>4710400</v>
+        <v>5449100</v>
       </c>
       <c r="F8" s="3">
-        <v>4042400</v>
+        <v>4730800</v>
       </c>
       <c r="G8" s="3">
-        <v>2925000</v>
+        <v>4059900</v>
       </c>
       <c r="H8" s="3">
-        <v>1657700</v>
+        <v>2937700</v>
       </c>
       <c r="I8" s="3">
-        <v>1117600</v>
+        <v>1664900</v>
       </c>
       <c r="J8" s="3">
+        <v>1122500</v>
+      </c>
+      <c r="K8" s="3">
         <v>819400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>596700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1121400</v>
+        <v>615900</v>
       </c>
       <c r="E9" s="3">
-        <v>962000</v>
+        <v>1126300</v>
       </c>
       <c r="F9" s="3">
-        <v>711600</v>
+        <v>966200</v>
       </c>
       <c r="G9" s="3">
-        <v>719500</v>
+        <v>714700</v>
       </c>
       <c r="H9" s="3">
-        <v>463000</v>
+        <v>722600</v>
       </c>
       <c r="I9" s="3">
-        <v>319500</v>
+        <v>465000</v>
       </c>
       <c r="J9" s="3">
+        <v>320900</v>
+      </c>
+      <c r="K9" s="3">
         <v>211000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4304100</v>
+        <v>2182500</v>
       </c>
       <c r="E10" s="3">
-        <v>3748400</v>
+        <v>4322800</v>
       </c>
       <c r="F10" s="3">
-        <v>3330800</v>
+        <v>3764700</v>
       </c>
       <c r="G10" s="3">
-        <v>2205500</v>
+        <v>3345200</v>
       </c>
       <c r="H10" s="3">
-        <v>1194800</v>
+        <v>2215100</v>
       </c>
       <c r="I10" s="3">
-        <v>798100</v>
+        <v>1200000</v>
       </c>
       <c r="J10" s="3">
+        <v>801500</v>
+      </c>
+      <c r="K10" s="3">
         <v>608500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>447800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1623100</v>
+        <v>1171400</v>
       </c>
       <c r="E12" s="3">
-        <v>1463400</v>
+        <v>1630200</v>
       </c>
       <c r="F12" s="3">
-        <v>1256300</v>
+        <v>1469700</v>
       </c>
       <c r="G12" s="3">
-        <v>1169400</v>
+        <v>1261800</v>
       </c>
       <c r="H12" s="3">
-        <v>501500</v>
+        <v>1174500</v>
       </c>
       <c r="I12" s="3">
-        <v>353100</v>
+        <v>503700</v>
       </c>
       <c r="J12" s="3">
+        <v>354700</v>
+      </c>
+      <c r="K12" s="3">
         <v>189500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>130800</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>31200</v>
+        <v>138300</v>
       </c>
       <c r="E14" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F14" s="3">
         <v>9600</v>
       </c>
-      <c r="F14" s="3">
-        <v>207900</v>
-      </c>
       <c r="G14" s="3">
+        <v>208800</v>
+      </c>
+      <c r="H14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4690000</v>
+        <v>3154000</v>
       </c>
       <c r="E17" s="3">
-        <v>4323700</v>
+        <v>4710400</v>
       </c>
       <c r="F17" s="3">
-        <v>3628400</v>
+        <v>4342500</v>
       </c>
       <c r="G17" s="3">
-        <v>3170900</v>
+        <v>3644100</v>
       </c>
       <c r="H17" s="3">
-        <v>1599800</v>
+        <v>3184700</v>
       </c>
       <c r="I17" s="3">
-        <v>1145800</v>
+        <v>1606700</v>
       </c>
       <c r="J17" s="3">
+        <v>1150800</v>
+      </c>
+      <c r="K17" s="3">
         <v>691300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>502800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>735500</v>
+        <v>-355700</v>
       </c>
       <c r="E18" s="3">
-        <v>386700</v>
+        <v>738700</v>
       </c>
       <c r="F18" s="3">
-        <v>414000</v>
+        <v>388400</v>
       </c>
       <c r="G18" s="3">
-        <v>-245900</v>
+        <v>415800</v>
       </c>
       <c r="H18" s="3">
-        <v>58000</v>
+        <v>-247000</v>
       </c>
       <c r="I18" s="3">
-        <v>-28200</v>
+        <v>58200</v>
       </c>
       <c r="J18" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K18" s="3">
         <v>128200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>901900</v>
+        <v>430700</v>
       </c>
       <c r="E20" s="3">
-        <v>134900</v>
+        <v>905800</v>
       </c>
       <c r="F20" s="3">
-        <v>283900</v>
+        <v>135500</v>
       </c>
       <c r="G20" s="3">
-        <v>89500</v>
+        <v>285200</v>
       </c>
       <c r="H20" s="3">
-        <v>445200</v>
+        <v>89900</v>
       </c>
       <c r="I20" s="3">
-        <v>73500</v>
+        <v>447100</v>
       </c>
       <c r="J20" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K20" s="3">
         <v>54600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>42500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1804100</v>
+        <v>261600</v>
       </c>
       <c r="E21" s="3">
-        <v>671000</v>
+        <v>1812500</v>
       </c>
       <c r="F21" s="3">
-        <v>832300</v>
+        <v>674400</v>
       </c>
       <c r="G21" s="3">
-        <v>-47100</v>
+        <v>836300</v>
       </c>
       <c r="H21" s="3">
-        <v>551300</v>
+        <v>-46900</v>
       </c>
       <c r="I21" s="3">
-        <v>73000</v>
+        <v>553800</v>
       </c>
       <c r="J21" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K21" s="3">
         <v>201200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>150600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>255100</v>
+        <v>262200</v>
       </c>
       <c r="E22" s="3">
-        <v>229400</v>
+        <v>256200</v>
       </c>
       <c r="F22" s="3">
-        <v>195700</v>
+        <v>230400</v>
       </c>
       <c r="G22" s="3">
-        <v>111300</v>
+        <v>196500</v>
       </c>
       <c r="H22" s="3">
-        <v>46000</v>
+        <v>111800</v>
       </c>
       <c r="I22" s="3">
-        <v>24700</v>
+        <v>46200</v>
       </c>
       <c r="J22" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1382300</v>
+        <v>-187200</v>
       </c>
       <c r="E23" s="3">
-        <v>292200</v>
+        <v>1388300</v>
       </c>
       <c r="F23" s="3">
-        <v>502200</v>
+        <v>293500</v>
       </c>
       <c r="G23" s="3">
-        <v>-267700</v>
+        <v>504400</v>
       </c>
       <c r="H23" s="3">
-        <v>457200</v>
+        <v>-268900</v>
       </c>
       <c r="I23" s="3">
-        <v>20600</v>
+        <v>459200</v>
       </c>
       <c r="J23" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K23" s="3">
         <v>174100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>136400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>265000</v>
+        <v>54200</v>
       </c>
       <c r="E24" s="3">
-        <v>120600</v>
+        <v>266100</v>
       </c>
       <c r="F24" s="3">
-        <v>187000</v>
+        <v>121200</v>
       </c>
       <c r="G24" s="3">
-        <v>72700</v>
+        <v>187800</v>
       </c>
       <c r="H24" s="3">
-        <v>71500</v>
+        <v>73000</v>
       </c>
       <c r="I24" s="3">
-        <v>19900</v>
+        <v>71800</v>
       </c>
       <c r="J24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K24" s="3">
         <v>44700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1117300</v>
+        <v>-241400</v>
       </c>
       <c r="E26" s="3">
-        <v>171600</v>
+        <v>1122200</v>
       </c>
       <c r="F26" s="3">
-        <v>315200</v>
+        <v>172300</v>
       </c>
       <c r="G26" s="3">
-        <v>-340500</v>
+        <v>316600</v>
       </c>
       <c r="H26" s="3">
-        <v>385700</v>
+        <v>-341900</v>
       </c>
       <c r="I26" s="3">
+        <v>387300</v>
+      </c>
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>129400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1066500</v>
+        <v>-496100</v>
       </c>
       <c r="E27" s="3">
-        <v>169200</v>
+        <v>1071100</v>
       </c>
       <c r="F27" s="3">
-        <v>302500</v>
+        <v>169900</v>
       </c>
       <c r="G27" s="3">
-        <v>-217600</v>
+        <v>303800</v>
       </c>
       <c r="H27" s="3">
-        <v>381500</v>
+        <v>-218600</v>
       </c>
       <c r="I27" s="3">
-        <v>36900</v>
+        <v>383100</v>
       </c>
       <c r="J27" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K27" s="3">
         <v>151900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>102500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-901900</v>
+        <v>-430700</v>
       </c>
       <c r="E32" s="3">
-        <v>-134900</v>
+        <v>-905800</v>
       </c>
       <c r="F32" s="3">
-        <v>-283900</v>
+        <v>-135500</v>
       </c>
       <c r="G32" s="3">
-        <v>-89500</v>
+        <v>-285200</v>
       </c>
       <c r="H32" s="3">
-        <v>-445200</v>
+        <v>-89900</v>
       </c>
       <c r="I32" s="3">
-        <v>-73500</v>
+        <v>-447100</v>
       </c>
       <c r="J32" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-54600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-42500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1066500</v>
+        <v>-496100</v>
       </c>
       <c r="E33" s="3">
-        <v>169200</v>
+        <v>1071100</v>
       </c>
       <c r="F33" s="3">
-        <v>302500</v>
+        <v>169900</v>
       </c>
       <c r="G33" s="3">
-        <v>-217600</v>
+        <v>303800</v>
       </c>
       <c r="H33" s="3">
-        <v>381500</v>
+        <v>-218600</v>
       </c>
       <c r="I33" s="3">
-        <v>36900</v>
+        <v>383100</v>
       </c>
       <c r="J33" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K33" s="3">
         <v>151900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>102500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1066500</v>
+        <v>-496100</v>
       </c>
       <c r="E35" s="3">
-        <v>169200</v>
+        <v>1071100</v>
       </c>
       <c r="F35" s="3">
-        <v>302500</v>
+        <v>169900</v>
       </c>
       <c r="G35" s="3">
-        <v>-217600</v>
+        <v>303800</v>
       </c>
       <c r="H35" s="3">
-        <v>381500</v>
+        <v>-218600</v>
       </c>
       <c r="I35" s="3">
-        <v>36900</v>
+        <v>383100</v>
       </c>
       <c r="J35" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K35" s="3">
         <v>151900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>102500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,98 +1645,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3030700</v>
+        <v>2764700</v>
       </c>
       <c r="E41" s="3">
-        <v>3275100</v>
+        <v>3043800</v>
       </c>
       <c r="F41" s="3">
-        <v>2775100</v>
+        <v>3289400</v>
       </c>
       <c r="G41" s="3">
-        <v>2804300</v>
+        <v>2787200</v>
       </c>
       <c r="H41" s="3">
-        <v>2923100</v>
+        <v>2816500</v>
       </c>
       <c r="I41" s="3">
-        <v>806400</v>
+        <v>2935800</v>
       </c>
       <c r="J41" s="3">
+        <v>809900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1085900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>981800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3507600</v>
+        <v>3792000</v>
       </c>
       <c r="E42" s="3">
-        <v>5590900</v>
+        <v>3522800</v>
       </c>
       <c r="F42" s="3">
-        <v>4279100</v>
+        <v>5615100</v>
       </c>
       <c r="G42" s="3">
-        <v>2146800</v>
+        <v>4297700</v>
       </c>
       <c r="H42" s="3">
-        <v>1252800</v>
+        <v>2156200</v>
       </c>
       <c r="I42" s="3">
-        <v>979500</v>
+        <v>1258300</v>
       </c>
       <c r="J42" s="3">
+        <v>983700</v>
+      </c>
+      <c r="K42" s="3">
         <v>553000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>202100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2010600</v>
+        <v>1359600</v>
       </c>
       <c r="E43" s="3">
-        <v>1347900</v>
+        <v>2019300</v>
       </c>
       <c r="F43" s="3">
-        <v>1573100</v>
+        <v>1353800</v>
       </c>
       <c r="G43" s="3">
-        <v>867300</v>
+        <v>1580000</v>
       </c>
       <c r="H43" s="3">
-        <v>670100</v>
+        <v>871100</v>
       </c>
       <c r="I43" s="3">
-        <v>295400</v>
+        <v>673000</v>
       </c>
       <c r="J43" s="3">
+        <v>296700</v>
+      </c>
+      <c r="K43" s="3">
         <v>478000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>328400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,159 +1774,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1788500</v>
+        <v>946600</v>
       </c>
       <c r="E45" s="3">
-        <v>1863500</v>
+        <v>1796200</v>
       </c>
       <c r="F45" s="3">
-        <v>2100600</v>
+        <v>1871600</v>
       </c>
       <c r="G45" s="3">
-        <v>1165600</v>
+        <v>2109700</v>
       </c>
       <c r="H45" s="3">
-        <v>1330100</v>
+        <v>1170600</v>
       </c>
       <c r="I45" s="3">
-        <v>517200</v>
+        <v>1335900</v>
       </c>
       <c r="J45" s="3">
+        <v>519400</v>
+      </c>
+      <c r="K45" s="3">
         <v>487600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>359800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10337300</v>
+        <v>8862900</v>
       </c>
       <c r="E46" s="3">
-        <v>12077400</v>
+        <v>10382200</v>
       </c>
       <c r="F46" s="3">
-        <v>9038700</v>
+        <v>12129800</v>
       </c>
       <c r="G46" s="3">
-        <v>6984000</v>
+        <v>9077900</v>
       </c>
       <c r="H46" s="3">
-        <v>6176200</v>
+        <v>7014400</v>
       </c>
       <c r="I46" s="3">
-        <v>2597700</v>
+        <v>6203000</v>
       </c>
       <c r="J46" s="3">
+        <v>2609000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2185300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1096600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7807400</v>
+        <v>7328600</v>
       </c>
       <c r="E47" s="3">
-        <v>4122900</v>
+        <v>7841300</v>
       </c>
       <c r="F47" s="3">
-        <v>7852800</v>
+        <v>4140800</v>
       </c>
       <c r="G47" s="3">
-        <v>3247500</v>
+        <v>7886800</v>
       </c>
       <c r="H47" s="3">
-        <v>2280700</v>
+        <v>3261600</v>
       </c>
       <c r="I47" s="3">
-        <v>916000</v>
+        <v>2290600</v>
       </c>
       <c r="J47" s="3">
+        <v>920000</v>
+      </c>
+      <c r="K47" s="3">
         <v>926100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>412400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1116900</v>
+        <v>1033900</v>
       </c>
       <c r="E48" s="3">
-        <v>893200</v>
+        <v>1121700</v>
       </c>
       <c r="F48" s="3">
-        <v>1708500</v>
+        <v>897100</v>
       </c>
       <c r="G48" s="3">
-        <v>850600</v>
+        <v>1715900</v>
       </c>
       <c r="H48" s="3">
-        <v>845200</v>
+        <v>854300</v>
       </c>
       <c r="I48" s="3">
-        <v>794200</v>
+        <v>848800</v>
       </c>
       <c r="J48" s="3">
+        <v>797600</v>
+      </c>
+      <c r="K48" s="3">
         <v>429900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>322500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10887500</v>
+        <v>11106600</v>
       </c>
       <c r="E49" s="3">
-        <v>10928800</v>
+        <v>10934800</v>
       </c>
       <c r="F49" s="3">
-        <v>12754200</v>
+        <v>10976200</v>
       </c>
       <c r="G49" s="3">
-        <v>10654400</v>
+        <v>12809600</v>
       </c>
       <c r="H49" s="3">
-        <v>8640500</v>
+        <v>10700600</v>
       </c>
       <c r="I49" s="3">
-        <v>405400</v>
+        <v>8678000</v>
       </c>
       <c r="J49" s="3">
+        <v>407200</v>
+      </c>
+      <c r="K49" s="3">
         <v>272800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>226200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300600</v>
+        <v>275900</v>
       </c>
       <c r="E52" s="3">
-        <v>246100</v>
+        <v>301900</v>
       </c>
       <c r="F52" s="3">
-        <v>198100</v>
+        <v>247200</v>
       </c>
       <c r="G52" s="3">
-        <v>231600</v>
+        <v>198900</v>
       </c>
       <c r="H52" s="3">
-        <v>135700</v>
+        <v>232600</v>
       </c>
       <c r="I52" s="3">
-        <v>34300</v>
+        <v>136300</v>
       </c>
       <c r="J52" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K52" s="3">
         <v>85100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>60400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30449700</v>
+        <v>28607900</v>
       </c>
       <c r="E54" s="3">
-        <v>28268500</v>
+        <v>30581800</v>
       </c>
       <c r="F54" s="3">
-        <v>24679900</v>
+        <v>28391100</v>
       </c>
       <c r="G54" s="3">
-        <v>21968200</v>
+        <v>24787000</v>
       </c>
       <c r="H54" s="3">
-        <v>18078300</v>
+        <v>22063600</v>
       </c>
       <c r="I54" s="3">
-        <v>4747600</v>
+        <v>18156800</v>
       </c>
       <c r="J54" s="3">
+        <v>4768200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3166900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1674400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1870200</v>
+        <v>688400</v>
       </c>
       <c r="E57" s="3">
-        <v>1781900</v>
+        <v>1878300</v>
       </c>
       <c r="F57" s="3">
-        <v>1134700</v>
+        <v>1789700</v>
       </c>
       <c r="G57" s="3">
-        <v>1107200</v>
+        <v>1139600</v>
       </c>
       <c r="H57" s="3">
-        <v>904300</v>
+        <v>1112100</v>
       </c>
       <c r="I57" s="3">
-        <v>350500</v>
+        <v>908200</v>
       </c>
       <c r="J57" s="3">
+        <v>352000</v>
+      </c>
+      <c r="K57" s="3">
         <v>249100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>146900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4642100</v>
+        <v>5143300</v>
       </c>
       <c r="E58" s="3">
-        <v>5478000</v>
+        <v>4662200</v>
       </c>
       <c r="F58" s="3">
-        <v>4964000</v>
+        <v>5501800</v>
       </c>
       <c r="G58" s="3">
-        <v>1047700</v>
+        <v>4985600</v>
       </c>
       <c r="H58" s="3">
-        <v>2121100</v>
+        <v>1052200</v>
       </c>
       <c r="I58" s="3">
-        <v>541600</v>
+        <v>2130300</v>
       </c>
       <c r="J58" s="3">
+        <v>544000</v>
+      </c>
+      <c r="K58" s="3">
         <v>117800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>65100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4011700</v>
+        <v>3085900</v>
       </c>
       <c r="E59" s="3">
-        <v>3203500</v>
+        <v>4029100</v>
       </c>
       <c r="F59" s="3">
-        <v>3636000</v>
+        <v>3217400</v>
       </c>
       <c r="G59" s="3">
-        <v>2453500</v>
+        <v>3651800</v>
       </c>
       <c r="H59" s="3">
-        <v>2095900</v>
+        <v>2464200</v>
       </c>
       <c r="I59" s="3">
-        <v>1042000</v>
+        <v>2105000</v>
       </c>
       <c r="J59" s="3">
+        <v>1046600</v>
+      </c>
+      <c r="K59" s="3">
         <v>700100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>399900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10524000</v>
+        <v>8917600</v>
       </c>
       <c r="E60" s="3">
-        <v>10463400</v>
+        <v>10569600</v>
       </c>
       <c r="F60" s="3">
-        <v>6413700</v>
+        <v>10508800</v>
       </c>
       <c r="G60" s="3">
-        <v>4608500</v>
+        <v>6441500</v>
       </c>
       <c r="H60" s="3">
-        <v>5121300</v>
+        <v>4628500</v>
       </c>
       <c r="I60" s="3">
-        <v>1934200</v>
+        <v>5143500</v>
       </c>
       <c r="J60" s="3">
+        <v>1942600</v>
+      </c>
+      <c r="K60" s="3">
         <v>968700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>561000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2972000</v>
+        <v>3470900</v>
       </c>
       <c r="E61" s="3">
-        <v>3673100</v>
+        <v>2984900</v>
       </c>
       <c r="F61" s="3">
-        <v>4444900</v>
+        <v>3689000</v>
       </c>
       <c r="G61" s="3">
-        <v>5271100</v>
+        <v>4464200</v>
       </c>
       <c r="H61" s="3">
-        <v>2792100</v>
+        <v>5293900</v>
       </c>
       <c r="I61" s="3">
-        <v>1214600</v>
+        <v>2804200</v>
       </c>
       <c r="J61" s="3">
+        <v>1219900</v>
+      </c>
+      <c r="K61" s="3">
         <v>860600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>160900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700500</v>
+        <v>702000</v>
       </c>
       <c r="E62" s="3">
-        <v>633900</v>
+        <v>703600</v>
       </c>
       <c r="F62" s="3">
-        <v>645400</v>
+        <v>636600</v>
       </c>
       <c r="G62" s="3">
-        <v>600500</v>
+        <v>648200</v>
       </c>
       <c r="H62" s="3">
-        <v>477200</v>
+        <v>603100</v>
       </c>
       <c r="I62" s="3">
+        <v>479300</v>
+      </c>
+      <c r="J62" s="3">
         <v>20200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14714100</v>
+        <v>13275800</v>
       </c>
       <c r="E66" s="3">
-        <v>15077400</v>
+        <v>14778000</v>
       </c>
       <c r="F66" s="3">
-        <v>11774700</v>
+        <v>15142800</v>
       </c>
       <c r="G66" s="3">
-        <v>11086100</v>
+        <v>11825800</v>
       </c>
       <c r="H66" s="3">
-        <v>11301300</v>
+        <v>11134200</v>
       </c>
       <c r="I66" s="3">
-        <v>3298000</v>
+        <v>11350300</v>
       </c>
       <c r="J66" s="3">
+        <v>3312300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1869300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>743200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3565400</v>
+        <v>3071900</v>
       </c>
       <c r="E72" s="3">
-        <v>2498900</v>
+        <v>3580900</v>
       </c>
       <c r="F72" s="3">
-        <v>2361100</v>
+        <v>2509700</v>
       </c>
       <c r="G72" s="3">
-        <v>1055300</v>
+        <v>2371300</v>
       </c>
       <c r="H72" s="3">
-        <v>1272900</v>
+        <v>1059800</v>
       </c>
       <c r="I72" s="3">
-        <v>891400</v>
+        <v>1278400</v>
       </c>
       <c r="J72" s="3">
+        <v>895300</v>
+      </c>
+      <c r="K72" s="3">
         <v>854500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>662700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15735600</v>
+        <v>15332100</v>
       </c>
       <c r="E76" s="3">
-        <v>13191100</v>
+        <v>15803900</v>
       </c>
       <c r="F76" s="3">
-        <v>12905300</v>
+        <v>13248300</v>
       </c>
       <c r="G76" s="3">
-        <v>10882200</v>
+        <v>12961200</v>
       </c>
       <c r="H76" s="3">
-        <v>6777100</v>
+        <v>10929400</v>
       </c>
       <c r="I76" s="3">
-        <v>1449600</v>
+        <v>6806500</v>
       </c>
       <c r="J76" s="3">
+        <v>1455900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1297600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>931100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1066500</v>
+        <v>-496100</v>
       </c>
       <c r="E81" s="3">
-        <v>169200</v>
+        <v>1071100</v>
       </c>
       <c r="F81" s="3">
-        <v>302500</v>
+        <v>169900</v>
       </c>
       <c r="G81" s="3">
-        <v>-217600</v>
+        <v>303800</v>
       </c>
       <c r="H81" s="3">
-        <v>381500</v>
+        <v>-218600</v>
       </c>
       <c r="I81" s="3">
-        <v>36900</v>
+        <v>383100</v>
       </c>
       <c r="J81" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K81" s="3">
         <v>151900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>102500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>166700</v>
+        <v>185900</v>
       </c>
       <c r="E83" s="3">
-        <v>149400</v>
+        <v>167400</v>
       </c>
       <c r="F83" s="3">
-        <v>134400</v>
+        <v>150000</v>
       </c>
       <c r="G83" s="3">
-        <v>109300</v>
+        <v>134900</v>
       </c>
       <c r="H83" s="3">
-        <v>48100</v>
+        <v>109800</v>
       </c>
       <c r="I83" s="3">
-        <v>27700</v>
+        <v>48300</v>
       </c>
       <c r="J83" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K83" s="3">
         <v>18400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1115500</v>
+        <v>-584100</v>
       </c>
       <c r="E89" s="3">
-        <v>1082300</v>
+        <v>1120300</v>
       </c>
       <c r="F89" s="3">
-        <v>1075300</v>
+        <v>1087000</v>
       </c>
       <c r="G89" s="3">
-        <v>802100</v>
+        <v>1080000</v>
       </c>
       <c r="H89" s="3">
-        <v>463800</v>
+        <v>805600</v>
       </c>
       <c r="I89" s="3">
-        <v>297900</v>
+        <v>465800</v>
       </c>
       <c r="J89" s="3">
+        <v>299200</v>
+      </c>
+      <c r="K89" s="3">
         <v>373100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>237400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-125200</v>
+        <v>-81300</v>
       </c>
       <c r="E91" s="3">
-        <v>-102400</v>
+        <v>-125700</v>
       </c>
       <c r="F91" s="3">
-        <v>-71700</v>
+        <v>-102800</v>
       </c>
       <c r="G91" s="3">
-        <v>-103900</v>
+        <v>-72000</v>
       </c>
       <c r="H91" s="3">
-        <v>-97100</v>
+        <v>-104300</v>
       </c>
       <c r="I91" s="3">
-        <v>-728500</v>
+        <v>-97500</v>
       </c>
       <c r="J91" s="3">
+        <v>-731600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-99100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-367100</v>
+        <v>-583800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2141500</v>
+        <v>-368700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2317100</v>
+        <v>-2150800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3015900</v>
+        <v>-2327200</v>
       </c>
       <c r="H94" s="3">
-        <v>-673400</v>
+        <v>-3028900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1424800</v>
+        <v>-676300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1431000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-621600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-177900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1408000</v>
+        <v>920500</v>
       </c>
       <c r="E100" s="3">
-        <v>1814200</v>
+        <v>-1414100</v>
       </c>
       <c r="F100" s="3">
-        <v>1219900</v>
+        <v>1822100</v>
       </c>
       <c r="G100" s="3">
-        <v>1869500</v>
+        <v>1225200</v>
       </c>
       <c r="H100" s="3">
-        <v>2317300</v>
+        <v>1877600</v>
       </c>
       <c r="I100" s="3">
-        <v>824800</v>
+        <v>2327400</v>
       </c>
       <c r="J100" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K100" s="3">
         <v>808700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>47000</v>
+        <v>-108900</v>
       </c>
       <c r="E101" s="3">
-        <v>124600</v>
+        <v>47200</v>
       </c>
       <c r="F101" s="3">
+        <v>125100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-7200</v>
       </c>
-      <c r="G101" s="3">
-        <v>225400</v>
-      </c>
       <c r="H101" s="3">
+        <v>226400</v>
+      </c>
+      <c r="I101" s="3">
         <v>9000</v>
       </c>
-      <c r="I101" s="3">
-        <v>22500</v>
-      </c>
       <c r="J101" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-612600</v>
+        <v>-356300</v>
       </c>
       <c r="E102" s="3">
-        <v>879600</v>
+        <v>-615200</v>
       </c>
       <c r="F102" s="3">
-        <v>-29200</v>
+        <v>883400</v>
       </c>
       <c r="G102" s="3">
-        <v>-118800</v>
+        <v>-29300</v>
       </c>
       <c r="H102" s="3">
-        <v>2116700</v>
+        <v>-119300</v>
       </c>
       <c r="I102" s="3">
-        <v>-279500</v>
+        <v>2125900</v>
       </c>
       <c r="J102" s="3">
+        <v>-280700</v>
+      </c>
+      <c r="K102" s="3">
         <v>565400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2798300</v>
+        <v>2857500</v>
       </c>
       <c r="E8" s="3">
-        <v>5449100</v>
+        <v>5564300</v>
       </c>
       <c r="F8" s="3">
-        <v>4730800</v>
+        <v>4830800</v>
       </c>
       <c r="G8" s="3">
-        <v>4059900</v>
+        <v>4145700</v>
       </c>
       <c r="H8" s="3">
-        <v>2937700</v>
+        <v>2999800</v>
       </c>
       <c r="I8" s="3">
-        <v>1664900</v>
+        <v>1700100</v>
       </c>
       <c r="J8" s="3">
-        <v>1122500</v>
+        <v>1146200</v>
       </c>
       <c r="K8" s="3">
         <v>819400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>615900</v>
+        <v>628900</v>
       </c>
       <c r="E9" s="3">
-        <v>1126300</v>
+        <v>1150100</v>
       </c>
       <c r="F9" s="3">
-        <v>966200</v>
+        <v>986600</v>
       </c>
       <c r="G9" s="3">
-        <v>714700</v>
+        <v>729800</v>
       </c>
       <c r="H9" s="3">
-        <v>722600</v>
+        <v>737900</v>
       </c>
       <c r="I9" s="3">
-        <v>465000</v>
+        <v>474800</v>
       </c>
       <c r="J9" s="3">
-        <v>320900</v>
+        <v>327700</v>
       </c>
       <c r="K9" s="3">
         <v>211000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2182500</v>
+        <v>2228600</v>
       </c>
       <c r="E10" s="3">
-        <v>4322800</v>
+        <v>4414100</v>
       </c>
       <c r="F10" s="3">
-        <v>3764700</v>
+        <v>3844200</v>
       </c>
       <c r="G10" s="3">
-        <v>3345200</v>
+        <v>3415900</v>
       </c>
       <c r="H10" s="3">
-        <v>2215100</v>
+        <v>2261900</v>
       </c>
       <c r="I10" s="3">
-        <v>1200000</v>
+        <v>1225300</v>
       </c>
       <c r="J10" s="3">
-        <v>801500</v>
+        <v>818500</v>
       </c>
       <c r="K10" s="3">
         <v>608500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1171400</v>
+        <v>1196100</v>
       </c>
       <c r="E12" s="3">
-        <v>1630200</v>
+        <v>1664600</v>
       </c>
       <c r="F12" s="3">
-        <v>1469700</v>
+        <v>1500800</v>
       </c>
       <c r="G12" s="3">
-        <v>1261800</v>
+        <v>1288500</v>
       </c>
       <c r="H12" s="3">
-        <v>1174500</v>
+        <v>1199300</v>
       </c>
       <c r="I12" s="3">
-        <v>503700</v>
+        <v>514300</v>
       </c>
       <c r="J12" s="3">
-        <v>354700</v>
+        <v>362200</v>
       </c>
       <c r="K12" s="3">
         <v>189500</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>138300</v>
+        <v>141200</v>
       </c>
       <c r="E14" s="3">
-        <v>31300</v>
+        <v>32000</v>
       </c>
       <c r="F14" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G14" s="3">
-        <v>208800</v>
+        <v>213300</v>
       </c>
       <c r="H14" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K14" s="3">
         <v>-600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3154000</v>
+        <v>3220700</v>
       </c>
       <c r="E17" s="3">
-        <v>4710400</v>
+        <v>4809900</v>
       </c>
       <c r="F17" s="3">
-        <v>4342500</v>
+        <v>4434300</v>
       </c>
       <c r="G17" s="3">
-        <v>3644100</v>
+        <v>3721200</v>
       </c>
       <c r="H17" s="3">
-        <v>3184700</v>
+        <v>3252000</v>
       </c>
       <c r="I17" s="3">
-        <v>1606700</v>
+        <v>1640700</v>
       </c>
       <c r="J17" s="3">
-        <v>1150800</v>
+        <v>1175100</v>
       </c>
       <c r="K17" s="3">
         <v>691300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-355700</v>
+        <v>-363200</v>
       </c>
       <c r="E18" s="3">
-        <v>738700</v>
+        <v>754300</v>
       </c>
       <c r="F18" s="3">
-        <v>388400</v>
+        <v>396600</v>
       </c>
       <c r="G18" s="3">
-        <v>415800</v>
+        <v>424600</v>
       </c>
       <c r="H18" s="3">
-        <v>-247000</v>
+        <v>-252200</v>
       </c>
       <c r="I18" s="3">
-        <v>58200</v>
+        <v>59400</v>
       </c>
       <c r="J18" s="3">
-        <v>-28300</v>
+        <v>-28900</v>
       </c>
       <c r="K18" s="3">
         <v>128200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>430700</v>
+        <v>439800</v>
       </c>
       <c r="E20" s="3">
-        <v>905800</v>
+        <v>925000</v>
       </c>
       <c r="F20" s="3">
-        <v>135500</v>
+        <v>138400</v>
       </c>
       <c r="G20" s="3">
-        <v>285200</v>
+        <v>291200</v>
       </c>
       <c r="H20" s="3">
-        <v>89900</v>
+        <v>91800</v>
       </c>
       <c r="I20" s="3">
-        <v>447100</v>
+        <v>456600</v>
       </c>
       <c r="J20" s="3">
-        <v>73800</v>
+        <v>75400</v>
       </c>
       <c r="K20" s="3">
         <v>54600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>261600</v>
+        <v>266200</v>
       </c>
       <c r="E21" s="3">
-        <v>1812500</v>
+        <v>1850100</v>
       </c>
       <c r="F21" s="3">
-        <v>674400</v>
+        <v>688000</v>
       </c>
       <c r="G21" s="3">
-        <v>836300</v>
+        <v>853400</v>
       </c>
       <c r="H21" s="3">
-        <v>-46900</v>
+        <v>-48400</v>
       </c>
       <c r="I21" s="3">
-        <v>553800</v>
+        <v>565300</v>
       </c>
       <c r="J21" s="3">
-        <v>73400</v>
+        <v>74800</v>
       </c>
       <c r="K21" s="3">
         <v>201200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>262200</v>
+        <v>267700</v>
       </c>
       <c r="E22" s="3">
-        <v>256200</v>
+        <v>261600</v>
       </c>
       <c r="F22" s="3">
-        <v>230400</v>
+        <v>235300</v>
       </c>
       <c r="G22" s="3">
-        <v>196500</v>
+        <v>200700</v>
       </c>
       <c r="H22" s="3">
-        <v>111800</v>
+        <v>114200</v>
       </c>
       <c r="I22" s="3">
-        <v>46200</v>
+        <v>47200</v>
       </c>
       <c r="J22" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="K22" s="3">
         <v>8700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-187200</v>
+        <v>-191100</v>
       </c>
       <c r="E23" s="3">
-        <v>1388300</v>
+        <v>1417700</v>
       </c>
       <c r="F23" s="3">
-        <v>293500</v>
+        <v>299700</v>
       </c>
       <c r="G23" s="3">
-        <v>504400</v>
+        <v>515100</v>
       </c>
       <c r="H23" s="3">
-        <v>-268900</v>
+        <v>-274600</v>
       </c>
       <c r="I23" s="3">
-        <v>459200</v>
+        <v>468900</v>
       </c>
       <c r="J23" s="3">
-        <v>20700</v>
+        <v>21100</v>
       </c>
       <c r="K23" s="3">
         <v>174100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54200</v>
+        <v>55400</v>
       </c>
       <c r="E24" s="3">
-        <v>266100</v>
+        <v>271800</v>
       </c>
       <c r="F24" s="3">
-        <v>121200</v>
+        <v>123700</v>
       </c>
       <c r="G24" s="3">
-        <v>187800</v>
+        <v>191700</v>
       </c>
       <c r="H24" s="3">
-        <v>73000</v>
+        <v>74600</v>
       </c>
       <c r="I24" s="3">
-        <v>71800</v>
+        <v>73400</v>
       </c>
       <c r="J24" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="K24" s="3">
         <v>44700</v>
@@ -1254,22 +1254,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-241400</v>
+        <v>-246500</v>
       </c>
       <c r="E26" s="3">
-        <v>1122200</v>
+        <v>1145900</v>
       </c>
       <c r="F26" s="3">
-        <v>172300</v>
+        <v>176000</v>
       </c>
       <c r="G26" s="3">
-        <v>316600</v>
+        <v>323300</v>
       </c>
       <c r="H26" s="3">
-        <v>-341900</v>
+        <v>-349200</v>
       </c>
       <c r="I26" s="3">
-        <v>387300</v>
+        <v>395500</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-496100</v>
+        <v>-506600</v>
       </c>
       <c r="E27" s="3">
-        <v>1071100</v>
+        <v>1093800</v>
       </c>
       <c r="F27" s="3">
-        <v>169900</v>
+        <v>173500</v>
       </c>
       <c r="G27" s="3">
-        <v>303800</v>
+        <v>310200</v>
       </c>
       <c r="H27" s="3">
-        <v>-218600</v>
+        <v>-223200</v>
       </c>
       <c r="I27" s="3">
-        <v>383100</v>
+        <v>391200</v>
       </c>
       <c r="J27" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="K27" s="3">
         <v>151900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-430700</v>
+        <v>-439800</v>
       </c>
       <c r="E32" s="3">
-        <v>-905800</v>
+        <v>-925000</v>
       </c>
       <c r="F32" s="3">
-        <v>-135500</v>
+        <v>-138400</v>
       </c>
       <c r="G32" s="3">
-        <v>-285200</v>
+        <v>-291200</v>
       </c>
       <c r="H32" s="3">
-        <v>-89900</v>
+        <v>-91800</v>
       </c>
       <c r="I32" s="3">
-        <v>-447100</v>
+        <v>-456600</v>
       </c>
       <c r="J32" s="3">
-        <v>-73800</v>
+        <v>-75400</v>
       </c>
       <c r="K32" s="3">
         <v>-54600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-496100</v>
+        <v>-506600</v>
       </c>
       <c r="E33" s="3">
-        <v>1071100</v>
+        <v>1093800</v>
       </c>
       <c r="F33" s="3">
-        <v>169900</v>
+        <v>173500</v>
       </c>
       <c r="G33" s="3">
-        <v>303800</v>
+        <v>310200</v>
       </c>
       <c r="H33" s="3">
-        <v>-218600</v>
+        <v>-223200</v>
       </c>
       <c r="I33" s="3">
-        <v>383100</v>
+        <v>391200</v>
       </c>
       <c r="J33" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="K33" s="3">
         <v>151900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-496100</v>
+        <v>-506600</v>
       </c>
       <c r="E35" s="3">
-        <v>1071100</v>
+        <v>1093800</v>
       </c>
       <c r="F35" s="3">
-        <v>169900</v>
+        <v>173500</v>
       </c>
       <c r="G35" s="3">
-        <v>303800</v>
+        <v>310200</v>
       </c>
       <c r="H35" s="3">
-        <v>-218600</v>
+        <v>-223200</v>
       </c>
       <c r="I35" s="3">
-        <v>383100</v>
+        <v>391200</v>
       </c>
       <c r="J35" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="K35" s="3">
         <v>151900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2764700</v>
+        <v>2823200</v>
       </c>
       <c r="E41" s="3">
-        <v>3043800</v>
+        <v>3108200</v>
       </c>
       <c r="F41" s="3">
-        <v>3289400</v>
+        <v>3358900</v>
       </c>
       <c r="G41" s="3">
-        <v>2787200</v>
+        <v>2846100</v>
       </c>
       <c r="H41" s="3">
-        <v>2816500</v>
+        <v>2876000</v>
       </c>
       <c r="I41" s="3">
-        <v>2935800</v>
+        <v>2997800</v>
       </c>
       <c r="J41" s="3">
-        <v>809900</v>
+        <v>827000</v>
       </c>
       <c r="K41" s="3">
         <v>1085900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3792000</v>
+        <v>3872200</v>
       </c>
       <c r="E42" s="3">
-        <v>3522800</v>
+        <v>3597300</v>
       </c>
       <c r="F42" s="3">
-        <v>5615100</v>
+        <v>5733800</v>
       </c>
       <c r="G42" s="3">
-        <v>4297700</v>
+        <v>4388600</v>
       </c>
       <c r="H42" s="3">
-        <v>2156200</v>
+        <v>2201700</v>
       </c>
       <c r="I42" s="3">
-        <v>1258300</v>
+        <v>1284900</v>
       </c>
       <c r="J42" s="3">
-        <v>983700</v>
+        <v>1004500</v>
       </c>
       <c r="K42" s="3">
         <v>553000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1359600</v>
+        <v>1388300</v>
       </c>
       <c r="E43" s="3">
-        <v>2019300</v>
+        <v>2062000</v>
       </c>
       <c r="F43" s="3">
-        <v>1353800</v>
+        <v>1382400</v>
       </c>
       <c r="G43" s="3">
-        <v>1580000</v>
+        <v>1613400</v>
       </c>
       <c r="H43" s="3">
-        <v>871100</v>
+        <v>889500</v>
       </c>
       <c r="I43" s="3">
-        <v>673000</v>
+        <v>687300</v>
       </c>
       <c r="J43" s="3">
-        <v>296700</v>
+        <v>303000</v>
       </c>
       <c r="K43" s="3">
         <v>478000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>946600</v>
+        <v>966600</v>
       </c>
       <c r="E45" s="3">
-        <v>1796200</v>
+        <v>1834200</v>
       </c>
       <c r="F45" s="3">
-        <v>1871600</v>
+        <v>1911100</v>
       </c>
       <c r="G45" s="3">
-        <v>2109700</v>
+        <v>2154300</v>
       </c>
       <c r="H45" s="3">
-        <v>1170600</v>
+        <v>1195400</v>
       </c>
       <c r="I45" s="3">
-        <v>1335900</v>
+        <v>1364200</v>
       </c>
       <c r="J45" s="3">
-        <v>519400</v>
+        <v>530400</v>
       </c>
       <c r="K45" s="3">
         <v>487600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8862900</v>
+        <v>9050300</v>
       </c>
       <c r="E46" s="3">
-        <v>10382200</v>
+        <v>10601700</v>
       </c>
       <c r="F46" s="3">
-        <v>12129800</v>
+        <v>12386300</v>
       </c>
       <c r="G46" s="3">
-        <v>9077900</v>
+        <v>9269800</v>
       </c>
       <c r="H46" s="3">
-        <v>7014400</v>
+        <v>7162600</v>
       </c>
       <c r="I46" s="3">
-        <v>6203000</v>
+        <v>6334100</v>
       </c>
       <c r="J46" s="3">
-        <v>2609000</v>
+        <v>2664100</v>
       </c>
       <c r="K46" s="3">
         <v>2185300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7328600</v>
+        <v>7483500</v>
       </c>
       <c r="E47" s="3">
-        <v>7841300</v>
+        <v>8007100</v>
       </c>
       <c r="F47" s="3">
-        <v>4140800</v>
+        <v>4228300</v>
       </c>
       <c r="G47" s="3">
-        <v>7886800</v>
+        <v>8053600</v>
       </c>
       <c r="H47" s="3">
-        <v>3261600</v>
+        <v>3330600</v>
       </c>
       <c r="I47" s="3">
-        <v>2290600</v>
+        <v>2339100</v>
       </c>
       <c r="J47" s="3">
-        <v>920000</v>
+        <v>939400</v>
       </c>
       <c r="K47" s="3">
         <v>926100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1033900</v>
+        <v>1055700</v>
       </c>
       <c r="E48" s="3">
-        <v>1121700</v>
+        <v>1145400</v>
       </c>
       <c r="F48" s="3">
-        <v>897100</v>
+        <v>916100</v>
       </c>
       <c r="G48" s="3">
-        <v>1715900</v>
+        <v>1752200</v>
       </c>
       <c r="H48" s="3">
-        <v>854300</v>
+        <v>872400</v>
       </c>
       <c r="I48" s="3">
-        <v>848800</v>
+        <v>866800</v>
       </c>
       <c r="J48" s="3">
-        <v>797600</v>
+        <v>814500</v>
       </c>
       <c r="K48" s="3">
         <v>429900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11106600</v>
+        <v>11341500</v>
       </c>
       <c r="E49" s="3">
-        <v>10934800</v>
+        <v>11165900</v>
       </c>
       <c r="F49" s="3">
-        <v>10976200</v>
+        <v>11208200</v>
       </c>
       <c r="G49" s="3">
-        <v>12809600</v>
+        <v>13080400</v>
       </c>
       <c r="H49" s="3">
-        <v>10700600</v>
+        <v>10926900</v>
       </c>
       <c r="I49" s="3">
-        <v>8678000</v>
+        <v>8861500</v>
       </c>
       <c r="J49" s="3">
-        <v>407200</v>
+        <v>415800</v>
       </c>
       <c r="K49" s="3">
         <v>272800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>275900</v>
+        <v>281800</v>
       </c>
       <c r="E52" s="3">
-        <v>301900</v>
+        <v>308300</v>
       </c>
       <c r="F52" s="3">
-        <v>247200</v>
+        <v>252400</v>
       </c>
       <c r="G52" s="3">
-        <v>198900</v>
+        <v>203100</v>
       </c>
       <c r="H52" s="3">
-        <v>232600</v>
+        <v>237500</v>
       </c>
       <c r="I52" s="3">
-        <v>136300</v>
+        <v>139200</v>
       </c>
       <c r="J52" s="3">
-        <v>34400</v>
+        <v>35100</v>
       </c>
       <c r="K52" s="3">
         <v>85100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28607900</v>
+        <v>29212700</v>
       </c>
       <c r="E54" s="3">
-        <v>30581800</v>
+        <v>31228400</v>
       </c>
       <c r="F54" s="3">
-        <v>28391100</v>
+        <v>28991300</v>
       </c>
       <c r="G54" s="3">
-        <v>24787000</v>
+        <v>25311100</v>
       </c>
       <c r="H54" s="3">
-        <v>22063600</v>
+        <v>22530000</v>
       </c>
       <c r="I54" s="3">
-        <v>18156800</v>
+        <v>18540600</v>
       </c>
       <c r="J54" s="3">
-        <v>4768200</v>
+        <v>4869000</v>
       </c>
       <c r="K54" s="3">
         <v>3166900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>688400</v>
+        <v>703000</v>
       </c>
       <c r="E57" s="3">
-        <v>1878300</v>
+        <v>1918000</v>
       </c>
       <c r="F57" s="3">
-        <v>1789700</v>
+        <v>1827500</v>
       </c>
       <c r="G57" s="3">
-        <v>1139600</v>
+        <v>1163700</v>
       </c>
       <c r="H57" s="3">
-        <v>1112100</v>
+        <v>1135600</v>
       </c>
       <c r="I57" s="3">
-        <v>908200</v>
+        <v>927400</v>
       </c>
       <c r="J57" s="3">
-        <v>352000</v>
+        <v>359500</v>
       </c>
       <c r="K57" s="3">
         <v>249100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5143300</v>
+        <v>5252100</v>
       </c>
       <c r="E58" s="3">
-        <v>4662200</v>
+        <v>4760800</v>
       </c>
       <c r="F58" s="3">
-        <v>5501800</v>
+        <v>5618100</v>
       </c>
       <c r="G58" s="3">
-        <v>4985600</v>
+        <v>5091000</v>
       </c>
       <c r="H58" s="3">
-        <v>1052200</v>
+        <v>1074500</v>
       </c>
       <c r="I58" s="3">
-        <v>2130300</v>
+        <v>2175300</v>
       </c>
       <c r="J58" s="3">
-        <v>544000</v>
+        <v>555500</v>
       </c>
       <c r="K58" s="3">
         <v>117800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3085900</v>
+        <v>3151100</v>
       </c>
       <c r="E59" s="3">
-        <v>4029100</v>
+        <v>4114300</v>
       </c>
       <c r="F59" s="3">
-        <v>3217400</v>
+        <v>3285400</v>
       </c>
       <c r="G59" s="3">
-        <v>3651800</v>
+        <v>3729000</v>
       </c>
       <c r="H59" s="3">
-        <v>2464200</v>
+        <v>2516300</v>
       </c>
       <c r="I59" s="3">
-        <v>2105000</v>
+        <v>2149500</v>
       </c>
       <c r="J59" s="3">
-        <v>1046600</v>
+        <v>1068700</v>
       </c>
       <c r="K59" s="3">
         <v>700100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8917600</v>
+        <v>9106100</v>
       </c>
       <c r="E60" s="3">
-        <v>10569600</v>
+        <v>10793100</v>
       </c>
       <c r="F60" s="3">
-        <v>10508800</v>
+        <v>10731000</v>
       </c>
       <c r="G60" s="3">
-        <v>6441500</v>
+        <v>6577700</v>
       </c>
       <c r="H60" s="3">
-        <v>4628500</v>
+        <v>4726300</v>
       </c>
       <c r="I60" s="3">
-        <v>5143500</v>
+        <v>5252200</v>
       </c>
       <c r="J60" s="3">
-        <v>1942600</v>
+        <v>1983600</v>
       </c>
       <c r="K60" s="3">
         <v>968700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3470900</v>
+        <v>3544200</v>
       </c>
       <c r="E61" s="3">
-        <v>2984900</v>
+        <v>3048000</v>
       </c>
       <c r="F61" s="3">
-        <v>3689000</v>
+        <v>3767000</v>
       </c>
       <c r="G61" s="3">
-        <v>4464200</v>
+        <v>4558600</v>
       </c>
       <c r="H61" s="3">
-        <v>5293900</v>
+        <v>5405900</v>
       </c>
       <c r="I61" s="3">
-        <v>2804200</v>
+        <v>2863500</v>
       </c>
       <c r="J61" s="3">
-        <v>1219900</v>
+        <v>1245700</v>
       </c>
       <c r="K61" s="3">
         <v>860600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>702000</v>
+        <v>716900</v>
       </c>
       <c r="E62" s="3">
-        <v>703600</v>
+        <v>718400</v>
       </c>
       <c r="F62" s="3">
-        <v>636600</v>
+        <v>650100</v>
       </c>
       <c r="G62" s="3">
-        <v>648200</v>
+        <v>662000</v>
       </c>
       <c r="H62" s="3">
-        <v>603100</v>
+        <v>615800</v>
       </c>
       <c r="I62" s="3">
-        <v>479300</v>
+        <v>489400</v>
       </c>
       <c r="J62" s="3">
-        <v>20200</v>
+        <v>20700</v>
       </c>
       <c r="K62" s="3">
         <v>9600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13275800</v>
+        <v>13556500</v>
       </c>
       <c r="E66" s="3">
-        <v>14778000</v>
+        <v>15090400</v>
       </c>
       <c r="F66" s="3">
-        <v>15142800</v>
+        <v>15462900</v>
       </c>
       <c r="G66" s="3">
-        <v>11825800</v>
+        <v>12075800</v>
       </c>
       <c r="H66" s="3">
-        <v>11134200</v>
+        <v>11369600</v>
       </c>
       <c r="I66" s="3">
-        <v>11350300</v>
+        <v>11590300</v>
       </c>
       <c r="J66" s="3">
-        <v>3312300</v>
+        <v>3382400</v>
       </c>
       <c r="K66" s="3">
         <v>1869300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3071900</v>
+        <v>3136900</v>
       </c>
       <c r="E72" s="3">
-        <v>3580900</v>
+        <v>3656600</v>
       </c>
       <c r="F72" s="3">
-        <v>2509700</v>
+        <v>2562800</v>
       </c>
       <c r="G72" s="3">
-        <v>2371300</v>
+        <v>2421400</v>
       </c>
       <c r="H72" s="3">
-        <v>1059800</v>
+        <v>1082300</v>
       </c>
       <c r="I72" s="3">
-        <v>1278400</v>
+        <v>1305500</v>
       </c>
       <c r="J72" s="3">
-        <v>895300</v>
+        <v>914200</v>
       </c>
       <c r="K72" s="3">
         <v>854500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15332100</v>
+        <v>15656200</v>
       </c>
       <c r="E76" s="3">
-        <v>15803900</v>
+        <v>16138000</v>
       </c>
       <c r="F76" s="3">
-        <v>13248300</v>
+        <v>13528400</v>
       </c>
       <c r="G76" s="3">
-        <v>12961200</v>
+        <v>13235300</v>
       </c>
       <c r="H76" s="3">
-        <v>10929400</v>
+        <v>11160500</v>
       </c>
       <c r="I76" s="3">
-        <v>6806500</v>
+        <v>6950400</v>
       </c>
       <c r="J76" s="3">
-        <v>1455900</v>
+        <v>1486600</v>
       </c>
       <c r="K76" s="3">
         <v>1297600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-496100</v>
+        <v>-506600</v>
       </c>
       <c r="E81" s="3">
-        <v>1071100</v>
+        <v>1093800</v>
       </c>
       <c r="F81" s="3">
-        <v>169900</v>
+        <v>173500</v>
       </c>
       <c r="G81" s="3">
-        <v>303800</v>
+        <v>310200</v>
       </c>
       <c r="H81" s="3">
-        <v>-218600</v>
+        <v>-223200</v>
       </c>
       <c r="I81" s="3">
-        <v>383100</v>
+        <v>391200</v>
       </c>
       <c r="J81" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="K81" s="3">
         <v>151900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185900</v>
+        <v>189900</v>
       </c>
       <c r="E83" s="3">
-        <v>167400</v>
+        <v>171000</v>
       </c>
       <c r="F83" s="3">
-        <v>150000</v>
+        <v>153200</v>
       </c>
       <c r="G83" s="3">
-        <v>134900</v>
+        <v>137800</v>
       </c>
       <c r="H83" s="3">
-        <v>109800</v>
+        <v>112100</v>
       </c>
       <c r="I83" s="3">
-        <v>48300</v>
+        <v>49300</v>
       </c>
       <c r="J83" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="K83" s="3">
         <v>18400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-584100</v>
+        <v>-596400</v>
       </c>
       <c r="E89" s="3">
-        <v>1120300</v>
+        <v>1144000</v>
       </c>
       <c r="F89" s="3">
-        <v>1087000</v>
+        <v>1110000</v>
       </c>
       <c r="G89" s="3">
-        <v>1080000</v>
+        <v>1102800</v>
       </c>
       <c r="H89" s="3">
-        <v>805600</v>
+        <v>822600</v>
       </c>
       <c r="I89" s="3">
-        <v>465800</v>
+        <v>475600</v>
       </c>
       <c r="J89" s="3">
-        <v>299200</v>
+        <v>305600</v>
       </c>
       <c r="K89" s="3">
         <v>373100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81300</v>
+        <v>-83000</v>
       </c>
       <c r="E91" s="3">
-        <v>-125700</v>
+        <v>-128400</v>
       </c>
       <c r="F91" s="3">
-        <v>-102800</v>
+        <v>-105000</v>
       </c>
       <c r="G91" s="3">
-        <v>-72000</v>
+        <v>-73500</v>
       </c>
       <c r="H91" s="3">
-        <v>-104300</v>
+        <v>-106500</v>
       </c>
       <c r="I91" s="3">
-        <v>-97500</v>
+        <v>-99600</v>
       </c>
       <c r="J91" s="3">
-        <v>-731600</v>
+        <v>-747100</v>
       </c>
       <c r="K91" s="3">
         <v>-99100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-583800</v>
+        <v>-596100</v>
       </c>
       <c r="E94" s="3">
-        <v>-368700</v>
+        <v>-376500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2150800</v>
+        <v>-2196300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2327200</v>
+        <v>-2376400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3028900</v>
+        <v>-3093000</v>
       </c>
       <c r="I94" s="3">
-        <v>-676300</v>
+        <v>-690600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1431000</v>
+        <v>-1461300</v>
       </c>
       <c r="K94" s="3">
         <v>-621600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>920500</v>
+        <v>940000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1414100</v>
+        <v>-1444000</v>
       </c>
       <c r="F100" s="3">
-        <v>1822100</v>
+        <v>1860600</v>
       </c>
       <c r="G100" s="3">
-        <v>1225200</v>
+        <v>1251100</v>
       </c>
       <c r="H100" s="3">
-        <v>1877600</v>
+        <v>1917300</v>
       </c>
       <c r="I100" s="3">
-        <v>2327400</v>
+        <v>2376600</v>
       </c>
       <c r="J100" s="3">
-        <v>828400</v>
+        <v>845900</v>
       </c>
       <c r="K100" s="3">
         <v>808700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-108900</v>
+        <v>-111200</v>
       </c>
       <c r="E101" s="3">
-        <v>47200</v>
+        <v>48200</v>
       </c>
       <c r="F101" s="3">
-        <v>125100</v>
+        <v>127800</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>226400</v>
+        <v>231200</v>
       </c>
       <c r="I101" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="J101" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="K101" s="3">
         <v>5200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-356300</v>
+        <v>-363800</v>
       </c>
       <c r="E102" s="3">
-        <v>-615200</v>
+        <v>-628300</v>
       </c>
       <c r="F102" s="3">
-        <v>883400</v>
+        <v>902000</v>
       </c>
       <c r="G102" s="3">
-        <v>-29300</v>
+        <v>-29900</v>
       </c>
       <c r="H102" s="3">
-        <v>-119300</v>
+        <v>-121800</v>
       </c>
       <c r="I102" s="3">
-        <v>2125900</v>
+        <v>2170800</v>
       </c>
       <c r="J102" s="3">
-        <v>-280700</v>
+        <v>-286700</v>
       </c>
       <c r="K102" s="3">
         <v>565400</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2857500</v>
+        <v>2820300</v>
       </c>
       <c r="E8" s="3">
-        <v>5564300</v>
+        <v>5491900</v>
       </c>
       <c r="F8" s="3">
-        <v>4830800</v>
+        <v>4768000</v>
       </c>
       <c r="G8" s="3">
-        <v>4145700</v>
+        <v>4091800</v>
       </c>
       <c r="H8" s="3">
-        <v>2999800</v>
+        <v>2960800</v>
       </c>
       <c r="I8" s="3">
-        <v>1700100</v>
+        <v>1678000</v>
       </c>
       <c r="J8" s="3">
-        <v>1146200</v>
+        <v>1131300</v>
       </c>
       <c r="K8" s="3">
         <v>819400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>628900</v>
+        <v>620700</v>
       </c>
       <c r="E9" s="3">
-        <v>1150100</v>
+        <v>1135100</v>
       </c>
       <c r="F9" s="3">
-        <v>986600</v>
+        <v>973800</v>
       </c>
       <c r="G9" s="3">
-        <v>729800</v>
+        <v>720300</v>
       </c>
       <c r="H9" s="3">
-        <v>737900</v>
+        <v>728300</v>
       </c>
       <c r="I9" s="3">
-        <v>474800</v>
+        <v>468600</v>
       </c>
       <c r="J9" s="3">
-        <v>327700</v>
+        <v>323500</v>
       </c>
       <c r="K9" s="3">
         <v>211000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2228600</v>
+        <v>2199600</v>
       </c>
       <c r="E10" s="3">
-        <v>4414100</v>
+        <v>4356700</v>
       </c>
       <c r="F10" s="3">
-        <v>3844200</v>
+        <v>3794200</v>
       </c>
       <c r="G10" s="3">
-        <v>3415900</v>
+        <v>3371500</v>
       </c>
       <c r="H10" s="3">
-        <v>2261900</v>
+        <v>2232500</v>
       </c>
       <c r="I10" s="3">
-        <v>1225300</v>
+        <v>1209400</v>
       </c>
       <c r="J10" s="3">
-        <v>818500</v>
+        <v>807800</v>
       </c>
       <c r="K10" s="3">
         <v>608500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1196100</v>
+        <v>1180600</v>
       </c>
       <c r="E12" s="3">
-        <v>1664600</v>
+        <v>1643000</v>
       </c>
       <c r="F12" s="3">
-        <v>1500800</v>
+        <v>1481300</v>
       </c>
       <c r="G12" s="3">
-        <v>1288500</v>
+        <v>1271700</v>
       </c>
       <c r="H12" s="3">
-        <v>1199300</v>
+        <v>1183700</v>
       </c>
       <c r="I12" s="3">
-        <v>514300</v>
+        <v>507600</v>
       </c>
       <c r="J12" s="3">
-        <v>362200</v>
+        <v>357400</v>
       </c>
       <c r="K12" s="3">
         <v>189500</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>141200</v>
+        <v>139400</v>
       </c>
       <c r="E14" s="3">
-        <v>32000</v>
+        <v>31600</v>
       </c>
       <c r="F14" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="G14" s="3">
-        <v>213300</v>
+        <v>210500</v>
       </c>
       <c r="H14" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K14" s="3">
         <v>-600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3220700</v>
+        <v>3178800</v>
       </c>
       <c r="E17" s="3">
-        <v>4809900</v>
+        <v>4747400</v>
       </c>
       <c r="F17" s="3">
-        <v>4434300</v>
+        <v>4376600</v>
       </c>
       <c r="G17" s="3">
-        <v>3721200</v>
+        <v>3672700</v>
       </c>
       <c r="H17" s="3">
-        <v>3252000</v>
+        <v>3209700</v>
       </c>
       <c r="I17" s="3">
-        <v>1640700</v>
+        <v>1619300</v>
       </c>
       <c r="J17" s="3">
-        <v>1175100</v>
+        <v>1159800</v>
       </c>
       <c r="K17" s="3">
         <v>691300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-363200</v>
+        <v>-358500</v>
       </c>
       <c r="E18" s="3">
-        <v>754300</v>
+        <v>744500</v>
       </c>
       <c r="F18" s="3">
-        <v>396600</v>
+        <v>391400</v>
       </c>
       <c r="G18" s="3">
-        <v>424600</v>
+        <v>419000</v>
       </c>
       <c r="H18" s="3">
-        <v>-252200</v>
+        <v>-248900</v>
       </c>
       <c r="I18" s="3">
-        <v>59400</v>
+        <v>58700</v>
       </c>
       <c r="J18" s="3">
-        <v>-28900</v>
+        <v>-28500</v>
       </c>
       <c r="K18" s="3">
         <v>128200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>439800</v>
+        <v>434100</v>
       </c>
       <c r="E20" s="3">
-        <v>925000</v>
+        <v>912900</v>
       </c>
       <c r="F20" s="3">
-        <v>138400</v>
+        <v>136600</v>
       </c>
       <c r="G20" s="3">
-        <v>291200</v>
+        <v>287400</v>
       </c>
       <c r="H20" s="3">
-        <v>91800</v>
+        <v>90600</v>
       </c>
       <c r="I20" s="3">
-        <v>456600</v>
+        <v>450700</v>
       </c>
       <c r="J20" s="3">
-        <v>75400</v>
+        <v>74400</v>
       </c>
       <c r="K20" s="3">
         <v>54600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>266200</v>
+        <v>263300</v>
       </c>
       <c r="E21" s="3">
-        <v>1850100</v>
+        <v>1826500</v>
       </c>
       <c r="F21" s="3">
-        <v>688000</v>
+        <v>679400</v>
       </c>
       <c r="G21" s="3">
-        <v>853400</v>
+        <v>842600</v>
       </c>
       <c r="H21" s="3">
-        <v>-48400</v>
+        <v>-47500</v>
       </c>
       <c r="I21" s="3">
-        <v>565300</v>
+        <v>558100</v>
       </c>
       <c r="J21" s="3">
-        <v>74800</v>
+        <v>73900</v>
       </c>
       <c r="K21" s="3">
         <v>201200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>267700</v>
+        <v>264200</v>
       </c>
       <c r="E22" s="3">
-        <v>261600</v>
+        <v>258200</v>
       </c>
       <c r="F22" s="3">
-        <v>235300</v>
+        <v>232200</v>
       </c>
       <c r="G22" s="3">
-        <v>200700</v>
+        <v>198100</v>
       </c>
       <c r="H22" s="3">
-        <v>114200</v>
+        <v>112700</v>
       </c>
       <c r="I22" s="3">
-        <v>47200</v>
+        <v>46600</v>
       </c>
       <c r="J22" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="K22" s="3">
         <v>8700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-191100</v>
+        <v>-188600</v>
       </c>
       <c r="E23" s="3">
-        <v>1417700</v>
+        <v>1399200</v>
       </c>
       <c r="F23" s="3">
-        <v>299700</v>
+        <v>295800</v>
       </c>
       <c r="G23" s="3">
-        <v>515100</v>
+        <v>508300</v>
       </c>
       <c r="H23" s="3">
-        <v>-274600</v>
+        <v>-271000</v>
       </c>
       <c r="I23" s="3">
-        <v>468900</v>
+        <v>462800</v>
       </c>
       <c r="J23" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="K23" s="3">
         <v>174100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55400</v>
+        <v>54700</v>
       </c>
       <c r="E24" s="3">
-        <v>271800</v>
+        <v>268200</v>
       </c>
       <c r="F24" s="3">
-        <v>123700</v>
+        <v>122100</v>
       </c>
       <c r="G24" s="3">
-        <v>191700</v>
+        <v>189200</v>
       </c>
       <c r="H24" s="3">
-        <v>74600</v>
+        <v>73600</v>
       </c>
       <c r="I24" s="3">
-        <v>73400</v>
+        <v>72400</v>
       </c>
       <c r="J24" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="K24" s="3">
         <v>44700</v>
@@ -1254,22 +1254,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-246500</v>
+        <v>-243300</v>
       </c>
       <c r="E26" s="3">
-        <v>1145900</v>
+        <v>1131000</v>
       </c>
       <c r="F26" s="3">
-        <v>176000</v>
+        <v>173700</v>
       </c>
       <c r="G26" s="3">
-        <v>323300</v>
+        <v>319100</v>
       </c>
       <c r="H26" s="3">
-        <v>-349200</v>
+        <v>-344600</v>
       </c>
       <c r="I26" s="3">
-        <v>395500</v>
+        <v>390400</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-506600</v>
+        <v>-500000</v>
       </c>
       <c r="E27" s="3">
-        <v>1093800</v>
+        <v>1079600</v>
       </c>
       <c r="F27" s="3">
-        <v>173500</v>
+        <v>171200</v>
       </c>
       <c r="G27" s="3">
-        <v>310200</v>
+        <v>306200</v>
       </c>
       <c r="H27" s="3">
-        <v>-223200</v>
+        <v>-220300</v>
       </c>
       <c r="I27" s="3">
-        <v>391200</v>
+        <v>386100</v>
       </c>
       <c r="J27" s="3">
-        <v>37900</v>
+        <v>37400</v>
       </c>
       <c r="K27" s="3">
         <v>151900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-439800</v>
+        <v>-434100</v>
       </c>
       <c r="E32" s="3">
-        <v>-925000</v>
+        <v>-912900</v>
       </c>
       <c r="F32" s="3">
-        <v>-138400</v>
+        <v>-136600</v>
       </c>
       <c r="G32" s="3">
-        <v>-291200</v>
+        <v>-287400</v>
       </c>
       <c r="H32" s="3">
-        <v>-91800</v>
+        <v>-90600</v>
       </c>
       <c r="I32" s="3">
-        <v>-456600</v>
+        <v>-450700</v>
       </c>
       <c r="J32" s="3">
-        <v>-75400</v>
+        <v>-74400</v>
       </c>
       <c r="K32" s="3">
         <v>-54600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-506600</v>
+        <v>-500000</v>
       </c>
       <c r="E33" s="3">
-        <v>1093800</v>
+        <v>1079600</v>
       </c>
       <c r="F33" s="3">
-        <v>173500</v>
+        <v>171200</v>
       </c>
       <c r="G33" s="3">
-        <v>310200</v>
+        <v>306200</v>
       </c>
       <c r="H33" s="3">
-        <v>-223200</v>
+        <v>-220300</v>
       </c>
       <c r="I33" s="3">
-        <v>391200</v>
+        <v>386100</v>
       </c>
       <c r="J33" s="3">
-        <v>37900</v>
+        <v>37400</v>
       </c>
       <c r="K33" s="3">
         <v>151900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-506600</v>
+        <v>-500000</v>
       </c>
       <c r="E35" s="3">
-        <v>1093800</v>
+        <v>1079600</v>
       </c>
       <c r="F35" s="3">
-        <v>173500</v>
+        <v>171200</v>
       </c>
       <c r="G35" s="3">
-        <v>310200</v>
+        <v>306200</v>
       </c>
       <c r="H35" s="3">
-        <v>-223200</v>
+        <v>-220300</v>
       </c>
       <c r="I35" s="3">
-        <v>391200</v>
+        <v>386100</v>
       </c>
       <c r="J35" s="3">
-        <v>37900</v>
+        <v>37400</v>
       </c>
       <c r="K35" s="3">
         <v>151900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2823200</v>
+        <v>2786400</v>
       </c>
       <c r="E41" s="3">
-        <v>3108200</v>
+        <v>3067700</v>
       </c>
       <c r="F41" s="3">
-        <v>3358900</v>
+        <v>3315200</v>
       </c>
       <c r="G41" s="3">
-        <v>2846100</v>
+        <v>2809100</v>
       </c>
       <c r="H41" s="3">
-        <v>2876000</v>
+        <v>2838600</v>
       </c>
       <c r="I41" s="3">
-        <v>2997800</v>
+        <v>2958800</v>
       </c>
       <c r="J41" s="3">
-        <v>827000</v>
+        <v>816200</v>
       </c>
       <c r="K41" s="3">
         <v>1085900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3872200</v>
+        <v>3821800</v>
       </c>
       <c r="E42" s="3">
-        <v>3597300</v>
+        <v>3550500</v>
       </c>
       <c r="F42" s="3">
-        <v>5733800</v>
+        <v>5659200</v>
       </c>
       <c r="G42" s="3">
-        <v>4388600</v>
+        <v>4331500</v>
       </c>
       <c r="H42" s="3">
-        <v>2201700</v>
+        <v>2173100</v>
       </c>
       <c r="I42" s="3">
-        <v>1284900</v>
+        <v>1268100</v>
       </c>
       <c r="J42" s="3">
-        <v>1004500</v>
+        <v>991500</v>
       </c>
       <c r="K42" s="3">
         <v>553000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1388300</v>
+        <v>1370300</v>
       </c>
       <c r="E43" s="3">
-        <v>2062000</v>
+        <v>2035200</v>
       </c>
       <c r="F43" s="3">
-        <v>1382400</v>
+        <v>1364400</v>
       </c>
       <c r="G43" s="3">
-        <v>1613400</v>
+        <v>1592400</v>
       </c>
       <c r="H43" s="3">
-        <v>889500</v>
+        <v>877900</v>
       </c>
       <c r="I43" s="3">
-        <v>687300</v>
+        <v>678300</v>
       </c>
       <c r="J43" s="3">
-        <v>303000</v>
+        <v>299000</v>
       </c>
       <c r="K43" s="3">
         <v>478000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>966600</v>
+        <v>954100</v>
       </c>
       <c r="E45" s="3">
-        <v>1834200</v>
+        <v>1810300</v>
       </c>
       <c r="F45" s="3">
-        <v>1911100</v>
+        <v>1886300</v>
       </c>
       <c r="G45" s="3">
-        <v>2154300</v>
+        <v>2126300</v>
       </c>
       <c r="H45" s="3">
-        <v>1195400</v>
+        <v>1179800</v>
       </c>
       <c r="I45" s="3">
-        <v>1364200</v>
+        <v>1346400</v>
       </c>
       <c r="J45" s="3">
-        <v>530400</v>
+        <v>523500</v>
       </c>
       <c r="K45" s="3">
         <v>487600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9050300</v>
+        <v>8932500</v>
       </c>
       <c r="E46" s="3">
-        <v>10601700</v>
+        <v>10463700</v>
       </c>
       <c r="F46" s="3">
-        <v>12386300</v>
+        <v>12225100</v>
       </c>
       <c r="G46" s="3">
-        <v>9269800</v>
+        <v>9149200</v>
       </c>
       <c r="H46" s="3">
-        <v>7162600</v>
+        <v>7069400</v>
       </c>
       <c r="I46" s="3">
-        <v>6334100</v>
+        <v>6251700</v>
       </c>
       <c r="J46" s="3">
-        <v>2664100</v>
+        <v>2629500</v>
       </c>
       <c r="K46" s="3">
         <v>2185300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7483500</v>
+        <v>7386100</v>
       </c>
       <c r="E47" s="3">
-        <v>8007100</v>
+        <v>7902900</v>
       </c>
       <c r="F47" s="3">
-        <v>4228300</v>
+        <v>4173300</v>
       </c>
       <c r="G47" s="3">
-        <v>8053600</v>
+        <v>7948800</v>
       </c>
       <c r="H47" s="3">
-        <v>3330600</v>
+        <v>3287200</v>
       </c>
       <c r="I47" s="3">
-        <v>2339100</v>
+        <v>2308600</v>
       </c>
       <c r="J47" s="3">
-        <v>939400</v>
+        <v>927200</v>
       </c>
       <c r="K47" s="3">
         <v>926100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1055700</v>
+        <v>1042000</v>
       </c>
       <c r="E48" s="3">
-        <v>1145400</v>
+        <v>1130500</v>
       </c>
       <c r="F48" s="3">
-        <v>916100</v>
+        <v>904200</v>
       </c>
       <c r="G48" s="3">
-        <v>1752200</v>
+        <v>1729400</v>
       </c>
       <c r="H48" s="3">
-        <v>872400</v>
+        <v>861100</v>
       </c>
       <c r="I48" s="3">
-        <v>866800</v>
+        <v>855500</v>
       </c>
       <c r="J48" s="3">
-        <v>814500</v>
+        <v>803900</v>
       </c>
       <c r="K48" s="3">
         <v>429900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11341500</v>
+        <v>11193900</v>
       </c>
       <c r="E49" s="3">
-        <v>11165900</v>
+        <v>11020700</v>
       </c>
       <c r="F49" s="3">
-        <v>11208200</v>
+        <v>11062400</v>
       </c>
       <c r="G49" s="3">
-        <v>13080400</v>
+        <v>12910200</v>
       </c>
       <c r="H49" s="3">
-        <v>10926900</v>
+        <v>10784700</v>
       </c>
       <c r="I49" s="3">
-        <v>8861500</v>
+        <v>8746200</v>
       </c>
       <c r="J49" s="3">
-        <v>415800</v>
+        <v>410400</v>
       </c>
       <c r="K49" s="3">
         <v>272800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>281800</v>
+        <v>278100</v>
       </c>
       <c r="E52" s="3">
-        <v>308300</v>
+        <v>304300</v>
       </c>
       <c r="F52" s="3">
-        <v>252400</v>
+        <v>249100</v>
       </c>
       <c r="G52" s="3">
-        <v>203100</v>
+        <v>200500</v>
       </c>
       <c r="H52" s="3">
-        <v>237500</v>
+        <v>234400</v>
       </c>
       <c r="I52" s="3">
-        <v>139200</v>
+        <v>137400</v>
       </c>
       <c r="J52" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="K52" s="3">
         <v>85100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29212700</v>
+        <v>28832600</v>
       </c>
       <c r="E54" s="3">
-        <v>31228400</v>
+        <v>30822000</v>
       </c>
       <c r="F54" s="3">
-        <v>28991300</v>
+        <v>28614100</v>
       </c>
       <c r="G54" s="3">
-        <v>25311100</v>
+        <v>24981700</v>
       </c>
       <c r="H54" s="3">
-        <v>22530000</v>
+        <v>22236900</v>
       </c>
       <c r="I54" s="3">
-        <v>18540600</v>
+        <v>18299400</v>
       </c>
       <c r="J54" s="3">
-        <v>4869000</v>
+        <v>4805600</v>
       </c>
       <c r="K54" s="3">
         <v>3166900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>703000</v>
+        <v>693800</v>
       </c>
       <c r="E57" s="3">
-        <v>1918000</v>
+        <v>1893000</v>
       </c>
       <c r="F57" s="3">
-        <v>1827500</v>
+        <v>1803700</v>
       </c>
       <c r="G57" s="3">
-        <v>1163700</v>
+        <v>1148500</v>
       </c>
       <c r="H57" s="3">
-        <v>1135600</v>
+        <v>1120800</v>
       </c>
       <c r="I57" s="3">
-        <v>927400</v>
+        <v>915300</v>
       </c>
       <c r="J57" s="3">
-        <v>359500</v>
+        <v>354800</v>
       </c>
       <c r="K57" s="3">
         <v>249100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5252100</v>
+        <v>5183700</v>
       </c>
       <c r="E58" s="3">
-        <v>4760800</v>
+        <v>4698900</v>
       </c>
       <c r="F58" s="3">
-        <v>5618100</v>
+        <v>5545000</v>
       </c>
       <c r="G58" s="3">
-        <v>5091000</v>
+        <v>5024700</v>
       </c>
       <c r="H58" s="3">
-        <v>1074500</v>
+        <v>1060500</v>
       </c>
       <c r="I58" s="3">
-        <v>2175300</v>
+        <v>2147000</v>
       </c>
       <c r="J58" s="3">
-        <v>555500</v>
+        <v>548200</v>
       </c>
       <c r="K58" s="3">
         <v>117800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3151100</v>
+        <v>3110100</v>
       </c>
       <c r="E59" s="3">
-        <v>4114300</v>
+        <v>4060800</v>
       </c>
       <c r="F59" s="3">
-        <v>3285400</v>
+        <v>3242700</v>
       </c>
       <c r="G59" s="3">
-        <v>3729000</v>
+        <v>3680500</v>
       </c>
       <c r="H59" s="3">
-        <v>2516300</v>
+        <v>2483500</v>
       </c>
       <c r="I59" s="3">
-        <v>2149500</v>
+        <v>2121600</v>
       </c>
       <c r="J59" s="3">
-        <v>1068700</v>
+        <v>1054800</v>
       </c>
       <c r="K59" s="3">
         <v>700100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9106100</v>
+        <v>8987700</v>
       </c>
       <c r="E60" s="3">
-        <v>10793100</v>
+        <v>10652600</v>
       </c>
       <c r="F60" s="3">
-        <v>10731000</v>
+        <v>10591400</v>
       </c>
       <c r="G60" s="3">
-        <v>6577700</v>
+        <v>6492100</v>
       </c>
       <c r="H60" s="3">
-        <v>4726300</v>
+        <v>4664800</v>
       </c>
       <c r="I60" s="3">
-        <v>5252200</v>
+        <v>5183900</v>
       </c>
       <c r="J60" s="3">
-        <v>1983600</v>
+        <v>1957800</v>
       </c>
       <c r="K60" s="3">
         <v>968700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3544200</v>
+        <v>3498100</v>
       </c>
       <c r="E61" s="3">
-        <v>3048000</v>
+        <v>3008300</v>
       </c>
       <c r="F61" s="3">
-        <v>3767000</v>
+        <v>3718000</v>
       </c>
       <c r="G61" s="3">
-        <v>4558600</v>
+        <v>4499300</v>
       </c>
       <c r="H61" s="3">
-        <v>5405900</v>
+        <v>5335500</v>
       </c>
       <c r="I61" s="3">
-        <v>2863500</v>
+        <v>2826200</v>
       </c>
       <c r="J61" s="3">
-        <v>1245700</v>
+        <v>1229500</v>
       </c>
       <c r="K61" s="3">
         <v>860600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>716900</v>
+        <v>707500</v>
       </c>
       <c r="E62" s="3">
-        <v>718400</v>
+        <v>709100</v>
       </c>
       <c r="F62" s="3">
-        <v>650100</v>
+        <v>641600</v>
       </c>
       <c r="G62" s="3">
-        <v>662000</v>
+        <v>653300</v>
       </c>
       <c r="H62" s="3">
-        <v>615800</v>
+        <v>607800</v>
       </c>
       <c r="I62" s="3">
-        <v>489400</v>
+        <v>483000</v>
       </c>
       <c r="J62" s="3">
-        <v>20700</v>
+        <v>20400</v>
       </c>
       <c r="K62" s="3">
         <v>9600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13556500</v>
+        <v>13380100</v>
       </c>
       <c r="E66" s="3">
-        <v>15090400</v>
+        <v>14894000</v>
       </c>
       <c r="F66" s="3">
-        <v>15462900</v>
+        <v>15261700</v>
       </c>
       <c r="G66" s="3">
-        <v>12075800</v>
+        <v>11918700</v>
       </c>
       <c r="H66" s="3">
-        <v>11369600</v>
+        <v>11221600</v>
       </c>
       <c r="I66" s="3">
-        <v>11590300</v>
+        <v>11439500</v>
       </c>
       <c r="J66" s="3">
-        <v>3382400</v>
+        <v>3338300</v>
       </c>
       <c r="K66" s="3">
         <v>1869300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3136900</v>
+        <v>3096100</v>
       </c>
       <c r="E72" s="3">
-        <v>3656600</v>
+        <v>3609000</v>
       </c>
       <c r="F72" s="3">
-        <v>2562800</v>
+        <v>2529400</v>
       </c>
       <c r="G72" s="3">
-        <v>2421400</v>
+        <v>2389900</v>
       </c>
       <c r="H72" s="3">
-        <v>1082300</v>
+        <v>1068200</v>
       </c>
       <c r="I72" s="3">
-        <v>1305500</v>
+        <v>1288500</v>
       </c>
       <c r="J72" s="3">
-        <v>914200</v>
+        <v>902300</v>
       </c>
       <c r="K72" s="3">
         <v>854500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15656200</v>
+        <v>15452500</v>
       </c>
       <c r="E76" s="3">
-        <v>16138000</v>
+        <v>15928000</v>
       </c>
       <c r="F76" s="3">
-        <v>13528400</v>
+        <v>13352400</v>
       </c>
       <c r="G76" s="3">
-        <v>13235300</v>
+        <v>13063000</v>
       </c>
       <c r="H76" s="3">
-        <v>11160500</v>
+        <v>11015200</v>
       </c>
       <c r="I76" s="3">
-        <v>6950400</v>
+        <v>6859900</v>
       </c>
       <c r="J76" s="3">
-        <v>1486600</v>
+        <v>1467300</v>
       </c>
       <c r="K76" s="3">
         <v>1297600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-506600</v>
+        <v>-500000</v>
       </c>
       <c r="E81" s="3">
-        <v>1093800</v>
+        <v>1079600</v>
       </c>
       <c r="F81" s="3">
-        <v>173500</v>
+        <v>171200</v>
       </c>
       <c r="G81" s="3">
-        <v>310200</v>
+        <v>306200</v>
       </c>
       <c r="H81" s="3">
-        <v>-223200</v>
+        <v>-220300</v>
       </c>
       <c r="I81" s="3">
-        <v>391200</v>
+        <v>386100</v>
       </c>
       <c r="J81" s="3">
-        <v>37900</v>
+        <v>37400</v>
       </c>
       <c r="K81" s="3">
         <v>151900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>189900</v>
+        <v>187400</v>
       </c>
       <c r="E83" s="3">
-        <v>171000</v>
+        <v>168800</v>
       </c>
       <c r="F83" s="3">
-        <v>153200</v>
+        <v>151200</v>
       </c>
       <c r="G83" s="3">
-        <v>137800</v>
+        <v>136000</v>
       </c>
       <c r="H83" s="3">
-        <v>112100</v>
+        <v>110700</v>
       </c>
       <c r="I83" s="3">
-        <v>49300</v>
+        <v>48700</v>
       </c>
       <c r="J83" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="K83" s="3">
         <v>18400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-596400</v>
+        <v>-588700</v>
       </c>
       <c r="E89" s="3">
-        <v>1144000</v>
+        <v>1129100</v>
       </c>
       <c r="F89" s="3">
-        <v>1110000</v>
+        <v>1095600</v>
       </c>
       <c r="G89" s="3">
-        <v>1102800</v>
+        <v>1088500</v>
       </c>
       <c r="H89" s="3">
-        <v>822600</v>
+        <v>811900</v>
       </c>
       <c r="I89" s="3">
-        <v>475600</v>
+        <v>469500</v>
       </c>
       <c r="J89" s="3">
-        <v>305600</v>
+        <v>301600</v>
       </c>
       <c r="K89" s="3">
         <v>373100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-83000</v>
+        <v>-81900</v>
       </c>
       <c r="E91" s="3">
-        <v>-128400</v>
+        <v>-126700</v>
       </c>
       <c r="F91" s="3">
-        <v>-105000</v>
+        <v>-103600</v>
       </c>
       <c r="G91" s="3">
-        <v>-73500</v>
+        <v>-72500</v>
       </c>
       <c r="H91" s="3">
-        <v>-106500</v>
+        <v>-105100</v>
       </c>
       <c r="I91" s="3">
-        <v>-99600</v>
+        <v>-98300</v>
       </c>
       <c r="J91" s="3">
-        <v>-747100</v>
+        <v>-737400</v>
       </c>
       <c r="K91" s="3">
         <v>-99100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-596100</v>
+        <v>-588400</v>
       </c>
       <c r="E94" s="3">
-        <v>-376500</v>
+        <v>-371600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2196300</v>
+        <v>-2167700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2376400</v>
+        <v>-2345500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3093000</v>
+        <v>-3052700</v>
       </c>
       <c r="I94" s="3">
-        <v>-690600</v>
+        <v>-681600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1461300</v>
+        <v>-1442200</v>
       </c>
       <c r="K94" s="3">
         <v>-621600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>940000</v>
+        <v>927700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1444000</v>
+        <v>-1425200</v>
       </c>
       <c r="F100" s="3">
-        <v>1860600</v>
+        <v>1836400</v>
       </c>
       <c r="G100" s="3">
-        <v>1251100</v>
+        <v>1234800</v>
       </c>
       <c r="H100" s="3">
-        <v>1917300</v>
+        <v>1892400</v>
       </c>
       <c r="I100" s="3">
-        <v>2376600</v>
+        <v>2345700</v>
       </c>
       <c r="J100" s="3">
-        <v>845900</v>
+        <v>834900</v>
       </c>
       <c r="K100" s="3">
         <v>808700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-111200</v>
+        <v>-109800</v>
       </c>
       <c r="E101" s="3">
-        <v>48200</v>
+        <v>47600</v>
       </c>
       <c r="F101" s="3">
-        <v>127800</v>
+        <v>126100</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="H101" s="3">
-        <v>231200</v>
+        <v>228200</v>
       </c>
       <c r="I101" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="J101" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="K101" s="3">
         <v>5200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-363800</v>
+        <v>-359100</v>
       </c>
       <c r="E102" s="3">
-        <v>-628300</v>
+        <v>-620100</v>
       </c>
       <c r="F102" s="3">
-        <v>902000</v>
+        <v>890300</v>
       </c>
       <c r="G102" s="3">
-        <v>-29900</v>
+        <v>-29500</v>
       </c>
       <c r="H102" s="3">
-        <v>-121800</v>
+        <v>-120300</v>
       </c>
       <c r="I102" s="3">
-        <v>2170800</v>
+        <v>2142600</v>
       </c>
       <c r="J102" s="3">
-        <v>-286700</v>
+        <v>-282900</v>
       </c>
       <c r="K102" s="3">
         <v>565400</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2820300</v>
+        <v>2867600</v>
       </c>
       <c r="E8" s="3">
-        <v>5491900</v>
+        <v>5583900</v>
       </c>
       <c r="F8" s="3">
-        <v>4768000</v>
+        <v>4847900</v>
       </c>
       <c r="G8" s="3">
-        <v>4091800</v>
+        <v>4160300</v>
       </c>
       <c r="H8" s="3">
-        <v>2960800</v>
+        <v>3010400</v>
       </c>
       <c r="I8" s="3">
-        <v>1678000</v>
+        <v>1706100</v>
       </c>
       <c r="J8" s="3">
-        <v>1131300</v>
+        <v>1150200</v>
       </c>
       <c r="K8" s="3">
         <v>819400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>620700</v>
+        <v>631100</v>
       </c>
       <c r="E9" s="3">
-        <v>1135100</v>
+        <v>1154200</v>
       </c>
       <c r="F9" s="3">
-        <v>973800</v>
+        <v>990100</v>
       </c>
       <c r="G9" s="3">
-        <v>720300</v>
+        <v>732400</v>
       </c>
       <c r="H9" s="3">
-        <v>728300</v>
+        <v>740500</v>
       </c>
       <c r="I9" s="3">
-        <v>468600</v>
+        <v>476500</v>
       </c>
       <c r="J9" s="3">
-        <v>323500</v>
+        <v>328900</v>
       </c>
       <c r="K9" s="3">
         <v>211000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2199600</v>
+        <v>2236500</v>
       </c>
       <c r="E10" s="3">
-        <v>4356700</v>
+        <v>4429700</v>
       </c>
       <c r="F10" s="3">
-        <v>3794200</v>
+        <v>3857800</v>
       </c>
       <c r="G10" s="3">
-        <v>3371500</v>
+        <v>3428000</v>
       </c>
       <c r="H10" s="3">
-        <v>2232500</v>
+        <v>2269900</v>
       </c>
       <c r="I10" s="3">
-        <v>1209400</v>
+        <v>1229600</v>
       </c>
       <c r="J10" s="3">
-        <v>807800</v>
+        <v>821400</v>
       </c>
       <c r="K10" s="3">
         <v>608500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1180600</v>
+        <v>1200300</v>
       </c>
       <c r="E12" s="3">
-        <v>1643000</v>
+        <v>1670500</v>
       </c>
       <c r="F12" s="3">
-        <v>1481300</v>
+        <v>1506100</v>
       </c>
       <c r="G12" s="3">
-        <v>1271700</v>
+        <v>1293000</v>
       </c>
       <c r="H12" s="3">
-        <v>1183700</v>
+        <v>1203500</v>
       </c>
       <c r="I12" s="3">
-        <v>507600</v>
+        <v>516100</v>
       </c>
       <c r="J12" s="3">
-        <v>357400</v>
+        <v>363400</v>
       </c>
       <c r="K12" s="3">
         <v>189500</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>139400</v>
+        <v>141700</v>
       </c>
       <c r="E14" s="3">
-        <v>31600</v>
+        <v>32100</v>
       </c>
       <c r="F14" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G14" s="3">
-        <v>210500</v>
+        <v>214000</v>
       </c>
       <c r="H14" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K14" s="3">
         <v>-600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3178800</v>
+        <v>3232000</v>
       </c>
       <c r="E17" s="3">
-        <v>4747400</v>
+        <v>4826900</v>
       </c>
       <c r="F17" s="3">
-        <v>4376600</v>
+        <v>4449900</v>
       </c>
       <c r="G17" s="3">
-        <v>3672700</v>
+        <v>3734300</v>
       </c>
       <c r="H17" s="3">
-        <v>3209700</v>
+        <v>3263500</v>
       </c>
       <c r="I17" s="3">
-        <v>1619300</v>
+        <v>1646500</v>
       </c>
       <c r="J17" s="3">
-        <v>1159800</v>
+        <v>1179200</v>
       </c>
       <c r="K17" s="3">
         <v>691300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-358500</v>
+        <v>-364500</v>
       </c>
       <c r="E18" s="3">
-        <v>744500</v>
+        <v>757000</v>
       </c>
       <c r="F18" s="3">
-        <v>391400</v>
+        <v>398000</v>
       </c>
       <c r="G18" s="3">
-        <v>419000</v>
+        <v>426100</v>
       </c>
       <c r="H18" s="3">
-        <v>-248900</v>
+        <v>-253100</v>
       </c>
       <c r="I18" s="3">
-        <v>58700</v>
+        <v>59700</v>
       </c>
       <c r="J18" s="3">
-        <v>-28500</v>
+        <v>-29000</v>
       </c>
       <c r="K18" s="3">
         <v>128200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>434100</v>
+        <v>441300</v>
       </c>
       <c r="E20" s="3">
-        <v>912900</v>
+        <v>928200</v>
       </c>
       <c r="F20" s="3">
-        <v>136600</v>
+        <v>138900</v>
       </c>
       <c r="G20" s="3">
-        <v>287400</v>
+        <v>292200</v>
       </c>
       <c r="H20" s="3">
-        <v>90600</v>
+        <v>92100</v>
       </c>
       <c r="I20" s="3">
-        <v>450700</v>
+        <v>458200</v>
       </c>
       <c r="J20" s="3">
-        <v>74400</v>
+        <v>75600</v>
       </c>
       <c r="K20" s="3">
         <v>54600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>263300</v>
+        <v>267300</v>
       </c>
       <c r="E21" s="3">
-        <v>1826500</v>
+        <v>1856700</v>
       </c>
       <c r="F21" s="3">
-        <v>679400</v>
+        <v>690500</v>
       </c>
       <c r="G21" s="3">
-        <v>842600</v>
+        <v>856400</v>
       </c>
       <c r="H21" s="3">
-        <v>-47500</v>
+        <v>-48500</v>
       </c>
       <c r="I21" s="3">
-        <v>558100</v>
+        <v>567300</v>
       </c>
       <c r="J21" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="K21" s="3">
         <v>201200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>264200</v>
+        <v>268700</v>
       </c>
       <c r="E22" s="3">
-        <v>258200</v>
+        <v>262600</v>
       </c>
       <c r="F22" s="3">
-        <v>232200</v>
+        <v>236100</v>
       </c>
       <c r="G22" s="3">
-        <v>198100</v>
+        <v>201400</v>
       </c>
       <c r="H22" s="3">
-        <v>112700</v>
+        <v>114600</v>
       </c>
       <c r="I22" s="3">
-        <v>46600</v>
+        <v>47300</v>
       </c>
       <c r="J22" s="3">
-        <v>25000</v>
+        <v>25400</v>
       </c>
       <c r="K22" s="3">
         <v>8700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-188600</v>
+        <v>-191800</v>
       </c>
       <c r="E23" s="3">
-        <v>1399200</v>
+        <v>1422700</v>
       </c>
       <c r="F23" s="3">
-        <v>295800</v>
+        <v>300800</v>
       </c>
       <c r="G23" s="3">
-        <v>508300</v>
+        <v>516900</v>
       </c>
       <c r="H23" s="3">
-        <v>-271000</v>
+        <v>-275600</v>
       </c>
       <c r="I23" s="3">
-        <v>462800</v>
+        <v>470500</v>
       </c>
       <c r="J23" s="3">
-        <v>20900</v>
+        <v>21200</v>
       </c>
       <c r="K23" s="3">
         <v>174100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54700</v>
+        <v>55600</v>
       </c>
       <c r="E24" s="3">
-        <v>268200</v>
+        <v>272700</v>
       </c>
       <c r="F24" s="3">
-        <v>122100</v>
+        <v>124200</v>
       </c>
       <c r="G24" s="3">
-        <v>189200</v>
+        <v>192400</v>
       </c>
       <c r="H24" s="3">
+        <v>74800</v>
+      </c>
+      <c r="I24" s="3">
         <v>73600</v>
       </c>
-      <c r="I24" s="3">
-        <v>72400</v>
-      </c>
       <c r="J24" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="K24" s="3">
         <v>44700</v>
@@ -1254,22 +1254,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-243300</v>
+        <v>-247400</v>
       </c>
       <c r="E26" s="3">
-        <v>1131000</v>
+        <v>1149900</v>
       </c>
       <c r="F26" s="3">
-        <v>173700</v>
+        <v>176600</v>
       </c>
       <c r="G26" s="3">
-        <v>319100</v>
+        <v>324400</v>
       </c>
       <c r="H26" s="3">
-        <v>-344600</v>
+        <v>-350400</v>
       </c>
       <c r="I26" s="3">
-        <v>390400</v>
+        <v>396900</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500000</v>
+        <v>-508400</v>
       </c>
       <c r="E27" s="3">
-        <v>1079600</v>
+        <v>1097600</v>
       </c>
       <c r="F27" s="3">
-        <v>171200</v>
+        <v>174100</v>
       </c>
       <c r="G27" s="3">
-        <v>306200</v>
+        <v>311300</v>
       </c>
       <c r="H27" s="3">
-        <v>-220300</v>
+        <v>-224000</v>
       </c>
       <c r="I27" s="3">
-        <v>386100</v>
+        <v>392600</v>
       </c>
       <c r="J27" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="K27" s="3">
         <v>151900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-434100</v>
+        <v>-441300</v>
       </c>
       <c r="E32" s="3">
-        <v>-912900</v>
+        <v>-928200</v>
       </c>
       <c r="F32" s="3">
-        <v>-136600</v>
+        <v>-138900</v>
       </c>
       <c r="G32" s="3">
-        <v>-287400</v>
+        <v>-292200</v>
       </c>
       <c r="H32" s="3">
-        <v>-90600</v>
+        <v>-92100</v>
       </c>
       <c r="I32" s="3">
-        <v>-450700</v>
+        <v>-458200</v>
       </c>
       <c r="J32" s="3">
-        <v>-74400</v>
+        <v>-75600</v>
       </c>
       <c r="K32" s="3">
         <v>-54600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500000</v>
+        <v>-508400</v>
       </c>
       <c r="E33" s="3">
-        <v>1079600</v>
+        <v>1097600</v>
       </c>
       <c r="F33" s="3">
-        <v>171200</v>
+        <v>174100</v>
       </c>
       <c r="G33" s="3">
-        <v>306200</v>
+        <v>311300</v>
       </c>
       <c r="H33" s="3">
-        <v>-220300</v>
+        <v>-224000</v>
       </c>
       <c r="I33" s="3">
-        <v>386100</v>
+        <v>392600</v>
       </c>
       <c r="J33" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="K33" s="3">
         <v>151900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500000</v>
+        <v>-508400</v>
       </c>
       <c r="E35" s="3">
-        <v>1079600</v>
+        <v>1097600</v>
       </c>
       <c r="F35" s="3">
-        <v>171200</v>
+        <v>174100</v>
       </c>
       <c r="G35" s="3">
-        <v>306200</v>
+        <v>311300</v>
       </c>
       <c r="H35" s="3">
-        <v>-220300</v>
+        <v>-224000</v>
       </c>
       <c r="I35" s="3">
-        <v>386100</v>
+        <v>392600</v>
       </c>
       <c r="J35" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="K35" s="3">
         <v>151900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2786400</v>
+        <v>2833100</v>
       </c>
       <c r="E41" s="3">
-        <v>3067700</v>
+        <v>3119100</v>
       </c>
       <c r="F41" s="3">
-        <v>3315200</v>
+        <v>3370700</v>
       </c>
       <c r="G41" s="3">
-        <v>2809100</v>
+        <v>2856100</v>
       </c>
       <c r="H41" s="3">
-        <v>2838600</v>
+        <v>2886100</v>
       </c>
       <c r="I41" s="3">
-        <v>2958800</v>
+        <v>3008400</v>
       </c>
       <c r="J41" s="3">
-        <v>816200</v>
+        <v>829900</v>
       </c>
       <c r="K41" s="3">
         <v>1085900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3821800</v>
+        <v>3885800</v>
       </c>
       <c r="E42" s="3">
-        <v>3550500</v>
+        <v>3610000</v>
       </c>
       <c r="F42" s="3">
-        <v>5659200</v>
+        <v>5754000</v>
       </c>
       <c r="G42" s="3">
-        <v>4331500</v>
+        <v>4404000</v>
       </c>
       <c r="H42" s="3">
-        <v>2173100</v>
+        <v>2209500</v>
       </c>
       <c r="I42" s="3">
-        <v>1268100</v>
+        <v>1289400</v>
       </c>
       <c r="J42" s="3">
-        <v>991500</v>
+        <v>1008100</v>
       </c>
       <c r="K42" s="3">
         <v>553000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1370300</v>
+        <v>1393200</v>
       </c>
       <c r="E43" s="3">
-        <v>2035200</v>
+        <v>2069300</v>
       </c>
       <c r="F43" s="3">
-        <v>1364400</v>
+        <v>1387300</v>
       </c>
       <c r="G43" s="3">
-        <v>1592400</v>
+        <v>1619100</v>
       </c>
       <c r="H43" s="3">
-        <v>877900</v>
+        <v>892600</v>
       </c>
       <c r="I43" s="3">
-        <v>678300</v>
+        <v>689700</v>
       </c>
       <c r="J43" s="3">
-        <v>299000</v>
+        <v>304100</v>
       </c>
       <c r="K43" s="3">
         <v>478000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>954100</v>
+        <v>970000</v>
       </c>
       <c r="E45" s="3">
-        <v>1810300</v>
+        <v>1840700</v>
       </c>
       <c r="F45" s="3">
-        <v>1886300</v>
+        <v>1917900</v>
       </c>
       <c r="G45" s="3">
-        <v>2126300</v>
+        <v>2161900</v>
       </c>
       <c r="H45" s="3">
-        <v>1179800</v>
+        <v>1199600</v>
       </c>
       <c r="I45" s="3">
-        <v>1346400</v>
+        <v>1369000</v>
       </c>
       <c r="J45" s="3">
-        <v>523500</v>
+        <v>532300</v>
       </c>
       <c r="K45" s="3">
         <v>487600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8932500</v>
+        <v>9082200</v>
       </c>
       <c r="E46" s="3">
-        <v>10463700</v>
+        <v>10639000</v>
       </c>
       <c r="F46" s="3">
-        <v>12225100</v>
+        <v>12429900</v>
       </c>
       <c r="G46" s="3">
-        <v>9149200</v>
+        <v>9302500</v>
       </c>
       <c r="H46" s="3">
-        <v>7069400</v>
+        <v>7187900</v>
       </c>
       <c r="I46" s="3">
-        <v>6251700</v>
+        <v>6356500</v>
       </c>
       <c r="J46" s="3">
-        <v>2629500</v>
+        <v>2673500</v>
       </c>
       <c r="K46" s="3">
         <v>2185300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7386100</v>
+        <v>7509900</v>
       </c>
       <c r="E47" s="3">
-        <v>7902900</v>
+        <v>8035300</v>
       </c>
       <c r="F47" s="3">
-        <v>4173300</v>
+        <v>4243200</v>
       </c>
       <c r="G47" s="3">
-        <v>7948800</v>
+        <v>8082000</v>
       </c>
       <c r="H47" s="3">
-        <v>3287200</v>
+        <v>3342300</v>
       </c>
       <c r="I47" s="3">
-        <v>2308600</v>
+        <v>2347300</v>
       </c>
       <c r="J47" s="3">
-        <v>927200</v>
+        <v>942800</v>
       </c>
       <c r="K47" s="3">
         <v>926100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1042000</v>
+        <v>1059400</v>
       </c>
       <c r="E48" s="3">
-        <v>1130500</v>
+        <v>1149500</v>
       </c>
       <c r="F48" s="3">
-        <v>904200</v>
+        <v>919300</v>
       </c>
       <c r="G48" s="3">
-        <v>1729400</v>
+        <v>1758400</v>
       </c>
       <c r="H48" s="3">
-        <v>861100</v>
+        <v>875500</v>
       </c>
       <c r="I48" s="3">
-        <v>855500</v>
+        <v>869800</v>
       </c>
       <c r="J48" s="3">
-        <v>803900</v>
+        <v>817300</v>
       </c>
       <c r="K48" s="3">
         <v>429900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11193900</v>
+        <v>11381400</v>
       </c>
       <c r="E49" s="3">
-        <v>11020700</v>
+        <v>11205300</v>
       </c>
       <c r="F49" s="3">
-        <v>11062400</v>
+        <v>11247700</v>
       </c>
       <c r="G49" s="3">
-        <v>12910200</v>
+        <v>13126500</v>
       </c>
       <c r="H49" s="3">
-        <v>10784700</v>
+        <v>10965400</v>
       </c>
       <c r="I49" s="3">
-        <v>8746200</v>
+        <v>8892700</v>
       </c>
       <c r="J49" s="3">
-        <v>410400</v>
+        <v>417300</v>
       </c>
       <c r="K49" s="3">
         <v>272800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>278100</v>
+        <v>282700</v>
       </c>
       <c r="E52" s="3">
-        <v>304300</v>
+        <v>309400</v>
       </c>
       <c r="F52" s="3">
-        <v>249100</v>
+        <v>253300</v>
       </c>
       <c r="G52" s="3">
-        <v>200500</v>
+        <v>203800</v>
       </c>
       <c r="H52" s="3">
-        <v>234400</v>
+        <v>238400</v>
       </c>
       <c r="I52" s="3">
-        <v>137400</v>
+        <v>139700</v>
       </c>
       <c r="J52" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="K52" s="3">
         <v>85100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28832600</v>
+        <v>29315700</v>
       </c>
       <c r="E54" s="3">
-        <v>30822000</v>
+        <v>31338500</v>
       </c>
       <c r="F54" s="3">
-        <v>28614100</v>
+        <v>29093500</v>
       </c>
       <c r="G54" s="3">
-        <v>24981700</v>
+        <v>25400300</v>
       </c>
       <c r="H54" s="3">
-        <v>22236900</v>
+        <v>22609400</v>
       </c>
       <c r="I54" s="3">
-        <v>18299400</v>
+        <v>18606000</v>
       </c>
       <c r="J54" s="3">
-        <v>4805600</v>
+        <v>4886200</v>
       </c>
       <c r="K54" s="3">
         <v>3166900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>693800</v>
+        <v>705500</v>
       </c>
       <c r="E57" s="3">
-        <v>1893000</v>
+        <v>1924700</v>
       </c>
       <c r="F57" s="3">
-        <v>1803700</v>
+        <v>1833900</v>
       </c>
       <c r="G57" s="3">
-        <v>1148500</v>
+        <v>1167800</v>
       </c>
       <c r="H57" s="3">
-        <v>1120800</v>
+        <v>1139600</v>
       </c>
       <c r="I57" s="3">
-        <v>915300</v>
+        <v>930700</v>
       </c>
       <c r="J57" s="3">
-        <v>354800</v>
+        <v>360700</v>
       </c>
       <c r="K57" s="3">
         <v>249100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5183700</v>
+        <v>5270600</v>
       </c>
       <c r="E58" s="3">
-        <v>4698900</v>
+        <v>4777600</v>
       </c>
       <c r="F58" s="3">
-        <v>5545000</v>
+        <v>5637900</v>
       </c>
       <c r="G58" s="3">
-        <v>5024700</v>
+        <v>5108900</v>
       </c>
       <c r="H58" s="3">
-        <v>1060500</v>
+        <v>1078300</v>
       </c>
       <c r="I58" s="3">
-        <v>2147000</v>
+        <v>2183000</v>
       </c>
       <c r="J58" s="3">
-        <v>548200</v>
+        <v>557400</v>
       </c>
       <c r="K58" s="3">
         <v>117800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3110100</v>
+        <v>3162200</v>
       </c>
       <c r="E59" s="3">
-        <v>4060800</v>
+        <v>4128800</v>
       </c>
       <c r="F59" s="3">
-        <v>3242700</v>
+        <v>3297000</v>
       </c>
       <c r="G59" s="3">
-        <v>3680500</v>
+        <v>3742100</v>
       </c>
       <c r="H59" s="3">
-        <v>2483500</v>
+        <v>2525100</v>
       </c>
       <c r="I59" s="3">
-        <v>2121600</v>
+        <v>2157100</v>
       </c>
       <c r="J59" s="3">
-        <v>1054800</v>
+        <v>1072500</v>
       </c>
       <c r="K59" s="3">
         <v>700100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8987700</v>
+        <v>9138300</v>
       </c>
       <c r="E60" s="3">
-        <v>10652600</v>
+        <v>10831100</v>
       </c>
       <c r="F60" s="3">
-        <v>10591400</v>
+        <v>10768800</v>
       </c>
       <c r="G60" s="3">
-        <v>6492100</v>
+        <v>6600900</v>
       </c>
       <c r="H60" s="3">
-        <v>4664800</v>
+        <v>4743000</v>
       </c>
       <c r="I60" s="3">
-        <v>5183900</v>
+        <v>5270800</v>
       </c>
       <c r="J60" s="3">
-        <v>1957800</v>
+        <v>1990600</v>
       </c>
       <c r="K60" s="3">
         <v>968700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3498100</v>
+        <v>3556700</v>
       </c>
       <c r="E61" s="3">
-        <v>3008300</v>
+        <v>3058700</v>
       </c>
       <c r="F61" s="3">
-        <v>3718000</v>
+        <v>3780300</v>
       </c>
       <c r="G61" s="3">
-        <v>4499300</v>
+        <v>4574700</v>
       </c>
       <c r="H61" s="3">
-        <v>5335500</v>
+        <v>5424900</v>
       </c>
       <c r="I61" s="3">
-        <v>2826200</v>
+        <v>2873600</v>
       </c>
       <c r="J61" s="3">
-        <v>1229500</v>
+        <v>1250100</v>
       </c>
       <c r="K61" s="3">
         <v>860600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>707500</v>
+        <v>719400</v>
       </c>
       <c r="E62" s="3">
-        <v>709100</v>
+        <v>721000</v>
       </c>
       <c r="F62" s="3">
-        <v>641600</v>
+        <v>652400</v>
       </c>
       <c r="G62" s="3">
-        <v>653300</v>
+        <v>664300</v>
       </c>
       <c r="H62" s="3">
-        <v>607800</v>
+        <v>618000</v>
       </c>
       <c r="I62" s="3">
-        <v>483000</v>
+        <v>491100</v>
       </c>
       <c r="J62" s="3">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="K62" s="3">
         <v>9600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13380100</v>
+        <v>13604300</v>
       </c>
       <c r="E66" s="3">
-        <v>14894000</v>
+        <v>15143600</v>
       </c>
       <c r="F66" s="3">
-        <v>15261700</v>
+        <v>15517400</v>
       </c>
       <c r="G66" s="3">
-        <v>11918700</v>
+        <v>12118400</v>
       </c>
       <c r="H66" s="3">
-        <v>11221600</v>
+        <v>11409600</v>
       </c>
       <c r="I66" s="3">
-        <v>11439500</v>
+        <v>11631100</v>
       </c>
       <c r="J66" s="3">
-        <v>3338300</v>
+        <v>3394300</v>
       </c>
       <c r="K66" s="3">
         <v>1869300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3096100</v>
+        <v>3148000</v>
       </c>
       <c r="E72" s="3">
-        <v>3609000</v>
+        <v>3669500</v>
       </c>
       <c r="F72" s="3">
-        <v>2529400</v>
+        <v>2571800</v>
       </c>
       <c r="G72" s="3">
-        <v>2389900</v>
+        <v>2430000</v>
       </c>
       <c r="H72" s="3">
-        <v>1068200</v>
+        <v>1086100</v>
       </c>
       <c r="I72" s="3">
-        <v>1288500</v>
+        <v>1310100</v>
       </c>
       <c r="J72" s="3">
-        <v>902300</v>
+        <v>917500</v>
       </c>
       <c r="K72" s="3">
         <v>854500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15452500</v>
+        <v>15711400</v>
       </c>
       <c r="E76" s="3">
-        <v>15928000</v>
+        <v>16194900</v>
       </c>
       <c r="F76" s="3">
-        <v>13352400</v>
+        <v>13576100</v>
       </c>
       <c r="G76" s="3">
-        <v>13063000</v>
+        <v>13281900</v>
       </c>
       <c r="H76" s="3">
-        <v>11015200</v>
+        <v>11199800</v>
       </c>
       <c r="I76" s="3">
-        <v>6859900</v>
+        <v>6974900</v>
       </c>
       <c r="J76" s="3">
-        <v>1467300</v>
+        <v>1491900</v>
       </c>
       <c r="K76" s="3">
         <v>1297600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500000</v>
+        <v>-508400</v>
       </c>
       <c r="E81" s="3">
-        <v>1079600</v>
+        <v>1097600</v>
       </c>
       <c r="F81" s="3">
-        <v>171200</v>
+        <v>174100</v>
       </c>
       <c r="G81" s="3">
-        <v>306200</v>
+        <v>311300</v>
       </c>
       <c r="H81" s="3">
-        <v>-220300</v>
+        <v>-224000</v>
       </c>
       <c r="I81" s="3">
-        <v>386100</v>
+        <v>392600</v>
       </c>
       <c r="J81" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="K81" s="3">
         <v>151900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>187400</v>
+        <v>190500</v>
       </c>
       <c r="E83" s="3">
-        <v>168800</v>
+        <v>171600</v>
       </c>
       <c r="F83" s="3">
-        <v>151200</v>
+        <v>153700</v>
       </c>
       <c r="G83" s="3">
-        <v>136000</v>
+        <v>138300</v>
       </c>
       <c r="H83" s="3">
-        <v>110700</v>
+        <v>112500</v>
       </c>
       <c r="I83" s="3">
-        <v>48700</v>
+        <v>49500</v>
       </c>
       <c r="J83" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="K83" s="3">
         <v>18400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-588700</v>
+        <v>-598500</v>
       </c>
       <c r="E89" s="3">
-        <v>1129100</v>
+        <v>1148100</v>
       </c>
       <c r="F89" s="3">
-        <v>1095600</v>
+        <v>1113900</v>
       </c>
       <c r="G89" s="3">
-        <v>1088500</v>
+        <v>1106700</v>
       </c>
       <c r="H89" s="3">
-        <v>811900</v>
+        <v>825500</v>
       </c>
       <c r="I89" s="3">
-        <v>469500</v>
+        <v>477300</v>
       </c>
       <c r="J89" s="3">
-        <v>301600</v>
+        <v>306600</v>
       </c>
       <c r="K89" s="3">
         <v>373100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81900</v>
+        <v>-83300</v>
       </c>
       <c r="E91" s="3">
-        <v>-126700</v>
+        <v>-128800</v>
       </c>
       <c r="F91" s="3">
-        <v>-103600</v>
+        <v>-105400</v>
       </c>
       <c r="G91" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="H91" s="3">
-        <v>-105100</v>
+        <v>-106900</v>
       </c>
       <c r="I91" s="3">
-        <v>-98300</v>
+        <v>-99900</v>
       </c>
       <c r="J91" s="3">
-        <v>-737400</v>
+        <v>-749700</v>
       </c>
       <c r="K91" s="3">
         <v>-99100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-588400</v>
+        <v>-598200</v>
       </c>
       <c r="E94" s="3">
-        <v>-371600</v>
+        <v>-377800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2167700</v>
+        <v>-2204100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2345500</v>
+        <v>-2384800</v>
       </c>
       <c r="H94" s="3">
-        <v>-3052700</v>
+        <v>-3103900</v>
       </c>
       <c r="I94" s="3">
-        <v>-681600</v>
+        <v>-693000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1442200</v>
+        <v>-1466400</v>
       </c>
       <c r="K94" s="3">
         <v>-621600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>927700</v>
+        <v>943300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1425200</v>
+        <v>-1449100</v>
       </c>
       <c r="F100" s="3">
-        <v>1836400</v>
+        <v>1867100</v>
       </c>
       <c r="G100" s="3">
-        <v>1234800</v>
+        <v>1255500</v>
       </c>
       <c r="H100" s="3">
-        <v>1892400</v>
+        <v>1924100</v>
       </c>
       <c r="I100" s="3">
-        <v>2345700</v>
+        <v>2385000</v>
       </c>
       <c r="J100" s="3">
-        <v>834900</v>
+        <v>848900</v>
       </c>
       <c r="K100" s="3">
         <v>808700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-109800</v>
+        <v>-111600</v>
       </c>
       <c r="E101" s="3">
-        <v>47600</v>
+        <v>48400</v>
       </c>
       <c r="F101" s="3">
-        <v>126100</v>
+        <v>128200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>228200</v>
+        <v>232000</v>
       </c>
       <c r="I101" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="J101" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="K101" s="3">
         <v>5200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-359100</v>
+        <v>-365100</v>
       </c>
       <c r="E102" s="3">
-        <v>-620100</v>
+        <v>-630500</v>
       </c>
       <c r="F102" s="3">
-        <v>890300</v>
+        <v>905200</v>
       </c>
       <c r="G102" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="H102" s="3">
-        <v>-120300</v>
+        <v>-122300</v>
       </c>
       <c r="I102" s="3">
-        <v>2142600</v>
+        <v>2178500</v>
       </c>
       <c r="J102" s="3">
-        <v>-282900</v>
+        <v>-287700</v>
       </c>
       <c r="K102" s="3">
         <v>565400</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2867600</v>
+        <v>2889500</v>
       </c>
       <c r="E8" s="3">
-        <v>5583900</v>
+        <v>5626700</v>
       </c>
       <c r="F8" s="3">
-        <v>4847900</v>
+        <v>4885000</v>
       </c>
       <c r="G8" s="3">
-        <v>4160300</v>
+        <v>4192200</v>
       </c>
       <c r="H8" s="3">
-        <v>3010400</v>
+        <v>3033500</v>
       </c>
       <c r="I8" s="3">
-        <v>1706100</v>
+        <v>1719200</v>
       </c>
       <c r="J8" s="3">
-        <v>1150200</v>
+        <v>1159000</v>
       </c>
       <c r="K8" s="3">
         <v>819400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>631100</v>
+        <v>635900</v>
       </c>
       <c r="E9" s="3">
-        <v>1154200</v>
+        <v>1163000</v>
       </c>
       <c r="F9" s="3">
-        <v>990100</v>
+        <v>997700</v>
       </c>
       <c r="G9" s="3">
-        <v>732400</v>
+        <v>738000</v>
       </c>
       <c r="H9" s="3">
-        <v>740500</v>
+        <v>746200</v>
       </c>
       <c r="I9" s="3">
-        <v>476500</v>
+        <v>480100</v>
       </c>
       <c r="J9" s="3">
-        <v>328900</v>
+        <v>331400</v>
       </c>
       <c r="K9" s="3">
         <v>211000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2236500</v>
+        <v>2253600</v>
       </c>
       <c r="E10" s="3">
-        <v>4429700</v>
+        <v>4463700</v>
       </c>
       <c r="F10" s="3">
-        <v>3857800</v>
+        <v>3887400</v>
       </c>
       <c r="G10" s="3">
-        <v>3428000</v>
+        <v>3454300</v>
       </c>
       <c r="H10" s="3">
-        <v>2269900</v>
+        <v>2287300</v>
       </c>
       <c r="I10" s="3">
-        <v>1229600</v>
+        <v>1239100</v>
       </c>
       <c r="J10" s="3">
-        <v>821400</v>
+        <v>827700</v>
       </c>
       <c r="K10" s="3">
         <v>608500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1200300</v>
+        <v>1209500</v>
       </c>
       <c r="E12" s="3">
-        <v>1670500</v>
+        <v>1683300</v>
       </c>
       <c r="F12" s="3">
-        <v>1506100</v>
+        <v>1517700</v>
       </c>
       <c r="G12" s="3">
-        <v>1293000</v>
+        <v>1302900</v>
       </c>
       <c r="H12" s="3">
-        <v>1203500</v>
+        <v>1212800</v>
       </c>
       <c r="I12" s="3">
-        <v>516100</v>
+        <v>520100</v>
       </c>
       <c r="J12" s="3">
-        <v>363400</v>
+        <v>366200</v>
       </c>
       <c r="K12" s="3">
         <v>189500</v>
@@ -897,19 +897,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>141700</v>
+        <v>142800</v>
       </c>
       <c r="E14" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="F14" s="3">
         <v>9900</v>
       </c>
       <c r="G14" s="3">
-        <v>214000</v>
+        <v>215700</v>
       </c>
       <c r="H14" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3232000</v>
+        <v>3256800</v>
       </c>
       <c r="E17" s="3">
-        <v>4826900</v>
+        <v>4863900</v>
       </c>
       <c r="F17" s="3">
-        <v>4449900</v>
+        <v>4484000</v>
       </c>
       <c r="G17" s="3">
-        <v>3734300</v>
+        <v>3762900</v>
       </c>
       <c r="H17" s="3">
-        <v>3263500</v>
+        <v>3288500</v>
       </c>
       <c r="I17" s="3">
-        <v>1646500</v>
+        <v>1659100</v>
       </c>
       <c r="J17" s="3">
-        <v>1179200</v>
+        <v>1188300</v>
       </c>
       <c r="K17" s="3">
         <v>691300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-364500</v>
+        <v>-367300</v>
       </c>
       <c r="E18" s="3">
-        <v>757000</v>
+        <v>762800</v>
       </c>
       <c r="F18" s="3">
-        <v>398000</v>
+        <v>401000</v>
       </c>
       <c r="G18" s="3">
-        <v>426100</v>
+        <v>429300</v>
       </c>
       <c r="H18" s="3">
-        <v>-253100</v>
+        <v>-255000</v>
       </c>
       <c r="I18" s="3">
-        <v>59700</v>
+        <v>60100</v>
       </c>
       <c r="J18" s="3">
-        <v>-29000</v>
+        <v>-29200</v>
       </c>
       <c r="K18" s="3">
         <v>128200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>441300</v>
+        <v>444700</v>
       </c>
       <c r="E20" s="3">
-        <v>928200</v>
+        <v>935400</v>
       </c>
       <c r="F20" s="3">
-        <v>138900</v>
+        <v>139900</v>
       </c>
       <c r="G20" s="3">
-        <v>292200</v>
+        <v>294500</v>
       </c>
       <c r="H20" s="3">
-        <v>92100</v>
+        <v>92800</v>
       </c>
       <c r="I20" s="3">
-        <v>458200</v>
+        <v>461700</v>
       </c>
       <c r="J20" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="K20" s="3">
         <v>54600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>267300</v>
+        <v>270100</v>
       </c>
       <c r="E21" s="3">
-        <v>1856700</v>
+        <v>1871600</v>
       </c>
       <c r="F21" s="3">
-        <v>690500</v>
+        <v>696400</v>
       </c>
       <c r="G21" s="3">
-        <v>856400</v>
+        <v>863600</v>
       </c>
       <c r="H21" s="3">
-        <v>-48500</v>
+        <v>-48400</v>
       </c>
       <c r="I21" s="3">
-        <v>567300</v>
+        <v>571900</v>
       </c>
       <c r="J21" s="3">
-        <v>75100</v>
+        <v>75800</v>
       </c>
       <c r="K21" s="3">
         <v>201200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>268700</v>
+        <v>270700</v>
       </c>
       <c r="E22" s="3">
-        <v>262600</v>
+        <v>264600</v>
       </c>
       <c r="F22" s="3">
-        <v>236100</v>
+        <v>237900</v>
       </c>
       <c r="G22" s="3">
-        <v>201400</v>
+        <v>203000</v>
       </c>
       <c r="H22" s="3">
-        <v>114600</v>
+        <v>115500</v>
       </c>
       <c r="I22" s="3">
-        <v>47300</v>
+        <v>47700</v>
       </c>
       <c r="J22" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="K22" s="3">
         <v>8700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-191800</v>
+        <v>-193300</v>
       </c>
       <c r="E23" s="3">
-        <v>1422700</v>
+        <v>1433600</v>
       </c>
       <c r="F23" s="3">
-        <v>300800</v>
+        <v>303100</v>
       </c>
       <c r="G23" s="3">
-        <v>516900</v>
+        <v>520800</v>
       </c>
       <c r="H23" s="3">
-        <v>-275600</v>
+        <v>-277700</v>
       </c>
       <c r="I23" s="3">
-        <v>470500</v>
+        <v>474100</v>
       </c>
       <c r="J23" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="K23" s="3">
         <v>174100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55600</v>
+        <v>56000</v>
       </c>
       <c r="E24" s="3">
-        <v>272700</v>
+        <v>274800</v>
       </c>
       <c r="F24" s="3">
-        <v>124200</v>
+        <v>125100</v>
       </c>
       <c r="G24" s="3">
-        <v>192400</v>
+        <v>193900</v>
       </c>
       <c r="H24" s="3">
-        <v>74800</v>
+        <v>75400</v>
       </c>
       <c r="I24" s="3">
-        <v>73600</v>
+        <v>74200</v>
       </c>
       <c r="J24" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="K24" s="3">
         <v>44700</v>
@@ -1254,22 +1254,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-247400</v>
+        <v>-249300</v>
       </c>
       <c r="E26" s="3">
-        <v>1149900</v>
+        <v>1158700</v>
       </c>
       <c r="F26" s="3">
-        <v>176600</v>
+        <v>178000</v>
       </c>
       <c r="G26" s="3">
-        <v>324400</v>
+        <v>326900</v>
       </c>
       <c r="H26" s="3">
-        <v>-350400</v>
+        <v>-353100</v>
       </c>
       <c r="I26" s="3">
-        <v>396900</v>
+        <v>399900</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-508400</v>
+        <v>-512200</v>
       </c>
       <c r="E27" s="3">
-        <v>1097600</v>
+        <v>1106100</v>
       </c>
       <c r="F27" s="3">
-        <v>174100</v>
+        <v>175400</v>
       </c>
       <c r="G27" s="3">
-        <v>311300</v>
+        <v>313700</v>
       </c>
       <c r="H27" s="3">
-        <v>-224000</v>
+        <v>-225700</v>
       </c>
       <c r="I27" s="3">
-        <v>392600</v>
+        <v>395600</v>
       </c>
       <c r="J27" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K27" s="3">
         <v>151900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-441300</v>
+        <v>-444700</v>
       </c>
       <c r="E32" s="3">
-        <v>-928200</v>
+        <v>-935400</v>
       </c>
       <c r="F32" s="3">
-        <v>-138900</v>
+        <v>-139900</v>
       </c>
       <c r="G32" s="3">
-        <v>-292200</v>
+        <v>-294500</v>
       </c>
       <c r="H32" s="3">
-        <v>-92100</v>
+        <v>-92800</v>
       </c>
       <c r="I32" s="3">
-        <v>-458200</v>
+        <v>-461700</v>
       </c>
       <c r="J32" s="3">
-        <v>-75600</v>
+        <v>-76200</v>
       </c>
       <c r="K32" s="3">
         <v>-54600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-508400</v>
+        <v>-512200</v>
       </c>
       <c r="E33" s="3">
-        <v>1097600</v>
+        <v>1106100</v>
       </c>
       <c r="F33" s="3">
-        <v>174100</v>
+        <v>175400</v>
       </c>
       <c r="G33" s="3">
-        <v>311300</v>
+        <v>313700</v>
       </c>
       <c r="H33" s="3">
-        <v>-224000</v>
+        <v>-225700</v>
       </c>
       <c r="I33" s="3">
-        <v>392600</v>
+        <v>395600</v>
       </c>
       <c r="J33" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K33" s="3">
         <v>151900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-508400</v>
+        <v>-512200</v>
       </c>
       <c r="E35" s="3">
-        <v>1097600</v>
+        <v>1106100</v>
       </c>
       <c r="F35" s="3">
-        <v>174100</v>
+        <v>175400</v>
       </c>
       <c r="G35" s="3">
-        <v>311300</v>
+        <v>313700</v>
       </c>
       <c r="H35" s="3">
-        <v>-224000</v>
+        <v>-225700</v>
       </c>
       <c r="I35" s="3">
-        <v>392600</v>
+        <v>395600</v>
       </c>
       <c r="J35" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K35" s="3">
         <v>151900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2833100</v>
+        <v>2854800</v>
       </c>
       <c r="E41" s="3">
-        <v>3119100</v>
+        <v>3143100</v>
       </c>
       <c r="F41" s="3">
-        <v>3370700</v>
+        <v>3396600</v>
       </c>
       <c r="G41" s="3">
-        <v>2856100</v>
+        <v>2878000</v>
       </c>
       <c r="H41" s="3">
-        <v>2886100</v>
+        <v>2908300</v>
       </c>
       <c r="I41" s="3">
-        <v>3008400</v>
+        <v>3031500</v>
       </c>
       <c r="J41" s="3">
-        <v>829900</v>
+        <v>836300</v>
       </c>
       <c r="K41" s="3">
         <v>1085900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3885800</v>
+        <v>3915600</v>
       </c>
       <c r="E42" s="3">
-        <v>3610000</v>
+        <v>3637600</v>
       </c>
       <c r="F42" s="3">
-        <v>5754000</v>
+        <v>5798200</v>
       </c>
       <c r="G42" s="3">
-        <v>4404000</v>
+        <v>4437800</v>
       </c>
       <c r="H42" s="3">
-        <v>2209500</v>
+        <v>2226400</v>
       </c>
       <c r="I42" s="3">
-        <v>1289400</v>
+        <v>1299300</v>
       </c>
       <c r="J42" s="3">
-        <v>1008100</v>
+        <v>1015800</v>
       </c>
       <c r="K42" s="3">
         <v>553000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1393200</v>
+        <v>1403900</v>
       </c>
       <c r="E43" s="3">
-        <v>2069300</v>
+        <v>2085100</v>
       </c>
       <c r="F43" s="3">
-        <v>1387300</v>
+        <v>1397900</v>
       </c>
       <c r="G43" s="3">
-        <v>1619100</v>
+        <v>1631500</v>
       </c>
       <c r="H43" s="3">
-        <v>892600</v>
+        <v>899500</v>
       </c>
       <c r="I43" s="3">
-        <v>689700</v>
+        <v>695000</v>
       </c>
       <c r="J43" s="3">
-        <v>304100</v>
+        <v>306400</v>
       </c>
       <c r="K43" s="3">
         <v>478000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>970000</v>
+        <v>977500</v>
       </c>
       <c r="E45" s="3">
-        <v>1840700</v>
+        <v>1854800</v>
       </c>
       <c r="F45" s="3">
-        <v>1917900</v>
+        <v>1932600</v>
       </c>
       <c r="G45" s="3">
-        <v>2161900</v>
+        <v>2178500</v>
       </c>
       <c r="H45" s="3">
-        <v>1199600</v>
+        <v>1208800</v>
       </c>
       <c r="I45" s="3">
-        <v>1369000</v>
+        <v>1379500</v>
       </c>
       <c r="J45" s="3">
-        <v>532300</v>
+        <v>536400</v>
       </c>
       <c r="K45" s="3">
         <v>487600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9082200</v>
+        <v>9151800</v>
       </c>
       <c r="E46" s="3">
-        <v>10639000</v>
+        <v>10720600</v>
       </c>
       <c r="F46" s="3">
-        <v>12429900</v>
+        <v>12525200</v>
       </c>
       <c r="G46" s="3">
-        <v>9302500</v>
+        <v>9373800</v>
       </c>
       <c r="H46" s="3">
-        <v>7187900</v>
+        <v>7243000</v>
       </c>
       <c r="I46" s="3">
-        <v>6356500</v>
+        <v>6405200</v>
       </c>
       <c r="J46" s="3">
-        <v>2673500</v>
+        <v>2694000</v>
       </c>
       <c r="K46" s="3">
         <v>2185300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7509900</v>
+        <v>7567400</v>
       </c>
       <c r="E47" s="3">
-        <v>8035300</v>
+        <v>8096900</v>
       </c>
       <c r="F47" s="3">
-        <v>4243200</v>
+        <v>4275800</v>
       </c>
       <c r="G47" s="3">
-        <v>8082000</v>
+        <v>8143900</v>
       </c>
       <c r="H47" s="3">
-        <v>3342300</v>
+        <v>3367900</v>
       </c>
       <c r="I47" s="3">
-        <v>2347300</v>
+        <v>2365300</v>
       </c>
       <c r="J47" s="3">
-        <v>942800</v>
+        <v>950000</v>
       </c>
       <c r="K47" s="3">
         <v>926100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1059400</v>
+        <v>1067600</v>
       </c>
       <c r="E48" s="3">
-        <v>1149500</v>
+        <v>1158300</v>
       </c>
       <c r="F48" s="3">
-        <v>919300</v>
+        <v>926400</v>
       </c>
       <c r="G48" s="3">
-        <v>1758400</v>
+        <v>1771900</v>
       </c>
       <c r="H48" s="3">
-        <v>875500</v>
+        <v>882200</v>
       </c>
       <c r="I48" s="3">
-        <v>869800</v>
+        <v>876500</v>
       </c>
       <c r="J48" s="3">
-        <v>817300</v>
+        <v>823600</v>
       </c>
       <c r="K48" s="3">
         <v>429900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11381400</v>
+        <v>11468700</v>
       </c>
       <c r="E49" s="3">
-        <v>11205300</v>
+        <v>11291200</v>
       </c>
       <c r="F49" s="3">
-        <v>11247700</v>
+        <v>11334000</v>
       </c>
       <c r="G49" s="3">
-        <v>13126500</v>
+        <v>13227100</v>
       </c>
       <c r="H49" s="3">
-        <v>10965400</v>
+        <v>11049400</v>
       </c>
       <c r="I49" s="3">
-        <v>8892700</v>
+        <v>8960900</v>
       </c>
       <c r="J49" s="3">
-        <v>417300</v>
+        <v>420500</v>
       </c>
       <c r="K49" s="3">
         <v>272800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>282700</v>
+        <v>284900</v>
       </c>
       <c r="E52" s="3">
-        <v>309400</v>
+        <v>311700</v>
       </c>
       <c r="F52" s="3">
-        <v>253300</v>
+        <v>255300</v>
       </c>
       <c r="G52" s="3">
-        <v>203800</v>
+        <v>205400</v>
       </c>
       <c r="H52" s="3">
-        <v>238400</v>
+        <v>240200</v>
       </c>
       <c r="I52" s="3">
-        <v>139700</v>
+        <v>140700</v>
       </c>
       <c r="J52" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="K52" s="3">
         <v>85100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29315700</v>
+        <v>29540400</v>
       </c>
       <c r="E54" s="3">
-        <v>31338500</v>
+        <v>31578700</v>
       </c>
       <c r="F54" s="3">
-        <v>29093500</v>
+        <v>29316500</v>
       </c>
       <c r="G54" s="3">
-        <v>25400300</v>
+        <v>25595000</v>
       </c>
       <c r="H54" s="3">
-        <v>22609400</v>
+        <v>22782700</v>
       </c>
       <c r="I54" s="3">
-        <v>18606000</v>
+        <v>18748600</v>
       </c>
       <c r="J54" s="3">
-        <v>4886200</v>
+        <v>4923600</v>
       </c>
       <c r="K54" s="3">
         <v>3166900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>705500</v>
+        <v>710900</v>
       </c>
       <c r="E57" s="3">
-        <v>1924700</v>
+        <v>1939500</v>
       </c>
       <c r="F57" s="3">
-        <v>1833900</v>
+        <v>1848000</v>
       </c>
       <c r="G57" s="3">
-        <v>1167800</v>
+        <v>1176700</v>
       </c>
       <c r="H57" s="3">
-        <v>1139600</v>
+        <v>1148300</v>
       </c>
       <c r="I57" s="3">
-        <v>930700</v>
+        <v>937800</v>
       </c>
       <c r="J57" s="3">
-        <v>360700</v>
+        <v>363500</v>
       </c>
       <c r="K57" s="3">
         <v>249100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5270600</v>
+        <v>5311000</v>
       </c>
       <c r="E58" s="3">
-        <v>4777600</v>
+        <v>4814200</v>
       </c>
       <c r="F58" s="3">
-        <v>5637900</v>
+        <v>5681100</v>
       </c>
       <c r="G58" s="3">
-        <v>5108900</v>
+        <v>5148100</v>
       </c>
       <c r="H58" s="3">
-        <v>1078300</v>
+        <v>1086500</v>
       </c>
       <c r="I58" s="3">
-        <v>2183000</v>
+        <v>2199700</v>
       </c>
       <c r="J58" s="3">
-        <v>557400</v>
+        <v>561700</v>
       </c>
       <c r="K58" s="3">
         <v>117800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3162200</v>
+        <v>3186400</v>
       </c>
       <c r="E59" s="3">
-        <v>4128800</v>
+        <v>4160400</v>
       </c>
       <c r="F59" s="3">
-        <v>3297000</v>
+        <v>3322300</v>
       </c>
       <c r="G59" s="3">
-        <v>3742100</v>
+        <v>3770800</v>
       </c>
       <c r="H59" s="3">
-        <v>2525100</v>
+        <v>2544500</v>
       </c>
       <c r="I59" s="3">
-        <v>2157100</v>
+        <v>2173600</v>
       </c>
       <c r="J59" s="3">
-        <v>1072500</v>
+        <v>1080700</v>
       </c>
       <c r="K59" s="3">
         <v>700100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9138300</v>
+        <v>9208300</v>
       </c>
       <c r="E60" s="3">
-        <v>10831100</v>
+        <v>10914200</v>
       </c>
       <c r="F60" s="3">
-        <v>10768800</v>
+        <v>10851400</v>
       </c>
       <c r="G60" s="3">
-        <v>6600900</v>
+        <v>6651500</v>
       </c>
       <c r="H60" s="3">
-        <v>4743000</v>
+        <v>4779300</v>
       </c>
       <c r="I60" s="3">
-        <v>5270800</v>
+        <v>5311200</v>
       </c>
       <c r="J60" s="3">
-        <v>1990600</v>
+        <v>2005900</v>
       </c>
       <c r="K60" s="3">
         <v>968700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3556700</v>
+        <v>3584000</v>
       </c>
       <c r="E61" s="3">
-        <v>3058700</v>
+        <v>3082200</v>
       </c>
       <c r="F61" s="3">
-        <v>3780300</v>
+        <v>3809300</v>
       </c>
       <c r="G61" s="3">
-        <v>4574700</v>
+        <v>4609700</v>
       </c>
       <c r="H61" s="3">
-        <v>5424900</v>
+        <v>5466500</v>
       </c>
       <c r="I61" s="3">
-        <v>2873600</v>
+        <v>2895600</v>
       </c>
       <c r="J61" s="3">
-        <v>1250100</v>
+        <v>1259600</v>
       </c>
       <c r="K61" s="3">
         <v>860600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>719400</v>
+        <v>724900</v>
       </c>
       <c r="E62" s="3">
-        <v>721000</v>
+        <v>726500</v>
       </c>
       <c r="F62" s="3">
-        <v>652400</v>
+        <v>657400</v>
       </c>
       <c r="G62" s="3">
-        <v>664300</v>
+        <v>669400</v>
       </c>
       <c r="H62" s="3">
-        <v>618000</v>
+        <v>622700</v>
       </c>
       <c r="I62" s="3">
-        <v>491100</v>
+        <v>494900</v>
       </c>
       <c r="J62" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="K62" s="3">
         <v>9600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13604300</v>
+        <v>13708600</v>
       </c>
       <c r="E66" s="3">
-        <v>15143600</v>
+        <v>15259700</v>
       </c>
       <c r="F66" s="3">
-        <v>15517400</v>
+        <v>15636400</v>
       </c>
       <c r="G66" s="3">
-        <v>12118400</v>
+        <v>12211300</v>
       </c>
       <c r="H66" s="3">
-        <v>11409600</v>
+        <v>11497100</v>
       </c>
       <c r="I66" s="3">
-        <v>11631100</v>
+        <v>11720300</v>
       </c>
       <c r="J66" s="3">
-        <v>3394300</v>
+        <v>3420300</v>
       </c>
       <c r="K66" s="3">
         <v>1869300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3148000</v>
+        <v>3172100</v>
       </c>
       <c r="E72" s="3">
-        <v>3669500</v>
+        <v>3697600</v>
       </c>
       <c r="F72" s="3">
-        <v>2571800</v>
+        <v>2591500</v>
       </c>
       <c r="G72" s="3">
-        <v>2430000</v>
+        <v>2448600</v>
       </c>
       <c r="H72" s="3">
-        <v>1086100</v>
+        <v>1094400</v>
       </c>
       <c r="I72" s="3">
-        <v>1310100</v>
+        <v>1320100</v>
       </c>
       <c r="J72" s="3">
-        <v>917500</v>
+        <v>924500</v>
       </c>
       <c r="K72" s="3">
         <v>854500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15711400</v>
+        <v>15831800</v>
       </c>
       <c r="E76" s="3">
-        <v>16194900</v>
+        <v>16319000</v>
       </c>
       <c r="F76" s="3">
-        <v>13576100</v>
+        <v>13680200</v>
       </c>
       <c r="G76" s="3">
-        <v>13281900</v>
+        <v>13383700</v>
       </c>
       <c r="H76" s="3">
-        <v>11199800</v>
+        <v>11285700</v>
       </c>
       <c r="I76" s="3">
-        <v>6974900</v>
+        <v>7028300</v>
       </c>
       <c r="J76" s="3">
-        <v>1491900</v>
+        <v>1503300</v>
       </c>
       <c r="K76" s="3">
         <v>1297600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-508400</v>
+        <v>-512200</v>
       </c>
       <c r="E81" s="3">
-        <v>1097600</v>
+        <v>1106100</v>
       </c>
       <c r="F81" s="3">
-        <v>174100</v>
+        <v>175400</v>
       </c>
       <c r="G81" s="3">
-        <v>311300</v>
+        <v>313700</v>
       </c>
       <c r="H81" s="3">
-        <v>-224000</v>
+        <v>-225700</v>
       </c>
       <c r="I81" s="3">
-        <v>392600</v>
+        <v>395600</v>
       </c>
       <c r="J81" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="K81" s="3">
         <v>151900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>190500</v>
+        <v>192000</v>
       </c>
       <c r="E83" s="3">
-        <v>171600</v>
+        <v>172900</v>
       </c>
       <c r="F83" s="3">
-        <v>153700</v>
+        <v>154900</v>
       </c>
       <c r="G83" s="3">
-        <v>138300</v>
+        <v>139300</v>
       </c>
       <c r="H83" s="3">
-        <v>112500</v>
+        <v>113400</v>
       </c>
       <c r="I83" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="J83" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="K83" s="3">
         <v>18400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-598500</v>
+        <v>-603100</v>
       </c>
       <c r="E89" s="3">
-        <v>1148100</v>
+        <v>1156900</v>
       </c>
       <c r="F89" s="3">
-        <v>1113900</v>
+        <v>1122500</v>
       </c>
       <c r="G89" s="3">
-        <v>1106700</v>
+        <v>1115200</v>
       </c>
       <c r="H89" s="3">
-        <v>825500</v>
+        <v>831800</v>
       </c>
       <c r="I89" s="3">
-        <v>477300</v>
+        <v>481000</v>
       </c>
       <c r="J89" s="3">
-        <v>306600</v>
+        <v>309000</v>
       </c>
       <c r="K89" s="3">
         <v>373100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-83300</v>
+        <v>-83900</v>
       </c>
       <c r="E91" s="3">
-        <v>-128800</v>
+        <v>-129800</v>
       </c>
       <c r="F91" s="3">
-        <v>-105400</v>
+        <v>-106200</v>
       </c>
       <c r="G91" s="3">
-        <v>-73800</v>
+        <v>-74300</v>
       </c>
       <c r="H91" s="3">
-        <v>-106900</v>
+        <v>-107700</v>
       </c>
       <c r="I91" s="3">
-        <v>-99900</v>
+        <v>-100700</v>
       </c>
       <c r="J91" s="3">
-        <v>-749700</v>
+        <v>-755500</v>
       </c>
       <c r="K91" s="3">
         <v>-99100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-598200</v>
+        <v>-602800</v>
       </c>
       <c r="E94" s="3">
-        <v>-377800</v>
+        <v>-380700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2204100</v>
+        <v>-2220900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2384800</v>
+        <v>-2403000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3103900</v>
+        <v>-3127700</v>
       </c>
       <c r="I94" s="3">
-        <v>-693000</v>
+        <v>-698300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1466400</v>
+        <v>-1477600</v>
       </c>
       <c r="K94" s="3">
         <v>-621600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>943300</v>
+        <v>950500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1449100</v>
+        <v>-1460200</v>
       </c>
       <c r="F100" s="3">
-        <v>1867100</v>
+        <v>1881400</v>
       </c>
       <c r="G100" s="3">
-        <v>1255500</v>
+        <v>1265100</v>
       </c>
       <c r="H100" s="3">
-        <v>1924100</v>
+        <v>1938800</v>
       </c>
       <c r="I100" s="3">
-        <v>2385000</v>
+        <v>2403300</v>
       </c>
       <c r="J100" s="3">
-        <v>848900</v>
+        <v>855400</v>
       </c>
       <c r="K100" s="3">
         <v>808700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-111600</v>
+        <v>-112500</v>
       </c>
       <c r="E101" s="3">
-        <v>48400</v>
+        <v>48700</v>
       </c>
       <c r="F101" s="3">
-        <v>128200</v>
+        <v>129200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="H101" s="3">
-        <v>232000</v>
+        <v>233800</v>
       </c>
       <c r="I101" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="J101" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="K101" s="3">
         <v>5200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-365100</v>
+        <v>-367900</v>
       </c>
       <c r="E102" s="3">
-        <v>-630500</v>
+        <v>-635300</v>
       </c>
       <c r="F102" s="3">
-        <v>905200</v>
+        <v>912200</v>
       </c>
       <c r="G102" s="3">
-        <v>-30000</v>
+        <v>-30200</v>
       </c>
       <c r="H102" s="3">
-        <v>-122300</v>
+        <v>-123200</v>
       </c>
       <c r="I102" s="3">
-        <v>2178500</v>
+        <v>2195200</v>
       </c>
       <c r="J102" s="3">
-        <v>-287700</v>
+        <v>-289900</v>
       </c>
       <c r="K102" s="3">
         <v>565400</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2889500</v>
+        <v>2950600</v>
       </c>
       <c r="E8" s="3">
-        <v>5626700</v>
+        <v>2699000</v>
       </c>
       <c r="F8" s="3">
-        <v>4885000</v>
+        <v>5255700</v>
       </c>
       <c r="G8" s="3">
-        <v>4192200</v>
+        <v>4563000</v>
       </c>
       <c r="H8" s="3">
-        <v>3033500</v>
+        <v>3915900</v>
       </c>
       <c r="I8" s="3">
-        <v>1719200</v>
+        <v>2833500</v>
       </c>
       <c r="J8" s="3">
+        <v>1605900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1159000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>819400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>596700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>635900</v>
+        <v>677600</v>
       </c>
       <c r="E9" s="3">
-        <v>1163000</v>
+        <v>594000</v>
       </c>
       <c r="F9" s="3">
-        <v>997700</v>
+        <v>1086300</v>
       </c>
       <c r="G9" s="3">
-        <v>738000</v>
+        <v>931900</v>
       </c>
       <c r="H9" s="3">
-        <v>746200</v>
+        <v>689300</v>
       </c>
       <c r="I9" s="3">
-        <v>480100</v>
+        <v>697000</v>
       </c>
       <c r="J9" s="3">
+        <v>448500</v>
+      </c>
+      <c r="K9" s="3">
         <v>331400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>211000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2253600</v>
+        <v>2273000</v>
       </c>
       <c r="E10" s="3">
-        <v>4463700</v>
+        <v>2105000</v>
       </c>
       <c r="F10" s="3">
-        <v>3887400</v>
+        <v>4169400</v>
       </c>
       <c r="G10" s="3">
-        <v>3454300</v>
+        <v>3631100</v>
       </c>
       <c r="H10" s="3">
-        <v>2287300</v>
+        <v>3226500</v>
       </c>
       <c r="I10" s="3">
-        <v>1239100</v>
+        <v>2136500</v>
       </c>
       <c r="J10" s="3">
+        <v>1157400</v>
+      </c>
+      <c r="K10" s="3">
         <v>827700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>608500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>447800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1209500</v>
+        <v>1325100</v>
       </c>
       <c r="E12" s="3">
-        <v>1683300</v>
+        <v>1129800</v>
       </c>
       <c r="F12" s="3">
-        <v>1517700</v>
+        <v>1572300</v>
       </c>
       <c r="G12" s="3">
-        <v>1302900</v>
+        <v>1417600</v>
       </c>
       <c r="H12" s="3">
-        <v>1212800</v>
+        <v>1217000</v>
       </c>
       <c r="I12" s="3">
-        <v>520100</v>
+        <v>1132800</v>
       </c>
       <c r="J12" s="3">
+        <v>485800</v>
+      </c>
+      <c r="K12" s="3">
         <v>366200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>189500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>130800</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>142800</v>
+        <v>14100</v>
       </c>
       <c r="E14" s="3">
-        <v>32300</v>
+        <v>133400</v>
       </c>
       <c r="F14" s="3">
-        <v>9900</v>
+        <v>30200</v>
       </c>
       <c r="G14" s="3">
-        <v>215700</v>
+        <v>9300</v>
       </c>
       <c r="H14" s="3">
-        <v>7600</v>
+        <v>201400</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3256800</v>
+        <v>3172700</v>
       </c>
       <c r="E17" s="3">
-        <v>4863900</v>
+        <v>3042100</v>
       </c>
       <c r="F17" s="3">
-        <v>4484000</v>
+        <v>4543300</v>
       </c>
       <c r="G17" s="3">
-        <v>3762900</v>
+        <v>4188400</v>
       </c>
       <c r="H17" s="3">
-        <v>3288500</v>
+        <v>3514800</v>
       </c>
       <c r="I17" s="3">
-        <v>1659100</v>
+        <v>3071700</v>
       </c>
       <c r="J17" s="3">
+        <v>1549700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1188300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>691300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>502800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-367300</v>
+        <v>-222100</v>
       </c>
       <c r="E18" s="3">
-        <v>762800</v>
+        <v>-343100</v>
       </c>
       <c r="F18" s="3">
+        <v>712500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>374600</v>
+      </c>
+      <c r="H18" s="3">
         <v>401000</v>
       </c>
-      <c r="G18" s="3">
-        <v>429300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-255000</v>
-      </c>
       <c r="I18" s="3">
-        <v>60100</v>
+        <v>-238200</v>
       </c>
       <c r="J18" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-29200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>444700</v>
+        <v>383300</v>
       </c>
       <c r="E20" s="3">
-        <v>935400</v>
+        <v>415400</v>
       </c>
       <c r="F20" s="3">
-        <v>139900</v>
+        <v>873700</v>
       </c>
       <c r="G20" s="3">
-        <v>294500</v>
+        <v>130700</v>
       </c>
       <c r="H20" s="3">
-        <v>92800</v>
+        <v>275000</v>
       </c>
       <c r="I20" s="3">
-        <v>461700</v>
+        <v>86700</v>
       </c>
       <c r="J20" s="3">
+        <v>431300</v>
+      </c>
+      <c r="K20" s="3">
         <v>76200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>54600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>42500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>270100</v>
+        <v>313200</v>
       </c>
       <c r="E21" s="3">
-        <v>1871600</v>
+        <v>253500</v>
       </c>
       <c r="F21" s="3">
-        <v>696400</v>
+        <v>1749300</v>
       </c>
       <c r="G21" s="3">
-        <v>863600</v>
+        <v>651500</v>
       </c>
       <c r="H21" s="3">
-        <v>-48400</v>
+        <v>807500</v>
       </c>
       <c r="I21" s="3">
-        <v>571900</v>
+        <v>-44500</v>
       </c>
       <c r="J21" s="3">
+        <v>534500</v>
+      </c>
+      <c r="K21" s="3">
         <v>75800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>201200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>270700</v>
+        <v>230600</v>
       </c>
       <c r="E22" s="3">
-        <v>264600</v>
+        <v>252900</v>
       </c>
       <c r="F22" s="3">
-        <v>237900</v>
+        <v>247100</v>
       </c>
       <c r="G22" s="3">
-        <v>203000</v>
+        <v>222200</v>
       </c>
       <c r="H22" s="3">
-        <v>115500</v>
+        <v>189600</v>
       </c>
       <c r="I22" s="3">
-        <v>47700</v>
+        <v>107900</v>
       </c>
       <c r="J22" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K22" s="3">
         <v>25600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-193300</v>
+        <v>-69400</v>
       </c>
       <c r="E23" s="3">
-        <v>1433600</v>
+        <v>-180500</v>
       </c>
       <c r="F23" s="3">
-        <v>303100</v>
+        <v>1339100</v>
       </c>
       <c r="G23" s="3">
-        <v>520800</v>
+        <v>283100</v>
       </c>
       <c r="H23" s="3">
-        <v>-277700</v>
+        <v>486500</v>
       </c>
       <c r="I23" s="3">
-        <v>474100</v>
+        <v>-259400</v>
       </c>
       <c r="J23" s="3">
+        <v>442900</v>
+      </c>
+      <c r="K23" s="3">
         <v>21400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>174100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>136400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56000</v>
+        <v>39800</v>
       </c>
       <c r="E24" s="3">
-        <v>274800</v>
+        <v>52300</v>
       </c>
       <c r="F24" s="3">
-        <v>125100</v>
+        <v>256700</v>
       </c>
       <c r="G24" s="3">
-        <v>193900</v>
+        <v>116900</v>
       </c>
       <c r="H24" s="3">
-        <v>75400</v>
+        <v>181100</v>
       </c>
       <c r="I24" s="3">
-        <v>74200</v>
+        <v>70400</v>
       </c>
       <c r="J24" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K24" s="3">
         <v>20600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-249300</v>
+        <v>-109200</v>
       </c>
       <c r="E26" s="3">
-        <v>1158700</v>
+        <v>-232800</v>
       </c>
       <c r="F26" s="3">
-        <v>178000</v>
+        <v>1082400</v>
       </c>
       <c r="G26" s="3">
-        <v>326900</v>
+        <v>166200</v>
       </c>
       <c r="H26" s="3">
-        <v>-353100</v>
+        <v>305400</v>
       </c>
       <c r="I26" s="3">
-        <v>399900</v>
+        <v>-329800</v>
       </c>
       <c r="J26" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>129400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>94100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-512200</v>
+        <v>-81000</v>
       </c>
       <c r="E27" s="3">
-        <v>1106100</v>
+        <v>-478500</v>
       </c>
       <c r="F27" s="3">
-        <v>175400</v>
+        <v>1033100</v>
       </c>
       <c r="G27" s="3">
-        <v>313700</v>
+        <v>163900</v>
       </c>
       <c r="H27" s="3">
-        <v>-225700</v>
+        <v>293000</v>
       </c>
       <c r="I27" s="3">
-        <v>395600</v>
+        <v>-210800</v>
       </c>
       <c r="J27" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K27" s="3">
         <v>38300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>151900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>102500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-444700</v>
+        <v>-383300</v>
       </c>
       <c r="E32" s="3">
-        <v>-935400</v>
+        <v>-415400</v>
       </c>
       <c r="F32" s="3">
-        <v>-139900</v>
+        <v>-873700</v>
       </c>
       <c r="G32" s="3">
-        <v>-294500</v>
+        <v>-130700</v>
       </c>
       <c r="H32" s="3">
-        <v>-92800</v>
+        <v>-275000</v>
       </c>
       <c r="I32" s="3">
-        <v>-461700</v>
+        <v>-86700</v>
       </c>
       <c r="J32" s="3">
+        <v>-431300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-76200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-54600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-42500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-512200</v>
+        <v>-81000</v>
       </c>
       <c r="E33" s="3">
-        <v>1106100</v>
+        <v>-478500</v>
       </c>
       <c r="F33" s="3">
-        <v>175400</v>
+        <v>1033100</v>
       </c>
       <c r="G33" s="3">
-        <v>313700</v>
+        <v>163900</v>
       </c>
       <c r="H33" s="3">
-        <v>-225700</v>
+        <v>293000</v>
       </c>
       <c r="I33" s="3">
-        <v>395600</v>
+        <v>-210800</v>
       </c>
       <c r="J33" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K33" s="3">
         <v>38300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>151900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>102500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-512200</v>
+        <v>-81000</v>
       </c>
       <c r="E35" s="3">
-        <v>1106100</v>
+        <v>-478500</v>
       </c>
       <c r="F35" s="3">
-        <v>175400</v>
+        <v>1033100</v>
       </c>
       <c r="G35" s="3">
-        <v>313700</v>
+        <v>163900</v>
       </c>
       <c r="H35" s="3">
-        <v>-225700</v>
+        <v>293000</v>
       </c>
       <c r="I35" s="3">
-        <v>395600</v>
+        <v>-210800</v>
       </c>
       <c r="J35" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K35" s="3">
         <v>38300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>151900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>102500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,107 +1731,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2854800</v>
+        <v>2920400</v>
       </c>
       <c r="E41" s="3">
-        <v>3143100</v>
+        <v>2666600</v>
       </c>
       <c r="F41" s="3">
-        <v>3396600</v>
+        <v>2935900</v>
       </c>
       <c r="G41" s="3">
-        <v>2878000</v>
+        <v>3172700</v>
       </c>
       <c r="H41" s="3">
-        <v>2908300</v>
+        <v>2688300</v>
       </c>
       <c r="I41" s="3">
-        <v>3031500</v>
+        <v>2716500</v>
       </c>
       <c r="J41" s="3">
+        <v>2831600</v>
+      </c>
+      <c r="K41" s="3">
         <v>836300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1085900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>981800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3915600</v>
+        <v>4356800</v>
       </c>
       <c r="E42" s="3">
-        <v>3637600</v>
+        <v>3657500</v>
       </c>
       <c r="F42" s="3">
-        <v>5798200</v>
+        <v>3397800</v>
       </c>
       <c r="G42" s="3">
-        <v>4437800</v>
+        <v>5415900</v>
       </c>
       <c r="H42" s="3">
-        <v>2226400</v>
+        <v>4145200</v>
       </c>
       <c r="I42" s="3">
-        <v>1299300</v>
+        <v>2079700</v>
       </c>
       <c r="J42" s="3">
+        <v>1213600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1015800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>553000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>202100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1403900</v>
+        <v>1564100</v>
       </c>
       <c r="E43" s="3">
-        <v>2085100</v>
+        <v>1311400</v>
       </c>
       <c r="F43" s="3">
-        <v>1397900</v>
+        <v>1947700</v>
       </c>
       <c r="G43" s="3">
-        <v>1631500</v>
+        <v>1305800</v>
       </c>
       <c r="H43" s="3">
-        <v>899500</v>
+        <v>1523900</v>
       </c>
       <c r="I43" s="3">
-        <v>695000</v>
+        <v>840200</v>
       </c>
       <c r="J43" s="3">
+        <v>649200</v>
+      </c>
+      <c r="K43" s="3">
         <v>306400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>478000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>328400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,174 +1872,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>977500</v>
+        <v>900400</v>
       </c>
       <c r="E45" s="3">
-        <v>1854800</v>
+        <v>913000</v>
       </c>
       <c r="F45" s="3">
-        <v>1932600</v>
+        <v>1732500</v>
       </c>
       <c r="G45" s="3">
-        <v>2178500</v>
+        <v>1805200</v>
       </c>
       <c r="H45" s="3">
-        <v>1208800</v>
+        <v>2034800</v>
       </c>
       <c r="I45" s="3">
-        <v>1379500</v>
+        <v>1129100</v>
       </c>
       <c r="J45" s="3">
+        <v>1288500</v>
+      </c>
+      <c r="K45" s="3">
         <v>536400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>487600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>359800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9151800</v>
+        <v>9741700</v>
       </c>
       <c r="E46" s="3">
-        <v>10720600</v>
+        <v>8548500</v>
       </c>
       <c r="F46" s="3">
-        <v>12525200</v>
+        <v>10013800</v>
       </c>
       <c r="G46" s="3">
-        <v>9373800</v>
+        <v>11699500</v>
       </c>
       <c r="H46" s="3">
-        <v>7243000</v>
+        <v>8755800</v>
       </c>
       <c r="I46" s="3">
-        <v>6405200</v>
+        <v>6765500</v>
       </c>
       <c r="J46" s="3">
+        <v>5982900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2694000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2185300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1096600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7567400</v>
+        <v>6629100</v>
       </c>
       <c r="E47" s="3">
-        <v>8096900</v>
+        <v>7068600</v>
       </c>
       <c r="F47" s="3">
-        <v>4275800</v>
+        <v>7563100</v>
       </c>
       <c r="G47" s="3">
-        <v>8143900</v>
+        <v>3993900</v>
       </c>
       <c r="H47" s="3">
-        <v>3367900</v>
+        <v>7607000</v>
       </c>
       <c r="I47" s="3">
-        <v>2365300</v>
+        <v>3145900</v>
       </c>
       <c r="J47" s="3">
+        <v>2209400</v>
+      </c>
+      <c r="K47" s="3">
         <v>950000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>926100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>412400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1067600</v>
+        <v>930000</v>
       </c>
       <c r="E48" s="3">
-        <v>1158300</v>
+        <v>997200</v>
       </c>
       <c r="F48" s="3">
-        <v>926400</v>
+        <v>1081900</v>
       </c>
       <c r="G48" s="3">
-        <v>1771900</v>
+        <v>865300</v>
       </c>
       <c r="H48" s="3">
-        <v>882200</v>
+        <v>1655100</v>
       </c>
       <c r="I48" s="3">
-        <v>876500</v>
+        <v>824000</v>
       </c>
       <c r="J48" s="3">
+        <v>818700</v>
+      </c>
+      <c r="K48" s="3">
         <v>823600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>429900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>322500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11468700</v>
+        <v>10668700</v>
       </c>
       <c r="E49" s="3">
-        <v>11291200</v>
+        <v>10712600</v>
       </c>
       <c r="F49" s="3">
-        <v>11334000</v>
+        <v>10546800</v>
       </c>
       <c r="G49" s="3">
-        <v>13227100</v>
+        <v>10586800</v>
       </c>
       <c r="H49" s="3">
-        <v>11049400</v>
+        <v>12355200</v>
       </c>
       <c r="I49" s="3">
-        <v>8960900</v>
+        <v>10321000</v>
       </c>
       <c r="J49" s="3">
+        <v>8370100</v>
+      </c>
+      <c r="K49" s="3">
         <v>420500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>272800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>226200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>284900</v>
+        <v>302800</v>
       </c>
       <c r="E52" s="3">
-        <v>311700</v>
+        <v>266100</v>
       </c>
       <c r="F52" s="3">
-        <v>255300</v>
+        <v>291200</v>
       </c>
       <c r="G52" s="3">
-        <v>205400</v>
+        <v>238400</v>
       </c>
       <c r="H52" s="3">
-        <v>240200</v>
+        <v>191900</v>
       </c>
       <c r="I52" s="3">
-        <v>140700</v>
+        <v>224400</v>
       </c>
       <c r="J52" s="3">
+        <v>131500</v>
+      </c>
+      <c r="K52" s="3">
         <v>35500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29540400</v>
+        <v>28272300</v>
       </c>
       <c r="E54" s="3">
-        <v>31578700</v>
+        <v>27593000</v>
       </c>
       <c r="F54" s="3">
-        <v>29316500</v>
+        <v>29496900</v>
       </c>
       <c r="G54" s="3">
-        <v>25595000</v>
+        <v>27383900</v>
       </c>
       <c r="H54" s="3">
-        <v>22782700</v>
+        <v>23907700</v>
       </c>
       <c r="I54" s="3">
-        <v>18748600</v>
+        <v>21280800</v>
       </c>
       <c r="J54" s="3">
+        <v>17512600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4923600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3166900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1674400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>710900</v>
+        <v>887000</v>
       </c>
       <c r="E57" s="3">
-        <v>1939500</v>
+        <v>664000</v>
       </c>
       <c r="F57" s="3">
-        <v>1848000</v>
+        <v>1811600</v>
       </c>
       <c r="G57" s="3">
-        <v>1176700</v>
+        <v>1726200</v>
       </c>
       <c r="H57" s="3">
-        <v>1148300</v>
+        <v>1099200</v>
       </c>
       <c r="I57" s="3">
-        <v>937800</v>
+        <v>1072600</v>
       </c>
       <c r="J57" s="3">
+        <v>876000</v>
+      </c>
+      <c r="K57" s="3">
         <v>363500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>249100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5311000</v>
+        <v>5874700</v>
       </c>
       <c r="E58" s="3">
-        <v>4814200</v>
+        <v>4960900</v>
       </c>
       <c r="F58" s="3">
-        <v>5681100</v>
+        <v>4496800</v>
       </c>
       <c r="G58" s="3">
-        <v>5148100</v>
+        <v>5306600</v>
       </c>
       <c r="H58" s="3">
-        <v>1086500</v>
+        <v>4808700</v>
       </c>
       <c r="I58" s="3">
-        <v>2199700</v>
+        <v>1014900</v>
       </c>
       <c r="J58" s="3">
+        <v>2054700</v>
+      </c>
+      <c r="K58" s="3">
         <v>561700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>117800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>65100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3186400</v>
+        <v>2996300</v>
       </c>
       <c r="E59" s="3">
-        <v>4160400</v>
+        <v>2976400</v>
       </c>
       <c r="F59" s="3">
-        <v>3322300</v>
+        <v>3886200</v>
       </c>
       <c r="G59" s="3">
-        <v>3770800</v>
+        <v>3103300</v>
       </c>
       <c r="H59" s="3">
-        <v>2544500</v>
+        <v>3522200</v>
       </c>
       <c r="I59" s="3">
-        <v>2173600</v>
+        <v>2376800</v>
       </c>
       <c r="J59" s="3">
+        <v>2030400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1080700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>399900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9208300</v>
+        <v>9757900</v>
       </c>
       <c r="E60" s="3">
-        <v>10914200</v>
+        <v>8601300</v>
       </c>
       <c r="F60" s="3">
-        <v>10851400</v>
+        <v>10194700</v>
       </c>
       <c r="G60" s="3">
-        <v>6651500</v>
+        <v>10136000</v>
       </c>
       <c r="H60" s="3">
-        <v>4779300</v>
+        <v>6213000</v>
       </c>
       <c r="I60" s="3">
-        <v>5311200</v>
+        <v>4464300</v>
       </c>
       <c r="J60" s="3">
+        <v>4961000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2005900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>968700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>561000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3584000</v>
+        <v>1634700</v>
       </c>
       <c r="E61" s="3">
-        <v>3082200</v>
+        <v>3347700</v>
       </c>
       <c r="F61" s="3">
-        <v>3809300</v>
+        <v>2879000</v>
       </c>
       <c r="G61" s="3">
-        <v>4609700</v>
+        <v>3558200</v>
       </c>
       <c r="H61" s="3">
-        <v>5466500</v>
+        <v>4305900</v>
       </c>
       <c r="I61" s="3">
-        <v>2895600</v>
+        <v>5106100</v>
       </c>
       <c r="J61" s="3">
+        <v>2704700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1259600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>860600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>160900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>724900</v>
+        <v>603000</v>
       </c>
       <c r="E62" s="3">
-        <v>726500</v>
+        <v>677100</v>
       </c>
       <c r="F62" s="3">
-        <v>657400</v>
+        <v>678600</v>
       </c>
       <c r="G62" s="3">
-        <v>669400</v>
+        <v>614000</v>
       </c>
       <c r="H62" s="3">
-        <v>622700</v>
+        <v>625200</v>
       </c>
       <c r="I62" s="3">
-        <v>494900</v>
+        <v>581700</v>
       </c>
       <c r="J62" s="3">
+        <v>462300</v>
+      </c>
+      <c r="K62" s="3">
         <v>20900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13708600</v>
+        <v>12110300</v>
       </c>
       <c r="E66" s="3">
-        <v>15259700</v>
+        <v>12804800</v>
       </c>
       <c r="F66" s="3">
-        <v>15636400</v>
+        <v>14253700</v>
       </c>
       <c r="G66" s="3">
-        <v>12211300</v>
+        <v>14605600</v>
       </c>
       <c r="H66" s="3">
-        <v>11497100</v>
+        <v>11406300</v>
       </c>
       <c r="I66" s="3">
-        <v>11720300</v>
+        <v>10739200</v>
       </c>
       <c r="J66" s="3">
+        <v>10947600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3420300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1869300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>743200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3172100</v>
+        <v>2881900</v>
       </c>
       <c r="E72" s="3">
-        <v>3697600</v>
+        <v>2963000</v>
       </c>
       <c r="F72" s="3">
-        <v>2591500</v>
+        <v>3453800</v>
       </c>
       <c r="G72" s="3">
-        <v>2448600</v>
+        <v>2420700</v>
       </c>
       <c r="H72" s="3">
-        <v>1094400</v>
+        <v>2287200</v>
       </c>
       <c r="I72" s="3">
-        <v>1320100</v>
+        <v>1022200</v>
       </c>
       <c r="J72" s="3">
+        <v>1233100</v>
+      </c>
+      <c r="K72" s="3">
         <v>924500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>854500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>662700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15831800</v>
+        <v>16162000</v>
       </c>
       <c r="E76" s="3">
-        <v>16319000</v>
+        <v>14788200</v>
       </c>
       <c r="F76" s="3">
-        <v>13680200</v>
+        <v>15243200</v>
       </c>
       <c r="G76" s="3">
-        <v>13383700</v>
+        <v>12778300</v>
       </c>
       <c r="H76" s="3">
-        <v>11285700</v>
+        <v>12501400</v>
       </c>
       <c r="I76" s="3">
-        <v>7028300</v>
+        <v>10541700</v>
       </c>
       <c r="J76" s="3">
+        <v>6565000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1503300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1297600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>931100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-512200</v>
+        <v>-81000</v>
       </c>
       <c r="E81" s="3">
-        <v>1106100</v>
+        <v>-478500</v>
       </c>
       <c r="F81" s="3">
-        <v>175400</v>
+        <v>1033100</v>
       </c>
       <c r="G81" s="3">
-        <v>313700</v>
+        <v>163900</v>
       </c>
       <c r="H81" s="3">
-        <v>-225700</v>
+        <v>293000</v>
       </c>
       <c r="I81" s="3">
-        <v>395600</v>
+        <v>-210800</v>
       </c>
       <c r="J81" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K81" s="3">
         <v>38300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>151900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>102500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>192000</v>
+        <v>150500</v>
       </c>
       <c r="E83" s="3">
-        <v>172900</v>
+        <v>179300</v>
       </c>
       <c r="F83" s="3">
-        <v>154900</v>
+        <v>161500</v>
       </c>
       <c r="G83" s="3">
-        <v>139300</v>
+        <v>144700</v>
       </c>
       <c r="H83" s="3">
-        <v>113400</v>
+        <v>130100</v>
       </c>
       <c r="I83" s="3">
-        <v>49900</v>
+        <v>105900</v>
       </c>
       <c r="J83" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K83" s="3">
         <v>28700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-603100</v>
+        <v>364700</v>
       </c>
       <c r="E89" s="3">
-        <v>1156900</v>
+        <v>-563400</v>
       </c>
       <c r="F89" s="3">
-        <v>1122500</v>
+        <v>1080600</v>
       </c>
       <c r="G89" s="3">
-        <v>1115200</v>
+        <v>1048500</v>
       </c>
       <c r="H89" s="3">
-        <v>831800</v>
+        <v>1041700</v>
       </c>
       <c r="I89" s="3">
-        <v>481000</v>
+        <v>777000</v>
       </c>
       <c r="J89" s="3">
+        <v>449300</v>
+      </c>
+      <c r="K89" s="3">
         <v>309000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>373100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>237400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-83900</v>
+        <v>-84000</v>
       </c>
       <c r="E91" s="3">
-        <v>-129800</v>
+        <v>-78400</v>
       </c>
       <c r="F91" s="3">
-        <v>-106200</v>
+        <v>-121300</v>
       </c>
       <c r="G91" s="3">
-        <v>-74300</v>
+        <v>-99200</v>
       </c>
       <c r="H91" s="3">
-        <v>-107700</v>
+        <v>-69400</v>
       </c>
       <c r="I91" s="3">
-        <v>-100700</v>
+        <v>-100600</v>
       </c>
       <c r="J91" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-755500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-99100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-602800</v>
+        <v>-611200</v>
       </c>
       <c r="E94" s="3">
-        <v>-380700</v>
+        <v>-563100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2220900</v>
+        <v>-355600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2403000</v>
+        <v>-2074500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3127700</v>
+        <v>-2244600</v>
       </c>
       <c r="I94" s="3">
-        <v>-698300</v>
+        <v>-2921500</v>
       </c>
       <c r="J94" s="3">
+        <v>-652300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1477600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-621600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-177900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>950500</v>
+        <v>577500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1460200</v>
+        <v>887800</v>
       </c>
       <c r="F100" s="3">
-        <v>1881400</v>
+        <v>-1364000</v>
       </c>
       <c r="G100" s="3">
-        <v>1265100</v>
+        <v>1757400</v>
       </c>
       <c r="H100" s="3">
-        <v>1938800</v>
+        <v>1181700</v>
       </c>
       <c r="I100" s="3">
-        <v>2403300</v>
+        <v>1811000</v>
       </c>
       <c r="J100" s="3">
+        <v>2244800</v>
+      </c>
+      <c r="K100" s="3">
         <v>855400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>808700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-112500</v>
+        <v>-68500</v>
       </c>
       <c r="E101" s="3">
-        <v>48700</v>
+        <v>-105100</v>
       </c>
       <c r="F101" s="3">
-        <v>129200</v>
+        <v>45500</v>
       </c>
       <c r="G101" s="3">
-        <v>-7500</v>
+        <v>120700</v>
       </c>
       <c r="H101" s="3">
-        <v>233800</v>
+        <v>-7000</v>
       </c>
       <c r="I101" s="3">
-        <v>9300</v>
+        <v>218400</v>
       </c>
       <c r="J101" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K101" s="3">
         <v>23400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-367900</v>
+        <v>262400</v>
       </c>
       <c r="E102" s="3">
-        <v>-635300</v>
+        <v>-343600</v>
       </c>
       <c r="F102" s="3">
-        <v>912200</v>
+        <v>-593400</v>
       </c>
       <c r="G102" s="3">
-        <v>-30200</v>
+        <v>852000</v>
       </c>
       <c r="H102" s="3">
-        <v>-123200</v>
+        <v>-28200</v>
       </c>
       <c r="I102" s="3">
-        <v>2195200</v>
+        <v>-115100</v>
       </c>
       <c r="J102" s="3">
+        <v>2050500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-289900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>565400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2950600</v>
+        <v>2924000</v>
       </c>
       <c r="E8" s="3">
-        <v>2699000</v>
+        <v>2674700</v>
       </c>
       <c r="F8" s="3">
-        <v>5255700</v>
+        <v>5208300</v>
       </c>
       <c r="G8" s="3">
-        <v>4563000</v>
+        <v>4521800</v>
       </c>
       <c r="H8" s="3">
-        <v>3915900</v>
+        <v>3880500</v>
       </c>
       <c r="I8" s="3">
-        <v>2833500</v>
+        <v>2807900</v>
       </c>
       <c r="J8" s="3">
-        <v>1605900</v>
+        <v>1591400</v>
       </c>
       <c r="K8" s="3">
         <v>1159000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>677600</v>
+        <v>671400</v>
       </c>
       <c r="E9" s="3">
-        <v>594000</v>
+        <v>588600</v>
       </c>
       <c r="F9" s="3">
-        <v>1086300</v>
+        <v>1076500</v>
       </c>
       <c r="G9" s="3">
-        <v>931900</v>
+        <v>923500</v>
       </c>
       <c r="H9" s="3">
-        <v>689300</v>
+        <v>683100</v>
       </c>
       <c r="I9" s="3">
-        <v>697000</v>
+        <v>690700</v>
       </c>
       <c r="J9" s="3">
-        <v>448500</v>
+        <v>444400</v>
       </c>
       <c r="K9" s="3">
         <v>331400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2273000</v>
+        <v>2252500</v>
       </c>
       <c r="E10" s="3">
-        <v>2105000</v>
+        <v>2086000</v>
       </c>
       <c r="F10" s="3">
-        <v>4169400</v>
+        <v>4131800</v>
       </c>
       <c r="G10" s="3">
-        <v>3631100</v>
+        <v>3598300</v>
       </c>
       <c r="H10" s="3">
-        <v>3226500</v>
+        <v>3197400</v>
       </c>
       <c r="I10" s="3">
-        <v>2136500</v>
+        <v>2117200</v>
       </c>
       <c r="J10" s="3">
-        <v>1157400</v>
+        <v>1146900</v>
       </c>
       <c r="K10" s="3">
         <v>827700</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1325100</v>
+        <v>1313100</v>
       </c>
       <c r="E12" s="3">
-        <v>1129800</v>
+        <v>1119600</v>
       </c>
       <c r="F12" s="3">
-        <v>1572300</v>
+        <v>1558100</v>
       </c>
       <c r="G12" s="3">
-        <v>1417600</v>
+        <v>1404800</v>
       </c>
       <c r="H12" s="3">
-        <v>1217000</v>
+        <v>1206000</v>
       </c>
       <c r="I12" s="3">
-        <v>1132800</v>
+        <v>1122600</v>
       </c>
       <c r="J12" s="3">
-        <v>485800</v>
+        <v>481400</v>
       </c>
       <c r="K12" s="3">
         <v>366200</v>
@@ -916,22 +916,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="E14" s="3">
-        <v>133400</v>
+        <v>132200</v>
       </c>
       <c r="F14" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="G14" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="H14" s="3">
-        <v>201400</v>
+        <v>199600</v>
       </c>
       <c r="I14" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3172700</v>
+        <v>3144000</v>
       </c>
       <c r="E17" s="3">
-        <v>3042100</v>
+        <v>3014600</v>
       </c>
       <c r="F17" s="3">
-        <v>4543300</v>
+        <v>4502300</v>
       </c>
       <c r="G17" s="3">
-        <v>4188400</v>
+        <v>4150600</v>
       </c>
       <c r="H17" s="3">
-        <v>3514800</v>
+        <v>3483100</v>
       </c>
       <c r="I17" s="3">
-        <v>3071700</v>
+        <v>3044000</v>
       </c>
       <c r="J17" s="3">
-        <v>1549700</v>
+        <v>1535700</v>
       </c>
       <c r="K17" s="3">
         <v>1188300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-222100</v>
+        <v>-220100</v>
       </c>
       <c r="E18" s="3">
-        <v>-343100</v>
+        <v>-340000</v>
       </c>
       <c r="F18" s="3">
-        <v>712500</v>
+        <v>706100</v>
       </c>
       <c r="G18" s="3">
-        <v>374600</v>
+        <v>371200</v>
       </c>
       <c r="H18" s="3">
-        <v>401000</v>
+        <v>397400</v>
       </c>
       <c r="I18" s="3">
-        <v>-238200</v>
+        <v>-236100</v>
       </c>
       <c r="J18" s="3">
-        <v>56200</v>
+        <v>55600</v>
       </c>
       <c r="K18" s="3">
         <v>-29200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>383300</v>
+        <v>379800</v>
       </c>
       <c r="E20" s="3">
-        <v>415400</v>
+        <v>411700</v>
       </c>
       <c r="F20" s="3">
-        <v>873700</v>
+        <v>865800</v>
       </c>
       <c r="G20" s="3">
-        <v>130700</v>
+        <v>129500</v>
       </c>
       <c r="H20" s="3">
-        <v>275000</v>
+        <v>272600</v>
       </c>
       <c r="I20" s="3">
-        <v>86700</v>
+        <v>85900</v>
       </c>
       <c r="J20" s="3">
-        <v>431300</v>
+        <v>427400</v>
       </c>
       <c r="K20" s="3">
         <v>76200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>313200</v>
+        <v>308600</v>
       </c>
       <c r="E21" s="3">
-        <v>253500</v>
+        <v>249200</v>
       </c>
       <c r="F21" s="3">
-        <v>1749300</v>
+        <v>1731700</v>
       </c>
       <c r="G21" s="3">
-        <v>651500</v>
+        <v>643900</v>
       </c>
       <c r="H21" s="3">
-        <v>807500</v>
+        <v>798700</v>
       </c>
       <c r="I21" s="3">
-        <v>-44500</v>
+        <v>-45300</v>
       </c>
       <c r="J21" s="3">
-        <v>534500</v>
+        <v>529100</v>
       </c>
       <c r="K21" s="3">
         <v>75800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>230600</v>
+        <v>228500</v>
       </c>
       <c r="E22" s="3">
-        <v>252900</v>
+        <v>250600</v>
       </c>
       <c r="F22" s="3">
-        <v>247100</v>
+        <v>244900</v>
       </c>
       <c r="G22" s="3">
-        <v>222200</v>
+        <v>220200</v>
       </c>
       <c r="H22" s="3">
-        <v>189600</v>
+        <v>187900</v>
       </c>
       <c r="I22" s="3">
-        <v>107900</v>
+        <v>106900</v>
       </c>
       <c r="J22" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="K22" s="3">
         <v>25600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69400</v>
+        <v>-68800</v>
       </c>
       <c r="E23" s="3">
-        <v>-180500</v>
+        <v>-178900</v>
       </c>
       <c r="F23" s="3">
-        <v>1339100</v>
+        <v>1327000</v>
       </c>
       <c r="G23" s="3">
-        <v>283100</v>
+        <v>280500</v>
       </c>
       <c r="H23" s="3">
-        <v>486500</v>
+        <v>482100</v>
       </c>
       <c r="I23" s="3">
-        <v>-259400</v>
+        <v>-257000</v>
       </c>
       <c r="J23" s="3">
-        <v>442900</v>
+        <v>438900</v>
       </c>
       <c r="K23" s="3">
         <v>21400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="E24" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="F24" s="3">
-        <v>256700</v>
+        <v>254400</v>
       </c>
       <c r="G24" s="3">
-        <v>116900</v>
+        <v>115800</v>
       </c>
       <c r="H24" s="3">
-        <v>181100</v>
+        <v>179500</v>
       </c>
       <c r="I24" s="3">
-        <v>70400</v>
+        <v>69800</v>
       </c>
       <c r="J24" s="3">
-        <v>69300</v>
+        <v>68700</v>
       </c>
       <c r="K24" s="3">
         <v>20600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-109200</v>
+        <v>-108200</v>
       </c>
       <c r="E26" s="3">
-        <v>-232800</v>
+        <v>-230700</v>
       </c>
       <c r="F26" s="3">
-        <v>1082400</v>
+        <v>1072600</v>
       </c>
       <c r="G26" s="3">
-        <v>166200</v>
+        <v>164700</v>
       </c>
       <c r="H26" s="3">
-        <v>305400</v>
+        <v>302600</v>
       </c>
       <c r="I26" s="3">
-        <v>-329800</v>
+        <v>-326800</v>
       </c>
       <c r="J26" s="3">
-        <v>373600</v>
+        <v>370200</v>
       </c>
       <c r="K26" s="3">
         <v>700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-81000</v>
+        <v>-80300</v>
       </c>
       <c r="E27" s="3">
-        <v>-478500</v>
+        <v>-474200</v>
       </c>
       <c r="F27" s="3">
-        <v>1033100</v>
+        <v>1023800</v>
       </c>
       <c r="G27" s="3">
-        <v>163900</v>
+        <v>162400</v>
       </c>
       <c r="H27" s="3">
-        <v>293000</v>
+        <v>290400</v>
       </c>
       <c r="I27" s="3">
-        <v>-210800</v>
+        <v>-208900</v>
       </c>
       <c r="J27" s="3">
-        <v>369500</v>
+        <v>366200</v>
       </c>
       <c r="K27" s="3">
         <v>38300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-383300</v>
+        <v>-379800</v>
       </c>
       <c r="E32" s="3">
-        <v>-415400</v>
+        <v>-411700</v>
       </c>
       <c r="F32" s="3">
-        <v>-873700</v>
+        <v>-865800</v>
       </c>
       <c r="G32" s="3">
-        <v>-130700</v>
+        <v>-129500</v>
       </c>
       <c r="H32" s="3">
-        <v>-275000</v>
+        <v>-272600</v>
       </c>
       <c r="I32" s="3">
-        <v>-86700</v>
+        <v>-85900</v>
       </c>
       <c r="J32" s="3">
-        <v>-431300</v>
+        <v>-427400</v>
       </c>
       <c r="K32" s="3">
         <v>-76200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-81000</v>
+        <v>-80300</v>
       </c>
       <c r="E33" s="3">
-        <v>-478500</v>
+        <v>-474200</v>
       </c>
       <c r="F33" s="3">
-        <v>1033100</v>
+        <v>1023800</v>
       </c>
       <c r="G33" s="3">
-        <v>163900</v>
+        <v>162400</v>
       </c>
       <c r="H33" s="3">
-        <v>293000</v>
+        <v>290400</v>
       </c>
       <c r="I33" s="3">
-        <v>-210800</v>
+        <v>-208900</v>
       </c>
       <c r="J33" s="3">
-        <v>369500</v>
+        <v>366200</v>
       </c>
       <c r="K33" s="3">
         <v>38300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-81000</v>
+        <v>-80300</v>
       </c>
       <c r="E35" s="3">
-        <v>-478500</v>
+        <v>-474200</v>
       </c>
       <c r="F35" s="3">
-        <v>1033100</v>
+        <v>1023800</v>
       </c>
       <c r="G35" s="3">
-        <v>163900</v>
+        <v>162400</v>
       </c>
       <c r="H35" s="3">
-        <v>293000</v>
+        <v>290400</v>
       </c>
       <c r="I35" s="3">
-        <v>-210800</v>
+        <v>-208900</v>
       </c>
       <c r="J35" s="3">
-        <v>369500</v>
+        <v>366200</v>
       </c>
       <c r="K35" s="3">
         <v>38300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2920400</v>
+        <v>2894000</v>
       </c>
       <c r="E41" s="3">
-        <v>2666600</v>
+        <v>2642600</v>
       </c>
       <c r="F41" s="3">
-        <v>2935900</v>
+        <v>2909400</v>
       </c>
       <c r="G41" s="3">
-        <v>3172700</v>
+        <v>3144000</v>
       </c>
       <c r="H41" s="3">
-        <v>2688300</v>
+        <v>2664000</v>
       </c>
       <c r="I41" s="3">
-        <v>2716500</v>
+        <v>2692000</v>
       </c>
       <c r="J41" s="3">
-        <v>2831600</v>
+        <v>2806100</v>
       </c>
       <c r="K41" s="3">
         <v>836300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4356800</v>
+        <v>4317500</v>
       </c>
       <c r="E42" s="3">
-        <v>3657500</v>
+        <v>3624500</v>
       </c>
       <c r="F42" s="3">
-        <v>3397800</v>
+        <v>3367200</v>
       </c>
       <c r="G42" s="3">
-        <v>5415900</v>
+        <v>5367000</v>
       </c>
       <c r="H42" s="3">
-        <v>4145200</v>
+        <v>4107800</v>
       </c>
       <c r="I42" s="3">
-        <v>2079700</v>
+        <v>2060900</v>
       </c>
       <c r="J42" s="3">
-        <v>1213600</v>
+        <v>1202700</v>
       </c>
       <c r="K42" s="3">
         <v>1015800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1564100</v>
+        <v>1550000</v>
       </c>
       <c r="E43" s="3">
-        <v>1311400</v>
+        <v>1299500</v>
       </c>
       <c r="F43" s="3">
-        <v>1947700</v>
+        <v>1930100</v>
       </c>
       <c r="G43" s="3">
-        <v>1305800</v>
+        <v>1294000</v>
       </c>
       <c r="H43" s="3">
-        <v>1523900</v>
+        <v>1510200</v>
       </c>
       <c r="I43" s="3">
-        <v>840200</v>
+        <v>832600</v>
       </c>
       <c r="J43" s="3">
-        <v>649200</v>
+        <v>643300</v>
       </c>
       <c r="K43" s="3">
         <v>306400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900400</v>
+        <v>892200</v>
       </c>
       <c r="E45" s="3">
-        <v>913000</v>
+        <v>904800</v>
       </c>
       <c r="F45" s="3">
-        <v>1732500</v>
+        <v>1716900</v>
       </c>
       <c r="G45" s="3">
-        <v>1805200</v>
+        <v>1788900</v>
       </c>
       <c r="H45" s="3">
-        <v>2034800</v>
+        <v>2016500</v>
       </c>
       <c r="I45" s="3">
-        <v>1129100</v>
+        <v>1118900</v>
       </c>
       <c r="J45" s="3">
-        <v>1288500</v>
+        <v>1276900</v>
       </c>
       <c r="K45" s="3">
         <v>536400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9741700</v>
+        <v>9653800</v>
       </c>
       <c r="E46" s="3">
-        <v>8548500</v>
+        <v>8471300</v>
       </c>
       <c r="F46" s="3">
-        <v>10013800</v>
+        <v>9923500</v>
       </c>
       <c r="G46" s="3">
-        <v>11699500</v>
+        <v>11593900</v>
       </c>
       <c r="H46" s="3">
-        <v>8755800</v>
+        <v>8676800</v>
       </c>
       <c r="I46" s="3">
-        <v>6765500</v>
+        <v>6704400</v>
       </c>
       <c r="J46" s="3">
-        <v>5982900</v>
+        <v>5928900</v>
       </c>
       <c r="K46" s="3">
         <v>2694000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6629100</v>
+        <v>6569300</v>
       </c>
       <c r="E47" s="3">
-        <v>7068600</v>
+        <v>7004800</v>
       </c>
       <c r="F47" s="3">
-        <v>7563100</v>
+        <v>7494800</v>
       </c>
       <c r="G47" s="3">
-        <v>3993900</v>
+        <v>3957900</v>
       </c>
       <c r="H47" s="3">
-        <v>7607000</v>
+        <v>7538400</v>
       </c>
       <c r="I47" s="3">
-        <v>3145900</v>
+        <v>3117500</v>
       </c>
       <c r="J47" s="3">
-        <v>2209400</v>
+        <v>2189400</v>
       </c>
       <c r="K47" s="3">
         <v>950000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>930000</v>
+        <v>921600</v>
       </c>
       <c r="E48" s="3">
-        <v>997200</v>
+        <v>988200</v>
       </c>
       <c r="F48" s="3">
-        <v>1081900</v>
+        <v>1072200</v>
       </c>
       <c r="G48" s="3">
-        <v>865300</v>
+        <v>857500</v>
       </c>
       <c r="H48" s="3">
-        <v>1655100</v>
+        <v>1640100</v>
       </c>
       <c r="I48" s="3">
-        <v>824000</v>
+        <v>816600</v>
       </c>
       <c r="J48" s="3">
-        <v>818700</v>
+        <v>811300</v>
       </c>
       <c r="K48" s="3">
         <v>823600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10668700</v>
+        <v>10572400</v>
       </c>
       <c r="E49" s="3">
-        <v>10712600</v>
+        <v>10615900</v>
       </c>
       <c r="F49" s="3">
-        <v>10546800</v>
+        <v>10451700</v>
       </c>
       <c r="G49" s="3">
-        <v>10586800</v>
+        <v>10491200</v>
       </c>
       <c r="H49" s="3">
-        <v>12355200</v>
+        <v>12243600</v>
       </c>
       <c r="I49" s="3">
-        <v>10321000</v>
+        <v>10227900</v>
       </c>
       <c r="J49" s="3">
-        <v>8370100</v>
+        <v>8294600</v>
       </c>
       <c r="K49" s="3">
         <v>420500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>302800</v>
+        <v>300100</v>
       </c>
       <c r="E52" s="3">
-        <v>266100</v>
+        <v>263700</v>
       </c>
       <c r="F52" s="3">
-        <v>291200</v>
+        <v>288600</v>
       </c>
       <c r="G52" s="3">
-        <v>238400</v>
+        <v>236300</v>
       </c>
       <c r="H52" s="3">
-        <v>191900</v>
+        <v>190100</v>
       </c>
       <c r="I52" s="3">
-        <v>224400</v>
+        <v>222300</v>
       </c>
       <c r="J52" s="3">
-        <v>131500</v>
+        <v>130300</v>
       </c>
       <c r="K52" s="3">
         <v>35500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28272300</v>
+        <v>28017200</v>
       </c>
       <c r="E54" s="3">
-        <v>27593000</v>
+        <v>27344000</v>
       </c>
       <c r="F54" s="3">
-        <v>29496900</v>
+        <v>29230700</v>
       </c>
       <c r="G54" s="3">
-        <v>27383900</v>
+        <v>27136800</v>
       </c>
       <c r="H54" s="3">
-        <v>23907700</v>
+        <v>23691900</v>
       </c>
       <c r="I54" s="3">
-        <v>21280800</v>
+        <v>21088800</v>
       </c>
       <c r="J54" s="3">
-        <v>17512600</v>
+        <v>17354600</v>
       </c>
       <c r="K54" s="3">
         <v>4923600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>887000</v>
+        <v>879000</v>
       </c>
       <c r="E57" s="3">
-        <v>664000</v>
+        <v>658000</v>
       </c>
       <c r="F57" s="3">
-        <v>1811600</v>
+        <v>1795300</v>
       </c>
       <c r="G57" s="3">
-        <v>1726200</v>
+        <v>1710600</v>
       </c>
       <c r="H57" s="3">
-        <v>1099200</v>
+        <v>1089200</v>
       </c>
       <c r="I57" s="3">
-        <v>1072600</v>
+        <v>1062900</v>
       </c>
       <c r="J57" s="3">
-        <v>876000</v>
+        <v>868100</v>
       </c>
       <c r="K57" s="3">
         <v>363500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5874700</v>
+        <v>5821600</v>
       </c>
       <c r="E58" s="3">
-        <v>4960900</v>
+        <v>4916100</v>
       </c>
       <c r="F58" s="3">
-        <v>4496800</v>
+        <v>4456300</v>
       </c>
       <c r="G58" s="3">
-        <v>5306600</v>
+        <v>5258700</v>
       </c>
       <c r="H58" s="3">
-        <v>4808700</v>
+        <v>4765300</v>
       </c>
       <c r="I58" s="3">
-        <v>1014900</v>
+        <v>1005800</v>
       </c>
       <c r="J58" s="3">
-        <v>2054700</v>
+        <v>2036200</v>
       </c>
       <c r="K58" s="3">
         <v>561700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2996300</v>
+        <v>2969200</v>
       </c>
       <c r="E59" s="3">
-        <v>2976400</v>
+        <v>2949500</v>
       </c>
       <c r="F59" s="3">
-        <v>3886200</v>
+        <v>3851100</v>
       </c>
       <c r="G59" s="3">
-        <v>3103300</v>
+        <v>3075200</v>
       </c>
       <c r="H59" s="3">
-        <v>3522200</v>
+        <v>3490400</v>
       </c>
       <c r="I59" s="3">
-        <v>2376800</v>
+        <v>2355300</v>
       </c>
       <c r="J59" s="3">
-        <v>2030400</v>
+        <v>2012000</v>
       </c>
       <c r="K59" s="3">
         <v>1080700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9757900</v>
+        <v>9669800</v>
       </c>
       <c r="E60" s="3">
-        <v>8601300</v>
+        <v>8523600</v>
       </c>
       <c r="F60" s="3">
-        <v>10194700</v>
+        <v>10102600</v>
       </c>
       <c r="G60" s="3">
-        <v>10136000</v>
+        <v>10044500</v>
       </c>
       <c r="H60" s="3">
-        <v>6213000</v>
+        <v>6156900</v>
       </c>
       <c r="I60" s="3">
-        <v>4464300</v>
+        <v>4424000</v>
       </c>
       <c r="J60" s="3">
-        <v>4961000</v>
+        <v>4916300</v>
       </c>
       <c r="K60" s="3">
         <v>2005900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1634700</v>
+        <v>1619900</v>
       </c>
       <c r="E61" s="3">
-        <v>3347700</v>
+        <v>3317500</v>
       </c>
       <c r="F61" s="3">
-        <v>2879000</v>
+        <v>2853000</v>
       </c>
       <c r="G61" s="3">
-        <v>3558200</v>
+        <v>3526000</v>
       </c>
       <c r="H61" s="3">
-        <v>4305900</v>
+        <v>4267000</v>
       </c>
       <c r="I61" s="3">
-        <v>5106100</v>
+        <v>5060000</v>
       </c>
       <c r="J61" s="3">
-        <v>2704700</v>
+        <v>2680300</v>
       </c>
       <c r="K61" s="3">
         <v>1259600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>603000</v>
+        <v>597600</v>
       </c>
       <c r="E62" s="3">
-        <v>677100</v>
+        <v>671000</v>
       </c>
       <c r="F62" s="3">
-        <v>678600</v>
+        <v>672500</v>
       </c>
       <c r="G62" s="3">
-        <v>614000</v>
+        <v>608500</v>
       </c>
       <c r="H62" s="3">
-        <v>625200</v>
+        <v>619600</v>
       </c>
       <c r="I62" s="3">
-        <v>581700</v>
+        <v>576400</v>
       </c>
       <c r="J62" s="3">
-        <v>462300</v>
+        <v>458100</v>
       </c>
       <c r="K62" s="3">
         <v>20900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12110300</v>
+        <v>12001000</v>
       </c>
       <c r="E66" s="3">
-        <v>12804800</v>
+        <v>12689300</v>
       </c>
       <c r="F66" s="3">
-        <v>14253700</v>
+        <v>14125000</v>
       </c>
       <c r="G66" s="3">
-        <v>14605600</v>
+        <v>14473800</v>
       </c>
       <c r="H66" s="3">
-        <v>11406300</v>
+        <v>11303300</v>
       </c>
       <c r="I66" s="3">
-        <v>10739200</v>
+        <v>10642200</v>
       </c>
       <c r="J66" s="3">
-        <v>10947600</v>
+        <v>10848800</v>
       </c>
       <c r="K66" s="3">
         <v>3420300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2881900</v>
+        <v>2855900</v>
       </c>
       <c r="E72" s="3">
-        <v>2963000</v>
+        <v>2936200</v>
       </c>
       <c r="F72" s="3">
-        <v>3453800</v>
+        <v>3422700</v>
       </c>
       <c r="G72" s="3">
-        <v>2420700</v>
+        <v>2398800</v>
       </c>
       <c r="H72" s="3">
-        <v>2287200</v>
+        <v>2266500</v>
       </c>
       <c r="I72" s="3">
-        <v>1022200</v>
+        <v>1013000</v>
       </c>
       <c r="J72" s="3">
-        <v>1233100</v>
+        <v>1221900</v>
       </c>
       <c r="K72" s="3">
         <v>924500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16162000</v>
+        <v>16016100</v>
       </c>
       <c r="E76" s="3">
-        <v>14788200</v>
+        <v>14654700</v>
       </c>
       <c r="F76" s="3">
-        <v>15243200</v>
+        <v>15105600</v>
       </c>
       <c r="G76" s="3">
-        <v>12778300</v>
+        <v>12663000</v>
       </c>
       <c r="H76" s="3">
-        <v>12501400</v>
+        <v>12388600</v>
       </c>
       <c r="I76" s="3">
-        <v>10541700</v>
+        <v>10446500</v>
       </c>
       <c r="J76" s="3">
-        <v>6565000</v>
+        <v>6505700</v>
       </c>
       <c r="K76" s="3">
         <v>1503300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-81000</v>
+        <v>-80300</v>
       </c>
       <c r="E81" s="3">
-        <v>-478500</v>
+        <v>-474200</v>
       </c>
       <c r="F81" s="3">
-        <v>1033100</v>
+        <v>1023800</v>
       </c>
       <c r="G81" s="3">
-        <v>163900</v>
+        <v>162400</v>
       </c>
       <c r="H81" s="3">
-        <v>293000</v>
+        <v>290400</v>
       </c>
       <c r="I81" s="3">
-        <v>-210800</v>
+        <v>-208900</v>
       </c>
       <c r="J81" s="3">
-        <v>369500</v>
+        <v>366200</v>
       </c>
       <c r="K81" s="3">
         <v>38300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>150500</v>
+        <v>149100</v>
       </c>
       <c r="E83" s="3">
-        <v>179300</v>
+        <v>177700</v>
       </c>
       <c r="F83" s="3">
-        <v>161500</v>
+        <v>160000</v>
       </c>
       <c r="G83" s="3">
-        <v>144700</v>
+        <v>143400</v>
       </c>
       <c r="H83" s="3">
-        <v>130100</v>
+        <v>129000</v>
       </c>
       <c r="I83" s="3">
-        <v>105900</v>
+        <v>105000</v>
       </c>
       <c r="J83" s="3">
-        <v>46600</v>
+        <v>46200</v>
       </c>
       <c r="K83" s="3">
         <v>28700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>364700</v>
+        <v>361400</v>
       </c>
       <c r="E89" s="3">
-        <v>-563400</v>
+        <v>-558300</v>
       </c>
       <c r="F89" s="3">
-        <v>1080600</v>
+        <v>1070800</v>
       </c>
       <c r="G89" s="3">
-        <v>1048500</v>
+        <v>1039000</v>
       </c>
       <c r="H89" s="3">
-        <v>1041700</v>
+        <v>1032300</v>
       </c>
       <c r="I89" s="3">
-        <v>777000</v>
+        <v>770000</v>
       </c>
       <c r="J89" s="3">
-        <v>449300</v>
+        <v>445200</v>
       </c>
       <c r="K89" s="3">
         <v>309000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84000</v>
+        <v>-83200</v>
       </c>
       <c r="E91" s="3">
-        <v>-78400</v>
+        <v>-77700</v>
       </c>
       <c r="F91" s="3">
-        <v>-121300</v>
+        <v>-120200</v>
       </c>
       <c r="G91" s="3">
-        <v>-99200</v>
+        <v>-98300</v>
       </c>
       <c r="H91" s="3">
-        <v>-69400</v>
+        <v>-68800</v>
       </c>
       <c r="I91" s="3">
-        <v>-100600</v>
+        <v>-99700</v>
       </c>
       <c r="J91" s="3">
-        <v>-94000</v>
+        <v>-93200</v>
       </c>
       <c r="K91" s="3">
         <v>-755500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-611200</v>
+        <v>-605700</v>
       </c>
       <c r="E94" s="3">
-        <v>-563100</v>
+        <v>-558000</v>
       </c>
       <c r="F94" s="3">
-        <v>-355600</v>
+        <v>-352400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2074500</v>
+        <v>-2055800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2244600</v>
+        <v>-2224400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2921500</v>
+        <v>-2895100</v>
       </c>
       <c r="J94" s="3">
-        <v>-652300</v>
+        <v>-646400</v>
       </c>
       <c r="K94" s="3">
         <v>-1477600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>577500</v>
+        <v>572300</v>
       </c>
       <c r="E100" s="3">
-        <v>887800</v>
+        <v>879800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1364000</v>
+        <v>-1351700</v>
       </c>
       <c r="G100" s="3">
-        <v>1757400</v>
+        <v>1741600</v>
       </c>
       <c r="H100" s="3">
-        <v>1181700</v>
+        <v>1171000</v>
       </c>
       <c r="I100" s="3">
-        <v>1811000</v>
+        <v>1794700</v>
       </c>
       <c r="J100" s="3">
-        <v>2244800</v>
+        <v>2224600</v>
       </c>
       <c r="K100" s="3">
         <v>855400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-68500</v>
+        <v>-67900</v>
       </c>
       <c r="E101" s="3">
-        <v>-105100</v>
+        <v>-104100</v>
       </c>
       <c r="F101" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="G101" s="3">
-        <v>120700</v>
+        <v>119600</v>
       </c>
       <c r="H101" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="I101" s="3">
-        <v>218400</v>
+        <v>216400</v>
       </c>
       <c r="J101" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="K101" s="3">
         <v>23400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>262400</v>
+        <v>260100</v>
       </c>
       <c r="E102" s="3">
-        <v>-343600</v>
+        <v>-340500</v>
       </c>
       <c r="F102" s="3">
-        <v>-593400</v>
+        <v>-588100</v>
       </c>
       <c r="G102" s="3">
-        <v>852000</v>
+        <v>844300</v>
       </c>
       <c r="H102" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="I102" s="3">
-        <v>-115100</v>
+        <v>-114000</v>
       </c>
       <c r="J102" s="3">
-        <v>2050500</v>
+        <v>2032000</v>
       </c>
       <c r="K102" s="3">
         <v>-289900</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2924000</v>
+        <v>2787200</v>
       </c>
       <c r="E8" s="3">
-        <v>2674700</v>
+        <v>2549600</v>
       </c>
       <c r="F8" s="3">
-        <v>5208300</v>
+        <v>4964700</v>
       </c>
       <c r="G8" s="3">
-        <v>4521800</v>
+        <v>4310300</v>
       </c>
       <c r="H8" s="3">
-        <v>3880500</v>
+        <v>3699000</v>
       </c>
       <c r="I8" s="3">
-        <v>2807900</v>
+        <v>2676600</v>
       </c>
       <c r="J8" s="3">
-        <v>1591400</v>
+        <v>1516900</v>
       </c>
       <c r="K8" s="3">
         <v>1159000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>671400</v>
+        <v>640000</v>
       </c>
       <c r="E9" s="3">
-        <v>588600</v>
+        <v>561100</v>
       </c>
       <c r="F9" s="3">
-        <v>1076500</v>
+        <v>1026200</v>
       </c>
       <c r="G9" s="3">
-        <v>923500</v>
+        <v>880300</v>
       </c>
       <c r="H9" s="3">
-        <v>683100</v>
+        <v>651200</v>
       </c>
       <c r="I9" s="3">
-        <v>690700</v>
+        <v>658400</v>
       </c>
       <c r="J9" s="3">
-        <v>444400</v>
+        <v>423600</v>
       </c>
       <c r="K9" s="3">
         <v>331400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2252500</v>
+        <v>2147200</v>
       </c>
       <c r="E10" s="3">
-        <v>2086000</v>
+        <v>1988500</v>
       </c>
       <c r="F10" s="3">
-        <v>4131800</v>
+        <v>3938500</v>
       </c>
       <c r="G10" s="3">
-        <v>3598300</v>
+        <v>3430000</v>
       </c>
       <c r="H10" s="3">
-        <v>3197400</v>
+        <v>3047900</v>
       </c>
       <c r="I10" s="3">
-        <v>2117200</v>
+        <v>2018200</v>
       </c>
       <c r="J10" s="3">
-        <v>1146900</v>
+        <v>1093300</v>
       </c>
       <c r="K10" s="3">
         <v>827700</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1313100</v>
+        <v>1251700</v>
       </c>
       <c r="E12" s="3">
-        <v>1119600</v>
+        <v>1067200</v>
       </c>
       <c r="F12" s="3">
-        <v>1558100</v>
+        <v>1485300</v>
       </c>
       <c r="G12" s="3">
-        <v>1404800</v>
+        <v>1339100</v>
       </c>
       <c r="H12" s="3">
-        <v>1206000</v>
+        <v>1149600</v>
       </c>
       <c r="I12" s="3">
-        <v>1122600</v>
+        <v>1070100</v>
       </c>
       <c r="J12" s="3">
-        <v>481400</v>
+        <v>458900</v>
       </c>
       <c r="K12" s="3">
         <v>366200</v>
@@ -916,22 +916,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="E14" s="3">
-        <v>132200</v>
+        <v>126000</v>
       </c>
       <c r="F14" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="G14" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="H14" s="3">
-        <v>199600</v>
+        <v>190300</v>
       </c>
       <c r="I14" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3144000</v>
+        <v>2997000</v>
       </c>
       <c r="E17" s="3">
-        <v>3014600</v>
+        <v>2873600</v>
       </c>
       <c r="F17" s="3">
-        <v>4502300</v>
+        <v>4291700</v>
       </c>
       <c r="G17" s="3">
-        <v>4150600</v>
+        <v>3956500</v>
       </c>
       <c r="H17" s="3">
-        <v>3483100</v>
+        <v>3320200</v>
       </c>
       <c r="I17" s="3">
-        <v>3044000</v>
+        <v>2901600</v>
       </c>
       <c r="J17" s="3">
-        <v>1535700</v>
+        <v>1463900</v>
       </c>
       <c r="K17" s="3">
         <v>1188300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-220100</v>
+        <v>-209800</v>
       </c>
       <c r="E18" s="3">
-        <v>-340000</v>
+        <v>-324100</v>
       </c>
       <c r="F18" s="3">
-        <v>706100</v>
+        <v>673000</v>
       </c>
       <c r="G18" s="3">
-        <v>371200</v>
+        <v>353800</v>
       </c>
       <c r="H18" s="3">
-        <v>397400</v>
+        <v>378800</v>
       </c>
       <c r="I18" s="3">
-        <v>-236100</v>
+        <v>-225000</v>
       </c>
       <c r="J18" s="3">
-        <v>55600</v>
+        <v>53000</v>
       </c>
       <c r="K18" s="3">
         <v>-29200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>379800</v>
+        <v>362100</v>
       </c>
       <c r="E20" s="3">
-        <v>411700</v>
+        <v>392400</v>
       </c>
       <c r="F20" s="3">
-        <v>865800</v>
+        <v>825300</v>
       </c>
       <c r="G20" s="3">
-        <v>129500</v>
+        <v>123500</v>
       </c>
       <c r="H20" s="3">
-        <v>272600</v>
+        <v>259800</v>
       </c>
       <c r="I20" s="3">
-        <v>85900</v>
+        <v>81900</v>
       </c>
       <c r="J20" s="3">
-        <v>427400</v>
+        <v>407400</v>
       </c>
       <c r="K20" s="3">
         <v>76200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>308600</v>
+        <v>293300</v>
       </c>
       <c r="E21" s="3">
-        <v>249200</v>
+        <v>236400</v>
       </c>
       <c r="F21" s="3">
-        <v>1731700</v>
+        <v>1649700</v>
       </c>
       <c r="G21" s="3">
-        <v>643900</v>
+        <v>613000</v>
       </c>
       <c r="H21" s="3">
-        <v>798700</v>
+        <v>760600</v>
       </c>
       <c r="I21" s="3">
-        <v>-45300</v>
+        <v>-43800</v>
       </c>
       <c r="J21" s="3">
-        <v>529100</v>
+        <v>504100</v>
       </c>
       <c r="K21" s="3">
         <v>75800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>228500</v>
+        <v>217800</v>
       </c>
       <c r="E22" s="3">
-        <v>250600</v>
+        <v>238900</v>
       </c>
       <c r="F22" s="3">
-        <v>244900</v>
+        <v>233400</v>
       </c>
       <c r="G22" s="3">
-        <v>220200</v>
+        <v>209900</v>
       </c>
       <c r="H22" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="I22" s="3">
-        <v>106900</v>
+        <v>101900</v>
       </c>
       <c r="J22" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="K22" s="3">
         <v>25600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-68800</v>
+        <v>-65600</v>
       </c>
       <c r="E23" s="3">
-        <v>-178900</v>
+        <v>-170500</v>
       </c>
       <c r="F23" s="3">
-        <v>1327000</v>
+        <v>1264900</v>
       </c>
       <c r="G23" s="3">
-        <v>280500</v>
+        <v>267400</v>
       </c>
       <c r="H23" s="3">
-        <v>482100</v>
+        <v>459600</v>
       </c>
       <c r="I23" s="3">
-        <v>-257000</v>
+        <v>-245000</v>
       </c>
       <c r="J23" s="3">
-        <v>438900</v>
+        <v>418300</v>
       </c>
       <c r="K23" s="3">
         <v>21400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39400</v>
+        <v>37600</v>
       </c>
       <c r="E24" s="3">
-        <v>51800</v>
+        <v>49400</v>
       </c>
       <c r="F24" s="3">
-        <v>254400</v>
+        <v>242500</v>
       </c>
       <c r="G24" s="3">
-        <v>115800</v>
+        <v>110400</v>
       </c>
       <c r="H24" s="3">
-        <v>179500</v>
+        <v>171100</v>
       </c>
       <c r="I24" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="J24" s="3">
-        <v>68700</v>
+        <v>65500</v>
       </c>
       <c r="K24" s="3">
         <v>20600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-108200</v>
+        <v>-103100</v>
       </c>
       <c r="E26" s="3">
-        <v>-230700</v>
+        <v>-219900</v>
       </c>
       <c r="F26" s="3">
-        <v>1072600</v>
+        <v>1022400</v>
       </c>
       <c r="G26" s="3">
-        <v>164700</v>
+        <v>157000</v>
       </c>
       <c r="H26" s="3">
-        <v>302600</v>
+        <v>288500</v>
       </c>
       <c r="I26" s="3">
-        <v>-326800</v>
+        <v>-311500</v>
       </c>
       <c r="J26" s="3">
-        <v>370200</v>
+        <v>352900</v>
       </c>
       <c r="K26" s="3">
         <v>700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-80300</v>
+        <v>-76600</v>
       </c>
       <c r="E27" s="3">
-        <v>-474200</v>
+        <v>-452000</v>
       </c>
       <c r="F27" s="3">
-        <v>1023800</v>
+        <v>975900</v>
       </c>
       <c r="G27" s="3">
-        <v>162400</v>
+        <v>154800</v>
       </c>
       <c r="H27" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="I27" s="3">
-        <v>-208900</v>
+        <v>-199200</v>
       </c>
       <c r="J27" s="3">
-        <v>366200</v>
+        <v>349100</v>
       </c>
       <c r="K27" s="3">
         <v>38300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-379800</v>
+        <v>-362100</v>
       </c>
       <c r="E32" s="3">
-        <v>-411700</v>
+        <v>-392400</v>
       </c>
       <c r="F32" s="3">
-        <v>-865800</v>
+        <v>-825300</v>
       </c>
       <c r="G32" s="3">
-        <v>-129500</v>
+        <v>-123500</v>
       </c>
       <c r="H32" s="3">
-        <v>-272600</v>
+        <v>-259800</v>
       </c>
       <c r="I32" s="3">
-        <v>-85900</v>
+        <v>-81900</v>
       </c>
       <c r="J32" s="3">
-        <v>-427400</v>
+        <v>-407400</v>
       </c>
       <c r="K32" s="3">
         <v>-76200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-80300</v>
+        <v>-76600</v>
       </c>
       <c r="E33" s="3">
-        <v>-474200</v>
+        <v>-452000</v>
       </c>
       <c r="F33" s="3">
-        <v>1023800</v>
+        <v>975900</v>
       </c>
       <c r="G33" s="3">
-        <v>162400</v>
+        <v>154800</v>
       </c>
       <c r="H33" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="I33" s="3">
-        <v>-208900</v>
+        <v>-199200</v>
       </c>
       <c r="J33" s="3">
-        <v>366200</v>
+        <v>349100</v>
       </c>
       <c r="K33" s="3">
         <v>38300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-80300</v>
+        <v>-76600</v>
       </c>
       <c r="E35" s="3">
-        <v>-474200</v>
+        <v>-452000</v>
       </c>
       <c r="F35" s="3">
-        <v>1023800</v>
+        <v>975900</v>
       </c>
       <c r="G35" s="3">
-        <v>162400</v>
+        <v>154800</v>
       </c>
       <c r="H35" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="I35" s="3">
-        <v>-208900</v>
+        <v>-199200</v>
       </c>
       <c r="J35" s="3">
-        <v>366200</v>
+        <v>349100</v>
       </c>
       <c r="K35" s="3">
         <v>38300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2894000</v>
+        <v>2758700</v>
       </c>
       <c r="E41" s="3">
-        <v>2642600</v>
+        <v>2519000</v>
       </c>
       <c r="F41" s="3">
-        <v>2909400</v>
+        <v>2773300</v>
       </c>
       <c r="G41" s="3">
-        <v>3144000</v>
+        <v>2997000</v>
       </c>
       <c r="H41" s="3">
-        <v>2664000</v>
+        <v>2539400</v>
       </c>
       <c r="I41" s="3">
-        <v>2692000</v>
+        <v>2566100</v>
       </c>
       <c r="J41" s="3">
-        <v>2806100</v>
+        <v>2674800</v>
       </c>
       <c r="K41" s="3">
         <v>836300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4317500</v>
+        <v>4115600</v>
       </c>
       <c r="E42" s="3">
-        <v>3624500</v>
+        <v>3454900</v>
       </c>
       <c r="F42" s="3">
-        <v>3367200</v>
+        <v>3209700</v>
       </c>
       <c r="G42" s="3">
-        <v>5367000</v>
+        <v>5116000</v>
       </c>
       <c r="H42" s="3">
-        <v>4107800</v>
+        <v>3915700</v>
       </c>
       <c r="I42" s="3">
-        <v>2060900</v>
+        <v>1964500</v>
       </c>
       <c r="J42" s="3">
-        <v>1202700</v>
+        <v>1146400</v>
       </c>
       <c r="K42" s="3">
         <v>1015800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1550000</v>
+        <v>1477500</v>
       </c>
       <c r="E43" s="3">
-        <v>1299500</v>
+        <v>1238700</v>
       </c>
       <c r="F43" s="3">
-        <v>1930100</v>
+        <v>1839800</v>
       </c>
       <c r="G43" s="3">
-        <v>1294000</v>
+        <v>1233500</v>
       </c>
       <c r="H43" s="3">
-        <v>1510200</v>
+        <v>1439500</v>
       </c>
       <c r="I43" s="3">
-        <v>832600</v>
+        <v>793700</v>
       </c>
       <c r="J43" s="3">
-        <v>643300</v>
+        <v>613200</v>
       </c>
       <c r="K43" s="3">
         <v>306400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>892200</v>
+        <v>850500</v>
       </c>
       <c r="E45" s="3">
-        <v>904800</v>
+        <v>862500</v>
       </c>
       <c r="F45" s="3">
-        <v>1716900</v>
+        <v>1636600</v>
       </c>
       <c r="G45" s="3">
-        <v>1788900</v>
+        <v>1705200</v>
       </c>
       <c r="H45" s="3">
-        <v>2016500</v>
+        <v>1922200</v>
       </c>
       <c r="I45" s="3">
-        <v>1118900</v>
+        <v>1066600</v>
       </c>
       <c r="J45" s="3">
-        <v>1276900</v>
+        <v>1217200</v>
       </c>
       <c r="K45" s="3">
         <v>536400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9653800</v>
+        <v>9202200</v>
       </c>
       <c r="E46" s="3">
-        <v>8471300</v>
+        <v>8075100</v>
       </c>
       <c r="F46" s="3">
-        <v>9923500</v>
+        <v>9459300</v>
       </c>
       <c r="G46" s="3">
-        <v>11593900</v>
+        <v>11051600</v>
       </c>
       <c r="H46" s="3">
-        <v>8676800</v>
+        <v>8271000</v>
       </c>
       <c r="I46" s="3">
-        <v>6704400</v>
+        <v>6390900</v>
       </c>
       <c r="J46" s="3">
-        <v>5928900</v>
+        <v>5651600</v>
       </c>
       <c r="K46" s="3">
         <v>2694000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6569300</v>
+        <v>6262100</v>
       </c>
       <c r="E47" s="3">
-        <v>7004800</v>
+        <v>6677100</v>
       </c>
       <c r="F47" s="3">
-        <v>7494800</v>
+        <v>7144300</v>
       </c>
       <c r="G47" s="3">
-        <v>3957900</v>
+        <v>3772700</v>
       </c>
       <c r="H47" s="3">
-        <v>7538400</v>
+        <v>7185800</v>
       </c>
       <c r="I47" s="3">
-        <v>3117500</v>
+        <v>2971700</v>
       </c>
       <c r="J47" s="3">
-        <v>2189400</v>
+        <v>2087000</v>
       </c>
       <c r="K47" s="3">
         <v>950000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>921600</v>
+        <v>878500</v>
       </c>
       <c r="E48" s="3">
-        <v>988200</v>
+        <v>942000</v>
       </c>
       <c r="F48" s="3">
-        <v>1072200</v>
+        <v>1022000</v>
       </c>
       <c r="G48" s="3">
-        <v>857500</v>
+        <v>817400</v>
       </c>
       <c r="H48" s="3">
-        <v>1640100</v>
+        <v>1563400</v>
       </c>
       <c r="I48" s="3">
-        <v>816600</v>
+        <v>778400</v>
       </c>
       <c r="J48" s="3">
-        <v>811300</v>
+        <v>773400</v>
       </c>
       <c r="K48" s="3">
         <v>823600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10572400</v>
+        <v>10077900</v>
       </c>
       <c r="E49" s="3">
-        <v>10615900</v>
+        <v>10119400</v>
       </c>
       <c r="F49" s="3">
-        <v>10451700</v>
+        <v>9962800</v>
       </c>
       <c r="G49" s="3">
-        <v>10491200</v>
+        <v>10000500</v>
       </c>
       <c r="H49" s="3">
-        <v>12243600</v>
+        <v>11671000</v>
       </c>
       <c r="I49" s="3">
-        <v>10227900</v>
+        <v>9749500</v>
       </c>
       <c r="J49" s="3">
-        <v>8294600</v>
+        <v>7906700</v>
       </c>
       <c r="K49" s="3">
         <v>420500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300100</v>
+        <v>286100</v>
       </c>
       <c r="E52" s="3">
-        <v>263700</v>
+        <v>251400</v>
       </c>
       <c r="F52" s="3">
-        <v>288600</v>
+        <v>275100</v>
       </c>
       <c r="G52" s="3">
-        <v>236300</v>
+        <v>225200</v>
       </c>
       <c r="H52" s="3">
-        <v>190100</v>
+        <v>181200</v>
       </c>
       <c r="I52" s="3">
-        <v>222300</v>
+        <v>211900</v>
       </c>
       <c r="J52" s="3">
-        <v>130300</v>
+        <v>124200</v>
       </c>
       <c r="K52" s="3">
         <v>35500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28017200</v>
+        <v>26706800</v>
       </c>
       <c r="E54" s="3">
-        <v>27344000</v>
+        <v>26065100</v>
       </c>
       <c r="F54" s="3">
-        <v>29230700</v>
+        <v>27863500</v>
       </c>
       <c r="G54" s="3">
-        <v>27136800</v>
+        <v>25867500</v>
       </c>
       <c r="H54" s="3">
-        <v>23691900</v>
+        <v>22583800</v>
       </c>
       <c r="I54" s="3">
-        <v>21088800</v>
+        <v>20102400</v>
       </c>
       <c r="J54" s="3">
-        <v>17354600</v>
+        <v>16542900</v>
       </c>
       <c r="K54" s="3">
         <v>4923600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>879000</v>
+        <v>837800</v>
       </c>
       <c r="E57" s="3">
-        <v>658000</v>
+        <v>627200</v>
       </c>
       <c r="F57" s="3">
-        <v>1795300</v>
+        <v>1711300</v>
       </c>
       <c r="G57" s="3">
-        <v>1710600</v>
+        <v>1630600</v>
       </c>
       <c r="H57" s="3">
-        <v>1089200</v>
+        <v>1038300</v>
       </c>
       <c r="I57" s="3">
-        <v>1062900</v>
+        <v>1013200</v>
       </c>
       <c r="J57" s="3">
-        <v>868100</v>
+        <v>827500</v>
       </c>
       <c r="K57" s="3">
         <v>363500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5821600</v>
+        <v>5549300</v>
       </c>
       <c r="E58" s="3">
-        <v>4916100</v>
+        <v>4686200</v>
       </c>
       <c r="F58" s="3">
-        <v>4456300</v>
+        <v>4247800</v>
       </c>
       <c r="G58" s="3">
-        <v>5258700</v>
+        <v>5012700</v>
       </c>
       <c r="H58" s="3">
-        <v>4765300</v>
+        <v>4542400</v>
       </c>
       <c r="I58" s="3">
-        <v>1005800</v>
+        <v>958700</v>
       </c>
       <c r="J58" s="3">
-        <v>2036200</v>
+        <v>1940900</v>
       </c>
       <c r="K58" s="3">
         <v>561700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2969200</v>
+        <v>2830400</v>
       </c>
       <c r="E59" s="3">
-        <v>2949500</v>
+        <v>2811600</v>
       </c>
       <c r="F59" s="3">
-        <v>3851100</v>
+        <v>3671000</v>
       </c>
       <c r="G59" s="3">
-        <v>3075200</v>
+        <v>2931400</v>
       </c>
       <c r="H59" s="3">
-        <v>3490400</v>
+        <v>3327200</v>
       </c>
       <c r="I59" s="3">
-        <v>2355300</v>
+        <v>2245100</v>
       </c>
       <c r="J59" s="3">
-        <v>2012000</v>
+        <v>1917900</v>
       </c>
       <c r="K59" s="3">
         <v>1080700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9669800</v>
+        <v>9217500</v>
       </c>
       <c r="E60" s="3">
-        <v>8523600</v>
+        <v>8125000</v>
       </c>
       <c r="F60" s="3">
-        <v>10102600</v>
+        <v>9630100</v>
       </c>
       <c r="G60" s="3">
-        <v>10044500</v>
+        <v>9574700</v>
       </c>
       <c r="H60" s="3">
-        <v>6156900</v>
+        <v>5869000</v>
       </c>
       <c r="I60" s="3">
-        <v>4424000</v>
+        <v>4217100</v>
       </c>
       <c r="J60" s="3">
-        <v>4916300</v>
+        <v>4686300</v>
       </c>
       <c r="K60" s="3">
         <v>2005900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1619900</v>
+        <v>1544100</v>
       </c>
       <c r="E61" s="3">
-        <v>3317500</v>
+        <v>3162300</v>
       </c>
       <c r="F61" s="3">
-        <v>2853000</v>
+        <v>2719600</v>
       </c>
       <c r="G61" s="3">
-        <v>3526000</v>
+        <v>3361100</v>
       </c>
       <c r="H61" s="3">
-        <v>4267000</v>
+        <v>4067400</v>
       </c>
       <c r="I61" s="3">
-        <v>5060000</v>
+        <v>4823400</v>
       </c>
       <c r="J61" s="3">
-        <v>2680300</v>
+        <v>2555000</v>
       </c>
       <c r="K61" s="3">
         <v>1259600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>597600</v>
+        <v>569600</v>
       </c>
       <c r="E62" s="3">
-        <v>671000</v>
+        <v>639600</v>
       </c>
       <c r="F62" s="3">
-        <v>672500</v>
+        <v>641000</v>
       </c>
       <c r="G62" s="3">
-        <v>608500</v>
+        <v>580000</v>
       </c>
       <c r="H62" s="3">
-        <v>619600</v>
+        <v>590600</v>
       </c>
       <c r="I62" s="3">
-        <v>576400</v>
+        <v>549500</v>
       </c>
       <c r="J62" s="3">
-        <v>458100</v>
+        <v>436700</v>
       </c>
       <c r="K62" s="3">
         <v>20900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12001000</v>
+        <v>11439700</v>
       </c>
       <c r="E66" s="3">
-        <v>12689300</v>
+        <v>12095800</v>
       </c>
       <c r="F66" s="3">
-        <v>14125000</v>
+        <v>13464400</v>
       </c>
       <c r="G66" s="3">
-        <v>14473800</v>
+        <v>13796800</v>
       </c>
       <c r="H66" s="3">
-        <v>11303300</v>
+        <v>10774600</v>
       </c>
       <c r="I66" s="3">
-        <v>10642200</v>
+        <v>10144500</v>
       </c>
       <c r="J66" s="3">
-        <v>10848800</v>
+        <v>10341400</v>
       </c>
       <c r="K66" s="3">
         <v>3420300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2855900</v>
+        <v>2722300</v>
       </c>
       <c r="E72" s="3">
-        <v>2936200</v>
+        <v>2798900</v>
       </c>
       <c r="F72" s="3">
-        <v>3422700</v>
+        <v>3262600</v>
       </c>
       <c r="G72" s="3">
-        <v>2398800</v>
+        <v>2286600</v>
       </c>
       <c r="H72" s="3">
-        <v>2266500</v>
+        <v>2160500</v>
       </c>
       <c r="I72" s="3">
-        <v>1013000</v>
+        <v>965600</v>
       </c>
       <c r="J72" s="3">
-        <v>1221900</v>
+        <v>1164800</v>
       </c>
       <c r="K72" s="3">
         <v>924500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16016100</v>
+        <v>15267000</v>
       </c>
       <c r="E76" s="3">
-        <v>14654700</v>
+        <v>13969300</v>
       </c>
       <c r="F76" s="3">
-        <v>15105600</v>
+        <v>14399100</v>
       </c>
       <c r="G76" s="3">
-        <v>12663000</v>
+        <v>12070700</v>
       </c>
       <c r="H76" s="3">
-        <v>12388600</v>
+        <v>11809200</v>
       </c>
       <c r="I76" s="3">
-        <v>10446500</v>
+        <v>9957900</v>
       </c>
       <c r="J76" s="3">
-        <v>6505700</v>
+        <v>6201500</v>
       </c>
       <c r="K76" s="3">
         <v>1503300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-80300</v>
+        <v>-76600</v>
       </c>
       <c r="E81" s="3">
-        <v>-474200</v>
+        <v>-452000</v>
       </c>
       <c r="F81" s="3">
-        <v>1023800</v>
+        <v>975900</v>
       </c>
       <c r="G81" s="3">
-        <v>162400</v>
+        <v>154800</v>
       </c>
       <c r="H81" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="I81" s="3">
-        <v>-208900</v>
+        <v>-199200</v>
       </c>
       <c r="J81" s="3">
-        <v>366200</v>
+        <v>349100</v>
       </c>
       <c r="K81" s="3">
         <v>38300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>149100</v>
+        <v>142100</v>
       </c>
       <c r="E83" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="F83" s="3">
-        <v>160000</v>
+        <v>152600</v>
       </c>
       <c r="G83" s="3">
-        <v>143400</v>
+        <v>136700</v>
       </c>
       <c r="H83" s="3">
-        <v>129000</v>
+        <v>122900</v>
       </c>
       <c r="I83" s="3">
-        <v>105000</v>
+        <v>100100</v>
       </c>
       <c r="J83" s="3">
-        <v>46200</v>
+        <v>44000</v>
       </c>
       <c r="K83" s="3">
         <v>28700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>361400</v>
+        <v>344500</v>
       </c>
       <c r="E89" s="3">
-        <v>-558300</v>
+        <v>-532200</v>
       </c>
       <c r="F89" s="3">
-        <v>1070800</v>
+        <v>1020800</v>
       </c>
       <c r="G89" s="3">
-        <v>1039000</v>
+        <v>990400</v>
       </c>
       <c r="H89" s="3">
-        <v>1032300</v>
+        <v>984000</v>
       </c>
       <c r="I89" s="3">
-        <v>770000</v>
+        <v>734000</v>
       </c>
       <c r="J89" s="3">
-        <v>445200</v>
+        <v>424400</v>
       </c>
       <c r="K89" s="3">
         <v>309000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-83200</v>
+        <v>-79300</v>
       </c>
       <c r="E91" s="3">
-        <v>-77700</v>
+        <v>-74100</v>
       </c>
       <c r="F91" s="3">
-        <v>-120200</v>
+        <v>-114600</v>
       </c>
       <c r="G91" s="3">
-        <v>-98300</v>
+        <v>-93700</v>
       </c>
       <c r="H91" s="3">
-        <v>-68800</v>
+        <v>-65600</v>
       </c>
       <c r="I91" s="3">
-        <v>-99700</v>
+        <v>-95100</v>
       </c>
       <c r="J91" s="3">
-        <v>-93200</v>
+        <v>-88800</v>
       </c>
       <c r="K91" s="3">
         <v>-755500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-605700</v>
+        <v>-577400</v>
       </c>
       <c r="E94" s="3">
-        <v>-558000</v>
+        <v>-531900</v>
       </c>
       <c r="F94" s="3">
-        <v>-352400</v>
+        <v>-335900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2055800</v>
+        <v>-1959700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2224400</v>
+        <v>-2120300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2895100</v>
+        <v>-2759700</v>
       </c>
       <c r="J94" s="3">
-        <v>-646400</v>
+        <v>-616200</v>
       </c>
       <c r="K94" s="3">
         <v>-1477600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>572300</v>
+        <v>545500</v>
       </c>
       <c r="E100" s="3">
-        <v>879800</v>
+        <v>838700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1351700</v>
+        <v>-1288400</v>
       </c>
       <c r="G100" s="3">
-        <v>1741600</v>
+        <v>1660100</v>
       </c>
       <c r="H100" s="3">
-        <v>1171000</v>
+        <v>1116300</v>
       </c>
       <c r="I100" s="3">
-        <v>1794700</v>
+        <v>1710700</v>
       </c>
       <c r="J100" s="3">
-        <v>2224600</v>
+        <v>2120500</v>
       </c>
       <c r="K100" s="3">
         <v>855400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-67900</v>
+        <v>-64700</v>
       </c>
       <c r="E101" s="3">
-        <v>-104100</v>
+        <v>-99200</v>
       </c>
       <c r="F101" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="G101" s="3">
-        <v>119600</v>
+        <v>114000</v>
       </c>
       <c r="H101" s="3">
-        <v>-6900</v>
+        <v>-6600</v>
       </c>
       <c r="I101" s="3">
-        <v>216400</v>
+        <v>206300</v>
       </c>
       <c r="J101" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="K101" s="3">
         <v>23400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>260100</v>
+        <v>247900</v>
       </c>
       <c r="E102" s="3">
-        <v>-340500</v>
+        <v>-324600</v>
       </c>
       <c r="F102" s="3">
-        <v>-588100</v>
+        <v>-560600</v>
       </c>
       <c r="G102" s="3">
-        <v>844300</v>
+        <v>804900</v>
       </c>
       <c r="H102" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="I102" s="3">
-        <v>-114000</v>
+        <v>-108700</v>
       </c>
       <c r="J102" s="3">
-        <v>2032000</v>
+        <v>1936900</v>
       </c>
       <c r="K102" s="3">
         <v>-289900</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2787200</v>
+        <v>2878000</v>
       </c>
       <c r="E8" s="3">
-        <v>2549600</v>
+        <v>2875700</v>
       </c>
       <c r="F8" s="3">
-        <v>4964700</v>
+        <v>2630500</v>
       </c>
       <c r="G8" s="3">
-        <v>4310300</v>
+        <v>5122400</v>
       </c>
       <c r="H8" s="3">
-        <v>3699000</v>
+        <v>4447200</v>
       </c>
       <c r="I8" s="3">
-        <v>2676600</v>
+        <v>3816500</v>
       </c>
       <c r="J8" s="3">
+        <v>2761600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1516900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1159000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>819400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>596700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>640000</v>
+        <v>648200</v>
       </c>
       <c r="E9" s="3">
-        <v>561100</v>
+        <v>660400</v>
       </c>
       <c r="F9" s="3">
-        <v>1026200</v>
+        <v>578900</v>
       </c>
       <c r="G9" s="3">
-        <v>880300</v>
+        <v>1058800</v>
       </c>
       <c r="H9" s="3">
-        <v>651200</v>
+        <v>908300</v>
       </c>
       <c r="I9" s="3">
-        <v>658400</v>
+        <v>671800</v>
       </c>
       <c r="J9" s="3">
+        <v>679300</v>
+      </c>
+      <c r="K9" s="3">
         <v>423600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>331400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>211000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>148900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2147200</v>
+        <v>2229800</v>
       </c>
       <c r="E10" s="3">
-        <v>1988500</v>
+        <v>2215300</v>
       </c>
       <c r="F10" s="3">
-        <v>3938500</v>
+        <v>2051600</v>
       </c>
       <c r="G10" s="3">
-        <v>3430000</v>
+        <v>4063600</v>
       </c>
       <c r="H10" s="3">
-        <v>3047900</v>
+        <v>3538900</v>
       </c>
       <c r="I10" s="3">
-        <v>2018200</v>
+        <v>3144600</v>
       </c>
       <c r="J10" s="3">
+        <v>2082300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1093300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>827700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>608500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>447800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1251700</v>
+        <v>1197900</v>
       </c>
       <c r="E12" s="3">
-        <v>1067200</v>
+        <v>1291400</v>
       </c>
       <c r="F12" s="3">
-        <v>1485300</v>
+        <v>1101100</v>
       </c>
       <c r="G12" s="3">
-        <v>1339100</v>
+        <v>1532400</v>
       </c>
       <c r="H12" s="3">
-        <v>1149600</v>
+        <v>1381600</v>
       </c>
       <c r="I12" s="3">
-        <v>1070100</v>
+        <v>1186100</v>
       </c>
       <c r="J12" s="3">
+        <v>1104100</v>
+      </c>
+      <c r="K12" s="3">
         <v>458900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>366200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>189500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>130800</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>13400</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>126000</v>
+        <v>13800</v>
       </c>
       <c r="F14" s="3">
-        <v>28500</v>
+        <v>130000</v>
       </c>
       <c r="G14" s="3">
-        <v>8800</v>
+        <v>29400</v>
       </c>
       <c r="H14" s="3">
-        <v>190300</v>
+        <v>9000</v>
       </c>
       <c r="I14" s="3">
-        <v>6700</v>
+        <v>196300</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2997000</v>
+        <v>2865400</v>
       </c>
       <c r="E17" s="3">
-        <v>2873600</v>
+        <v>3092100</v>
       </c>
       <c r="F17" s="3">
-        <v>4291700</v>
+        <v>2964900</v>
       </c>
       <c r="G17" s="3">
-        <v>3956500</v>
+        <v>4427900</v>
       </c>
       <c r="H17" s="3">
-        <v>3320200</v>
+        <v>4082100</v>
       </c>
       <c r="I17" s="3">
-        <v>2901600</v>
+        <v>3425600</v>
       </c>
       <c r="J17" s="3">
+        <v>2993700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1463900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1188300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>691300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>502800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-209800</v>
+        <v>12600</v>
       </c>
       <c r="E18" s="3">
-        <v>-324100</v>
+        <v>-216400</v>
       </c>
       <c r="F18" s="3">
-        <v>673000</v>
+        <v>-334300</v>
       </c>
       <c r="G18" s="3">
-        <v>353800</v>
+        <v>694400</v>
       </c>
       <c r="H18" s="3">
-        <v>378800</v>
+        <v>365100</v>
       </c>
       <c r="I18" s="3">
-        <v>-225000</v>
+        <v>390900</v>
       </c>
       <c r="J18" s="3">
+        <v>-232200</v>
+      </c>
+      <c r="K18" s="3">
         <v>53000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-29200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>362100</v>
+        <v>583200</v>
       </c>
       <c r="E20" s="3">
-        <v>392400</v>
+        <v>373600</v>
       </c>
       <c r="F20" s="3">
-        <v>825300</v>
+        <v>404900</v>
       </c>
       <c r="G20" s="3">
-        <v>123500</v>
+        <v>851500</v>
       </c>
       <c r="H20" s="3">
-        <v>259800</v>
+        <v>127400</v>
       </c>
       <c r="I20" s="3">
-        <v>81900</v>
+        <v>268100</v>
       </c>
       <c r="J20" s="3">
+        <v>84500</v>
+      </c>
+      <c r="K20" s="3">
         <v>407400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>76200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>54600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>42500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>293300</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>236400</v>
+        <v>304000</v>
       </c>
       <c r="F21" s="3">
-        <v>1649700</v>
+        <v>245600</v>
       </c>
       <c r="G21" s="3">
-        <v>613000</v>
+        <v>1703600</v>
       </c>
       <c r="H21" s="3">
-        <v>760600</v>
+        <v>633800</v>
       </c>
       <c r="I21" s="3">
-        <v>-43800</v>
+        <v>786000</v>
       </c>
       <c r="J21" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="K21" s="3">
         <v>504100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>75800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>201200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>150600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217800</v>
+        <v>217400</v>
       </c>
       <c r="E22" s="3">
-        <v>238900</v>
+        <v>224800</v>
       </c>
       <c r="F22" s="3">
-        <v>233400</v>
+        <v>246500</v>
       </c>
       <c r="G22" s="3">
-        <v>209900</v>
+        <v>240900</v>
       </c>
       <c r="H22" s="3">
-        <v>179100</v>
+        <v>216600</v>
       </c>
       <c r="I22" s="3">
-        <v>101900</v>
+        <v>184800</v>
       </c>
       <c r="J22" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K22" s="3">
         <v>42100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8700</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-65600</v>
+        <v>378400</v>
       </c>
       <c r="E23" s="3">
-        <v>-170500</v>
+        <v>-67600</v>
       </c>
       <c r="F23" s="3">
-        <v>1264900</v>
+        <v>-175900</v>
       </c>
       <c r="G23" s="3">
-        <v>267400</v>
+        <v>1305100</v>
       </c>
       <c r="H23" s="3">
-        <v>459600</v>
+        <v>275900</v>
       </c>
       <c r="I23" s="3">
-        <v>-245000</v>
+        <v>474100</v>
       </c>
       <c r="J23" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="K23" s="3">
         <v>418300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>174100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37600</v>
+        <v>97900</v>
       </c>
       <c r="E24" s="3">
-        <v>49400</v>
+        <v>38800</v>
       </c>
       <c r="F24" s="3">
-        <v>242500</v>
+        <v>51000</v>
       </c>
       <c r="G24" s="3">
-        <v>110400</v>
+        <v>250200</v>
       </c>
       <c r="H24" s="3">
-        <v>171100</v>
+        <v>113900</v>
       </c>
       <c r="I24" s="3">
-        <v>66500</v>
+        <v>176500</v>
       </c>
       <c r="J24" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K24" s="3">
         <v>65500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-103100</v>
+        <v>280500</v>
       </c>
       <c r="E26" s="3">
-        <v>-219900</v>
+        <v>-106400</v>
       </c>
       <c r="F26" s="3">
-        <v>1022400</v>
+        <v>-226900</v>
       </c>
       <c r="G26" s="3">
-        <v>157000</v>
+        <v>1054900</v>
       </c>
       <c r="H26" s="3">
-        <v>288500</v>
+        <v>162000</v>
       </c>
       <c r="I26" s="3">
-        <v>-311500</v>
+        <v>297600</v>
       </c>
       <c r="J26" s="3">
+        <v>-321400</v>
+      </c>
+      <c r="K26" s="3">
         <v>352900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>129400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-76600</v>
+        <v>201500</v>
       </c>
       <c r="E27" s="3">
-        <v>-452000</v>
+        <v>-79000</v>
       </c>
       <c r="F27" s="3">
-        <v>975900</v>
+        <v>-466300</v>
       </c>
       <c r="G27" s="3">
-        <v>154800</v>
+        <v>1006900</v>
       </c>
       <c r="H27" s="3">
-        <v>276800</v>
+        <v>159700</v>
       </c>
       <c r="I27" s="3">
-        <v>-199200</v>
+        <v>285600</v>
       </c>
       <c r="J27" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="K27" s="3">
         <v>349100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>151900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>102500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-362100</v>
+        <v>-583200</v>
       </c>
       <c r="E32" s="3">
-        <v>-392400</v>
+        <v>-373600</v>
       </c>
       <c r="F32" s="3">
-        <v>-825300</v>
+        <v>-404900</v>
       </c>
       <c r="G32" s="3">
-        <v>-123500</v>
+        <v>-851500</v>
       </c>
       <c r="H32" s="3">
-        <v>-259800</v>
+        <v>-127400</v>
       </c>
       <c r="I32" s="3">
-        <v>-81900</v>
+        <v>-268100</v>
       </c>
       <c r="J32" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-407400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-76200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-54600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-42500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-76600</v>
+        <v>201500</v>
       </c>
       <c r="E33" s="3">
-        <v>-452000</v>
+        <v>-79000</v>
       </c>
       <c r="F33" s="3">
-        <v>975900</v>
+        <v>-466300</v>
       </c>
       <c r="G33" s="3">
-        <v>154800</v>
+        <v>1006900</v>
       </c>
       <c r="H33" s="3">
-        <v>276800</v>
+        <v>159700</v>
       </c>
       <c r="I33" s="3">
-        <v>-199200</v>
+        <v>285600</v>
       </c>
       <c r="J33" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="K33" s="3">
         <v>349100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>151900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>102500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-76600</v>
+        <v>201500</v>
       </c>
       <c r="E35" s="3">
-        <v>-452000</v>
+        <v>-79000</v>
       </c>
       <c r="F35" s="3">
-        <v>975900</v>
+        <v>-466300</v>
       </c>
       <c r="G35" s="3">
-        <v>154800</v>
+        <v>1006900</v>
       </c>
       <c r="H35" s="3">
-        <v>276800</v>
+        <v>159700</v>
       </c>
       <c r="I35" s="3">
-        <v>-199200</v>
+        <v>285600</v>
       </c>
       <c r="J35" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="K35" s="3">
         <v>349100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>151900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>102500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,116 +1817,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2758700</v>
+        <v>2655100</v>
       </c>
       <c r="E41" s="3">
-        <v>2519000</v>
+        <v>2846300</v>
       </c>
       <c r="F41" s="3">
-        <v>2773300</v>
+        <v>2598900</v>
       </c>
       <c r="G41" s="3">
-        <v>2997000</v>
+        <v>2861300</v>
       </c>
       <c r="H41" s="3">
-        <v>2539400</v>
+        <v>3092100</v>
       </c>
       <c r="I41" s="3">
-        <v>2566100</v>
+        <v>2620100</v>
       </c>
       <c r="J41" s="3">
+        <v>2647600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2674800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>836300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1085900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>981800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4115600</v>
+        <v>3668800</v>
       </c>
       <c r="E42" s="3">
-        <v>3454900</v>
+        <v>4246300</v>
       </c>
       <c r="F42" s="3">
-        <v>3209700</v>
+        <v>3564600</v>
       </c>
       <c r="G42" s="3">
-        <v>5116000</v>
+        <v>3311600</v>
       </c>
       <c r="H42" s="3">
-        <v>3915700</v>
+        <v>5278500</v>
       </c>
       <c r="I42" s="3">
-        <v>1964500</v>
+        <v>4040000</v>
       </c>
       <c r="J42" s="3">
+        <v>2026900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1146400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1015800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>553000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>202100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1477500</v>
+        <v>787900</v>
       </c>
       <c r="E43" s="3">
-        <v>1238700</v>
+        <v>1524400</v>
       </c>
       <c r="F43" s="3">
-        <v>1839800</v>
+        <v>1278100</v>
       </c>
       <c r="G43" s="3">
-        <v>1233500</v>
+        <v>1898200</v>
       </c>
       <c r="H43" s="3">
-        <v>1439500</v>
+        <v>1272600</v>
       </c>
       <c r="I43" s="3">
-        <v>793700</v>
+        <v>1485200</v>
       </c>
       <c r="J43" s="3">
+        <v>818900</v>
+      </c>
+      <c r="K43" s="3">
         <v>613200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>306400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>478000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>328400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,189 +1970,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>850500</v>
+        <v>1711500</v>
       </c>
       <c r="E45" s="3">
-        <v>862500</v>
+        <v>877500</v>
       </c>
       <c r="F45" s="3">
-        <v>1636600</v>
+        <v>889900</v>
       </c>
       <c r="G45" s="3">
-        <v>1705200</v>
+        <v>1688500</v>
       </c>
       <c r="H45" s="3">
-        <v>1922200</v>
+        <v>1759300</v>
       </c>
       <c r="I45" s="3">
-        <v>1066600</v>
+        <v>1983200</v>
       </c>
       <c r="J45" s="3">
+        <v>1100500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1217200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>536400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>487600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>359800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9202200</v>
+        <v>8823300</v>
       </c>
       <c r="E46" s="3">
-        <v>8075100</v>
+        <v>9494400</v>
       </c>
       <c r="F46" s="3">
-        <v>9459300</v>
+        <v>8331500</v>
       </c>
       <c r="G46" s="3">
-        <v>11051600</v>
+        <v>9759700</v>
       </c>
       <c r="H46" s="3">
-        <v>8271000</v>
+        <v>11402600</v>
       </c>
       <c r="I46" s="3">
-        <v>6390900</v>
+        <v>8533600</v>
       </c>
       <c r="J46" s="3">
+        <v>6593800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5651600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2694000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2185300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1096600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6262100</v>
+        <v>7206400</v>
       </c>
       <c r="E47" s="3">
-        <v>6677100</v>
+        <v>6460900</v>
       </c>
       <c r="F47" s="3">
-        <v>7144300</v>
+        <v>6889200</v>
       </c>
       <c r="G47" s="3">
-        <v>3772700</v>
+        <v>7371200</v>
       </c>
       <c r="H47" s="3">
-        <v>7185800</v>
+        <v>3892500</v>
       </c>
       <c r="I47" s="3">
-        <v>2971700</v>
+        <v>7414000</v>
       </c>
       <c r="J47" s="3">
+        <v>3066100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2087000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>950000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>926100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>412400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>878500</v>
+        <v>865000</v>
       </c>
       <c r="E48" s="3">
-        <v>942000</v>
+        <v>906400</v>
       </c>
       <c r="F48" s="3">
-        <v>1022000</v>
+        <v>971900</v>
       </c>
       <c r="G48" s="3">
-        <v>817400</v>
+        <v>1054500</v>
       </c>
       <c r="H48" s="3">
-        <v>1563400</v>
+        <v>843300</v>
       </c>
       <c r="I48" s="3">
-        <v>778400</v>
+        <v>1613100</v>
       </c>
       <c r="J48" s="3">
+        <v>803100</v>
+      </c>
+      <c r="K48" s="3">
         <v>773400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>823600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>429900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>322500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10077900</v>
+        <v>10363900</v>
       </c>
       <c r="E49" s="3">
-        <v>10119400</v>
+        <v>10397900</v>
       </c>
       <c r="F49" s="3">
-        <v>9962800</v>
+        <v>10440700</v>
       </c>
       <c r="G49" s="3">
-        <v>10000500</v>
+        <v>10279200</v>
       </c>
       <c r="H49" s="3">
-        <v>11671000</v>
+        <v>10318100</v>
       </c>
       <c r="I49" s="3">
-        <v>9749500</v>
+        <v>12041600</v>
       </c>
       <c r="J49" s="3">
+        <v>10059100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7906700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>420500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>272800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>226200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>286100</v>
+        <v>272000</v>
       </c>
       <c r="E52" s="3">
-        <v>251400</v>
+        <v>295100</v>
       </c>
       <c r="F52" s="3">
-        <v>275100</v>
+        <v>259400</v>
       </c>
       <c r="G52" s="3">
-        <v>225200</v>
+        <v>283800</v>
       </c>
       <c r="H52" s="3">
-        <v>181200</v>
+        <v>232400</v>
       </c>
       <c r="I52" s="3">
-        <v>211900</v>
+        <v>187000</v>
       </c>
       <c r="J52" s="3">
+        <v>218700</v>
+      </c>
+      <c r="K52" s="3">
         <v>124200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26706800</v>
+        <v>27530700</v>
       </c>
       <c r="E54" s="3">
-        <v>26065100</v>
+        <v>27554800</v>
       </c>
       <c r="F54" s="3">
-        <v>27863500</v>
+        <v>26892700</v>
       </c>
       <c r="G54" s="3">
-        <v>25867500</v>
+        <v>28748300</v>
       </c>
       <c r="H54" s="3">
-        <v>22583800</v>
+        <v>26688900</v>
       </c>
       <c r="I54" s="3">
-        <v>20102400</v>
+        <v>23300900</v>
       </c>
       <c r="J54" s="3">
+        <v>20740700</v>
+      </c>
+      <c r="K54" s="3">
         <v>16542900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4923600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3166900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1674400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>837800</v>
+        <v>1087100</v>
       </c>
       <c r="E57" s="3">
-        <v>627200</v>
+        <v>864400</v>
       </c>
       <c r="F57" s="3">
-        <v>1711300</v>
+        <v>647200</v>
       </c>
       <c r="G57" s="3">
-        <v>1630600</v>
+        <v>1765700</v>
       </c>
       <c r="H57" s="3">
-        <v>1038300</v>
+        <v>1682400</v>
       </c>
       <c r="I57" s="3">
-        <v>1013200</v>
+        <v>1071300</v>
       </c>
       <c r="J57" s="3">
+        <v>1045400</v>
+      </c>
+      <c r="K57" s="3">
         <v>827500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>363500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>249100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5549300</v>
+        <v>4088900</v>
       </c>
       <c r="E58" s="3">
-        <v>4686200</v>
+        <v>5725600</v>
       </c>
       <c r="F58" s="3">
-        <v>4247800</v>
+        <v>4835000</v>
       </c>
       <c r="G58" s="3">
-        <v>5012700</v>
+        <v>4382700</v>
       </c>
       <c r="H58" s="3">
-        <v>4542400</v>
+        <v>5171900</v>
       </c>
       <c r="I58" s="3">
-        <v>958700</v>
+        <v>4686600</v>
       </c>
       <c r="J58" s="3">
+        <v>989200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1940900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>561700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>117800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>65100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2830400</v>
+        <v>3015400</v>
       </c>
       <c r="E59" s="3">
-        <v>2811600</v>
+        <v>2920200</v>
       </c>
       <c r="F59" s="3">
-        <v>3671000</v>
+        <v>2900800</v>
       </c>
       <c r="G59" s="3">
-        <v>2931400</v>
+        <v>3787500</v>
       </c>
       <c r="H59" s="3">
-        <v>3327200</v>
+        <v>3024500</v>
       </c>
       <c r="I59" s="3">
-        <v>2245100</v>
+        <v>3432800</v>
       </c>
       <c r="J59" s="3">
+        <v>2316400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1917900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1080700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>399900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9217500</v>
+        <v>8191400</v>
       </c>
       <c r="E60" s="3">
-        <v>8125000</v>
+        <v>9510200</v>
       </c>
       <c r="F60" s="3">
-        <v>9630100</v>
+        <v>8383000</v>
       </c>
       <c r="G60" s="3">
-        <v>9574700</v>
+        <v>9935900</v>
       </c>
       <c r="H60" s="3">
-        <v>5869000</v>
+        <v>9878800</v>
       </c>
       <c r="I60" s="3">
-        <v>4217100</v>
+        <v>6055300</v>
       </c>
       <c r="J60" s="3">
+        <v>4351000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4686300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2005900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>968700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>561000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1544100</v>
+        <v>2496300</v>
       </c>
       <c r="E61" s="3">
-        <v>3162300</v>
+        <v>1593200</v>
       </c>
       <c r="F61" s="3">
-        <v>2719600</v>
+        <v>3262800</v>
       </c>
       <c r="G61" s="3">
-        <v>3361100</v>
+        <v>2805900</v>
       </c>
       <c r="H61" s="3">
-        <v>4067400</v>
+        <v>3467800</v>
       </c>
       <c r="I61" s="3">
-        <v>4823400</v>
+        <v>4196600</v>
       </c>
       <c r="J61" s="3">
+        <v>4976500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2555000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1259600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>860600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>160900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>569600</v>
+        <v>611200</v>
       </c>
       <c r="E62" s="3">
-        <v>639600</v>
+        <v>587700</v>
       </c>
       <c r="F62" s="3">
-        <v>641000</v>
+        <v>659900</v>
       </c>
       <c r="G62" s="3">
-        <v>580000</v>
+        <v>661400</v>
       </c>
       <c r="H62" s="3">
-        <v>590600</v>
+        <v>598500</v>
       </c>
       <c r="I62" s="3">
-        <v>549500</v>
+        <v>609400</v>
       </c>
       <c r="J62" s="3">
+        <v>566900</v>
+      </c>
+      <c r="K62" s="3">
         <v>436700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11439700</v>
+        <v>11404600</v>
       </c>
       <c r="E66" s="3">
-        <v>12095800</v>
+        <v>11803000</v>
       </c>
       <c r="F66" s="3">
-        <v>13464400</v>
+        <v>12479900</v>
       </c>
       <c r="G66" s="3">
-        <v>13796800</v>
+        <v>13891900</v>
       </c>
       <c r="H66" s="3">
-        <v>10774600</v>
+        <v>14234900</v>
       </c>
       <c r="I66" s="3">
-        <v>10144500</v>
+        <v>11116800</v>
       </c>
       <c r="J66" s="3">
+        <v>10466600</v>
+      </c>
+      <c r="K66" s="3">
         <v>10341400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3420300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1869300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>743200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2722300</v>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="3">
-        <v>2798900</v>
+        <v>2808800</v>
       </c>
       <c r="F72" s="3">
-        <v>3262600</v>
+        <v>2887800</v>
       </c>
       <c r="G72" s="3">
-        <v>2286600</v>
+        <v>3366200</v>
       </c>
       <c r="H72" s="3">
-        <v>2160500</v>
+        <v>2359200</v>
       </c>
       <c r="I72" s="3">
-        <v>965600</v>
+        <v>2229100</v>
       </c>
       <c r="J72" s="3">
+        <v>996300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1164800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>924500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>854500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>662700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15267000</v>
+        <v>16126100</v>
       </c>
       <c r="E76" s="3">
-        <v>13969300</v>
+        <v>15751800</v>
       </c>
       <c r="F76" s="3">
-        <v>14399100</v>
+        <v>14412800</v>
       </c>
       <c r="G76" s="3">
-        <v>12070700</v>
+        <v>14856300</v>
       </c>
       <c r="H76" s="3">
-        <v>11809200</v>
+        <v>12454000</v>
       </c>
       <c r="I76" s="3">
-        <v>9957900</v>
+        <v>12184100</v>
       </c>
       <c r="J76" s="3">
+        <v>10274100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6201500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1503300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1297600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>931100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-76600</v>
+        <v>201500</v>
       </c>
       <c r="E81" s="3">
-        <v>-452000</v>
+        <v>-79000</v>
       </c>
       <c r="F81" s="3">
-        <v>975900</v>
+        <v>-466300</v>
       </c>
       <c r="G81" s="3">
-        <v>154800</v>
+        <v>1006900</v>
       </c>
       <c r="H81" s="3">
-        <v>276800</v>
+        <v>159700</v>
       </c>
       <c r="I81" s="3">
-        <v>-199200</v>
+        <v>285600</v>
       </c>
       <c r="J81" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="K81" s="3">
         <v>349100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>151900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>102500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>142100</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="3">
-        <v>169400</v>
+        <v>146600</v>
       </c>
       <c r="F83" s="3">
-        <v>152600</v>
+        <v>174800</v>
       </c>
       <c r="G83" s="3">
-        <v>136700</v>
+        <v>157400</v>
       </c>
       <c r="H83" s="3">
-        <v>122900</v>
+        <v>141000</v>
       </c>
       <c r="I83" s="3">
-        <v>100100</v>
+        <v>126800</v>
       </c>
       <c r="J83" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>344500</v>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E89" s="3">
-        <v>-532200</v>
+        <v>355500</v>
       </c>
       <c r="F89" s="3">
-        <v>1020800</v>
+        <v>-549100</v>
       </c>
       <c r="G89" s="3">
-        <v>990400</v>
+        <v>1053200</v>
       </c>
       <c r="H89" s="3">
-        <v>984000</v>
+        <v>1021900</v>
       </c>
       <c r="I89" s="3">
-        <v>734000</v>
+        <v>1015200</v>
       </c>
       <c r="J89" s="3">
+        <v>757300</v>
+      </c>
+      <c r="K89" s="3">
         <v>424400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>309000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>373100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>237400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-79300</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
-        <v>-74100</v>
+        <v>-81900</v>
       </c>
       <c r="F91" s="3">
-        <v>-114600</v>
+        <v>-76400</v>
       </c>
       <c r="G91" s="3">
-        <v>-93700</v>
+        <v>-118200</v>
       </c>
       <c r="H91" s="3">
-        <v>-65600</v>
+        <v>-96700</v>
       </c>
       <c r="I91" s="3">
-        <v>-95100</v>
+        <v>-67700</v>
       </c>
       <c r="J91" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-88800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-755500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-99100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-577400</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E94" s="3">
-        <v>-531900</v>
+        <v>-595700</v>
       </c>
       <c r="F94" s="3">
-        <v>-335900</v>
+        <v>-548800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1959700</v>
+        <v>-346600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2120300</v>
+        <v>-2021900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2759700</v>
+        <v>-2187700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2847300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-616200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1477600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-621600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-177900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>545500</v>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E100" s="3">
-        <v>838700</v>
+        <v>562800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1288400</v>
+        <v>865300</v>
       </c>
       <c r="G100" s="3">
-        <v>1660100</v>
+        <v>-1329300</v>
       </c>
       <c r="H100" s="3">
-        <v>1116300</v>
+        <v>1712800</v>
       </c>
       <c r="I100" s="3">
-        <v>1710700</v>
+        <v>1151700</v>
       </c>
       <c r="J100" s="3">
+        <v>1765100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2120500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>855400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>808700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-74000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-64700</v>
+      <c r="D101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E101" s="3">
-        <v>-99200</v>
+        <v>-66800</v>
       </c>
       <c r="F101" s="3">
-        <v>43000</v>
+        <v>-102400</v>
       </c>
       <c r="G101" s="3">
-        <v>114000</v>
+        <v>44400</v>
       </c>
       <c r="H101" s="3">
-        <v>-6600</v>
+        <v>117600</v>
       </c>
       <c r="I101" s="3">
-        <v>206300</v>
+        <v>-6800</v>
       </c>
       <c r="J101" s="3">
+        <v>212800</v>
+      </c>
+      <c r="K101" s="3">
         <v>8200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>247900</v>
+      <c r="D102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E102" s="3">
-        <v>-324600</v>
+        <v>255800</v>
       </c>
       <c r="F102" s="3">
-        <v>-560600</v>
+        <v>-334900</v>
       </c>
       <c r="G102" s="3">
-        <v>804900</v>
+        <v>-578400</v>
       </c>
       <c r="H102" s="3">
-        <v>-26700</v>
+        <v>830400</v>
       </c>
       <c r="I102" s="3">
-        <v>-108700</v>
+        <v>-27500</v>
       </c>
       <c r="J102" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1936900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-289900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>565400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2878000</v>
+        <v>2848500</v>
       </c>
       <c r="E8" s="3">
-        <v>2875700</v>
+        <v>2846300</v>
       </c>
       <c r="F8" s="3">
-        <v>2630500</v>
+        <v>2603600</v>
       </c>
       <c r="G8" s="3">
-        <v>5122400</v>
+        <v>5069900</v>
       </c>
       <c r="H8" s="3">
-        <v>4447200</v>
+        <v>4401700</v>
       </c>
       <c r="I8" s="3">
-        <v>3816500</v>
+        <v>3777400</v>
       </c>
       <c r="J8" s="3">
-        <v>2761600</v>
+        <v>2733300</v>
       </c>
       <c r="K8" s="3">
         <v>1516900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>648200</v>
+        <v>641500</v>
       </c>
       <c r="E9" s="3">
-        <v>660400</v>
+        <v>653600</v>
       </c>
       <c r="F9" s="3">
-        <v>578900</v>
+        <v>573000</v>
       </c>
       <c r="G9" s="3">
-        <v>1058800</v>
+        <v>1047900</v>
       </c>
       <c r="H9" s="3">
-        <v>908300</v>
+        <v>899000</v>
       </c>
       <c r="I9" s="3">
-        <v>671800</v>
+        <v>665000</v>
       </c>
       <c r="J9" s="3">
-        <v>679300</v>
+        <v>672300</v>
       </c>
       <c r="K9" s="3">
         <v>423600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2229800</v>
+        <v>2207000</v>
       </c>
       <c r="E10" s="3">
-        <v>2215300</v>
+        <v>2192700</v>
       </c>
       <c r="F10" s="3">
-        <v>2051600</v>
+        <v>2030600</v>
       </c>
       <c r="G10" s="3">
-        <v>4063600</v>
+        <v>4022000</v>
       </c>
       <c r="H10" s="3">
-        <v>3538900</v>
+        <v>3502700</v>
       </c>
       <c r="I10" s="3">
-        <v>3144600</v>
+        <v>3112500</v>
       </c>
       <c r="J10" s="3">
-        <v>2082300</v>
+        <v>2061000</v>
       </c>
       <c r="K10" s="3">
         <v>1093300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1197900</v>
+        <v>1185700</v>
       </c>
       <c r="E12" s="3">
-        <v>1291400</v>
+        <v>1278200</v>
       </c>
       <c r="F12" s="3">
-        <v>1101100</v>
+        <v>1089900</v>
       </c>
       <c r="G12" s="3">
-        <v>1532400</v>
+        <v>1516700</v>
       </c>
       <c r="H12" s="3">
-        <v>1381600</v>
+        <v>1367500</v>
       </c>
       <c r="I12" s="3">
-        <v>1186100</v>
+        <v>1174000</v>
       </c>
       <c r="J12" s="3">
-        <v>1104100</v>
+        <v>1092800</v>
       </c>
       <c r="K12" s="3">
         <v>458900</v>
@@ -934,26 +934,26 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>134900</v>
       </c>
       <c r="E14" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="F14" s="3">
-        <v>130000</v>
+        <v>128600</v>
       </c>
       <c r="G14" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="H14" s="3">
         <v>9000</v>
       </c>
       <c r="I14" s="3">
-        <v>196300</v>
+        <v>194300</v>
       </c>
       <c r="J14" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2865400</v>
+        <v>2970900</v>
       </c>
       <c r="E17" s="3">
-        <v>3092100</v>
+        <v>3060500</v>
       </c>
       <c r="F17" s="3">
-        <v>2964900</v>
+        <v>2934500</v>
       </c>
       <c r="G17" s="3">
-        <v>4427900</v>
+        <v>4382600</v>
       </c>
       <c r="H17" s="3">
-        <v>4082100</v>
+        <v>4040300</v>
       </c>
       <c r="I17" s="3">
-        <v>3425600</v>
+        <v>3390600</v>
       </c>
       <c r="J17" s="3">
-        <v>2993700</v>
+        <v>2963100</v>
       </c>
       <c r="K17" s="3">
         <v>1463900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12600</v>
+        <v>-122400</v>
       </c>
       <c r="E18" s="3">
-        <v>-216400</v>
+        <v>-214200</v>
       </c>
       <c r="F18" s="3">
-        <v>-334300</v>
+        <v>-330900</v>
       </c>
       <c r="G18" s="3">
-        <v>694400</v>
+        <v>687300</v>
       </c>
       <c r="H18" s="3">
-        <v>365100</v>
+        <v>361300</v>
       </c>
       <c r="I18" s="3">
-        <v>390900</v>
+        <v>386900</v>
       </c>
       <c r="J18" s="3">
-        <v>-232200</v>
+        <v>-229800</v>
       </c>
       <c r="K18" s="3">
         <v>53000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>583200</v>
+        <v>712200</v>
       </c>
       <c r="E20" s="3">
-        <v>373600</v>
+        <v>369700</v>
       </c>
       <c r="F20" s="3">
-        <v>404900</v>
+        <v>400700</v>
       </c>
       <c r="G20" s="3">
-        <v>851500</v>
+        <v>842800</v>
       </c>
       <c r="H20" s="3">
-        <v>127400</v>
+        <v>126100</v>
       </c>
       <c r="I20" s="3">
-        <v>268100</v>
+        <v>265300</v>
       </c>
       <c r="J20" s="3">
-        <v>84500</v>
+        <v>83600</v>
       </c>
       <c r="K20" s="3">
         <v>407400</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>714800</v>
       </c>
       <c r="E21" s="3">
-        <v>304000</v>
+        <v>301400</v>
       </c>
       <c r="F21" s="3">
-        <v>245600</v>
+        <v>243700</v>
       </c>
       <c r="G21" s="3">
-        <v>1703600</v>
+        <v>1686700</v>
       </c>
       <c r="H21" s="3">
-        <v>633800</v>
+        <v>627800</v>
       </c>
       <c r="I21" s="3">
-        <v>786000</v>
+        <v>778400</v>
       </c>
       <c r="J21" s="3">
-        <v>-44200</v>
+        <v>-43400</v>
       </c>
       <c r="K21" s="3">
         <v>504100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217400</v>
+        <v>215200</v>
       </c>
       <c r="E22" s="3">
-        <v>224800</v>
+        <v>222500</v>
       </c>
       <c r="F22" s="3">
-        <v>246500</v>
+        <v>243900</v>
       </c>
       <c r="G22" s="3">
-        <v>240900</v>
+        <v>238400</v>
       </c>
       <c r="H22" s="3">
-        <v>216600</v>
+        <v>214400</v>
       </c>
       <c r="I22" s="3">
-        <v>184800</v>
+        <v>182900</v>
       </c>
       <c r="J22" s="3">
-        <v>105100</v>
+        <v>104000</v>
       </c>
       <c r="K22" s="3">
         <v>42100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>378400</v>
+        <v>374600</v>
       </c>
       <c r="E23" s="3">
-        <v>-67600</v>
+        <v>-67000</v>
       </c>
       <c r="F23" s="3">
-        <v>-175900</v>
+        <v>-174100</v>
       </c>
       <c r="G23" s="3">
-        <v>1305100</v>
+        <v>1291700</v>
       </c>
       <c r="H23" s="3">
-        <v>275900</v>
+        <v>273100</v>
       </c>
       <c r="I23" s="3">
-        <v>474100</v>
+        <v>469300</v>
       </c>
       <c r="J23" s="3">
-        <v>-252800</v>
+        <v>-250200</v>
       </c>
       <c r="K23" s="3">
         <v>418300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97900</v>
+        <v>96900</v>
       </c>
       <c r="E24" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="F24" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="G24" s="3">
-        <v>250200</v>
+        <v>247600</v>
       </c>
       <c r="H24" s="3">
-        <v>113900</v>
+        <v>112700</v>
       </c>
       <c r="I24" s="3">
-        <v>176500</v>
+        <v>174700</v>
       </c>
       <c r="J24" s="3">
-        <v>68700</v>
+        <v>67900</v>
       </c>
       <c r="K24" s="3">
         <v>65500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>280500</v>
+        <v>277600</v>
       </c>
       <c r="E26" s="3">
-        <v>-106400</v>
+        <v>-105300</v>
       </c>
       <c r="F26" s="3">
-        <v>-226900</v>
+        <v>-224600</v>
       </c>
       <c r="G26" s="3">
-        <v>1054900</v>
+        <v>1044100</v>
       </c>
       <c r="H26" s="3">
-        <v>162000</v>
+        <v>160300</v>
       </c>
       <c r="I26" s="3">
-        <v>297600</v>
+        <v>294600</v>
       </c>
       <c r="J26" s="3">
-        <v>-321400</v>
+        <v>-318100</v>
       </c>
       <c r="K26" s="3">
         <v>352900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>201500</v>
+        <v>199400</v>
       </c>
       <c r="E27" s="3">
-        <v>-79000</v>
+        <v>-78200</v>
       </c>
       <c r="F27" s="3">
-        <v>-466300</v>
+        <v>-461600</v>
       </c>
       <c r="G27" s="3">
-        <v>1006900</v>
+        <v>996600</v>
       </c>
       <c r="H27" s="3">
-        <v>159700</v>
+        <v>158100</v>
       </c>
       <c r="I27" s="3">
-        <v>285600</v>
+        <v>282700</v>
       </c>
       <c r="J27" s="3">
-        <v>-205500</v>
+        <v>-203400</v>
       </c>
       <c r="K27" s="3">
         <v>349100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-583200</v>
+        <v>-712200</v>
       </c>
       <c r="E32" s="3">
-        <v>-373600</v>
+        <v>-369700</v>
       </c>
       <c r="F32" s="3">
-        <v>-404900</v>
+        <v>-400700</v>
       </c>
       <c r="G32" s="3">
-        <v>-851500</v>
+        <v>-842800</v>
       </c>
       <c r="H32" s="3">
-        <v>-127400</v>
+        <v>-126100</v>
       </c>
       <c r="I32" s="3">
-        <v>-268100</v>
+        <v>-265300</v>
       </c>
       <c r="J32" s="3">
-        <v>-84500</v>
+        <v>-83600</v>
       </c>
       <c r="K32" s="3">
         <v>-407400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>201500</v>
+        <v>199400</v>
       </c>
       <c r="E33" s="3">
-        <v>-79000</v>
+        <v>-78200</v>
       </c>
       <c r="F33" s="3">
-        <v>-466300</v>
+        <v>-461600</v>
       </c>
       <c r="G33" s="3">
-        <v>1006900</v>
+        <v>996600</v>
       </c>
       <c r="H33" s="3">
-        <v>159700</v>
+        <v>158100</v>
       </c>
       <c r="I33" s="3">
-        <v>285600</v>
+        <v>282700</v>
       </c>
       <c r="J33" s="3">
-        <v>-205500</v>
+        <v>-203400</v>
       </c>
       <c r="K33" s="3">
         <v>349100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>201500</v>
+        <v>199400</v>
       </c>
       <c r="E35" s="3">
-        <v>-79000</v>
+        <v>-78200</v>
       </c>
       <c r="F35" s="3">
-        <v>-466300</v>
+        <v>-461600</v>
       </c>
       <c r="G35" s="3">
-        <v>1006900</v>
+        <v>996600</v>
       </c>
       <c r="H35" s="3">
-        <v>159700</v>
+        <v>158100</v>
       </c>
       <c r="I35" s="3">
-        <v>285600</v>
+        <v>282700</v>
       </c>
       <c r="J35" s="3">
-        <v>-205500</v>
+        <v>-203400</v>
       </c>
       <c r="K35" s="3">
         <v>349100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2655100</v>
+        <v>2416600</v>
       </c>
       <c r="E41" s="3">
-        <v>2846300</v>
+        <v>2817100</v>
       </c>
       <c r="F41" s="3">
-        <v>2598900</v>
+        <v>2572300</v>
       </c>
       <c r="G41" s="3">
-        <v>2861300</v>
+        <v>2832100</v>
       </c>
       <c r="H41" s="3">
-        <v>3092100</v>
+        <v>3060500</v>
       </c>
       <c r="I41" s="3">
-        <v>2620100</v>
+        <v>2593200</v>
       </c>
       <c r="J41" s="3">
-        <v>2647600</v>
+        <v>2620500</v>
       </c>
       <c r="K41" s="3">
         <v>2674800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3668800</v>
+        <v>3631200</v>
       </c>
       <c r="E42" s="3">
-        <v>4246300</v>
+        <v>4202800</v>
       </c>
       <c r="F42" s="3">
-        <v>3564600</v>
+        <v>3528200</v>
       </c>
       <c r="G42" s="3">
-        <v>3311600</v>
+        <v>3277700</v>
       </c>
       <c r="H42" s="3">
-        <v>5278500</v>
+        <v>5224400</v>
       </c>
       <c r="I42" s="3">
-        <v>4040000</v>
+        <v>3998700</v>
       </c>
       <c r="J42" s="3">
-        <v>2026900</v>
+        <v>2006100</v>
       </c>
       <c r="K42" s="3">
         <v>1146400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>787900</v>
+        <v>1619900</v>
       </c>
       <c r="E43" s="3">
-        <v>1524400</v>
+        <v>1508800</v>
       </c>
       <c r="F43" s="3">
-        <v>1278100</v>
+        <v>1265000</v>
       </c>
       <c r="G43" s="3">
-        <v>1898200</v>
+        <v>1878800</v>
       </c>
       <c r="H43" s="3">
-        <v>1272600</v>
+        <v>1259600</v>
       </c>
       <c r="I43" s="3">
-        <v>1485200</v>
+        <v>1470000</v>
       </c>
       <c r="J43" s="3">
-        <v>818900</v>
+        <v>810500</v>
       </c>
       <c r="K43" s="3">
         <v>613200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1711500</v>
+        <v>1065300</v>
       </c>
       <c r="E45" s="3">
-        <v>877500</v>
+        <v>868500</v>
       </c>
       <c r="F45" s="3">
-        <v>889900</v>
+        <v>880800</v>
       </c>
       <c r="G45" s="3">
-        <v>1688500</v>
+        <v>1671300</v>
       </c>
       <c r="H45" s="3">
-        <v>1759300</v>
+        <v>1741300</v>
       </c>
       <c r="I45" s="3">
-        <v>1983200</v>
+        <v>1962900</v>
       </c>
       <c r="J45" s="3">
-        <v>1100500</v>
+        <v>1089200</v>
       </c>
       <c r="K45" s="3">
         <v>1217200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8823300</v>
+        <v>8733000</v>
       </c>
       <c r="E46" s="3">
-        <v>9494400</v>
+        <v>9397300</v>
       </c>
       <c r="F46" s="3">
-        <v>8331500</v>
+        <v>8246300</v>
       </c>
       <c r="G46" s="3">
-        <v>9759700</v>
+        <v>9659800</v>
       </c>
       <c r="H46" s="3">
-        <v>11402600</v>
+        <v>11285900</v>
       </c>
       <c r="I46" s="3">
-        <v>8533600</v>
+        <v>8446300</v>
       </c>
       <c r="J46" s="3">
-        <v>6593800</v>
+        <v>6526300</v>
       </c>
       <c r="K46" s="3">
         <v>5651600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7206400</v>
+        <v>7136200</v>
       </c>
       <c r="E47" s="3">
-        <v>6460900</v>
+        <v>6394800</v>
       </c>
       <c r="F47" s="3">
-        <v>6889200</v>
+        <v>6818700</v>
       </c>
       <c r="G47" s="3">
-        <v>7371200</v>
+        <v>7295700</v>
       </c>
       <c r="H47" s="3">
-        <v>3892500</v>
+        <v>3852700</v>
       </c>
       <c r="I47" s="3">
-        <v>7414000</v>
+        <v>7338100</v>
       </c>
       <c r="J47" s="3">
-        <v>3066100</v>
+        <v>3034700</v>
       </c>
       <c r="K47" s="3">
         <v>2087000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>865000</v>
+        <v>856200</v>
       </c>
       <c r="E48" s="3">
-        <v>906400</v>
+        <v>897100</v>
       </c>
       <c r="F48" s="3">
-        <v>971900</v>
+        <v>961900</v>
       </c>
       <c r="G48" s="3">
-        <v>1054500</v>
+        <v>1043700</v>
       </c>
       <c r="H48" s="3">
-        <v>843300</v>
+        <v>834700</v>
       </c>
       <c r="I48" s="3">
-        <v>1613100</v>
+        <v>1596600</v>
       </c>
       <c r="J48" s="3">
-        <v>803100</v>
+        <v>794900</v>
       </c>
       <c r="K48" s="3">
         <v>773400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10363900</v>
+        <v>10257800</v>
       </c>
       <c r="E49" s="3">
-        <v>10397900</v>
+        <v>10291500</v>
       </c>
       <c r="F49" s="3">
-        <v>10440700</v>
+        <v>10333900</v>
       </c>
       <c r="G49" s="3">
-        <v>10279200</v>
+        <v>10174000</v>
       </c>
       <c r="H49" s="3">
-        <v>10318100</v>
+        <v>10212500</v>
       </c>
       <c r="I49" s="3">
-        <v>12041600</v>
+        <v>11918300</v>
       </c>
       <c r="J49" s="3">
-        <v>10059100</v>
+        <v>9956100</v>
       </c>
       <c r="K49" s="3">
         <v>7906700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>272000</v>
+        <v>265700</v>
       </c>
       <c r="E52" s="3">
-        <v>295100</v>
+        <v>292100</v>
       </c>
       <c r="F52" s="3">
-        <v>259400</v>
+        <v>256700</v>
       </c>
       <c r="G52" s="3">
-        <v>283800</v>
+        <v>280900</v>
       </c>
       <c r="H52" s="3">
-        <v>232400</v>
+        <v>230000</v>
       </c>
       <c r="I52" s="3">
-        <v>187000</v>
+        <v>185100</v>
       </c>
       <c r="J52" s="3">
-        <v>218700</v>
+        <v>216400</v>
       </c>
       <c r="K52" s="3">
         <v>124200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27530700</v>
+        <v>27248900</v>
       </c>
       <c r="E54" s="3">
-        <v>27554800</v>
+        <v>27272800</v>
       </c>
       <c r="F54" s="3">
-        <v>26892700</v>
+        <v>26617400</v>
       </c>
       <c r="G54" s="3">
-        <v>28748300</v>
+        <v>28454000</v>
       </c>
       <c r="H54" s="3">
-        <v>26688900</v>
+        <v>26415700</v>
       </c>
       <c r="I54" s="3">
-        <v>23300900</v>
+        <v>23062400</v>
       </c>
       <c r="J54" s="3">
-        <v>20740700</v>
+        <v>20528400</v>
       </c>
       <c r="K54" s="3">
         <v>16542900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1087100</v>
+        <v>1075900</v>
       </c>
       <c r="E57" s="3">
-        <v>864400</v>
+        <v>855600</v>
       </c>
       <c r="F57" s="3">
-        <v>647200</v>
+        <v>640500</v>
       </c>
       <c r="G57" s="3">
-        <v>1765700</v>
+        <v>1747600</v>
       </c>
       <c r="H57" s="3">
-        <v>1682400</v>
+        <v>1665100</v>
       </c>
       <c r="I57" s="3">
-        <v>1071300</v>
+        <v>1060300</v>
       </c>
       <c r="J57" s="3">
-        <v>1045400</v>
+        <v>1034700</v>
       </c>
       <c r="K57" s="3">
         <v>827500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4088900</v>
+        <v>4644600</v>
       </c>
       <c r="E58" s="3">
-        <v>5725600</v>
+        <v>5667000</v>
       </c>
       <c r="F58" s="3">
-        <v>4835000</v>
+        <v>4785500</v>
       </c>
       <c r="G58" s="3">
-        <v>4382700</v>
+        <v>4337800</v>
       </c>
       <c r="H58" s="3">
-        <v>5171900</v>
+        <v>5119000</v>
       </c>
       <c r="I58" s="3">
-        <v>4686600</v>
+        <v>4638700</v>
       </c>
       <c r="J58" s="3">
-        <v>989200</v>
+        <v>979000</v>
       </c>
       <c r="K58" s="3">
         <v>1940900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3015400</v>
+        <v>2984600</v>
       </c>
       <c r="E59" s="3">
-        <v>2920200</v>
+        <v>2890300</v>
       </c>
       <c r="F59" s="3">
-        <v>2900800</v>
+        <v>2871100</v>
       </c>
       <c r="G59" s="3">
-        <v>3787500</v>
+        <v>3748800</v>
       </c>
       <c r="H59" s="3">
-        <v>3024500</v>
+        <v>2993500</v>
       </c>
       <c r="I59" s="3">
-        <v>3432800</v>
+        <v>3397700</v>
       </c>
       <c r="J59" s="3">
-        <v>2316400</v>
+        <v>2292700</v>
       </c>
       <c r="K59" s="3">
         <v>1917900</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8191400</v>
+        <v>8705100</v>
       </c>
       <c r="E60" s="3">
-        <v>9510200</v>
+        <v>9412900</v>
       </c>
       <c r="F60" s="3">
-        <v>8383000</v>
+        <v>8297200</v>
       </c>
       <c r="G60" s="3">
-        <v>9935900</v>
+        <v>9834200</v>
       </c>
       <c r="H60" s="3">
-        <v>9878800</v>
+        <v>9777600</v>
       </c>
       <c r="I60" s="3">
-        <v>6055300</v>
+        <v>5993300</v>
       </c>
       <c r="J60" s="3">
-        <v>4351000</v>
+        <v>4306400</v>
       </c>
       <c r="K60" s="3">
         <v>4686300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2496300</v>
+        <v>1873100</v>
       </c>
       <c r="E61" s="3">
-        <v>1593200</v>
+        <v>1576900</v>
       </c>
       <c r="F61" s="3">
-        <v>3262800</v>
+        <v>3229400</v>
       </c>
       <c r="G61" s="3">
-        <v>2805900</v>
+        <v>2777200</v>
       </c>
       <c r="H61" s="3">
-        <v>3467800</v>
+        <v>3432400</v>
       </c>
       <c r="I61" s="3">
-        <v>4196600</v>
+        <v>4153600</v>
       </c>
       <c r="J61" s="3">
-        <v>4976500</v>
+        <v>4925600</v>
       </c>
       <c r="K61" s="3">
         <v>2555000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>611200</v>
+        <v>605000</v>
       </c>
       <c r="E62" s="3">
-        <v>587700</v>
+        <v>581700</v>
       </c>
       <c r="F62" s="3">
-        <v>659900</v>
+        <v>653200</v>
       </c>
       <c r="G62" s="3">
-        <v>661400</v>
+        <v>654600</v>
       </c>
       <c r="H62" s="3">
-        <v>598500</v>
+        <v>592300</v>
       </c>
       <c r="I62" s="3">
-        <v>609400</v>
+        <v>603100</v>
       </c>
       <c r="J62" s="3">
-        <v>566900</v>
+        <v>561100</v>
       </c>
       <c r="K62" s="3">
         <v>436700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11404600</v>
+        <v>11287800</v>
       </c>
       <c r="E66" s="3">
-        <v>11803000</v>
+        <v>11682200</v>
       </c>
       <c r="F66" s="3">
-        <v>12479900</v>
+        <v>12352100</v>
       </c>
       <c r="G66" s="3">
-        <v>13891900</v>
+        <v>13749700</v>
       </c>
       <c r="H66" s="3">
-        <v>14234900</v>
+        <v>14089200</v>
       </c>
       <c r="I66" s="3">
-        <v>11116800</v>
+        <v>11003000</v>
       </c>
       <c r="J66" s="3">
-        <v>10466600</v>
+        <v>10359500</v>
       </c>
       <c r="K66" s="3">
         <v>10341400</v>
@@ -2966,26 +2966,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>2979500</v>
       </c>
       <c r="E72" s="3">
-        <v>2808800</v>
+        <v>2780000</v>
       </c>
       <c r="F72" s="3">
-        <v>2887800</v>
+        <v>2858200</v>
       </c>
       <c r="G72" s="3">
-        <v>3366200</v>
+        <v>3331700</v>
       </c>
       <c r="H72" s="3">
-        <v>2359200</v>
+        <v>2335100</v>
       </c>
       <c r="I72" s="3">
-        <v>2229100</v>
+        <v>2206300</v>
       </c>
       <c r="J72" s="3">
-        <v>996300</v>
+        <v>986100</v>
       </c>
       <c r="K72" s="3">
         <v>1164800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16126100</v>
+        <v>15961000</v>
       </c>
       <c r="E76" s="3">
-        <v>15751800</v>
+        <v>15590600</v>
       </c>
       <c r="F76" s="3">
-        <v>14412800</v>
+        <v>14265300</v>
       </c>
       <c r="G76" s="3">
-        <v>14856300</v>
+        <v>14704300</v>
       </c>
       <c r="H76" s="3">
-        <v>12454000</v>
+        <v>12326500</v>
       </c>
       <c r="I76" s="3">
-        <v>12184100</v>
+        <v>12059400</v>
       </c>
       <c r="J76" s="3">
-        <v>10274100</v>
+        <v>10169000</v>
       </c>
       <c r="K76" s="3">
         <v>6201500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>201500</v>
+        <v>199400</v>
       </c>
       <c r="E81" s="3">
-        <v>-79000</v>
+        <v>-78200</v>
       </c>
       <c r="F81" s="3">
-        <v>-466300</v>
+        <v>-461600</v>
       </c>
       <c r="G81" s="3">
-        <v>1006900</v>
+        <v>996600</v>
       </c>
       <c r="H81" s="3">
-        <v>159700</v>
+        <v>158100</v>
       </c>
       <c r="I81" s="3">
-        <v>285600</v>
+        <v>282700</v>
       </c>
       <c r="J81" s="3">
-        <v>-205500</v>
+        <v>-203400</v>
       </c>
       <c r="K81" s="3">
         <v>349100</v>
@@ -3300,26 +3300,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>124400</v>
       </c>
       <c r="E83" s="3">
-        <v>146600</v>
+        <v>145100</v>
       </c>
       <c r="F83" s="3">
-        <v>174800</v>
+        <v>173000</v>
       </c>
       <c r="G83" s="3">
-        <v>157400</v>
+        <v>155800</v>
       </c>
       <c r="H83" s="3">
-        <v>141000</v>
+        <v>139600</v>
       </c>
       <c r="I83" s="3">
-        <v>126800</v>
+        <v>125500</v>
       </c>
       <c r="J83" s="3">
-        <v>103200</v>
+        <v>102200</v>
       </c>
       <c r="K83" s="3">
         <v>44000</v>
@@ -3534,26 +3534,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
+      <c r="D89" s="3">
+        <v>375400</v>
       </c>
       <c r="E89" s="3">
-        <v>355500</v>
+        <v>351800</v>
       </c>
       <c r="F89" s="3">
-        <v>-549100</v>
+        <v>-543400</v>
       </c>
       <c r="G89" s="3">
-        <v>1053200</v>
+        <v>1042400</v>
       </c>
       <c r="H89" s="3">
-        <v>1021900</v>
+        <v>1011400</v>
       </c>
       <c r="I89" s="3">
-        <v>1015200</v>
+        <v>1004800</v>
       </c>
       <c r="J89" s="3">
-        <v>757300</v>
+        <v>749500</v>
       </c>
       <c r="K89" s="3">
         <v>424400</v>
@@ -3590,26 +3590,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>-70600</v>
       </c>
       <c r="E91" s="3">
-        <v>-81900</v>
+        <v>-81000</v>
       </c>
       <c r="F91" s="3">
-        <v>-76400</v>
+        <v>-75600</v>
       </c>
       <c r="G91" s="3">
-        <v>-118200</v>
+        <v>-117000</v>
       </c>
       <c r="H91" s="3">
-        <v>-96700</v>
+        <v>-95700</v>
       </c>
       <c r="I91" s="3">
-        <v>-67700</v>
+        <v>-67000</v>
       </c>
       <c r="J91" s="3">
-        <v>-98100</v>
+        <v>-97100</v>
       </c>
       <c r="K91" s="3">
         <v>-88800</v>
@@ -3707,26 +3707,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>161500</v>
       </c>
       <c r="E94" s="3">
-        <v>-595700</v>
+        <v>-589600</v>
       </c>
       <c r="F94" s="3">
-        <v>-548800</v>
+        <v>-543200</v>
       </c>
       <c r="G94" s="3">
-        <v>-346600</v>
+        <v>-343000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2021900</v>
+        <v>-2001200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2187700</v>
+        <v>-2165300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2847300</v>
+        <v>-2818200</v>
       </c>
       <c r="K94" s="3">
         <v>-616200</v>
@@ -3919,26 +3919,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
+      <c r="D100" s="3">
+        <v>-954800</v>
       </c>
       <c r="E100" s="3">
-        <v>562800</v>
+        <v>557100</v>
       </c>
       <c r="F100" s="3">
-        <v>865300</v>
+        <v>856500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1329300</v>
+        <v>-1315700</v>
       </c>
       <c r="H100" s="3">
-        <v>1712800</v>
+        <v>1695300</v>
       </c>
       <c r="I100" s="3">
-        <v>1151700</v>
+        <v>1139900</v>
       </c>
       <c r="J100" s="3">
-        <v>1765100</v>
+        <v>1747000</v>
       </c>
       <c r="K100" s="3">
         <v>2120500</v>
@@ -3958,26 +3958,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>10</v>
+      <c r="D101" s="3">
+        <v>32800</v>
       </c>
       <c r="E101" s="3">
-        <v>-66800</v>
+        <v>-66100</v>
       </c>
       <c r="F101" s="3">
-        <v>-102400</v>
+        <v>-101400</v>
       </c>
       <c r="G101" s="3">
-        <v>44400</v>
+        <v>43900</v>
       </c>
       <c r="H101" s="3">
-        <v>117600</v>
+        <v>116400</v>
       </c>
       <c r="I101" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="J101" s="3">
-        <v>212800</v>
+        <v>210700</v>
       </c>
       <c r="K101" s="3">
         <v>8200</v>
@@ -3997,26 +3997,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>10</v>
+      <c r="D102" s="3">
+        <v>-385100</v>
       </c>
       <c r="E102" s="3">
-        <v>255800</v>
+        <v>253200</v>
       </c>
       <c r="F102" s="3">
-        <v>-334900</v>
+        <v>-331500</v>
       </c>
       <c r="G102" s="3">
-        <v>-578400</v>
+        <v>-572400</v>
       </c>
       <c r="H102" s="3">
-        <v>830400</v>
+        <v>821900</v>
       </c>
       <c r="I102" s="3">
-        <v>-27500</v>
+        <v>-27200</v>
       </c>
       <c r="J102" s="3">
-        <v>-112200</v>
+        <v>-111000</v>
       </c>
       <c r="K102" s="3">
         <v>1936900</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2848500</v>
+        <v>2761000</v>
       </c>
       <c r="E8" s="3">
-        <v>2846300</v>
+        <v>2758800</v>
       </c>
       <c r="F8" s="3">
-        <v>2603600</v>
+        <v>2523600</v>
       </c>
       <c r="G8" s="3">
-        <v>5069900</v>
+        <v>4914100</v>
       </c>
       <c r="H8" s="3">
-        <v>4401700</v>
+        <v>4266400</v>
       </c>
       <c r="I8" s="3">
-        <v>3777400</v>
+        <v>3661300</v>
       </c>
       <c r="J8" s="3">
-        <v>2733300</v>
+        <v>2649300</v>
       </c>
       <c r="K8" s="3">
         <v>1516900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>641500</v>
+        <v>621800</v>
       </c>
       <c r="E9" s="3">
-        <v>653600</v>
+        <v>633500</v>
       </c>
       <c r="F9" s="3">
-        <v>573000</v>
+        <v>555400</v>
       </c>
       <c r="G9" s="3">
-        <v>1047900</v>
+        <v>1015700</v>
       </c>
       <c r="H9" s="3">
-        <v>899000</v>
+        <v>871300</v>
       </c>
       <c r="I9" s="3">
-        <v>665000</v>
+        <v>644500</v>
       </c>
       <c r="J9" s="3">
-        <v>672300</v>
+        <v>651700</v>
       </c>
       <c r="K9" s="3">
         <v>423600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2207000</v>
+        <v>2139200</v>
       </c>
       <c r="E10" s="3">
-        <v>2192700</v>
+        <v>2125300</v>
       </c>
       <c r="F10" s="3">
-        <v>2030600</v>
+        <v>1968200</v>
       </c>
       <c r="G10" s="3">
-        <v>4022000</v>
+        <v>3898300</v>
       </c>
       <c r="H10" s="3">
-        <v>3502700</v>
+        <v>3395000</v>
       </c>
       <c r="I10" s="3">
-        <v>3112500</v>
+        <v>3016800</v>
       </c>
       <c r="J10" s="3">
-        <v>2061000</v>
+        <v>1997600</v>
       </c>
       <c r="K10" s="3">
         <v>1093300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1185700</v>
+        <v>1149200</v>
       </c>
       <c r="E12" s="3">
-        <v>1278200</v>
+        <v>1238900</v>
       </c>
       <c r="F12" s="3">
-        <v>1089900</v>
+        <v>1056400</v>
       </c>
       <c r="G12" s="3">
-        <v>1516700</v>
+        <v>1470100</v>
       </c>
       <c r="H12" s="3">
-        <v>1367500</v>
+        <v>1325400</v>
       </c>
       <c r="I12" s="3">
-        <v>1174000</v>
+        <v>1137900</v>
       </c>
       <c r="J12" s="3">
-        <v>1092800</v>
+        <v>1059200</v>
       </c>
       <c r="K12" s="3">
         <v>458900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>134900</v>
+        <v>130800</v>
       </c>
       <c r="E14" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F14" s="3">
-        <v>128600</v>
+        <v>124700</v>
       </c>
       <c r="G14" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="H14" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="I14" s="3">
-        <v>194300</v>
+        <v>188300</v>
       </c>
       <c r="J14" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2970900</v>
+        <v>2879600</v>
       </c>
       <c r="E17" s="3">
-        <v>3060500</v>
+        <v>2966400</v>
       </c>
       <c r="F17" s="3">
-        <v>2934500</v>
+        <v>2844300</v>
       </c>
       <c r="G17" s="3">
-        <v>4382600</v>
+        <v>4247900</v>
       </c>
       <c r="H17" s="3">
-        <v>4040300</v>
+        <v>3916100</v>
       </c>
       <c r="I17" s="3">
-        <v>3390600</v>
+        <v>3286300</v>
       </c>
       <c r="J17" s="3">
-        <v>2963100</v>
+        <v>2872000</v>
       </c>
       <c r="K17" s="3">
         <v>1463900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-122400</v>
+        <v>-118600</v>
       </c>
       <c r="E18" s="3">
-        <v>-214200</v>
+        <v>-207600</v>
       </c>
       <c r="F18" s="3">
-        <v>-330900</v>
+        <v>-320800</v>
       </c>
       <c r="G18" s="3">
-        <v>687300</v>
+        <v>666200</v>
       </c>
       <c r="H18" s="3">
-        <v>361300</v>
+        <v>350200</v>
       </c>
       <c r="I18" s="3">
-        <v>386900</v>
+        <v>375000</v>
       </c>
       <c r="J18" s="3">
-        <v>-229800</v>
+        <v>-222700</v>
       </c>
       <c r="K18" s="3">
         <v>53000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>712200</v>
+        <v>690300</v>
       </c>
       <c r="E20" s="3">
-        <v>369700</v>
+        <v>358400</v>
       </c>
       <c r="F20" s="3">
-        <v>400700</v>
+        <v>388400</v>
       </c>
       <c r="G20" s="3">
-        <v>842800</v>
+        <v>816900</v>
       </c>
       <c r="H20" s="3">
-        <v>126100</v>
+        <v>122200</v>
       </c>
       <c r="I20" s="3">
-        <v>265300</v>
+        <v>257200</v>
       </c>
       <c r="J20" s="3">
-        <v>83600</v>
+        <v>81100</v>
       </c>
       <c r="K20" s="3">
         <v>407400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>714800</v>
+        <v>692200</v>
       </c>
       <c r="E21" s="3">
-        <v>301400</v>
+        <v>291400</v>
       </c>
       <c r="F21" s="3">
-        <v>243700</v>
+        <v>235300</v>
       </c>
       <c r="G21" s="3">
-        <v>1686700</v>
+        <v>1634100</v>
       </c>
       <c r="H21" s="3">
-        <v>627800</v>
+        <v>607700</v>
       </c>
       <c r="I21" s="3">
-        <v>778400</v>
+        <v>753800</v>
       </c>
       <c r="J21" s="3">
-        <v>-43400</v>
+        <v>-42600</v>
       </c>
       <c r="K21" s="3">
         <v>504100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>215200</v>
+        <v>208600</v>
       </c>
       <c r="E22" s="3">
-        <v>222500</v>
+        <v>215600</v>
       </c>
       <c r="F22" s="3">
-        <v>243900</v>
+        <v>236400</v>
       </c>
       <c r="G22" s="3">
-        <v>238400</v>
+        <v>231100</v>
       </c>
       <c r="H22" s="3">
-        <v>214400</v>
+        <v>207800</v>
       </c>
       <c r="I22" s="3">
-        <v>182900</v>
+        <v>177300</v>
       </c>
       <c r="J22" s="3">
-        <v>104000</v>
+        <v>100800</v>
       </c>
       <c r="K22" s="3">
         <v>42100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>374600</v>
+        <v>363100</v>
       </c>
       <c r="E23" s="3">
-        <v>-67000</v>
+        <v>-64900</v>
       </c>
       <c r="F23" s="3">
-        <v>-174100</v>
+        <v>-168800</v>
       </c>
       <c r="G23" s="3">
-        <v>1291700</v>
+        <v>1252000</v>
       </c>
       <c r="H23" s="3">
-        <v>273100</v>
+        <v>264700</v>
       </c>
       <c r="I23" s="3">
-        <v>469300</v>
+        <v>454900</v>
       </c>
       <c r="J23" s="3">
-        <v>-250200</v>
+        <v>-242500</v>
       </c>
       <c r="K23" s="3">
         <v>418300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>96900</v>
+        <v>94000</v>
       </c>
       <c r="E24" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="F24" s="3">
-        <v>50500</v>
+        <v>48900</v>
       </c>
       <c r="G24" s="3">
-        <v>247600</v>
+        <v>240000</v>
       </c>
       <c r="H24" s="3">
-        <v>112700</v>
+        <v>109300</v>
       </c>
       <c r="I24" s="3">
-        <v>174700</v>
+        <v>169300</v>
       </c>
       <c r="J24" s="3">
-        <v>67900</v>
+        <v>65900</v>
       </c>
       <c r="K24" s="3">
         <v>65500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>277600</v>
+        <v>269100</v>
       </c>
       <c r="E26" s="3">
-        <v>-105300</v>
+        <v>-102100</v>
       </c>
       <c r="F26" s="3">
-        <v>-224600</v>
+        <v>-217700</v>
       </c>
       <c r="G26" s="3">
-        <v>1044100</v>
+        <v>1012000</v>
       </c>
       <c r="H26" s="3">
-        <v>160300</v>
+        <v>155400</v>
       </c>
       <c r="I26" s="3">
-        <v>294600</v>
+        <v>285500</v>
       </c>
       <c r="J26" s="3">
-        <v>-318100</v>
+        <v>-308400</v>
       </c>
       <c r="K26" s="3">
         <v>352900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>199400</v>
+        <v>193300</v>
       </c>
       <c r="E27" s="3">
-        <v>-78200</v>
+        <v>-75800</v>
       </c>
       <c r="F27" s="3">
-        <v>-461600</v>
+        <v>-447400</v>
       </c>
       <c r="G27" s="3">
-        <v>996600</v>
+        <v>966000</v>
       </c>
       <c r="H27" s="3">
-        <v>158100</v>
+        <v>153200</v>
       </c>
       <c r="I27" s="3">
-        <v>282700</v>
+        <v>274000</v>
       </c>
       <c r="J27" s="3">
-        <v>-203400</v>
+        <v>-197100</v>
       </c>
       <c r="K27" s="3">
         <v>349100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-712200</v>
+        <v>-690300</v>
       </c>
       <c r="E32" s="3">
-        <v>-369700</v>
+        <v>-358400</v>
       </c>
       <c r="F32" s="3">
-        <v>-400700</v>
+        <v>-388400</v>
       </c>
       <c r="G32" s="3">
-        <v>-842800</v>
+        <v>-816900</v>
       </c>
       <c r="H32" s="3">
-        <v>-126100</v>
+        <v>-122200</v>
       </c>
       <c r="I32" s="3">
-        <v>-265300</v>
+        <v>-257200</v>
       </c>
       <c r="J32" s="3">
-        <v>-83600</v>
+        <v>-81100</v>
       </c>
       <c r="K32" s="3">
         <v>-407400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>199400</v>
+        <v>193300</v>
       </c>
       <c r="E33" s="3">
-        <v>-78200</v>
+        <v>-75800</v>
       </c>
       <c r="F33" s="3">
-        <v>-461600</v>
+        <v>-447400</v>
       </c>
       <c r="G33" s="3">
-        <v>996600</v>
+        <v>966000</v>
       </c>
       <c r="H33" s="3">
-        <v>158100</v>
+        <v>153200</v>
       </c>
       <c r="I33" s="3">
-        <v>282700</v>
+        <v>274000</v>
       </c>
       <c r="J33" s="3">
-        <v>-203400</v>
+        <v>-197100</v>
       </c>
       <c r="K33" s="3">
         <v>349100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>199400</v>
+        <v>193300</v>
       </c>
       <c r="E35" s="3">
-        <v>-78200</v>
+        <v>-75800</v>
       </c>
       <c r="F35" s="3">
-        <v>-461600</v>
+        <v>-447400</v>
       </c>
       <c r="G35" s="3">
-        <v>996600</v>
+        <v>966000</v>
       </c>
       <c r="H35" s="3">
-        <v>158100</v>
+        <v>153200</v>
       </c>
       <c r="I35" s="3">
-        <v>282700</v>
+        <v>274000</v>
       </c>
       <c r="J35" s="3">
-        <v>-203400</v>
+        <v>-197100</v>
       </c>
       <c r="K35" s="3">
         <v>349100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2416600</v>
+        <v>2342300</v>
       </c>
       <c r="E41" s="3">
-        <v>2817100</v>
+        <v>2730500</v>
       </c>
       <c r="F41" s="3">
-        <v>2572300</v>
+        <v>2493300</v>
       </c>
       <c r="G41" s="3">
-        <v>2832100</v>
+        <v>2745000</v>
       </c>
       <c r="H41" s="3">
-        <v>3060500</v>
+        <v>2966400</v>
       </c>
       <c r="I41" s="3">
-        <v>2593200</v>
+        <v>2513500</v>
       </c>
       <c r="J41" s="3">
-        <v>2620500</v>
+        <v>2539900</v>
       </c>
       <c r="K41" s="3">
         <v>2674800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3631200</v>
+        <v>3519600</v>
       </c>
       <c r="E42" s="3">
-        <v>4202800</v>
+        <v>4073600</v>
       </c>
       <c r="F42" s="3">
-        <v>3528200</v>
+        <v>3419700</v>
       </c>
       <c r="G42" s="3">
-        <v>3277700</v>
+        <v>3176900</v>
       </c>
       <c r="H42" s="3">
-        <v>5224400</v>
+        <v>5063800</v>
       </c>
       <c r="I42" s="3">
-        <v>3998700</v>
+        <v>3875800</v>
       </c>
       <c r="J42" s="3">
-        <v>2006100</v>
+        <v>1944500</v>
       </c>
       <c r="K42" s="3">
         <v>1146400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1619900</v>
+        <v>1570100</v>
       </c>
       <c r="E43" s="3">
-        <v>1508800</v>
+        <v>1462400</v>
       </c>
       <c r="F43" s="3">
-        <v>1265000</v>
+        <v>1226100</v>
       </c>
       <c r="G43" s="3">
-        <v>1878800</v>
+        <v>1821000</v>
       </c>
       <c r="H43" s="3">
-        <v>1259600</v>
+        <v>1220900</v>
       </c>
       <c r="I43" s="3">
-        <v>1470000</v>
+        <v>1424800</v>
       </c>
       <c r="J43" s="3">
-        <v>810500</v>
+        <v>785600</v>
       </c>
       <c r="K43" s="3">
         <v>613200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1065300</v>
+        <v>1032500</v>
       </c>
       <c r="E45" s="3">
-        <v>868500</v>
+        <v>841800</v>
       </c>
       <c r="F45" s="3">
-        <v>880800</v>
+        <v>853700</v>
       </c>
       <c r="G45" s="3">
-        <v>1671300</v>
+        <v>1619900</v>
       </c>
       <c r="H45" s="3">
-        <v>1741300</v>
+        <v>1687800</v>
       </c>
       <c r="I45" s="3">
-        <v>1962900</v>
+        <v>1902600</v>
       </c>
       <c r="J45" s="3">
-        <v>1089200</v>
+        <v>1055700</v>
       </c>
       <c r="K45" s="3">
         <v>1217200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8733000</v>
+        <v>8464500</v>
       </c>
       <c r="E46" s="3">
-        <v>9397300</v>
+        <v>9108400</v>
       </c>
       <c r="F46" s="3">
-        <v>8246300</v>
+        <v>7992800</v>
       </c>
       <c r="G46" s="3">
-        <v>9659800</v>
+        <v>9362800</v>
       </c>
       <c r="H46" s="3">
-        <v>11285900</v>
+        <v>10938900</v>
       </c>
       <c r="I46" s="3">
-        <v>8446300</v>
+        <v>8186600</v>
       </c>
       <c r="J46" s="3">
-        <v>6526300</v>
+        <v>6325700</v>
       </c>
       <c r="K46" s="3">
         <v>5651600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7136200</v>
+        <v>6916800</v>
       </c>
       <c r="E47" s="3">
-        <v>6394800</v>
+        <v>6198200</v>
       </c>
       <c r="F47" s="3">
-        <v>6818700</v>
+        <v>6609000</v>
       </c>
       <c r="G47" s="3">
-        <v>7295700</v>
+        <v>7071400</v>
       </c>
       <c r="H47" s="3">
-        <v>3852700</v>
+        <v>3734300</v>
       </c>
       <c r="I47" s="3">
-        <v>7338100</v>
+        <v>7112500</v>
       </c>
       <c r="J47" s="3">
-        <v>3034700</v>
+        <v>2941400</v>
       </c>
       <c r="K47" s="3">
         <v>2087000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>856200</v>
+        <v>829800</v>
       </c>
       <c r="E48" s="3">
-        <v>897100</v>
+        <v>869500</v>
       </c>
       <c r="F48" s="3">
-        <v>961900</v>
+        <v>932400</v>
       </c>
       <c r="G48" s="3">
-        <v>1043700</v>
+        <v>1011600</v>
       </c>
       <c r="H48" s="3">
-        <v>834700</v>
+        <v>809000</v>
       </c>
       <c r="I48" s="3">
-        <v>1596600</v>
+        <v>1547500</v>
       </c>
       <c r="J48" s="3">
-        <v>794900</v>
+        <v>770500</v>
       </c>
       <c r="K48" s="3">
         <v>773400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10257800</v>
+        <v>9942500</v>
       </c>
       <c r="E49" s="3">
-        <v>10291500</v>
+        <v>9975100</v>
       </c>
       <c r="F49" s="3">
-        <v>10333900</v>
+        <v>10016200</v>
       </c>
       <c r="G49" s="3">
-        <v>10174000</v>
+        <v>9861200</v>
       </c>
       <c r="H49" s="3">
-        <v>10212500</v>
+        <v>9898500</v>
       </c>
       <c r="I49" s="3">
-        <v>11918300</v>
+        <v>11551900</v>
       </c>
       <c r="J49" s="3">
-        <v>9956100</v>
+        <v>9650000</v>
       </c>
       <c r="K49" s="3">
         <v>7906700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>265700</v>
+        <v>257500</v>
       </c>
       <c r="E52" s="3">
-        <v>292100</v>
+        <v>283100</v>
       </c>
       <c r="F52" s="3">
-        <v>256700</v>
+        <v>248800</v>
       </c>
       <c r="G52" s="3">
-        <v>280900</v>
+        <v>272300</v>
       </c>
       <c r="H52" s="3">
-        <v>230000</v>
+        <v>222900</v>
       </c>
       <c r="I52" s="3">
-        <v>185100</v>
+        <v>179400</v>
       </c>
       <c r="J52" s="3">
-        <v>216400</v>
+        <v>209800</v>
       </c>
       <c r="K52" s="3">
         <v>124200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27248900</v>
+        <v>26411200</v>
       </c>
       <c r="E54" s="3">
-        <v>27272800</v>
+        <v>26434300</v>
       </c>
       <c r="F54" s="3">
-        <v>26617400</v>
+        <v>25799200</v>
       </c>
       <c r="G54" s="3">
-        <v>28454000</v>
+        <v>27579300</v>
       </c>
       <c r="H54" s="3">
-        <v>26415700</v>
+        <v>25603700</v>
       </c>
       <c r="I54" s="3">
-        <v>23062400</v>
+        <v>22353400</v>
       </c>
       <c r="J54" s="3">
-        <v>20528400</v>
+        <v>19897300</v>
       </c>
       <c r="K54" s="3">
         <v>16542900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1075900</v>
+        <v>1042900</v>
       </c>
       <c r="E57" s="3">
-        <v>855600</v>
+        <v>829300</v>
       </c>
       <c r="F57" s="3">
-        <v>640500</v>
+        <v>620800</v>
       </c>
       <c r="G57" s="3">
-        <v>1747600</v>
+        <v>1693900</v>
       </c>
       <c r="H57" s="3">
-        <v>1665100</v>
+        <v>1614000</v>
       </c>
       <c r="I57" s="3">
-        <v>1060300</v>
+        <v>1027700</v>
       </c>
       <c r="J57" s="3">
-        <v>1034700</v>
+        <v>1002900</v>
       </c>
       <c r="K57" s="3">
         <v>827500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4644600</v>
+        <v>4501800</v>
       </c>
       <c r="E58" s="3">
-        <v>5667000</v>
+        <v>5492700</v>
       </c>
       <c r="F58" s="3">
-        <v>4785500</v>
+        <v>4638400</v>
       </c>
       <c r="G58" s="3">
-        <v>4337800</v>
+        <v>4204500</v>
       </c>
       <c r="H58" s="3">
-        <v>5119000</v>
+        <v>4961600</v>
       </c>
       <c r="I58" s="3">
-        <v>4638700</v>
+        <v>4496100</v>
       </c>
       <c r="J58" s="3">
-        <v>979000</v>
+        <v>948900</v>
       </c>
       <c r="K58" s="3">
         <v>1940900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2984600</v>
+        <v>2892800</v>
       </c>
       <c r="E59" s="3">
-        <v>2890300</v>
+        <v>2801500</v>
       </c>
       <c r="F59" s="3">
-        <v>2871100</v>
+        <v>2782900</v>
       </c>
       <c r="G59" s="3">
-        <v>3748800</v>
+        <v>3633500</v>
       </c>
       <c r="H59" s="3">
-        <v>2993500</v>
+        <v>2901500</v>
       </c>
       <c r="I59" s="3">
-        <v>3397700</v>
+        <v>3293200</v>
       </c>
       <c r="J59" s="3">
-        <v>2292700</v>
+        <v>2222200</v>
       </c>
       <c r="K59" s="3">
         <v>1917900</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8705100</v>
+        <v>8437500</v>
       </c>
       <c r="E60" s="3">
-        <v>9412900</v>
+        <v>9123500</v>
       </c>
       <c r="F60" s="3">
-        <v>8297200</v>
+        <v>8042100</v>
       </c>
       <c r="G60" s="3">
-        <v>9834200</v>
+        <v>9531900</v>
       </c>
       <c r="H60" s="3">
-        <v>9777600</v>
+        <v>9477100</v>
       </c>
       <c r="I60" s="3">
-        <v>5993300</v>
+        <v>5809100</v>
       </c>
       <c r="J60" s="3">
-        <v>4306400</v>
+        <v>4174000</v>
       </c>
       <c r="K60" s="3">
         <v>4686300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1873100</v>
+        <v>1815500</v>
       </c>
       <c r="E61" s="3">
-        <v>1576900</v>
+        <v>1528400</v>
       </c>
       <c r="F61" s="3">
-        <v>3229400</v>
+        <v>3130100</v>
       </c>
       <c r="G61" s="3">
-        <v>2777200</v>
+        <v>2691800</v>
       </c>
       <c r="H61" s="3">
-        <v>3432400</v>
+        <v>3326800</v>
       </c>
       <c r="I61" s="3">
-        <v>4153600</v>
+        <v>4025900</v>
       </c>
       <c r="J61" s="3">
-        <v>4925600</v>
+        <v>4774200</v>
       </c>
       <c r="K61" s="3">
         <v>2555000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>605000</v>
+        <v>586400</v>
       </c>
       <c r="E62" s="3">
-        <v>581700</v>
+        <v>563800</v>
       </c>
       <c r="F62" s="3">
-        <v>653200</v>
+        <v>633100</v>
       </c>
       <c r="G62" s="3">
-        <v>654600</v>
+        <v>634500</v>
       </c>
       <c r="H62" s="3">
-        <v>592300</v>
+        <v>574100</v>
       </c>
       <c r="I62" s="3">
-        <v>603100</v>
+        <v>584600</v>
       </c>
       <c r="J62" s="3">
-        <v>561100</v>
+        <v>543900</v>
       </c>
       <c r="K62" s="3">
         <v>436700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11287800</v>
+        <v>10940800</v>
       </c>
       <c r="E66" s="3">
-        <v>11682200</v>
+        <v>11323000</v>
       </c>
       <c r="F66" s="3">
-        <v>12352100</v>
+        <v>11972400</v>
       </c>
       <c r="G66" s="3">
-        <v>13749700</v>
+        <v>13327000</v>
       </c>
       <c r="H66" s="3">
-        <v>14089200</v>
+        <v>13656100</v>
       </c>
       <c r="I66" s="3">
-        <v>11003000</v>
+        <v>10664700</v>
       </c>
       <c r="J66" s="3">
-        <v>10359500</v>
+        <v>10041000</v>
       </c>
       <c r="K66" s="3">
         <v>10341400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2979500</v>
+        <v>2887900</v>
       </c>
       <c r="E72" s="3">
-        <v>2780000</v>
+        <v>2694600</v>
       </c>
       <c r="F72" s="3">
-        <v>2858200</v>
+        <v>2770300</v>
       </c>
       <c r="G72" s="3">
-        <v>3331700</v>
+        <v>3229300</v>
       </c>
       <c r="H72" s="3">
-        <v>2335100</v>
+        <v>2263300</v>
       </c>
       <c r="I72" s="3">
-        <v>2206300</v>
+        <v>2138500</v>
       </c>
       <c r="J72" s="3">
-        <v>986100</v>
+        <v>955800</v>
       </c>
       <c r="K72" s="3">
         <v>1164800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15961000</v>
+        <v>15470400</v>
       </c>
       <c r="E76" s="3">
-        <v>15590600</v>
+        <v>15111300</v>
       </c>
       <c r="F76" s="3">
-        <v>14265300</v>
+        <v>13826800</v>
       </c>
       <c r="G76" s="3">
-        <v>14704300</v>
+        <v>14252200</v>
       </c>
       <c r="H76" s="3">
-        <v>12326500</v>
+        <v>11947600</v>
       </c>
       <c r="I76" s="3">
-        <v>12059400</v>
+        <v>11688700</v>
       </c>
       <c r="J76" s="3">
-        <v>10169000</v>
+        <v>9856300</v>
       </c>
       <c r="K76" s="3">
         <v>6201500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>199400</v>
+        <v>193300</v>
       </c>
       <c r="E81" s="3">
-        <v>-78200</v>
+        <v>-75800</v>
       </c>
       <c r="F81" s="3">
-        <v>-461600</v>
+        <v>-447400</v>
       </c>
       <c r="G81" s="3">
-        <v>996600</v>
+        <v>966000</v>
       </c>
       <c r="H81" s="3">
-        <v>158100</v>
+        <v>153200</v>
       </c>
       <c r="I81" s="3">
-        <v>282700</v>
+        <v>274000</v>
       </c>
       <c r="J81" s="3">
-        <v>-203400</v>
+        <v>-197100</v>
       </c>
       <c r="K81" s="3">
         <v>349100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>124400</v>
+        <v>120600</v>
       </c>
       <c r="E83" s="3">
-        <v>145100</v>
+        <v>140700</v>
       </c>
       <c r="F83" s="3">
-        <v>173000</v>
+        <v>167700</v>
       </c>
       <c r="G83" s="3">
-        <v>155800</v>
+        <v>151000</v>
       </c>
       <c r="H83" s="3">
-        <v>139600</v>
+        <v>135300</v>
       </c>
       <c r="I83" s="3">
-        <v>125500</v>
+        <v>121700</v>
       </c>
       <c r="J83" s="3">
-        <v>102200</v>
+        <v>99000</v>
       </c>
       <c r="K83" s="3">
         <v>44000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>375400</v>
+        <v>363900</v>
       </c>
       <c r="E89" s="3">
-        <v>351800</v>
+        <v>341000</v>
       </c>
       <c r="F89" s="3">
-        <v>-543400</v>
+        <v>-526700</v>
       </c>
       <c r="G89" s="3">
-        <v>1042400</v>
+        <v>1010300</v>
       </c>
       <c r="H89" s="3">
-        <v>1011400</v>
+        <v>980300</v>
       </c>
       <c r="I89" s="3">
-        <v>1004800</v>
+        <v>973900</v>
       </c>
       <c r="J89" s="3">
-        <v>749500</v>
+        <v>726500</v>
       </c>
       <c r="K89" s="3">
         <v>424400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70600</v>
+        <v>-68500</v>
       </c>
       <c r="E91" s="3">
-        <v>-81000</v>
+        <v>-78500</v>
       </c>
       <c r="F91" s="3">
-        <v>-75600</v>
+        <v>-73300</v>
       </c>
       <c r="G91" s="3">
-        <v>-117000</v>
+        <v>-113400</v>
       </c>
       <c r="H91" s="3">
-        <v>-95700</v>
+        <v>-92700</v>
       </c>
       <c r="I91" s="3">
-        <v>-67000</v>
+        <v>-64900</v>
       </c>
       <c r="J91" s="3">
-        <v>-97100</v>
+        <v>-94100</v>
       </c>
       <c r="K91" s="3">
         <v>-88800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>161500</v>
+        <v>156500</v>
       </c>
       <c r="E94" s="3">
-        <v>-589600</v>
+        <v>-571500</v>
       </c>
       <c r="F94" s="3">
-        <v>-543200</v>
+        <v>-526500</v>
       </c>
       <c r="G94" s="3">
-        <v>-343000</v>
+        <v>-332500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2001200</v>
+        <v>-1939700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2165300</v>
+        <v>-2098700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2818200</v>
+        <v>-2731600</v>
       </c>
       <c r="K94" s="3">
         <v>-616200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-954800</v>
+        <v>-925500</v>
       </c>
       <c r="E100" s="3">
-        <v>557100</v>
+        <v>540000</v>
       </c>
       <c r="F100" s="3">
-        <v>856500</v>
+        <v>830100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1315700</v>
+        <v>-1275300</v>
       </c>
       <c r="H100" s="3">
-        <v>1695300</v>
+        <v>1643200</v>
       </c>
       <c r="I100" s="3">
-        <v>1139900</v>
+        <v>1104900</v>
       </c>
       <c r="J100" s="3">
-        <v>1747000</v>
+        <v>1693300</v>
       </c>
       <c r="K100" s="3">
         <v>2120500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="E101" s="3">
-        <v>-66100</v>
+        <v>-64100</v>
       </c>
       <c r="F101" s="3">
-        <v>-101400</v>
+        <v>-98200</v>
       </c>
       <c r="G101" s="3">
-        <v>43900</v>
+        <v>42600</v>
       </c>
       <c r="H101" s="3">
-        <v>116400</v>
+        <v>112800</v>
       </c>
       <c r="I101" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="J101" s="3">
-        <v>210700</v>
+        <v>204200</v>
       </c>
       <c r="K101" s="3">
         <v>8200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-385100</v>
+        <v>-373200</v>
       </c>
       <c r="E102" s="3">
-        <v>253200</v>
+        <v>245400</v>
       </c>
       <c r="F102" s="3">
-        <v>-331500</v>
+        <v>-321300</v>
       </c>
       <c r="G102" s="3">
-        <v>-572400</v>
+        <v>-554800</v>
       </c>
       <c r="H102" s="3">
-        <v>821900</v>
+        <v>796600</v>
       </c>
       <c r="I102" s="3">
-        <v>-27200</v>
+        <v>-26400</v>
       </c>
       <c r="J102" s="3">
-        <v>-111000</v>
+        <v>-107600</v>
       </c>
       <c r="K102" s="3">
         <v>1936900</v>

--- a/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCOM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2761000</v>
+        <v>2767000</v>
       </c>
       <c r="E8" s="3">
-        <v>2758800</v>
+        <v>2764800</v>
       </c>
       <c r="F8" s="3">
-        <v>2523600</v>
+        <v>2529100</v>
       </c>
       <c r="G8" s="3">
-        <v>4914100</v>
+        <v>4924800</v>
       </c>
       <c r="H8" s="3">
-        <v>4266400</v>
+        <v>4275600</v>
       </c>
       <c r="I8" s="3">
-        <v>3661300</v>
+        <v>3669300</v>
       </c>
       <c r="J8" s="3">
-        <v>2649300</v>
+        <v>2655100</v>
       </c>
       <c r="K8" s="3">
         <v>1516900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>621800</v>
+        <v>623200</v>
       </c>
       <c r="E9" s="3">
-        <v>633500</v>
+        <v>634900</v>
       </c>
       <c r="F9" s="3">
-        <v>555400</v>
+        <v>556600</v>
       </c>
       <c r="G9" s="3">
-        <v>1015700</v>
+        <v>1017900</v>
       </c>
       <c r="H9" s="3">
-        <v>871300</v>
+        <v>873200</v>
       </c>
       <c r="I9" s="3">
-        <v>644500</v>
+        <v>645900</v>
       </c>
       <c r="J9" s="3">
-        <v>651700</v>
+        <v>653100</v>
       </c>
       <c r="K9" s="3">
         <v>423600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2139200</v>
+        <v>2143800</v>
       </c>
       <c r="E10" s="3">
-        <v>2125300</v>
+        <v>2129900</v>
       </c>
       <c r="F10" s="3">
-        <v>1968200</v>
+        <v>1972500</v>
       </c>
       <c r="G10" s="3">
-        <v>3898300</v>
+        <v>3906800</v>
       </c>
       <c r="H10" s="3">
-        <v>3395000</v>
+        <v>3402400</v>
       </c>
       <c r="I10" s="3">
-        <v>3016800</v>
+        <v>3023300</v>
       </c>
       <c r="J10" s="3">
-        <v>1997600</v>
+        <v>2002000</v>
       </c>
       <c r="K10" s="3">
         <v>1093300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1149200</v>
+        <v>1151700</v>
       </c>
       <c r="E12" s="3">
-        <v>1238900</v>
+        <v>1241600</v>
       </c>
       <c r="F12" s="3">
-        <v>1056400</v>
+        <v>1058700</v>
       </c>
       <c r="G12" s="3">
-        <v>1470100</v>
+        <v>1473300</v>
       </c>
       <c r="H12" s="3">
-        <v>1325400</v>
+        <v>1328300</v>
       </c>
       <c r="I12" s="3">
-        <v>1137900</v>
+        <v>1140400</v>
       </c>
       <c r="J12" s="3">
-        <v>1059200</v>
+        <v>1061500</v>
       </c>
       <c r="K12" s="3">
         <v>458900</v>
@@ -935,22 +935,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>130800</v>
+        <v>131000</v>
       </c>
       <c r="E14" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="F14" s="3">
-        <v>124700</v>
+        <v>125000</v>
       </c>
       <c r="G14" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="H14" s="3">
         <v>8700</v>
       </c>
       <c r="I14" s="3">
-        <v>188300</v>
+        <v>188800</v>
       </c>
       <c r="J14" s="3">
         <v>6600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2879600</v>
+        <v>2885900</v>
       </c>
       <c r="E17" s="3">
-        <v>2966400</v>
+        <v>2972900</v>
       </c>
       <c r="F17" s="3">
-        <v>2844300</v>
+        <v>2850500</v>
       </c>
       <c r="G17" s="3">
-        <v>4247900</v>
+        <v>4257100</v>
       </c>
       <c r="H17" s="3">
-        <v>3916100</v>
+        <v>3924600</v>
       </c>
       <c r="I17" s="3">
-        <v>3286300</v>
+        <v>3293500</v>
       </c>
       <c r="J17" s="3">
-        <v>2872000</v>
+        <v>2878300</v>
       </c>
       <c r="K17" s="3">
         <v>1463900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-118600</v>
+        <v>-118900</v>
       </c>
       <c r="E18" s="3">
-        <v>-207600</v>
+        <v>-208100</v>
       </c>
       <c r="F18" s="3">
-        <v>-320800</v>
+        <v>-321500</v>
       </c>
       <c r="G18" s="3">
-        <v>666200</v>
+        <v>667600</v>
       </c>
       <c r="H18" s="3">
-        <v>350200</v>
+        <v>351000</v>
       </c>
       <c r="I18" s="3">
-        <v>375000</v>
+        <v>375800</v>
       </c>
       <c r="J18" s="3">
-        <v>-222700</v>
+        <v>-223200</v>
       </c>
       <c r="K18" s="3">
         <v>53000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>690300</v>
+        <v>691800</v>
       </c>
       <c r="E20" s="3">
-        <v>358400</v>
+        <v>359100</v>
       </c>
       <c r="F20" s="3">
-        <v>388400</v>
+        <v>389200</v>
       </c>
       <c r="G20" s="3">
-        <v>816900</v>
+        <v>818700</v>
       </c>
       <c r="H20" s="3">
-        <v>122200</v>
+        <v>122500</v>
       </c>
       <c r="I20" s="3">
-        <v>257200</v>
+        <v>257700</v>
       </c>
       <c r="J20" s="3">
-        <v>81100</v>
+        <v>81200</v>
       </c>
       <c r="K20" s="3">
         <v>407400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>692200</v>
+        <v>693600</v>
       </c>
       <c r="E21" s="3">
-        <v>291400</v>
+        <v>292000</v>
       </c>
       <c r="F21" s="3">
-        <v>235300</v>
+        <v>235700</v>
       </c>
       <c r="G21" s="3">
-        <v>1634100</v>
+        <v>1637500</v>
       </c>
       <c r="H21" s="3">
-        <v>607700</v>
+        <v>609000</v>
       </c>
       <c r="I21" s="3">
-        <v>753800</v>
+        <v>755400</v>
       </c>
       <c r="J21" s="3">
-        <v>-42600</v>
+        <v>-42800</v>
       </c>
       <c r="K21" s="3">
         <v>504100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>208600</v>
+        <v>209100</v>
       </c>
       <c r="E22" s="3">
-        <v>215600</v>
+        <v>216100</v>
       </c>
       <c r="F22" s="3">
-        <v>236400</v>
+        <v>236900</v>
       </c>
       <c r="G22" s="3">
-        <v>231100</v>
+        <v>231600</v>
       </c>
       <c r="H22" s="3">
-        <v>207800</v>
+        <v>208200</v>
       </c>
       <c r="I22" s="3">
-        <v>177300</v>
+        <v>177600</v>
       </c>
       <c r="J22" s="3">
-        <v>100800</v>
+        <v>101100</v>
       </c>
       <c r="K22" s="3">
         <v>42100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>363100</v>
+        <v>363800</v>
       </c>
       <c r="E23" s="3">
-        <v>-64900</v>
+        <v>-65000</v>
       </c>
       <c r="F23" s="3">
-        <v>-168800</v>
+        <v>-169100</v>
       </c>
       <c r="G23" s="3">
-        <v>1252000</v>
+        <v>1254700</v>
       </c>
       <c r="H23" s="3">
-        <v>264700</v>
+        <v>265300</v>
       </c>
       <c r="I23" s="3">
-        <v>454900</v>
+        <v>455900</v>
       </c>
       <c r="J23" s="3">
-        <v>-242500</v>
+        <v>-243000</v>
       </c>
       <c r="K23" s="3">
         <v>418300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>94000</v>
+        <v>94200</v>
       </c>
       <c r="E24" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="F24" s="3">
-        <v>48900</v>
+        <v>49000</v>
       </c>
       <c r="G24" s="3">
-        <v>240000</v>
+        <v>240500</v>
       </c>
       <c r="H24" s="3">
-        <v>109300</v>
+        <v>109500</v>
       </c>
       <c r="I24" s="3">
-        <v>169300</v>
+        <v>169700</v>
       </c>
       <c r="J24" s="3">
-        <v>65900</v>
+        <v>66000</v>
       </c>
       <c r="K24" s="3">
         <v>65500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>269100</v>
+        <v>269700</v>
       </c>
       <c r="E26" s="3">
-        <v>-102100</v>
+        <v>-102300</v>
       </c>
       <c r="F26" s="3">
-        <v>-217700</v>
+        <v>-218200</v>
       </c>
       <c r="G26" s="3">
-        <v>1012000</v>
+        <v>1014200</v>
       </c>
       <c r="H26" s="3">
-        <v>155400</v>
+        <v>155800</v>
       </c>
       <c r="I26" s="3">
-        <v>285500</v>
+        <v>286100</v>
       </c>
       <c r="J26" s="3">
-        <v>-308400</v>
+        <v>-309000</v>
       </c>
       <c r="K26" s="3">
         <v>352900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>193300</v>
+        <v>193700</v>
       </c>
       <c r="E27" s="3">
-        <v>-75800</v>
+        <v>-75900</v>
       </c>
       <c r="F27" s="3">
-        <v>-447400</v>
+        <v>-448300</v>
       </c>
       <c r="G27" s="3">
-        <v>966000</v>
+        <v>968100</v>
       </c>
       <c r="H27" s="3">
-        <v>153200</v>
+        <v>153500</v>
       </c>
       <c r="I27" s="3">
-        <v>274000</v>
+        <v>274600</v>
       </c>
       <c r="J27" s="3">
-        <v>-197100</v>
+        <v>-197600</v>
       </c>
       <c r="K27" s="3">
         <v>349100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-690300</v>
+        <v>-691800</v>
       </c>
       <c r="E32" s="3">
-        <v>-358400</v>
+        <v>-359100</v>
       </c>
       <c r="F32" s="3">
-        <v>-388400</v>
+        <v>-389200</v>
       </c>
       <c r="G32" s="3">
-        <v>-816900</v>
+        <v>-818700</v>
       </c>
       <c r="H32" s="3">
-        <v>-122200</v>
+        <v>-122500</v>
       </c>
       <c r="I32" s="3">
-        <v>-257200</v>
+        <v>-257700</v>
       </c>
       <c r="J32" s="3">
-        <v>-81100</v>
+        <v>-81200</v>
       </c>
       <c r="K32" s="3">
         <v>-407400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>193300</v>
+        <v>193700</v>
       </c>
       <c r="E33" s="3">
-        <v>-75800</v>
+        <v>-75900</v>
       </c>
       <c r="F33" s="3">
-        <v>-447400</v>
+        <v>-448300</v>
       </c>
       <c r="G33" s="3">
-        <v>966000</v>
+        <v>968100</v>
       </c>
       <c r="H33" s="3">
-        <v>153200</v>
+        <v>153500</v>
       </c>
       <c r="I33" s="3">
-        <v>274000</v>
+        <v>274600</v>
       </c>
       <c r="J33" s="3">
-        <v>-197100</v>
+        <v>-197600</v>
       </c>
       <c r="K33" s="3">
         <v>349100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>193300</v>
+        <v>193700</v>
       </c>
       <c r="E35" s="3">
-        <v>-75800</v>
+        <v>-75900</v>
       </c>
       <c r="F35" s="3">
-        <v>-447400</v>
+        <v>-448300</v>
       </c>
       <c r="G35" s="3">
-        <v>966000</v>
+        <v>968100</v>
       </c>
       <c r="H35" s="3">
-        <v>153200</v>
+        <v>153500</v>
       </c>
       <c r="I35" s="3">
-        <v>274000</v>
+        <v>274600</v>
       </c>
       <c r="J35" s="3">
-        <v>-197100</v>
+        <v>-197600</v>
       </c>
       <c r="K35" s="3">
         <v>349100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2342300</v>
+        <v>2347400</v>
       </c>
       <c r="E41" s="3">
-        <v>2730500</v>
+        <v>2736500</v>
       </c>
       <c r="F41" s="3">
-        <v>2493300</v>
+        <v>2498700</v>
       </c>
       <c r="G41" s="3">
-        <v>2745000</v>
+        <v>2751000</v>
       </c>
       <c r="H41" s="3">
-        <v>2966400</v>
+        <v>2972900</v>
       </c>
       <c r="I41" s="3">
-        <v>2513500</v>
+        <v>2519000</v>
       </c>
       <c r="J41" s="3">
-        <v>2539900</v>
+        <v>2545500</v>
       </c>
       <c r="K41" s="3">
         <v>2674800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3519600</v>
+        <v>3527300</v>
       </c>
       <c r="E42" s="3">
-        <v>4073600</v>
+        <v>4082500</v>
       </c>
       <c r="F42" s="3">
-        <v>3419700</v>
+        <v>3427100</v>
       </c>
       <c r="G42" s="3">
-        <v>3176900</v>
+        <v>3183800</v>
       </c>
       <c r="H42" s="3">
-        <v>5063800</v>
+        <v>5074900</v>
       </c>
       <c r="I42" s="3">
-        <v>3875800</v>
+        <v>3884200</v>
       </c>
       <c r="J42" s="3">
-        <v>1944500</v>
+        <v>1948700</v>
       </c>
       <c r="K42" s="3">
         <v>1146400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1570100</v>
+        <v>1573600</v>
       </c>
       <c r="E43" s="3">
-        <v>1462400</v>
+        <v>1465600</v>
       </c>
       <c r="F43" s="3">
-        <v>1226100</v>
+        <v>1228800</v>
       </c>
       <c r="G43" s="3">
-        <v>1821000</v>
+        <v>1825000</v>
       </c>
       <c r="H43" s="3">
-        <v>1220900</v>
+        <v>1223500</v>
       </c>
       <c r="I43" s="3">
-        <v>1424800</v>
+        <v>1427900</v>
       </c>
       <c r="J43" s="3">
-        <v>785600</v>
+        <v>787300</v>
       </c>
       <c r="K43" s="3">
         <v>613200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1032500</v>
+        <v>1034800</v>
       </c>
       <c r="E45" s="3">
-        <v>841800</v>
+        <v>843700</v>
       </c>
       <c r="F45" s="3">
-        <v>853700</v>
+        <v>855500</v>
       </c>
       <c r="G45" s="3">
-        <v>1619900</v>
+        <v>1623400</v>
       </c>
       <c r="H45" s="3">
-        <v>1687800</v>
+        <v>1691500</v>
       </c>
       <c r="I45" s="3">
-        <v>1902600</v>
+        <v>1906700</v>
       </c>
       <c r="J45" s="3">
-        <v>1055700</v>
+        <v>1058000</v>
       </c>
       <c r="K45" s="3">
         <v>1217200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8464500</v>
+        <v>8482900</v>
       </c>
       <c r="E46" s="3">
-        <v>9108400</v>
+        <v>9128200</v>
       </c>
       <c r="F46" s="3">
-        <v>7992800</v>
+        <v>8010200</v>
       </c>
       <c r="G46" s="3">
-        <v>9362800</v>
+        <v>9383200</v>
       </c>
       <c r="H46" s="3">
-        <v>10938900</v>
+        <v>10962700</v>
       </c>
       <c r="I46" s="3">
-        <v>8186600</v>
+        <v>8204400</v>
       </c>
       <c r="J46" s="3">
-        <v>6325700</v>
+        <v>6339500</v>
       </c>
       <c r="K46" s="3">
         <v>5651600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6916800</v>
+        <v>6931900</v>
       </c>
       <c r="E47" s="3">
-        <v>6198200</v>
+        <v>6211700</v>
       </c>
       <c r="F47" s="3">
-        <v>6609000</v>
+        <v>6623400</v>
       </c>
       <c r="G47" s="3">
-        <v>7071400</v>
+        <v>7086800</v>
       </c>
       <c r="H47" s="3">
-        <v>3734300</v>
+        <v>3742400</v>
       </c>
       <c r="I47" s="3">
-        <v>7112500</v>
+        <v>7128000</v>
       </c>
       <c r="J47" s="3">
-        <v>2941400</v>
+        <v>2947800</v>
       </c>
       <c r="K47" s="3">
         <v>2087000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>829800</v>
+        <v>831700</v>
       </c>
       <c r="E48" s="3">
-        <v>869500</v>
+        <v>871400</v>
       </c>
       <c r="F48" s="3">
-        <v>932400</v>
+        <v>934400</v>
       </c>
       <c r="G48" s="3">
-        <v>1011600</v>
+        <v>1013800</v>
       </c>
       <c r="H48" s="3">
-        <v>809000</v>
+        <v>810800</v>
       </c>
       <c r="I48" s="3">
-        <v>1547500</v>
+        <v>1550800</v>
       </c>
       <c r="J48" s="3">
-        <v>770500</v>
+        <v>772100</v>
       </c>
       <c r="K48" s="3">
         <v>773400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9942500</v>
+        <v>9964100</v>
       </c>
       <c r="E49" s="3">
-        <v>9975100</v>
+        <v>9996900</v>
       </c>
       <c r="F49" s="3">
-        <v>10016200</v>
+        <v>10038000</v>
       </c>
       <c r="G49" s="3">
-        <v>9861200</v>
+        <v>9882700</v>
       </c>
       <c r="H49" s="3">
-        <v>9898500</v>
+        <v>9920100</v>
       </c>
       <c r="I49" s="3">
-        <v>11551900</v>
+        <v>11577100</v>
       </c>
       <c r="J49" s="3">
-        <v>9650000</v>
+        <v>9671100</v>
       </c>
       <c r="K49" s="3">
         <v>7906700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>257500</v>
+        <v>258100</v>
       </c>
       <c r="E52" s="3">
-        <v>283100</v>
+        <v>283800</v>
       </c>
       <c r="F52" s="3">
-        <v>248800</v>
+        <v>249400</v>
       </c>
       <c r="G52" s="3">
-        <v>272300</v>
+        <v>272800</v>
       </c>
       <c r="H52" s="3">
-        <v>222900</v>
+        <v>223400</v>
       </c>
       <c r="I52" s="3">
-        <v>179400</v>
+        <v>179800</v>
       </c>
       <c r="J52" s="3">
-        <v>209800</v>
+        <v>210200</v>
       </c>
       <c r="K52" s="3">
         <v>124200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26411200</v>
+        <v>26468700</v>
       </c>
       <c r="E54" s="3">
-        <v>26434300</v>
+        <v>26491900</v>
       </c>
       <c r="F54" s="3">
-        <v>25799200</v>
+        <v>25855300</v>
       </c>
       <c r="G54" s="3">
-        <v>27579300</v>
+        <v>27639300</v>
       </c>
       <c r="H54" s="3">
-        <v>25603700</v>
+        <v>25659400</v>
       </c>
       <c r="I54" s="3">
-        <v>22353400</v>
+        <v>22402100</v>
       </c>
       <c r="J54" s="3">
-        <v>19897300</v>
+        <v>19940700</v>
       </c>
       <c r="K54" s="3">
         <v>16542900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1042900</v>
+        <v>1045100</v>
       </c>
       <c r="E57" s="3">
-        <v>829300</v>
+        <v>831100</v>
       </c>
       <c r="F57" s="3">
-        <v>620800</v>
+        <v>622200</v>
       </c>
       <c r="G57" s="3">
-        <v>1693900</v>
+        <v>1697600</v>
       </c>
       <c r="H57" s="3">
-        <v>1614000</v>
+        <v>1617500</v>
       </c>
       <c r="I57" s="3">
-        <v>1027700</v>
+        <v>1029900</v>
       </c>
       <c r="J57" s="3">
-        <v>1002900</v>
+        <v>1005100</v>
       </c>
       <c r="K57" s="3">
         <v>827500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4501800</v>
+        <v>4511600</v>
       </c>
       <c r="E58" s="3">
-        <v>5492700</v>
+        <v>5504700</v>
       </c>
       <c r="F58" s="3">
-        <v>4638400</v>
+        <v>4648500</v>
       </c>
       <c r="G58" s="3">
-        <v>4204500</v>
+        <v>4213600</v>
       </c>
       <c r="H58" s="3">
-        <v>4961600</v>
+        <v>4972400</v>
       </c>
       <c r="I58" s="3">
-        <v>4496100</v>
+        <v>4505900</v>
       </c>
       <c r="J58" s="3">
-        <v>948900</v>
+        <v>951000</v>
       </c>
       <c r="K58" s="3">
         <v>1940900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2892800</v>
+        <v>2899100</v>
       </c>
       <c r="E59" s="3">
-        <v>2801500</v>
+        <v>2807600</v>
       </c>
       <c r="F59" s="3">
-        <v>2782900</v>
+        <v>2788900</v>
       </c>
       <c r="G59" s="3">
-        <v>3633500</v>
+        <v>3641400</v>
       </c>
       <c r="H59" s="3">
-        <v>2901500</v>
+        <v>2907800</v>
       </c>
       <c r="I59" s="3">
-        <v>3293200</v>
+        <v>3300400</v>
       </c>
       <c r="J59" s="3">
-        <v>2222200</v>
+        <v>2227100</v>
       </c>
       <c r="K59" s="3">
         <v>1917900</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8437500</v>
+        <v>8455900</v>
       </c>
       <c r="E60" s="3">
-        <v>9123500</v>
+        <v>9143400</v>
       </c>
       <c r="F60" s="3">
-        <v>8042100</v>
+        <v>8059600</v>
       </c>
       <c r="G60" s="3">
-        <v>9531900</v>
+        <v>9552700</v>
       </c>
       <c r="H60" s="3">
-        <v>9477100</v>
+        <v>9497700</v>
       </c>
       <c r="I60" s="3">
-        <v>5809100</v>
+        <v>5821700</v>
       </c>
       <c r="J60" s="3">
-        <v>4174000</v>
+        <v>4183100</v>
       </c>
       <c r="K60" s="3">
         <v>4686300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1815500</v>
+        <v>1819500</v>
       </c>
       <c r="E61" s="3">
-        <v>1528400</v>
+        <v>1531700</v>
       </c>
       <c r="F61" s="3">
-        <v>3130100</v>
+        <v>3136900</v>
       </c>
       <c r="G61" s="3">
-        <v>2691800</v>
+        <v>2697700</v>
       </c>
       <c r="H61" s="3">
-        <v>3326800</v>
+        <v>3334100</v>
       </c>
       <c r="I61" s="3">
-        <v>4025900</v>
+        <v>4034700</v>
       </c>
       <c r="J61" s="3">
-        <v>4774200</v>
+        <v>4784600</v>
       </c>
       <c r="K61" s="3">
         <v>2555000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>586400</v>
+        <v>587700</v>
       </c>
       <c r="E62" s="3">
-        <v>563800</v>
+        <v>565000</v>
       </c>
       <c r="F62" s="3">
-        <v>633100</v>
+        <v>634500</v>
       </c>
       <c r="G62" s="3">
-        <v>634500</v>
+        <v>635900</v>
       </c>
       <c r="H62" s="3">
-        <v>574100</v>
+        <v>575400</v>
       </c>
       <c r="I62" s="3">
-        <v>584600</v>
+        <v>585900</v>
       </c>
       <c r="J62" s="3">
-        <v>543900</v>
+        <v>545100</v>
       </c>
       <c r="K62" s="3">
         <v>436700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10940800</v>
+        <v>10964700</v>
       </c>
       <c r="E66" s="3">
-        <v>11323000</v>
+        <v>11347700</v>
       </c>
       <c r="F66" s="3">
-        <v>11972400</v>
+        <v>11998500</v>
       </c>
       <c r="G66" s="3">
-        <v>13327000</v>
+        <v>13356100</v>
       </c>
       <c r="H66" s="3">
-        <v>13656100</v>
+        <v>13685800</v>
       </c>
       <c r="I66" s="3">
-        <v>10664700</v>
+        <v>10687900</v>
       </c>
       <c r="J66" s="3">
-        <v>10041000</v>
+        <v>10062900</v>
       </c>
       <c r="K66" s="3">
         <v>10341400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2887900</v>
+        <v>2894200</v>
       </c>
       <c r="E72" s="3">
-        <v>2694600</v>
+        <v>2700400</v>
       </c>
       <c r="F72" s="3">
-        <v>2770300</v>
+        <v>2776400</v>
       </c>
       <c r="G72" s="3">
-        <v>3229300</v>
+        <v>3236300</v>
       </c>
       <c r="H72" s="3">
-        <v>2263300</v>
+        <v>2268200</v>
       </c>
       <c r="I72" s="3">
-        <v>2138500</v>
+        <v>2143100</v>
       </c>
       <c r="J72" s="3">
-        <v>955800</v>
+        <v>957900</v>
       </c>
       <c r="K72" s="3">
         <v>1164800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15470400</v>
+        <v>15504000</v>
       </c>
       <c r="E76" s="3">
-        <v>15111300</v>
+        <v>15144200</v>
       </c>
       <c r="F76" s="3">
-        <v>13826800</v>
+        <v>13856900</v>
       </c>
       <c r="G76" s="3">
-        <v>14252200</v>
+        <v>14283300</v>
       </c>
       <c r="H76" s="3">
-        <v>11947600</v>
+        <v>11973600</v>
       </c>
       <c r="I76" s="3">
-        <v>11688700</v>
+        <v>11714200</v>
       </c>
       <c r="J76" s="3">
-        <v>9856300</v>
+        <v>9877800</v>
       </c>
       <c r="K76" s="3">
         <v>6201500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>193300</v>
+        <v>193700</v>
       </c>
       <c r="E81" s="3">
-        <v>-75800</v>
+        <v>-75900</v>
       </c>
       <c r="F81" s="3">
-        <v>-447400</v>
+        <v>-448300</v>
       </c>
       <c r="G81" s="3">
-        <v>966000</v>
+        <v>968100</v>
       </c>
       <c r="H81" s="3">
-        <v>153200</v>
+        <v>153500</v>
       </c>
       <c r="I81" s="3">
-        <v>274000</v>
+        <v>274600</v>
       </c>
       <c r="J81" s="3">
-        <v>-197100</v>
+        <v>-197600</v>
       </c>
       <c r="K81" s="3">
         <v>349100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>120600</v>
+        <v>120800</v>
       </c>
       <c r="E83" s="3">
-        <v>140700</v>
+        <v>141000</v>
       </c>
       <c r="F83" s="3">
-        <v>167700</v>
+        <v>168000</v>
       </c>
       <c r="G83" s="3">
-        <v>151000</v>
+        <v>151300</v>
       </c>
       <c r="H83" s="3">
-        <v>135300</v>
+        <v>135600</v>
       </c>
       <c r="I83" s="3">
-        <v>121700</v>
+        <v>122000</v>
       </c>
       <c r="J83" s="3">
-        <v>99000</v>
+        <v>99300</v>
       </c>
       <c r="K83" s="3">
         <v>44000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>363900</v>
+        <v>364700</v>
       </c>
       <c r="E89" s="3">
-        <v>341000</v>
+        <v>341700</v>
       </c>
       <c r="F89" s="3">
-        <v>-526700</v>
+        <v>-527900</v>
       </c>
       <c r="G89" s="3">
-        <v>1010300</v>
+        <v>1012500</v>
       </c>
       <c r="H89" s="3">
-        <v>980300</v>
+        <v>982400</v>
       </c>
       <c r="I89" s="3">
-        <v>973900</v>
+        <v>976100</v>
       </c>
       <c r="J89" s="3">
-        <v>726500</v>
+        <v>728100</v>
       </c>
       <c r="K89" s="3">
         <v>424400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-68500</v>
+        <v>-68600</v>
       </c>
       <c r="E91" s="3">
-        <v>-78500</v>
+        <v>-78700</v>
       </c>
       <c r="F91" s="3">
-        <v>-73300</v>
+        <v>-73500</v>
       </c>
       <c r="G91" s="3">
-        <v>-113400</v>
+        <v>-113600</v>
       </c>
       <c r="H91" s="3">
-        <v>-92700</v>
+        <v>-92900</v>
       </c>
       <c r="I91" s="3">
-        <v>-64900</v>
+        <v>-65100</v>
       </c>
       <c r="J91" s="3">
-        <v>-94100</v>
+        <v>-94300</v>
       </c>
       <c r="K91" s="3">
         <v>-88800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>156500</v>
+        <v>156900</v>
       </c>
       <c r="E94" s="3">
-        <v>-571500</v>
+        <v>-572800</v>
       </c>
       <c r="F94" s="3">
-        <v>-526500</v>
+        <v>-527600</v>
       </c>
       <c r="G94" s="3">
-        <v>-332500</v>
+        <v>-333200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1939700</v>
+        <v>-1943900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2098700</v>
+        <v>-2103300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2731600</v>
+        <v>-2737500</v>
       </c>
       <c r="K94" s="3">
         <v>-616200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-925500</v>
+        <v>-927500</v>
       </c>
       <c r="E100" s="3">
-        <v>540000</v>
+        <v>541100</v>
       </c>
       <c r="F100" s="3">
-        <v>830100</v>
+        <v>831900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1275300</v>
+        <v>-1278100</v>
       </c>
       <c r="H100" s="3">
-        <v>1643200</v>
+        <v>1646700</v>
       </c>
       <c r="I100" s="3">
-        <v>1104900</v>
+        <v>1107300</v>
       </c>
       <c r="J100" s="3">
-        <v>1693300</v>
+        <v>1697000</v>
       </c>
       <c r="K100" s="3">
         <v>2120500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="E101" s="3">
-        <v>-64100</v>
+        <v>-64200</v>
       </c>
       <c r="F101" s="3">
-        <v>-98200</v>
+        <v>-98500</v>
       </c>
       <c r="G101" s="3">
-        <v>42600</v>
+        <v>42700</v>
       </c>
       <c r="H101" s="3">
-        <v>112800</v>
+        <v>113100</v>
       </c>
       <c r="I101" s="3">
         <v>-6500</v>
       </c>
       <c r="J101" s="3">
-        <v>204200</v>
+        <v>204600</v>
       </c>
       <c r="K101" s="3">
         <v>8200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-373200</v>
+        <v>-374100</v>
       </c>
       <c r="E102" s="3">
-        <v>245400</v>
+        <v>245900</v>
       </c>
       <c r="F102" s="3">
-        <v>-321300</v>
+        <v>-322000</v>
       </c>
       <c r="G102" s="3">
-        <v>-554800</v>
+        <v>-556000</v>
       </c>
       <c r="H102" s="3">
-        <v>796600</v>
+        <v>798400</v>
       </c>
       <c r="I102" s="3">
-        <v>-26400</v>
+        <v>-26500</v>
       </c>
       <c r="J102" s="3">
-        <v>-107600</v>
+        <v>-107800</v>
       </c>
       <c r="K102" s="3">
         <v>1936900</v>
